--- a/data/human/adult/validation/SystemValidationData.xlsx
+++ b/data/human/adult/validation/SystemValidationData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse_3x\source\data\human\adult\validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42F30A0-C2A5-4A90-9CCA-E6711FBD4D26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E394B3D-C528-4415-B341-AFC24C64974A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="3495" windowWidth="29955" windowHeight="23535" tabRatio="724" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" tabRatio="724" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blood Chemistry" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3924" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3921" uniqueCount="1069">
   <si>
     <t>Output</t>
   </si>
@@ -2798,16 +2798,7 @@
     <t>IntracranialPressure</t>
   </si>
   <si>
-    <t>50-65 mL per 100g per min, assuming an average 1450g/male and 1300g/female brain mass</t>
-  </si>
-  <si>
-    <t>[725,942.5]</t>
-  </si>
-  <si>
     <t>steiner2006monitoring</t>
-  </si>
-  <si>
-    <t>p787</t>
   </si>
   <si>
     <t>Assumes supine adult</t>
@@ -5066,7 +5057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L326"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A37" sqref="A37"/>
     </sheetView>
@@ -5152,7 +5143,7 @@
       </c>
       <c r="K2" s="56"/>
       <c r="L2" s="56" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="24">
@@ -5180,7 +5171,7 @@
       </c>
       <c r="K3" s="56"/>
       <c r="L3" s="56" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5208,7 +5199,7 @@
       </c>
       <c r="K4" s="56"/>
       <c r="L4" s="56" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="24">
@@ -5240,7 +5231,7 @@
       </c>
       <c r="K5" s="56"/>
       <c r="L5" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5266,12 +5257,12 @@
       </c>
       <c r="K6" s="56"/>
       <c r="L6" s="56" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="120" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B7" s="146"/>
       <c r="C7" s="146" t="s">
@@ -5283,7 +5274,7 @@
       <c r="E7" s="146"/>
       <c r="F7" s="146"/>
       <c r="G7" s="146" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="54"/>
@@ -5320,7 +5311,7 @@
       </c>
       <c r="K8" s="56"/>
       <c r="L8" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5350,7 +5341,7 @@
       </c>
       <c r="K9" s="56"/>
       <c r="L9" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="24">
@@ -5378,7 +5369,7 @@
       </c>
       <c r="K10" s="56"/>
       <c r="L10" s="56" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="27.75" customHeight="1">
@@ -5406,7 +5397,7 @@
       </c>
       <c r="K11" s="125"/>
       <c r="L11" s="125" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="27.75" customHeight="1">
@@ -5440,12 +5431,12 @@
       </c>
       <c r="K12" s="56"/>
       <c r="L12" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="24">
       <c r="A13" s="120" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B13" s="146"/>
       <c r="C13" s="146" t="s">
@@ -5468,7 +5459,7 @@
       </c>
       <c r="K13" s="151"/>
       <c r="L13" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="24">
@@ -5526,7 +5517,7 @@
       </c>
       <c r="K15" s="56"/>
       <c r="L15" s="56" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -5554,7 +5545,7 @@
       </c>
       <c r="K16" s="125"/>
       <c r="L16" s="125" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -5584,7 +5575,7 @@
       </c>
       <c r="K17" s="56"/>
       <c r="L17" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -5610,7 +5601,7 @@
       </c>
       <c r="K18" s="56"/>
       <c r="L18" s="56" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -5636,7 +5627,7 @@
       </c>
       <c r="K19" s="56"/>
       <c r="L19" s="56" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -5673,7 +5664,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="46" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B21" s="47" t="s">
         <v>1</v>
@@ -5711,7 +5702,7 @@
     </row>
     <row r="22" spans="1:12" ht="56.25">
       <c r="A22" s="109" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B22" s="110" t="s">
         <v>743</v>
@@ -5736,12 +5727,12 @@
       </c>
       <c r="K22" s="112"/>
       <c r="L22" s="112" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="22.5">
       <c r="A23" s="15" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B23" s="49" t="s">
         <v>11</v>
@@ -5768,12 +5759,12 @@
       </c>
       <c r="K23" s="56"/>
       <c r="L23" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="65" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B24" s="49" t="s">
         <v>11</v>
@@ -5800,12 +5791,12 @@
       </c>
       <c r="K24" s="56"/>
       <c r="L24" s="56" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="65" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B25" s="49" t="s">
         <v>743</v>
@@ -5832,12 +5823,12 @@
       </c>
       <c r="K25" s="56"/>
       <c r="L25" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="36">
       <c r="A26" s="116" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B26" s="113" t="s">
         <v>41</v>
@@ -5862,12 +5853,12 @@
       <c r="J26" s="115"/>
       <c r="K26" s="115"/>
       <c r="L26" s="115" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="24">
       <c r="A27" s="65" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B27" s="59" t="s">
         <v>743</v>
@@ -5892,12 +5883,12 @@
       </c>
       <c r="K27" s="56"/>
       <c r="L27" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="60">
       <c r="A28" s="120" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B28" s="121" t="s">
         <v>745</v>
@@ -5906,10 +5897,10 @@
         <v>167</v>
       </c>
       <c r="D28" s="146" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E28" s="122" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F28" s="122"/>
       <c r="G28" s="122"/>
@@ -5918,12 +5909,12 @@
       <c r="J28" s="119"/>
       <c r="K28" s="119"/>
       <c r="L28" s="119" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="65" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B29" s="59" t="s">
         <v>11</v>
@@ -5948,12 +5939,12 @@
       </c>
       <c r="K29" s="56"/>
       <c r="L29" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="65" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B30" s="59" t="s">
         <v>10</v>
@@ -5962,15 +5953,15 @@
         <v>167</v>
       </c>
       <c r="D30" s="60" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="F30" s="60"/>
       <c r="G30" s="60"/>
       <c r="H30" s="64" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="I30" s="64"/>
       <c r="J30" s="56" t="s">
@@ -5978,12 +5969,12 @@
       </c>
       <c r="K30" s="56"/>
       <c r="L30" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="36">
       <c r="A31" s="65" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B31" s="58" t="s">
         <v>11</v>
@@ -6012,12 +6003,12 @@
       </c>
       <c r="K31" s="56"/>
       <c r="L31" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="65" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B32" s="124" t="s">
         <v>745</v>
@@ -6029,12 +6020,12 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="E32" s="126" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="F32" s="63"/>
       <c r="G32" s="63"/>
       <c r="H32" s="64" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="I32" s="64"/>
       <c r="J32" s="56" t="s">
@@ -6042,12 +6033,12 @@
       </c>
       <c r="K32" s="56"/>
       <c r="L32" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="24">
       <c r="A33" s="65" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B33" s="124" t="s">
         <v>743</v>
@@ -6074,12 +6065,12 @@
       </c>
       <c r="K33" s="56"/>
       <c r="L33" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="24">
       <c r="A34" s="65" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B34" s="124" t="s">
         <v>743</v>
@@ -6106,12 +6097,12 @@
       </c>
       <c r="K34" s="56"/>
       <c r="L34" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="24">
       <c r="A35" s="65" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B35" s="49" t="s">
         <v>11</v>
@@ -6138,12 +6129,12 @@
       </c>
       <c r="K35" s="56"/>
       <c r="L35" s="56" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="65" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B36" s="63" t="s">
         <v>10</v>
@@ -6170,12 +6161,12 @@
       </c>
       <c r="K36" s="56"/>
       <c r="L36" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="36">
       <c r="A37" s="65" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B37" s="63" t="s">
         <v>10</v>
@@ -6204,7 +6195,7 @@
       </c>
       <c r="K37" s="125"/>
       <c r="L37" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -6270,7 +6261,7 @@
       </c>
       <c r="K39" s="56"/>
       <c r="L39" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -6300,7 +6291,7 @@
       </c>
       <c r="K40" s="56"/>
       <c r="L40" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -6330,7 +6321,7 @@
       </c>
       <c r="K41" s="56"/>
       <c r="L41" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -6360,7 +6351,7 @@
       </c>
       <c r="K42" s="56"/>
       <c r="L42" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -6390,7 +6381,7 @@
       </c>
       <c r="K43" s="56"/>
       <c r="L43" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -6420,7 +6411,7 @@
       </c>
       <c r="K44" s="56"/>
       <c r="L44" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -6450,7 +6441,7 @@
       </c>
       <c r="K45" s="56"/>
       <c r="L45" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -6480,7 +6471,7 @@
       </c>
       <c r="K46" s="56"/>
       <c r="L46" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -6548,7 +6539,7 @@
         <v>410</v>
       </c>
       <c r="L48" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -6582,7 +6573,7 @@
         <v>410</v>
       </c>
       <c r="L49" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15">
@@ -6614,7 +6605,7 @@
         <v>410</v>
       </c>
       <c r="L50" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -6644,7 +6635,7 @@
         <v>410</v>
       </c>
       <c r="L51" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -6676,7 +6667,7 @@
         <v>410</v>
       </c>
       <c r="L52" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="12.75">
@@ -6776,7 +6767,7 @@
         <v>410</v>
       </c>
       <c r="L55" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -6844,7 +6835,7 @@
         <v>411</v>
       </c>
       <c r="L57" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -6868,7 +6859,7 @@
         <v>411</v>
       </c>
       <c r="L58" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -6892,7 +6883,7 @@
         <v>411</v>
       </c>
       <c r="L59" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -6916,7 +6907,7 @@
         <v>411</v>
       </c>
       <c r="L60" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -6950,7 +6941,7 @@
         <v>411</v>
       </c>
       <c r="L61" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -6982,7 +6973,7 @@
         <v>411</v>
       </c>
       <c r="L62" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -7006,7 +6997,7 @@
         <v>411</v>
       </c>
       <c r="L63" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -7037,7 +7028,7 @@
         <v>411</v>
       </c>
       <c r="L64" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -7069,7 +7060,7 @@
         <v>411</v>
       </c>
       <c r="L65" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -7099,7 +7090,7 @@
         <v>411</v>
       </c>
       <c r="L66" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -7123,7 +7114,7 @@
         <v>411</v>
       </c>
       <c r="L67" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -7155,7 +7146,7 @@
         <v>411</v>
       </c>
       <c r="L68" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -7179,7 +7170,7 @@
         <v>411</v>
       </c>
       <c r="L69" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -7211,7 +7202,7 @@
         <v>411</v>
       </c>
       <c r="L70" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -7995,9 +7986,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G20" sqref="G20"/>
+      <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -8104,15 +8095,15 @@
       </c>
       <c r="K3" s="184"/>
       <c r="L3" s="184" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="36.75" customHeight="1">
       <c r="A4" s="170" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B4" s="165" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C4" s="165" t="s">
         <v>167</v>
@@ -8127,7 +8118,7 @@
         <v>149</v>
       </c>
       <c r="G4" s="183" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="H4" s="165"/>
       <c r="I4" s="187"/>
@@ -8136,7 +8127,7 @@
       </c>
       <c r="K4" s="184"/>
       <c r="L4" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="45.75" customHeight="1">
@@ -8166,7 +8157,7 @@
       </c>
       <c r="K5" s="184"/>
       <c r="L5" s="184" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60">
@@ -8201,7 +8192,7 @@
       <c r="K6" s="184"/>
       <c r="L6" s="184"/>
     </row>
-    <row r="7" spans="1:12" ht="36">
+    <row r="7" spans="1:12">
       <c r="A7" s="170" t="s">
         <v>880</v>
       </c>
@@ -8211,18 +8202,14 @@
       <c r="C7" s="165" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="175" t="s">
-        <v>884</v>
-      </c>
-      <c r="E7" s="165" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="165" t="s">
-        <v>886</v>
-      </c>
-      <c r="G7" s="183" t="s">
-        <v>883</v>
-      </c>
+      <c r="D7" s="175">
+        <v>684</v>
+      </c>
+      <c r="E7" s="180" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="165"/>
+      <c r="G7" s="183"/>
       <c r="H7" s="180"/>
       <c r="I7" s="187"/>
       <c r="J7" s="184" t="s">
@@ -8230,7 +8217,7 @@
       </c>
       <c r="K7" s="184"/>
       <c r="L7" s="184" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8258,7 +8245,7 @@
       </c>
       <c r="K8" s="184"/>
       <c r="L8" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="45.75" customHeight="1">
@@ -8290,7 +8277,7 @@
       </c>
       <c r="K9" s="184"/>
       <c r="L9" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="27.75" customHeight="1">
@@ -8318,7 +8305,7 @@
       </c>
       <c r="K10" s="184"/>
       <c r="L10" s="184" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="74.25" customHeight="1">
@@ -8348,7 +8335,7 @@
       </c>
       <c r="K11" s="184"/>
       <c r="L11" s="184" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="51" customFormat="1">
@@ -8398,7 +8385,7 @@
       </c>
       <c r="K13" s="184"/>
       <c r="L13" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8415,11 +8402,11 @@
         <v>877</v>
       </c>
       <c r="E14" s="181" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F14" s="165"/>
       <c r="G14" s="183" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="H14" s="180"/>
       <c r="I14" s="187"/>
@@ -8428,7 +8415,7 @@
       </c>
       <c r="K14" s="184"/>
       <c r="L14" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40.5" customHeight="1">
@@ -8460,7 +8447,7 @@
       </c>
       <c r="K15" s="184"/>
       <c r="L15" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="51" customFormat="1">
@@ -8532,7 +8519,7 @@
       </c>
       <c r="K18" s="184"/>
       <c r="L18" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="51" customFormat="1" ht="24">
@@ -8562,7 +8549,7 @@
       </c>
       <c r="K19" s="184"/>
       <c r="L19" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="51" customFormat="1" ht="24">
@@ -8614,7 +8601,7 @@
       </c>
       <c r="K21" s="184"/>
       <c r="L21" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="51" customFormat="1" ht="24">
@@ -8646,7 +8633,7 @@
       </c>
       <c r="K22" s="184"/>
       <c r="L22" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="51" customFormat="1">
@@ -8674,7 +8661,7 @@
       </c>
       <c r="K23" s="184"/>
       <c r="L23" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="51" customFormat="1">
@@ -8746,12 +8733,12 @@
       </c>
       <c r="K26" s="184"/>
       <c r="L26" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="51" customFormat="1" ht="24">
       <c r="A27" s="170" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B27" s="165" t="s">
         <v>198</v>
@@ -8766,7 +8753,7 @@
         <v>92</v>
       </c>
       <c r="F27" s="165" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="G27" s="165"/>
       <c r="H27" s="165"/>
@@ -8776,15 +8763,15 @@
       </c>
       <c r="K27" s="184"/>
       <c r="L27" s="184" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="51" customFormat="1" ht="36">
       <c r="A28" s="170" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B28" s="165" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C28" s="165" t="s">
         <v>167</v>
@@ -8796,10 +8783,10 @@
         <v>92</v>
       </c>
       <c r="F28" s="165" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="G28" s="165" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="H28" s="185"/>
       <c r="I28" s="186"/>
@@ -8808,7 +8795,7 @@
       </c>
       <c r="K28" s="184"/>
       <c r="L28" s="184" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="51" customFormat="1" ht="48">
@@ -8842,7 +8829,7 @@
       </c>
       <c r="K29" s="184"/>
       <c r="L29" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="51" customFormat="1" ht="24" customHeight="1">
@@ -8874,7 +8861,7 @@
       </c>
       <c r="K30" s="184"/>
       <c r="L30" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="44.25" customHeight="1">
@@ -8906,7 +8893,7 @@
       </c>
       <c r="K31" s="184"/>
       <c r="L31" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="51" customFormat="1">
@@ -8974,7 +8961,7 @@
       </c>
       <c r="K33" s="184"/>
       <c r="L33" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="36">
@@ -9004,7 +8991,7 @@
       </c>
       <c r="K34" s="184"/>
       <c r="L34" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -9032,7 +9019,7 @@
       </c>
       <c r="K35" s="184"/>
       <c r="L35" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -9060,12 +9047,12 @@
       </c>
       <c r="K36" s="184"/>
       <c r="L36" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="170" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B37" s="180" t="s">
         <v>5</v>
@@ -9077,7 +9064,7 @@
         <v>40</v>
       </c>
       <c r="E37" s="180" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F37" s="180">
         <v>409</v>
@@ -9090,7 +9077,7 @@
       </c>
       <c r="K37" s="184"/>
       <c r="L37" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -9120,7 +9107,7 @@
       </c>
       <c r="K38" s="184"/>
       <c r="L38" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -9148,7 +9135,7 @@
       </c>
       <c r="K39" s="184"/>
       <c r="L39" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -9176,7 +9163,7 @@
       </c>
       <c r="K40" s="184"/>
       <c r="L40" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -9204,7 +9191,7 @@
       </c>
       <c r="K41" s="184"/>
       <c r="L41" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -9232,7 +9219,7 @@
       </c>
       <c r="K42" s="184"/>
       <c r="L42" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -9260,7 +9247,7 @@
       </c>
       <c r="K43" s="184"/>
       <c r="L43" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="24">
@@ -9290,7 +9277,7 @@
       </c>
       <c r="K44" s="184"/>
       <c r="L44" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -9318,7 +9305,7 @@
       </c>
       <c r="K45" s="184"/>
       <c r="L45" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="36">
@@ -9348,12 +9335,12 @@
       </c>
       <c r="K46" s="184"/>
       <c r="L46" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="170" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B47" s="180" t="s">
         <v>530</v>
@@ -9365,12 +9352,12 @@
         <v>1.23</v>
       </c>
       <c r="E47" s="180" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="F47" s="180"/>
       <c r="G47" s="167"/>
       <c r="H47" s="188" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="I47" s="187"/>
       <c r="J47" s="184" t="s">
@@ -9387,7 +9374,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="182" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D48" s="179" t="s">
         <v>165</v>
@@ -9404,7 +9391,7 @@
       </c>
       <c r="K48" s="184"/>
       <c r="L48" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -9415,7 +9402,7 @@
         <v>7</v>
       </c>
       <c r="C49" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D49" s="179" t="s">
         <v>523</v>
@@ -9432,7 +9419,7 @@
       </c>
       <c r="K49" s="184"/>
       <c r="L49" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -9443,7 +9430,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="182" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D50" s="179" t="s">
         <v>514</v>
@@ -9460,7 +9447,7 @@
       </c>
       <c r="K50" s="184"/>
       <c r="L50" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="48">
@@ -9471,7 +9458,7 @@
         <v>5</v>
       </c>
       <c r="C51" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D51" s="179" t="s">
         <v>166</v>
@@ -9492,7 +9479,7 @@
       </c>
       <c r="K51" s="184"/>
       <c r="L51" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -9520,7 +9507,7 @@
       </c>
       <c r="K52" s="184"/>
       <c r="L52" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="24">
@@ -9550,7 +9537,7 @@
       </c>
       <c r="K53" s="184"/>
       <c r="L53" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="24">
@@ -9580,7 +9567,7 @@
       </c>
       <c r="K54" s="184"/>
       <c r="L54" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="36">
@@ -9610,12 +9597,12 @@
       </c>
       <c r="K55" s="184"/>
       <c r="L55" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="170" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B56" s="180" t="s">
         <v>530</v>
@@ -9627,12 +9614,12 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="E56" s="180" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F56" s="180"/>
       <c r="G56" s="167"/>
       <c r="H56" s="188" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="I56" s="187"/>
       <c r="J56" s="184" t="s">
@@ -9668,7 +9655,7 @@
       </c>
       <c r="K57" s="184"/>
       <c r="L57" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -9696,7 +9683,7 @@
       </c>
       <c r="K58" s="184"/>
       <c r="L58" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="24">
@@ -9726,7 +9713,7 @@
       </c>
       <c r="K59" s="184"/>
       <c r="L59" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -9754,7 +9741,7 @@
       </c>
       <c r="K60" s="184"/>
       <c r="L60" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="24">
@@ -9784,7 +9771,7 @@
       </c>
       <c r="K61" s="184"/>
       <c r="L61" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -9812,7 +9799,7 @@
       </c>
       <c r="K62" s="184"/>
       <c r="L62" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="24">
@@ -9842,7 +9829,7 @@
       </c>
       <c r="K63" s="184"/>
       <c r="L63" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -9874,7 +9861,7 @@
       </c>
       <c r="K64" s="184"/>
       <c r="L64" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -9904,7 +9891,7 @@
       </c>
       <c r="K65" s="184"/>
       <c r="L65" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -9932,7 +9919,7 @@
       </c>
       <c r="K66" s="184"/>
       <c r="L66" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -9962,7 +9949,7 @@
       </c>
       <c r="K67" s="184"/>
       <c r="L67" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -9990,7 +9977,7 @@
       </c>
       <c r="K68" s="184"/>
       <c r="L68" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="24">
@@ -10020,7 +10007,7 @@
       </c>
       <c r="K69" s="184"/>
       <c r="L69" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -10048,7 +10035,7 @@
       </c>
       <c r="K70" s="184"/>
       <c r="L70" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -10059,7 +10046,7 @@
         <v>5</v>
       </c>
       <c r="C71" s="182" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D71" s="179" t="s">
         <v>514</v>
@@ -10078,7 +10065,7 @@
       </c>
       <c r="K71" s="184"/>
       <c r="L71" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -10089,7 +10076,7 @@
         <v>5</v>
       </c>
       <c r="C72" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D72" s="179" t="s">
         <v>168</v>
@@ -10108,7 +10095,7 @@
       </c>
       <c r="K72" s="184"/>
       <c r="L72" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="24">
@@ -10138,7 +10125,7 @@
       </c>
       <c r="K73" s="184"/>
       <c r="L73" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -10166,7 +10153,7 @@
       </c>
       <c r="K74" s="184"/>
       <c r="L74" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -10198,7 +10185,7 @@
       </c>
       <c r="K75" s="184"/>
       <c r="L75" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="24">
@@ -10228,7 +10215,7 @@
       </c>
       <c r="K76" s="184"/>
       <c r="L76" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -10256,7 +10243,7 @@
       </c>
       <c r="K77" s="184"/>
       <c r="L77" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="36">
@@ -10288,7 +10275,7 @@
       </c>
       <c r="K78" s="184"/>
       <c r="L78" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="36">
@@ -10318,12 +10305,12 @@
       </c>
       <c r="K79" s="184"/>
       <c r="L79" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="170" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B80" s="180" t="s">
         <v>530</v>
@@ -10335,12 +10322,12 @@
         <v>1.23</v>
       </c>
       <c r="E80" s="180" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="F80" s="180"/>
       <c r="G80" s="167"/>
       <c r="H80" s="188" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="I80" s="187"/>
       <c r="J80" s="184" t="s">
@@ -10357,7 +10344,7 @@
         <v>7</v>
       </c>
       <c r="C81" s="182" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D81" s="179" t="s">
         <v>527</v>
@@ -10376,7 +10363,7 @@
       </c>
       <c r="K81" s="184"/>
       <c r="L81" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="24">
@@ -10387,7 +10374,7 @@
         <v>7</v>
       </c>
       <c r="C82" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D82" s="179" t="s">
         <v>528</v>
@@ -10404,7 +10391,7 @@
       </c>
       <c r="K82" s="184"/>
       <c r="L82" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="36">
@@ -10415,7 +10402,7 @@
         <v>5</v>
       </c>
       <c r="C83" s="182" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D83" s="179" t="s">
         <v>519</v>
@@ -10434,7 +10421,7 @@
       </c>
       <c r="K83" s="184"/>
       <c r="L83" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -10445,7 +10432,7 @@
         <v>5</v>
       </c>
       <c r="C84" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D84" s="179" t="s">
         <v>168</v>
@@ -10462,7 +10449,7 @@
       </c>
       <c r="K84" s="184"/>
       <c r="L84" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -10490,7 +10477,7 @@
       </c>
       <c r="K85" s="184"/>
       <c r="L85" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="24">
@@ -10520,7 +10507,7 @@
       </c>
       <c r="K86" s="184"/>
       <c r="L86" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="24">
@@ -10550,7 +10537,7 @@
       </c>
       <c r="K87" s="184"/>
       <c r="L87" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="36">
@@ -10580,12 +10567,12 @@
       </c>
       <c r="K88" s="184"/>
       <c r="L88" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="170" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B89" s="180" t="s">
         <v>530</v>
@@ -10597,12 +10584,12 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="E89" s="180" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F89" s="180"/>
       <c r="G89" s="167"/>
       <c r="H89" s="188" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="I89" s="187"/>
       <c r="J89" s="184" t="s">
@@ -10638,7 +10625,7 @@
       </c>
       <c r="K90" s="184"/>
       <c r="L90" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -10666,7 +10653,7 @@
       </c>
       <c r="K91" s="184"/>
       <c r="L91" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="24">
@@ -10696,7 +10683,7 @@
       </c>
       <c r="K92" s="184"/>
       <c r="L92" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -10724,7 +10711,7 @@
       </c>
       <c r="K93" s="184"/>
       <c r="L93" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="24">
@@ -10754,7 +10741,7 @@
       </c>
       <c r="K94" s="184"/>
       <c r="L94" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -10782,7 +10769,7 @@
       </c>
       <c r="K95" s="184"/>
       <c r="L95" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="24">
@@ -10812,7 +10799,7 @@
       </c>
       <c r="K96" s="184"/>
       <c r="L96" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -10840,7 +10827,7 @@
       </c>
       <c r="K97" s="184"/>
       <c r="L97" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -10868,7 +10855,7 @@
       </c>
       <c r="K98" s="184"/>
       <c r="L98" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -10896,7 +10883,7 @@
       </c>
       <c r="K99" s="184"/>
       <c r="L99" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -10924,7 +10911,7 @@
       </c>
       <c r="K100" s="184"/>
       <c r="L100" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -10954,7 +10941,7 @@
       </c>
       <c r="K101" s="184"/>
       <c r="L101" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -10982,7 +10969,7 @@
       </c>
       <c r="K102" s="184"/>
       <c r="L102" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -11010,7 +10997,7 @@
       </c>
       <c r="K103" s="184"/>
       <c r="L103" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="24">
@@ -11040,7 +11027,7 @@
       </c>
       <c r="K104" s="184"/>
       <c r="L104" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -11068,7 +11055,7 @@
       </c>
       <c r="K105" s="184"/>
       <c r="L105" s="184" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -11181,7 +11168,7 @@
       </c>
       <c r="K2" s="151"/>
       <c r="L2" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
   </sheetData>
@@ -11295,7 +11282,7 @@
       </c>
       <c r="K3" s="56"/>
       <c r="L3" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="4" spans="1:16384">
@@ -11325,7 +11312,7 @@
       </c>
       <c r="K4" s="56"/>
       <c r="L4" s="56" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="5" spans="1:16384" s="57" customFormat="1">
@@ -27763,7 +27750,7 @@
       </c>
       <c r="K7" s="56"/>
       <c r="L7" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="8" spans="1:16384">
@@ -27791,7 +27778,7 @@
       </c>
       <c r="K8" s="56"/>
       <c r="L8" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="9" spans="1:16384">
@@ -27819,7 +27806,7 @@
       </c>
       <c r="K9" s="56"/>
       <c r="L9" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="10" spans="1:16384" s="11" customFormat="1">
@@ -27869,7 +27856,7 @@
       </c>
       <c r="K11" s="56"/>
       <c r="L11" s="56" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="12" spans="1:16384" s="57" customFormat="1" ht="24">
@@ -27966,7 +27953,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="38" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B2" s="62" t="s">
         <v>6</v>
@@ -27991,7 +27978,7 @@
       </c>
       <c r="K2" s="56"/>
       <c r="L2" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
   </sheetData>
@@ -28125,7 +28112,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="24" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -28141,7 +28128,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="24" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -28251,7 +28238,7 @@
       </c>
       <c r="K2" s="56"/>
       <c r="L2" s="56" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -28281,7 +28268,7 @@
       </c>
       <c r="K3" s="56"/>
       <c r="L3" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="24">
@@ -28311,7 +28298,7 @@
       </c>
       <c r="K4" s="56"/>
       <c r="L4" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -28343,7 +28330,7 @@
       </c>
       <c r="K5" s="56"/>
       <c r="L5" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24">
@@ -28375,7 +28362,7 @@
       </c>
       <c r="K6" s="56"/>
       <c r="L6" s="56" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="24">
@@ -28434,7 +28421,7 @@
       </c>
       <c r="K8" s="56"/>
       <c r="L8" s="56" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -28464,7 +28451,7 @@
       </c>
       <c r="K9" s="56"/>
       <c r="L9" s="56" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -28494,7 +28481,7 @@
       </c>
       <c r="K10" s="56"/>
       <c r="L10" s="56" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="24">
@@ -28522,7 +28509,7 @@
       </c>
       <c r="K11" s="56"/>
       <c r="L11" s="56" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -28570,7 +28557,7 @@
       </c>
       <c r="K13" s="56"/>
       <c r="L13" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -28602,7 +28589,7 @@
       </c>
       <c r="K14" s="96"/>
       <c r="L14" s="56" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -28632,7 +28619,7 @@
       </c>
       <c r="K15" s="56"/>
       <c r="L15" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -28662,7 +28649,7 @@
       </c>
       <c r="K16" s="56"/>
       <c r="L16" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="24">
@@ -28694,7 +28681,7 @@
       </c>
       <c r="K17" s="96"/>
       <c r="L17" s="56" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -28724,7 +28711,7 @@
       </c>
       <c r="K18" s="56"/>
       <c r="L18" s="56" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -28754,7 +28741,7 @@
       </c>
       <c r="K19" s="56"/>
       <c r="L19" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -28784,7 +28771,7 @@
       </c>
       <c r="K20" s="56"/>
       <c r="L20" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -28816,7 +28803,7 @@
       </c>
       <c r="K21" s="56"/>
       <c r="L21" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -28848,7 +28835,7 @@
       </c>
       <c r="K22" s="56"/>
       <c r="L22" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="36">
@@ -28880,7 +28867,7 @@
       </c>
       <c r="K23" s="56"/>
       <c r="L23" s="56" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="24">
@@ -28938,7 +28925,7 @@
       </c>
       <c r="K25" s="56"/>
       <c r="L25" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -28968,7 +28955,7 @@
       </c>
       <c r="K26" s="56"/>
       <c r="L26" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -28998,7 +28985,7 @@
       </c>
       <c r="K27" s="56"/>
       <c r="L27" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1">
@@ -29028,7 +29015,7 @@
       </c>
       <c r="K28" s="56"/>
       <c r="L28" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -29060,7 +29047,7 @@
       </c>
       <c r="K29" s="56"/>
       <c r="L29" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -29092,7 +29079,7 @@
       </c>
       <c r="K30" s="56"/>
       <c r="L30" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -29206,7 +29193,7 @@
       </c>
       <c r="K34" s="56"/>
       <c r="L34" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -29238,7 +29225,7 @@
       </c>
       <c r="K35" s="56"/>
       <c r="L35" s="151" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -29268,7 +29255,7 @@
       </c>
       <c r="K36" s="56"/>
       <c r="L36" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -29298,7 +29285,7 @@
       </c>
       <c r="K37" s="56"/>
       <c r="L37" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="24">
@@ -29330,7 +29317,7 @@
       </c>
       <c r="K38" s="56"/>
       <c r="L38" s="151" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -29360,7 +29347,7 @@
       </c>
       <c r="K39" s="56"/>
       <c r="L39" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -29390,7 +29377,7 @@
       </c>
       <c r="K40" s="56"/>
       <c r="L40" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -29420,7 +29407,7 @@
       </c>
       <c r="K41" s="56"/>
       <c r="L41" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -29452,7 +29439,7 @@
       </c>
       <c r="K42" s="56"/>
       <c r="L42" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -29484,7 +29471,7 @@
       </c>
       <c r="K43" s="56"/>
       <c r="L43" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="36">
@@ -29516,7 +29503,7 @@
       </c>
       <c r="K44" s="56"/>
       <c r="L44" s="151" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="24">
@@ -29574,7 +29561,7 @@
       </c>
       <c r="K46" s="56"/>
       <c r="L46" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -29604,7 +29591,7 @@
       </c>
       <c r="K47" s="56"/>
       <c r="L47" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -29634,7 +29621,7 @@
       </c>
       <c r="K48" s="56"/>
       <c r="L48" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="12" customHeight="1">
@@ -29664,7 +29651,7 @@
       </c>
       <c r="K49" s="56"/>
       <c r="L49" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -29696,7 +29683,7 @@
       </c>
       <c r="K50" s="56"/>
       <c r="L50" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -29728,7 +29715,7 @@
       </c>
       <c r="K51" s="56"/>
       <c r="L51" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -29840,7 +29827,7 @@
       </c>
       <c r="K55" s="56"/>
       <c r="L55" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -29910,7 +29897,7 @@
       </c>
       <c r="K57" s="56"/>
       <c r="L57" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="48">
@@ -29940,7 +29927,7 @@
       </c>
       <c r="K58" s="56"/>
       <c r="L58" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="48">
@@ -29970,7 +29957,7 @@
       </c>
       <c r="K59" s="56"/>
       <c r="L59" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="48">
@@ -30000,7 +29987,7 @@
       </c>
       <c r="K60" s="56"/>
       <c r="L60" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="48">
@@ -30030,7 +30017,7 @@
       </c>
       <c r="K61" s="56"/>
       <c r="L61" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="48">
@@ -30060,7 +30047,7 @@
       </c>
       <c r="K62" s="56"/>
       <c r="L62" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="48">
@@ -30090,7 +30077,7 @@
       </c>
       <c r="K63" s="56"/>
       <c r="L63" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="48">
@@ -30120,7 +30107,7 @@
       </c>
       <c r="K64" s="56"/>
       <c r="L64" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="48">
@@ -30150,7 +30137,7 @@
       </c>
       <c r="K65" s="56"/>
       <c r="L65" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="36">
@@ -30182,7 +30169,7 @@
       </c>
       <c r="K66" s="56"/>
       <c r="L66" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="36">
@@ -30214,7 +30201,7 @@
       </c>
       <c r="K67" s="56"/>
       <c r="L67" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="48">
@@ -30244,7 +30231,7 @@
       </c>
       <c r="K68" s="56"/>
       <c r="L68" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="48">
@@ -30274,7 +30261,7 @@
       </c>
       <c r="K69" s="56"/>
       <c r="L69" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="48">
@@ -30304,7 +30291,7 @@
       </c>
       <c r="K70" s="56"/>
       <c r="L70" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="48">
@@ -30334,7 +30321,7 @@
       </c>
       <c r="K71" s="56"/>
       <c r="L71" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="48">
@@ -30364,7 +30351,7 @@
       </c>
       <c r="K72" s="56"/>
       <c r="L72" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="48">
@@ -30394,7 +30381,7 @@
       </c>
       <c r="K73" s="56"/>
       <c r="L73" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="48">
@@ -30424,7 +30411,7 @@
       </c>
       <c r="K74" s="56"/>
       <c r="L74" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="48">
@@ -30454,7 +30441,7 @@
       </c>
       <c r="K75" s="56"/>
       <c r="L75" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="36">
@@ -30484,7 +30471,7 @@
       </c>
       <c r="K76" s="56"/>
       <c r="L76" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -30516,7 +30503,7 @@
       </c>
       <c r="K77" s="56"/>
       <c r="L77" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -30548,7 +30535,7 @@
       </c>
       <c r="K78" s="56"/>
       <c r="L78" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -30580,7 +30567,7 @@
       </c>
       <c r="K79" s="56"/>
       <c r="L79" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -30612,7 +30599,7 @@
       </c>
       <c r="K80" s="56"/>
       <c r="L80" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -30644,7 +30631,7 @@
       </c>
       <c r="K81" s="56"/>
       <c r="L81" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -30675,7 +30662,7 @@
       </c>
       <c r="K82" s="56"/>
       <c r="L82" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -30707,7 +30694,7 @@
       </c>
       <c r="K83" s="56"/>
       <c r="L83" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -30737,7 +30724,7 @@
       </c>
       <c r="K84" s="56"/>
       <c r="L84" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -30769,7 +30756,7 @@
       </c>
       <c r="K85" s="56"/>
       <c r="L85" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -30801,7 +30788,7 @@
       </c>
       <c r="K86" s="56"/>
       <c r="L86" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -30833,7 +30820,7 @@
       </c>
       <c r="K87" s="56"/>
       <c r="L87" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -30865,7 +30852,7 @@
       </c>
       <c r="K88" s="56"/>
       <c r="L88" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -30897,7 +30884,7 @@
       </c>
       <c r="K89" s="56"/>
       <c r="L89" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -30929,7 +30916,7 @@
       </c>
       <c r="K90" s="56"/>
       <c r="L90" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -30961,7 +30948,7 @@
       </c>
       <c r="K91" s="56"/>
       <c r="L91" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -30991,7 +30978,7 @@
       </c>
       <c r="K92" s="56"/>
       <c r="L92" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -31023,7 +31010,7 @@
       </c>
       <c r="K93" s="56"/>
       <c r="L93" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -31053,7 +31040,7 @@
       </c>
       <c r="K94" s="56"/>
       <c r="L94" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -31085,7 +31072,7 @@
       </c>
       <c r="K95" s="56"/>
       <c r="L95" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -31115,7 +31102,7 @@
       </c>
       <c r="K96" s="56"/>
       <c r="L96" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="24">
@@ -31148,7 +31135,7 @@
       </c>
       <c r="K97" s="56"/>
       <c r="L97" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="24">
@@ -31180,7 +31167,7 @@
       </c>
       <c r="K98" s="56"/>
       <c r="L98" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="24">
@@ -31214,7 +31201,7 @@
       </c>
       <c r="K99" s="56"/>
       <c r="L99" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="24">
@@ -31246,7 +31233,7 @@
       </c>
       <c r="K100" s="56"/>
       <c r="L100" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="24">
@@ -31278,7 +31265,7 @@
       </c>
       <c r="K101" s="56"/>
       <c r="L101" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="36">
@@ -31310,7 +31297,7 @@
       </c>
       <c r="K102" s="56"/>
       <c r="L102" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="24">
@@ -31342,7 +31329,7 @@
       </c>
       <c r="K103" s="56"/>
       <c r="L103" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="24">
@@ -31374,7 +31361,7 @@
       </c>
       <c r="K104" s="56"/>
       <c r="L104" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="24">
@@ -31410,7 +31397,7 @@
       </c>
       <c r="K105" s="56"/>
       <c r="L105" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="24">
@@ -31442,7 +31429,7 @@
       </c>
       <c r="K106" s="56"/>
       <c r="L106" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -31472,7 +31459,7 @@
       </c>
       <c r="K107" s="56"/>
       <c r="L107" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -31515,7 +31502,7 @@
     </row>
     <row r="109" spans="1:12" ht="36">
       <c r="A109" s="65" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B109" s="63" t="s">
         <v>55</v>
@@ -31542,12 +31529,12 @@
       </c>
       <c r="K109" s="56"/>
       <c r="L109" s="56" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="24">
       <c r="A110" s="65" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B110" s="63" t="s">
         <v>55</v>
@@ -31581,7 +31568,7 @@
     </row>
     <row r="111" spans="1:12" ht="24">
       <c r="A111" s="65" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B111" s="58"/>
       <c r="C111" s="58" t="s">
@@ -31604,12 +31591,12 @@
       </c>
       <c r="K111" s="56"/>
       <c r="L111" s="56" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="36">
       <c r="A112" s="65" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B112" s="63" t="s">
         <v>55</v>
@@ -31638,12 +31625,12 @@
       </c>
       <c r="K112" s="56"/>
       <c r="L112" s="56" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="65" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B113" s="58" t="s">
         <v>312</v>
@@ -31670,12 +31657,12 @@
       </c>
       <c r="K113" s="56"/>
       <c r="L113" s="56" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="65" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B114" s="58" t="s">
         <v>312</v>
@@ -31702,12 +31689,12 @@
       </c>
       <c r="K114" s="56"/>
       <c r="L114" s="56" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="65" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B115" s="58" t="s">
         <v>312</v>
@@ -31734,12 +31721,12 @@
       </c>
       <c r="K115" s="56"/>
       <c r="L115" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="36">
       <c r="A116" s="65" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B116" s="63" t="s">
         <v>55</v>
@@ -31766,12 +31753,12 @@
       </c>
       <c r="K116" s="56"/>
       <c r="L116" s="56" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="24">
       <c r="A117" s="65" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B117" s="58" t="s">
         <v>312</v>
@@ -31798,12 +31785,12 @@
       </c>
       <c r="K117" s="56"/>
       <c r="L117" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="65" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B118" s="58" t="s">
         <v>312</v>
@@ -31830,12 +31817,12 @@
       </c>
       <c r="K118" s="56"/>
       <c r="L118" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="24">
       <c r="A119" s="65" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B119" s="58" t="s">
         <v>312</v>
@@ -31862,12 +31849,12 @@
       </c>
       <c r="K119" s="56"/>
       <c r="L119" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="36">
       <c r="A120" s="65" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B120" s="63" t="s">
         <v>55</v>
@@ -31894,12 +31881,12 @@
       </c>
       <c r="K120" s="56"/>
       <c r="L120" s="56" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="24">
       <c r="A121" s="65" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B121" s="58" t="s">
         <v>31</v>
@@ -31926,12 +31913,12 @@
       </c>
       <c r="K121" s="56"/>
       <c r="L121" s="56" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="24">
       <c r="A122" s="65" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B122" s="58" t="s">
         <v>31</v>
@@ -31958,12 +31945,12 @@
       </c>
       <c r="K122" s="56"/>
       <c r="L122" s="56" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="65" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B123" s="58" t="s">
         <v>31</v>
@@ -31990,12 +31977,12 @@
       </c>
       <c r="K123" s="56"/>
       <c r="L123" s="56" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="48">
       <c r="A124" s="65" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B124" s="63" t="s">
         <v>55</v>
@@ -32022,12 +32009,12 @@
       </c>
       <c r="K124" s="56"/>
       <c r="L124" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="24">
       <c r="A125" s="65" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B125" s="58" t="s">
         <v>312</v>
@@ -32054,12 +32041,12 @@
       </c>
       <c r="K125" s="56"/>
       <c r="L125" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="65" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B126" s="58" t="s">
         <v>312</v>
@@ -32086,12 +32073,12 @@
       </c>
       <c r="K126" s="56"/>
       <c r="L126" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="65" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B127" s="58"/>
       <c r="C127" s="58" t="s">
@@ -32113,12 +32100,12 @@
       </c>
       <c r="K127" s="56"/>
       <c r="L127" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="65" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B128" s="58" t="s">
         <v>312</v>
@@ -32145,12 +32132,12 @@
       </c>
       <c r="K128" s="56"/>
       <c r="L128" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="24">
       <c r="A129" s="65" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B129" s="58"/>
       <c r="C129" s="58" t="s">
@@ -32174,12 +32161,12 @@
       </c>
       <c r="K129" s="56"/>
       <c r="L129" s="56" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="36">
       <c r="A130" s="65" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B130" s="63" t="s">
         <v>55</v>
@@ -32204,12 +32191,12 @@
       </c>
       <c r="K130" s="56"/>
       <c r="L130" s="56" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="36">
       <c r="A131" s="65" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B131" s="63" t="s">
         <v>55</v>
@@ -32236,12 +32223,12 @@
       </c>
       <c r="K131" s="56"/>
       <c r="L131" s="56" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="65" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B132" s="58" t="s">
         <v>312</v>
@@ -32268,12 +32255,12 @@
       </c>
       <c r="K132" s="56"/>
       <c r="L132" s="56" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="65" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B133" s="58" t="s">
         <v>312</v>
@@ -32300,12 +32287,12 @@
       </c>
       <c r="K133" s="56"/>
       <c r="L133" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="65" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B134" s="58"/>
       <c r="C134" s="58" t="s">
@@ -32327,12 +32314,12 @@
       </c>
       <c r="K134" s="56"/>
       <c r="L134" s="56" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="65" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B135" s="58" t="s">
         <v>312</v>
@@ -32359,12 +32346,12 @@
       </c>
       <c r="K135" s="56"/>
       <c r="L135" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="36">
       <c r="A136" s="65" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B136" s="63" t="s">
         <v>55</v>
@@ -32391,12 +32378,12 @@
       </c>
       <c r="K136" s="56"/>
       <c r="L136" s="56" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="65" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B137" s="58" t="s">
         <v>312</v>
@@ -32423,12 +32410,12 @@
       </c>
       <c r="K137" s="56"/>
       <c r="L137" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="65" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B138" s="58" t="s">
         <v>312</v>
@@ -32455,12 +32442,12 @@
       </c>
       <c r="K138" s="56"/>
       <c r="L138" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="65" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B139" s="58"/>
       <c r="C139" s="58" t="s">
@@ -32482,12 +32469,12 @@
       </c>
       <c r="K139" s="56"/>
       <c r="L139" s="56" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="65" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B140" s="58" t="s">
         <v>312</v>
@@ -32514,12 +32501,12 @@
       </c>
       <c r="K140" s="56"/>
       <c r="L140" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="36">
       <c r="A141" s="65" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B141" s="63" t="s">
         <v>55</v>
@@ -32546,12 +32533,12 @@
       </c>
       <c r="K141" s="56"/>
       <c r="L141" s="56" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="65" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B142" s="58" t="s">
         <v>31</v>
@@ -32576,12 +32563,12 @@
       </c>
       <c r="K142" s="56"/>
       <c r="L142" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="65" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B143" s="58" t="s">
         <v>31</v>
@@ -32606,12 +32593,12 @@
       </c>
       <c r="K143" s="56"/>
       <c r="L143" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="65" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B144" s="58" t="s">
         <v>31</v>
@@ -32638,7 +32625,7 @@
       </c>
       <c r="K144" s="56"/>
       <c r="L144" s="56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="145" spans="1:12" s="57" customFormat="1" ht="15">
@@ -35502,8 +35489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F8F0F7-B210-4329-9304-9AF1284E2465}">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
@@ -35566,7 +35553,7 @@
     </row>
     <row r="2" spans="1:12" ht="48">
       <c r="A2" s="170" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B2" s="180" t="s">
         <v>5</v>
@@ -35575,15 +35562,15 @@
         <v>167</v>
       </c>
       <c r="D2" s="167" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E2" s="165" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="F2" s="180"/>
       <c r="G2" s="180"/>
       <c r="H2" s="183" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="I2" s="30"/>
       <c r="J2" s="82" t="s">
@@ -35596,7 +35583,7 @@
     </row>
     <row r="3" spans="1:12" ht="36">
       <c r="A3" s="170" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B3" s="180" t="s">
         <v>7</v>
@@ -35611,13 +35598,13 @@
         <v>241</v>
       </c>
       <c r="F3" s="180" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="G3" s="180" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="H3" s="183" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="I3" s="30"/>
       <c r="J3" s="82" t="s">
@@ -35630,7 +35617,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="170" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B4" s="180" t="s">
         <v>7</v>
@@ -35645,7 +35632,7 @@
         <v>241</v>
       </c>
       <c r="F4" s="180" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="G4" s="180"/>
       <c r="H4" s="183"/>
@@ -35660,7 +35647,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="170" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B5" s="180" t="s">
         <v>5</v>
@@ -35675,10 +35662,10 @@
         <v>92</v>
       </c>
       <c r="F5" s="180" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G5" s="180" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="H5" s="183"/>
       <c r="I5" s="30"/>
@@ -35692,7 +35679,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="170" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B6" s="180" t="s">
         <v>27</v>
@@ -35707,7 +35694,7 @@
         <v>241</v>
       </c>
       <c r="F6" s="180" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="G6" s="180"/>
       <c r="H6" s="183"/>
@@ -35722,10 +35709,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="172" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B7" s="180" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C7" s="167"/>
       <c r="D7" s="167"/>
@@ -35744,7 +35731,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="172" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B8" s="180"/>
       <c r="C8" s="182"/>
@@ -35764,7 +35751,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="170" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B9" s="180" t="s">
         <v>5</v>
@@ -35773,7 +35760,7 @@
         <v>167</v>
       </c>
       <c r="D9" s="167" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E9" s="180" t="s">
         <v>241</v>
@@ -35794,7 +35781,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="172" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B10" s="180"/>
       <c r="C10" s="167"/>
@@ -35814,7 +35801,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="172" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B11" s="180"/>
       <c r="C11" s="167"/>
@@ -35834,13 +35821,13 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="170" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B12" s="62" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D12" s="3">
         <v>0.44</v>
@@ -35864,7 +35851,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="170" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B13" s="180" t="s">
         <v>28</v>
@@ -35873,13 +35860,13 @@
         <v>167</v>
       </c>
       <c r="D13" s="167" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E13" s="180" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="F13" s="180" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="G13" s="180"/>
       <c r="H13" s="183"/>
@@ -35894,7 +35881,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="170" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B14" s="180"/>
       <c r="C14" s="167" t="s">
@@ -35920,10 +35907,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="172" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B15" s="180" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C15" s="167"/>
       <c r="D15" s="167"/>
@@ -35942,10 +35929,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="172" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B16" s="180" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C16" s="167"/>
       <c r="D16" s="167"/>
@@ -35971,13 +35958,13 @@
         <v>167</v>
       </c>
       <c r="D17" s="167" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E17" s="180" t="s">
         <v>241</v>
       </c>
       <c r="F17" s="180" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="G17" s="180"/>
       <c r="H17" s="183" t="s">
@@ -35994,13 +35981,13 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="170" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B18" s="62" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D18" s="90">
         <v>0.4</v>
@@ -36024,7 +36011,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="170" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B19" s="180" t="s">
         <v>28</v>
@@ -36033,13 +36020,13 @@
         <v>167</v>
       </c>
       <c r="D19" s="167" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E19" s="180" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="F19" s="180" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="G19" s="180"/>
       <c r="H19" s="183"/>
@@ -36054,13 +36041,13 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="170" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B20" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="182" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D20" s="162">
         <v>-8</v>
@@ -36069,7 +36056,7 @@
         <v>241</v>
       </c>
       <c r="F20" s="165" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="G20" s="180"/>
       <c r="H20" s="183"/>
@@ -36084,13 +36071,13 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="170" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B21" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D21" s="162">
         <v>-5</v>
@@ -36099,7 +36086,7 @@
         <v>241</v>
       </c>
       <c r="F21" s="165" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="G21" s="180"/>
       <c r="H21" s="183"/>
@@ -36114,13 +36101,13 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="170" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B22" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D22" s="193">
         <v>5.4</v>
@@ -36131,7 +36118,7 @@
       <c r="F22" s="165"/>
       <c r="G22" s="180"/>
       <c r="H22" s="183" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="I22" s="34"/>
       <c r="J22" s="82" t="s">
@@ -36144,13 +36131,13 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="170" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B23" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="182" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D23" s="193">
         <v>0</v>
@@ -36172,7 +36159,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="170" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B24" s="180" t="s">
         <v>27</v>
@@ -36187,7 +36174,7 @@
         <v>241</v>
       </c>
       <c r="F24" s="180" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="G24" s="180"/>
       <c r="H24" s="183"/>
@@ -36202,7 +36189,7 @@
     </row>
     <row r="25" spans="1:12" ht="60">
       <c r="A25" s="170" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B25" s="183" t="s">
         <v>8</v>
@@ -36217,11 +36204,11 @@
         <v>241</v>
       </c>
       <c r="F25" s="180" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="G25" s="180"/>
       <c r="H25" s="183" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="I25" s="34"/>
       <c r="J25" s="82" t="s">
@@ -36234,7 +36221,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="170" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B26" s="183" t="s">
         <v>8</v>
@@ -36246,7 +36233,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="180" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="F26" s="180"/>
       <c r="G26" s="180"/>
@@ -36262,7 +36249,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="170" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B27" s="183"/>
       <c r="C27" s="167" t="s">
@@ -36272,11 +36259,11 @@
         <v>0</v>
       </c>
       <c r="E27" s="180" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="F27" s="180"/>
       <c r="G27" s="180" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="H27" s="183"/>
       <c r="I27" s="34"/>
@@ -36290,7 +36277,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="170" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B28" s="183" t="s">
         <v>5</v>
@@ -36302,11 +36289,11 @@
         <v>0</v>
       </c>
       <c r="E28" s="180" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="F28" s="180"/>
       <c r="G28" s="180" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="H28" s="183"/>
       <c r="I28" s="34"/>
@@ -36320,10 +36307,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="172" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B29" s="180" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C29" s="167"/>
       <c r="D29" s="167"/>
@@ -36342,10 +36329,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="172" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B30" s="180" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C30" s="167"/>
       <c r="D30" s="167"/>
@@ -36364,7 +36351,7 @@
     </row>
     <row r="31" spans="1:12" ht="24">
       <c r="A31" s="170" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B31" s="183" t="s">
         <v>8</v>
@@ -36381,7 +36368,7 @@
       <c r="F31" s="180"/>
       <c r="G31" s="180"/>
       <c r="H31" s="183" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="I31" s="34"/>
       <c r="J31" s="82" t="s">
@@ -36394,13 +36381,13 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="170" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B32" s="183" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="167" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D32" s="168">
         <v>2</v>
@@ -36424,7 +36411,7 @@
     </row>
     <row r="33" spans="1:12" ht="120">
       <c r="A33" s="170" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B33" s="183" t="s">
         <v>8</v>
@@ -36441,7 +36428,7 @@
       <c r="F33" s="180"/>
       <c r="G33" s="180"/>
       <c r="H33" s="183" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="I33" s="34"/>
       <c r="J33" s="82" t="s">
@@ -36486,16 +36473,16 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="170" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B35" s="180" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C35" s="167" t="s">
         <v>167</v>
       </c>
       <c r="D35" s="180" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="E35" s="180" t="s">
         <v>241</v>
@@ -36505,7 +36492,7 @@
       </c>
       <c r="G35" s="180"/>
       <c r="H35" s="183" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="I35" s="31"/>
       <c r="J35" s="82" t="s">
@@ -36518,10 +36505,10 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="172" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B36" s="180" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C36" s="167"/>
       <c r="D36" s="167"/>
@@ -36540,10 +36527,10 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="172" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B37" s="180" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C37" s="167"/>
       <c r="D37" s="167"/>
@@ -36571,13 +36558,13 @@
         <v>167</v>
       </c>
       <c r="D38" s="62" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E38" s="196" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="F38" s="165" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="G38" s="180"/>
       <c r="H38" s="183"/>
@@ -36592,7 +36579,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="172" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B39" s="180"/>
       <c r="C39" s="167" t="s">
@@ -36602,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="180" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="F39" s="180"/>
       <c r="G39" s="180"/>
@@ -36618,7 +36605,7 @@
     </row>
     <row r="40" spans="1:12" s="163" customFormat="1">
       <c r="A40" s="172" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B40" s="54"/>
       <c r="C40" s="167"/>
@@ -36638,7 +36625,7 @@
     </row>
     <row r="41" spans="1:12" s="163" customFormat="1">
       <c r="A41" s="170" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="B41" s="54"/>
       <c r="C41" s="167" t="s">
@@ -36652,7 +36639,7 @@
       </c>
       <c r="F41" s="167"/>
       <c r="G41" s="167" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="H41" s="167"/>
       <c r="I41" s="167"/>
@@ -36702,7 +36689,7 @@
         <v>7</v>
       </c>
       <c r="C43" s="167" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D43" s="167">
         <v>7</v>
@@ -36732,7 +36719,7 @@
         <v>361</v>
       </c>
       <c r="C44" s="167" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D44" s="167">
         <v>0.08</v>
@@ -36764,7 +36751,7 @@
         <v>361</v>
       </c>
       <c r="C45" s="167" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D45" s="167">
         <f>0.002*12</f>
@@ -36797,7 +36784,7 @@
         <v>362</v>
       </c>
       <c r="C46" s="167" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D46" s="180">
         <v>3.3500000000000002E-2</v>
@@ -36823,10 +36810,10 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="172" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B47" s="180" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C47" s="167"/>
       <c r="D47" s="167"/>
@@ -36851,7 +36838,7 @@
         <v>361</v>
       </c>
       <c r="C48" s="167" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D48" s="167">
         <f>0.007*12</f>
@@ -36878,10 +36865,10 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="172" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B49" s="180" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C49" s="167"/>
       <c r="D49" s="167"/>
@@ -36900,13 +36887,13 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="170" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B50" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="182" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D50" s="167">
         <v>-1</v>
@@ -36915,7 +36902,7 @@
         <v>241</v>
       </c>
       <c r="F50" s="180" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="G50" s="180"/>
       <c r="H50" s="183"/>
@@ -36930,13 +36917,13 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="170" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B51" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D51" s="167">
         <v>1</v>
@@ -36945,7 +36932,7 @@
         <v>241</v>
       </c>
       <c r="F51" s="180" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="G51" s="180"/>
       <c r="H51" s="183"/>
@@ -36960,13 +36947,13 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="170" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B52" s="180" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="182" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D52" s="167">
         <v>5.2</v>
@@ -36990,13 +36977,13 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="170" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B53" s="180" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D53" s="167">
         <v>7.2</v>
@@ -37020,13 +37007,13 @@
     </row>
     <row r="54" spans="1:12" ht="24">
       <c r="A54" s="170" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B54" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="182" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D54" s="162">
         <v>-8</v>
@@ -37035,11 +37022,11 @@
         <v>241</v>
       </c>
       <c r="F54" s="165" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="G54" s="180"/>
       <c r="H54" s="183" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="I54" s="34"/>
       <c r="J54" s="82" t="s">
@@ -37052,13 +37039,13 @@
     </row>
     <row r="55" spans="1:12" ht="24">
       <c r="A55" s="170" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B55" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D55" s="162">
         <v>-5</v>
@@ -37067,11 +37054,11 @@
         <v>241</v>
       </c>
       <c r="F55" s="165" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="G55" s="180"/>
       <c r="H55" s="183" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="I55" s="34"/>
       <c r="J55" s="82" t="s">
@@ -37084,13 +37071,13 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="170" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B56" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="182" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D56" s="193">
         <v>-5.4</v>
@@ -37101,7 +37088,7 @@
       <c r="F56" s="165"/>
       <c r="G56" s="180"/>
       <c r="H56" s="183" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="I56" s="34"/>
       <c r="J56" s="82" t="s">
@@ -37114,13 +37101,13 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="170" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B57" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D57" s="193">
         <v>0</v>
@@ -37148,7 +37135,7 @@
         <v>8</v>
       </c>
       <c r="C58" s="182" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D58" s="167">
         <v>5</v>
@@ -37178,7 +37165,7 @@
         <v>8</v>
       </c>
       <c r="C59" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D59" s="167">
         <v>7.5</v>
@@ -37202,25 +37189,25 @@
     </row>
     <row r="60" spans="1:12" ht="24">
       <c r="A60" s="170" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B60" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="182" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D60" s="167">
         <v>0</v>
       </c>
       <c r="E60" s="180" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="F60" s="180" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="G60" s="180" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="H60" s="183"/>
       <c r="I60" s="34"/>
@@ -37234,25 +37221,25 @@
     </row>
     <row r="61" spans="1:12" ht="24">
       <c r="A61" s="170" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B61" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D61" s="167">
         <v>0</v>
       </c>
       <c r="E61" s="180" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="F61" s="180" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="G61" s="180" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="H61" s="183"/>
       <c r="I61" s="34"/>
@@ -37266,13 +37253,13 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="170" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B62" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="182" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D62" s="167">
         <v>-1</v>
@@ -37281,7 +37268,7 @@
         <v>241</v>
       </c>
       <c r="F62" s="180" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="G62" s="180"/>
       <c r="H62" s="183"/>
@@ -37296,13 +37283,13 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="170" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B63" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D63" s="167">
         <v>1</v>
@@ -37311,7 +37298,7 @@
         <v>241</v>
       </c>
       <c r="F63" s="180" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="G63" s="180"/>
       <c r="H63" s="183"/>
@@ -37370,7 +37357,7 @@
         <v>8</v>
       </c>
       <c r="C65" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D65" s="45" t="s">
         <v>414</v>
@@ -37404,7 +37391,7 @@
         <v>8</v>
       </c>
       <c r="C66" s="182" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D66" s="45" t="s">
         <v>415</v>
@@ -37438,7 +37425,7 @@
         <v>5</v>
       </c>
       <c r="C67" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D67" s="180" t="s">
         <v>249</v>
@@ -37470,7 +37457,7 @@
         <v>5</v>
       </c>
       <c r="C68" s="182" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D68" s="91">
         <v>120</v>
@@ -37500,7 +37487,7 @@
         <v>5</v>
       </c>
       <c r="C69" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D69" s="167" t="s">
         <v>254</v>
@@ -37530,7 +37517,7 @@
         <v>5</v>
       </c>
       <c r="C70" s="182" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D70" s="180" t="s">
         <v>418</v>
@@ -37562,7 +37549,7 @@
         <v>8</v>
       </c>
       <c r="C71" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D71" s="167">
         <v>1028.2</v>
@@ -37596,7 +37583,7 @@
         <v>8</v>
       </c>
       <c r="C72" s="182" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D72" s="167">
         <v>1025.7</v>
@@ -37630,7 +37617,7 @@
         <v>8</v>
       </c>
       <c r="C73" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D73" s="167">
         <v>1028.2</v>
@@ -37664,7 +37651,7 @@
         <v>8</v>
       </c>
       <c r="C74" s="182" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D74" s="167">
         <v>1025.7</v>
@@ -37698,7 +37685,7 @@
         <v>362</v>
       </c>
       <c r="C75" s="167" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D75" s="198">
         <v>0.03</v>
@@ -37730,7 +37717,7 @@
         <v>362</v>
       </c>
       <c r="C76" s="167" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="D76" s="168">
         <v>3.6999999999999998E-2</v>
@@ -37762,7 +37749,7 @@
         <v>8</v>
       </c>
       <c r="C77" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D77" s="180" t="s">
         <v>416</v>
@@ -37796,7 +37783,7 @@
         <v>8</v>
       </c>
       <c r="C78" s="182" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D78" s="180" t="s">
         <v>417</v>
@@ -37830,7 +37817,7 @@
         <v>8</v>
       </c>
       <c r="C79" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D79" s="180" t="s">
         <v>416</v>
@@ -37864,7 +37851,7 @@
         <v>8</v>
       </c>
       <c r="C80" s="182" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D80" s="180" t="s">
         <v>417</v>
@@ -37898,7 +37885,7 @@
         <v>362</v>
       </c>
       <c r="C81" s="167" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D81" s="168">
         <v>1.2599999999999998E-2</v>
@@ -37930,7 +37917,7 @@
         <v>362</v>
       </c>
       <c r="C82" s="167" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="D82" s="168">
         <v>1.5800000000000002E-2</v>
@@ -37962,7 +37949,7 @@
         <v>8</v>
       </c>
       <c r="C83" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D83" s="180" t="s">
         <v>416</v>
@@ -37994,7 +37981,7 @@
         <v>8</v>
       </c>
       <c r="C84" s="182" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D84" s="180" t="s">
         <v>417</v>
@@ -38086,7 +38073,7 @@
         <v>362</v>
       </c>
       <c r="C87" s="167" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D87" s="168">
         <v>1.54E-2</v>
@@ -38118,7 +38105,7 @@
         <v>362</v>
       </c>
       <c r="C88" s="167" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="D88" s="168">
         <v>1.9300000000000001E-2</v>
@@ -38150,7 +38137,7 @@
         <v>8</v>
       </c>
       <c r="C89" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D89" s="180" t="s">
         <v>416</v>
@@ -38182,7 +38169,7 @@
         <v>8</v>
       </c>
       <c r="C90" s="182" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D90" s="180" t="s">
         <v>417</v>
@@ -38268,13 +38255,13 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="170" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B93" s="62" t="s">
         <v>362</v>
       </c>
       <c r="C93" s="167" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D93" s="92">
         <v>8.9999999999999998E-4</v>
@@ -38300,7 +38287,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="170" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B94" s="180" t="s">
         <v>5</v>
@@ -38332,7 +38319,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="170" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B95" s="180" t="s">
         <v>5</v>
@@ -38364,13 +38351,13 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="170" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B96" s="62" t="s">
         <v>362</v>
       </c>
       <c r="C96" s="167" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D96" s="3">
         <v>1.1000000000000001E-3</v>
@@ -38396,7 +38383,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="170" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B97" s="180" t="s">
         <v>5</v>
@@ -38428,7 +38415,7 @@
     </row>
     <row r="98" spans="1:12" ht="14.25" customHeight="1">
       <c r="A98" s="170" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B98" s="180" t="s">
         <v>5</v>
@@ -38504,7 +38491,7 @@
         <v>362</v>
       </c>
       <c r="C100" s="167" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D100" s="184">
         <v>1.4999999999999999E-2</v>
@@ -38536,7 +38523,7 @@
         <v>7</v>
       </c>
       <c r="C101" s="167" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D101" s="102">
         <v>0.06</v>
@@ -38628,7 +38615,7 @@
         <v>362</v>
       </c>
       <c r="C104" s="167" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D104" s="102">
         <v>0.03</v>
@@ -38660,7 +38647,7 @@
         <v>362</v>
       </c>
       <c r="C105" s="167" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D105" s="102">
         <v>0.05</v>
@@ -38692,7 +38679,7 @@
         <v>362</v>
       </c>
       <c r="C106" s="167" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D106" s="10">
         <v>4.2999999999999997E-2</v>
@@ -38754,7 +38741,7 @@
         <v>22</v>
       </c>
       <c r="C108" s="182" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D108" s="10">
         <v>0.44</v>
@@ -38786,7 +38773,7 @@
         <v>362</v>
       </c>
       <c r="C109" s="167" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D109" s="184">
         <v>1.4999999999999999E-2</v>
@@ -38818,7 +38805,7 @@
         <v>362</v>
       </c>
       <c r="C110" s="167" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D110" s="103">
         <v>0.06</v>
@@ -38850,7 +38837,7 @@
         <v>362</v>
       </c>
       <c r="C111" s="167" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D111" s="184">
         <v>0.08</v>
@@ -38882,7 +38869,7 @@
         <v>362</v>
       </c>
       <c r="C112" s="167" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D112" s="103">
         <v>0.06</v>
@@ -39031,7 +39018,7 @@
       </c>
       <c r="K2" s="151"/>
       <c r="L2" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="51" customFormat="1" ht="23.25" customHeight="1">
@@ -39066,7 +39053,7 @@
       </c>
       <c r="K3" s="151"/>
       <c r="L3" s="151" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="51" customFormat="1">
@@ -39099,7 +39086,7 @@
       </c>
       <c r="K4" s="151"/>
       <c r="L4" s="151" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="51" customFormat="1" ht="24">
@@ -39131,7 +39118,7 @@
       </c>
       <c r="K5" s="151"/>
       <c r="L5" s="151" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="51" customFormat="1">
@@ -39163,7 +39150,7 @@
       </c>
       <c r="K6" s="151"/>
       <c r="L6" s="151" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="57" customFormat="1">
@@ -39193,7 +39180,7 @@
       </c>
       <c r="K7" s="151"/>
       <c r="L7" s="151" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="57" customFormat="1">
@@ -39225,12 +39212,12 @@
       </c>
       <c r="K8" s="151"/>
       <c r="L8" s="151" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="104" customFormat="1" ht="26.25" customHeight="1">
       <c r="A9" s="46" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B9" s="47" t="s">
         <v>1</v>
@@ -39268,7 +39255,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="23" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B10" s="158" t="s">
         <v>6</v>
@@ -39283,7 +39270,7 @@
         <v>241</v>
       </c>
       <c r="F10" s="158" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="G10" s="159"/>
       <c r="H10" s="158"/>
@@ -39295,12 +39282,12 @@
       </c>
       <c r="K10" s="79"/>
       <c r="L10" s="79" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="104" customFormat="1">
       <c r="A11" s="23" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="B11" s="158" t="s">
         <v>6</v>
@@ -39315,7 +39302,7 @@
         <v>241</v>
       </c>
       <c r="F11" s="158" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="G11" s="161"/>
       <c r="H11" s="156"/>
@@ -39327,7 +39314,7 @@
       </c>
       <c r="K11" s="79"/>
       <c r="L11" s="79" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="104" customFormat="1" ht="26.25" customHeight="1">
@@ -39399,7 +39386,7 @@
       </c>
       <c r="K13" s="79"/>
       <c r="L13" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="104" customFormat="1" ht="12">
@@ -39433,7 +39420,7 @@
       </c>
       <c r="K14" s="79"/>
       <c r="L14" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="104" customFormat="1" ht="12">
@@ -39467,7 +39454,7 @@
       </c>
       <c r="K15" s="79"/>
       <c r="L15" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="104" customFormat="1" ht="12">
@@ -39501,7 +39488,7 @@
       </c>
       <c r="K16" s="79"/>
       <c r="L16" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="104" customFormat="1" ht="12">
@@ -39535,7 +39522,7 @@
       </c>
       <c r="K17" s="79"/>
       <c r="L17" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="104" customFormat="1" ht="12">
@@ -39569,7 +39556,7 @@
       </c>
       <c r="K18" s="79"/>
       <c r="L18" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="104" customFormat="1" ht="12">
@@ -39603,7 +39590,7 @@
       </c>
       <c r="K19" s="79"/>
       <c r="L19" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="104" customFormat="1" ht="12">
@@ -39637,7 +39624,7 @@
       </c>
       <c r="K20" s="79"/>
       <c r="L20" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="104" customFormat="1" ht="12">
@@ -39671,7 +39658,7 @@
       </c>
       <c r="K21" s="79"/>
       <c r="L21" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="104" customFormat="1" ht="12">
@@ -39705,7 +39692,7 @@
       </c>
       <c r="K22" s="79"/>
       <c r="L22" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="104" customFormat="1" ht="12">
@@ -39739,7 +39726,7 @@
       </c>
       <c r="K23" s="79"/>
       <c r="L23" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="104" customFormat="1" ht="12">
@@ -39773,7 +39760,7 @@
       </c>
       <c r="K24" s="79"/>
       <c r="L24" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="104" customFormat="1" ht="12">
@@ -39807,7 +39794,7 @@
       </c>
       <c r="K25" s="79"/>
       <c r="L25" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="104" customFormat="1" ht="12">
@@ -39841,7 +39828,7 @@
       </c>
       <c r="K26" s="79"/>
       <c r="L26" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="104" customFormat="1" ht="12">
@@ -39875,7 +39862,7 @@
       </c>
       <c r="K27" s="79"/>
       <c r="L27" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="104" customFormat="1" ht="12">
@@ -39909,7 +39896,7 @@
       </c>
       <c r="K28" s="79"/>
       <c r="L28" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="104" customFormat="1" ht="12">
@@ -39943,7 +39930,7 @@
       </c>
       <c r="K29" s="79"/>
       <c r="L29" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="104" customFormat="1" ht="12">
@@ -39977,7 +39964,7 @@
       </c>
       <c r="K30" s="79"/>
       <c r="L30" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="104" customFormat="1" ht="12">
@@ -40011,7 +39998,7 @@
       </c>
       <c r="K31" s="79"/>
       <c r="L31" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="104" customFormat="1" ht="12">
@@ -40045,7 +40032,7 @@
       </c>
       <c r="K32" s="79"/>
       <c r="L32" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -40073,7 +40060,7 @@
       </c>
       <c r="K33" s="151"/>
       <c r="L33" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -40103,7 +40090,7 @@
       </c>
       <c r="K34" s="151"/>
       <c r="L34" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="104" customFormat="1" ht="12">
@@ -40137,7 +40124,7 @@
       </c>
       <c r="K35" s="79"/>
       <c r="L35" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="104" customFormat="1" ht="12">
@@ -40171,7 +40158,7 @@
       </c>
       <c r="K36" s="79"/>
       <c r="L36" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="104" customFormat="1" ht="12">
@@ -40205,7 +40192,7 @@
       </c>
       <c r="K37" s="79"/>
       <c r="L37" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="104" customFormat="1" ht="12">
@@ -40239,7 +40226,7 @@
       </c>
       <c r="K38" s="79"/>
       <c r="L38" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="104" customFormat="1" ht="12">
@@ -40273,7 +40260,7 @@
       </c>
       <c r="K39" s="79"/>
       <c r="L39" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="104" customFormat="1" ht="12">
@@ -40307,7 +40294,7 @@
       </c>
       <c r="K40" s="79"/>
       <c r="L40" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -40375,7 +40362,7 @@
       </c>
       <c r="K42" s="151"/>
       <c r="L42" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -40403,7 +40390,7 @@
       </c>
       <c r="K43" s="151"/>
       <c r="L43" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -40435,7 +40422,7 @@
       </c>
       <c r="K44" s="151"/>
       <c r="L44" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -40467,7 +40454,7 @@
       </c>
       <c r="K45" s="151"/>
       <c r="L45" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="24">
@@ -40495,7 +40482,7 @@
       </c>
       <c r="K46" s="151"/>
       <c r="L46" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -40525,7 +40512,7 @@
       </c>
       <c r="K47" s="151"/>
       <c r="L47" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="36.75">
@@ -40547,7 +40534,7 @@
       </c>
       <c r="K48" s="151"/>
       <c r="L48" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="72.75">
@@ -40579,7 +40566,7 @@
       </c>
       <c r="K49" s="151"/>
       <c r="L49" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -40609,7 +40596,7 @@
       </c>
       <c r="K50" s="151"/>
       <c r="L50" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -40637,7 +40624,7 @@
       </c>
       <c r="K51" s="151"/>
       <c r="L51" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="24.75">
@@ -40669,7 +40656,7 @@
       </c>
       <c r="K52" s="151"/>
       <c r="L52" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="48.75">
@@ -40701,7 +40688,7 @@
       </c>
       <c r="K53" s="151"/>
       <c r="L53" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="24">
@@ -40723,7 +40710,7 @@
       </c>
       <c r="K54" s="151"/>
       <c r="L54" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -40753,7 +40740,7 @@
       </c>
       <c r="K55" s="151"/>
       <c r="L55" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="24">
@@ -40781,7 +40768,7 @@
       </c>
       <c r="K56" s="151"/>
       <c r="L56" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -40811,7 +40798,7 @@
       </c>
       <c r="K57" s="151"/>
       <c r="L57" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -40841,7 +40828,7 @@
       </c>
       <c r="K58" s="151"/>
       <c r="L58" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -40867,7 +40854,7 @@
       </c>
       <c r="K59" s="151"/>
       <c r="L59" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="36">
@@ -40897,7 +40884,7 @@
       </c>
       <c r="K60" s="151"/>
       <c r="L60" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="24.75">
@@ -40925,7 +40912,7 @@
       </c>
       <c r="K61" s="151"/>
       <c r="L61" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -40953,7 +40940,7 @@
       </c>
       <c r="K62" s="151"/>
       <c r="L62" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -40983,7 +40970,7 @@
       </c>
       <c r="K63" s="151"/>
       <c r="L63" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -41013,7 +41000,7 @@
       </c>
       <c r="K64" s="151"/>
       <c r="L64" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="24">
@@ -41041,7 +41028,7 @@
       </c>
       <c r="K65" s="151"/>
       <c r="L65" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -41071,7 +41058,7 @@
       </c>
       <c r="K66" s="151"/>
       <c r="L66" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="36.75">
@@ -41097,7 +41084,7 @@
       </c>
       <c r="K67" s="151"/>
       <c r="L67" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="72.75">
@@ -41129,7 +41116,7 @@
       </c>
       <c r="K68" s="151"/>
       <c r="L68" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -41159,7 +41146,7 @@
       </c>
       <c r="K69" s="151"/>
       <c r="L69" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -41187,7 +41174,7 @@
       </c>
       <c r="K70" s="151"/>
       <c r="L70" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="24.75">
@@ -41219,7 +41206,7 @@
       </c>
       <c r="K71" s="151"/>
       <c r="L71" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="48.75">
@@ -41251,7 +41238,7 @@
       </c>
       <c r="K72" s="151"/>
       <c r="L72" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -41275,7 +41262,7 @@
       </c>
       <c r="K73" s="151"/>
       <c r="L73" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -41305,7 +41292,7 @@
       </c>
       <c r="K74" s="151"/>
       <c r="L74" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="24">
@@ -41333,7 +41320,7 @@
       </c>
       <c r="K75" s="151"/>
       <c r="L75" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -41363,7 +41350,7 @@
       </c>
       <c r="K76" s="151"/>
       <c r="L76" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -41393,7 +41380,7 @@
       </c>
       <c r="K77" s="151"/>
       <c r="L77" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -41419,7 +41406,7 @@
       </c>
       <c r="K78" s="151"/>
       <c r="L78" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="36">
@@ -41449,7 +41436,7 @@
       </c>
       <c r="K79" s="151"/>
       <c r="L79" s="79" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
   </sheetData>

--- a/data/human/adult/validation/SystemValidationData.xlsx
+++ b/data/human/adult/validation/SystemValidationData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Pulse\engine\data\human\adult\validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Pulse\engine\data\human\adult\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0364D484-1C7B-485C-8DEB-D9CD21BF3B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24AE0C5-D465-4C32-A1B9-F63E20425075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="32620" windowHeight="21360" tabRatio="724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blood Chemistry" sheetId="4" r:id="rId1"/>
@@ -23,12 +23,23 @@
     <sheet name="Respiratory" sheetId="35" r:id="rId8"/>
     <sheet name="Tissue" sheetId="34" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3978" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3979" uniqueCount="1080">
   <si>
     <t>Output</t>
   </si>
@@ -3382,6 +3393,15 @@
   </si>
   <si>
     <t>Equal to System Property / Molar Mass * Valence</t>
+  </si>
+  <si>
+    <t>ArterialBloodGasTest</t>
+  </si>
+  <si>
+    <t>ABG@</t>
+  </si>
+  <si>
+    <t>8f</t>
   </si>
 </sst>
 </file>
@@ -5071,25 +5091,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="40.140625" style="51" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.1796875" style="51" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.81640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" style="52" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48" style="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.28515625" style="51" customWidth="1"/>
+    <col min="8" max="8" width="49.26953125" style="51" customWidth="1"/>
     <col min="9" max="9" width="36" style="51" customWidth="1"/>
-    <col min="10" max="11" width="28.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="52" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="51"/>
+    <col min="10" max="11" width="28.81640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.453125" style="52" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
@@ -5714,7 +5734,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="56.25">
+    <row r="22" spans="1:12" ht="42">
       <c r="A22" s="109" t="s">
         <v>886</v>
       </c>
@@ -5744,7 +5764,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="22.5">
+    <row r="23" spans="1:12" ht="21">
       <c r="A23" s="15" t="s">
         <v>887</v>
       </c>
@@ -6547,10 +6567,10 @@
       <c r="H48" s="64"/>
       <c r="I48" s="64"/>
       <c r="J48" s="184" t="s">
-        <v>403</v>
+        <v>1077</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>411</v>
+        <v>1078</v>
       </c>
       <c r="L48" s="184" t="s">
         <v>966</v>
@@ -6581,10 +6601,10 @@
       <c r="H49" s="64"/>
       <c r="I49" s="64"/>
       <c r="J49" s="184" t="s">
-        <v>403</v>
+        <v>1077</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>411</v>
+        <v>1078</v>
       </c>
       <c r="L49" s="184" t="s">
         <v>966</v>
@@ -6615,10 +6635,10 @@
       <c r="H50" s="64"/>
       <c r="I50" s="64"/>
       <c r="J50" s="184" t="s">
-        <v>403</v>
+        <v>1077</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>411</v>
+        <v>1078</v>
       </c>
       <c r="L50" s="184" t="s">
         <v>966</v>
@@ -6649,10 +6669,10 @@
       <c r="H51" s="64"/>
       <c r="I51" s="64"/>
       <c r="J51" s="184" t="s">
-        <v>403</v>
+        <v>1077</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>411</v>
+        <v>1078</v>
       </c>
       <c r="L51" s="184" t="s">
         <v>966</v>
@@ -6681,10 +6701,10 @@
       <c r="H52" s="64"/>
       <c r="I52" s="64"/>
       <c r="J52" s="184" t="s">
-        <v>403</v>
+        <v>1077</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>411</v>
+        <v>1078</v>
       </c>
       <c r="L52" s="184" t="s">
         <v>966</v>
@@ -6792,7 +6812,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15">
+    <row r="56" spans="1:12" ht="14.5">
       <c r="A56" s="80" t="s">
         <v>431</v>
       </c>
@@ -6883,10 +6903,10 @@
         <v>410</v>
       </c>
       <c r="L58" s="151" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="12.75">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="12.5">
       <c r="A59" s="80" t="s">
         <v>434</v>
       </c>
@@ -8207,21 +8227,21 @@
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="29" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="29" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" style="28" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" style="107" customWidth="1"/>
-    <col min="9" max="9" width="29.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="52" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
+    <col min="6" max="6" width="21.7265625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="32.7265625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="36.26953125" style="107" customWidth="1"/>
+    <col min="9" max="9" width="29.54296875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="27.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.81640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.453125" style="52" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -8376,7 +8396,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="60">
+    <row r="6" spans="1:12" ht="48">
       <c r="A6" s="172" t="s">
         <v>170</v>
       </c>
@@ -8706,7 +8726,7 @@
       <c r="K17" s="184"/>
       <c r="L17" s="184"/>
     </row>
-    <row r="18" spans="1:12" s="51" customFormat="1" ht="60">
+    <row r="18" spans="1:12" s="51" customFormat="1" ht="48">
       <c r="A18" s="170" t="s">
         <v>169</v>
       </c>
@@ -8738,7 +8758,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="51" customFormat="1" ht="24">
+    <row r="19" spans="1:12" s="51" customFormat="1">
       <c r="A19" s="170" t="s">
         <v>202</v>
       </c>
@@ -8952,7 +8972,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="51" customFormat="1" ht="24">
+    <row r="27" spans="1:12" s="51" customFormat="1">
       <c r="A27" s="170" t="s">
         <v>903</v>
       </c>
@@ -9014,7 +9034,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="51" customFormat="1" ht="48">
+    <row r="29" spans="1:12" s="51" customFormat="1" ht="36">
       <c r="A29" s="170" t="s">
         <v>177</v>
       </c>
@@ -9524,7 +9544,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="36">
+    <row r="46" spans="1:12" ht="24">
       <c r="A46" s="170" t="s">
         <v>623</v>
       </c>
@@ -9786,7 +9806,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="36">
+    <row r="55" spans="1:12" ht="24">
       <c r="A55" s="170" t="s">
         <v>626</v>
       </c>
@@ -9844,7 +9864,7 @@
       <c r="K56" s="184"/>
       <c r="L56" s="184"/>
     </row>
-    <row r="57" spans="1:12" ht="24">
+    <row r="57" spans="1:12">
       <c r="A57" s="170" t="s">
         <v>647</v>
       </c>
@@ -9902,7 +9922,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="24">
+    <row r="59" spans="1:12">
       <c r="A59" s="170" t="s">
         <v>649</v>
       </c>
@@ -9960,7 +9980,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="24">
+    <row r="61" spans="1:12">
       <c r="A61" s="170" t="s">
         <v>651</v>
       </c>
@@ -10018,7 +10038,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="24">
+    <row r="63" spans="1:12">
       <c r="A63" s="170" t="s">
         <v>627</v>
       </c>
@@ -10196,7 +10216,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="24">
+    <row r="69" spans="1:12">
       <c r="A69" s="170" t="s">
         <v>653</v>
       </c>
@@ -10314,7 +10334,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="24">
+    <row r="73" spans="1:12">
       <c r="A73" s="170" t="s">
         <v>656</v>
       </c>
@@ -10404,7 +10424,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="24">
+    <row r="76" spans="1:12">
       <c r="A76" s="170" t="s">
         <v>659</v>
       </c>
@@ -10494,7 +10514,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="36">
+    <row r="79" spans="1:12" ht="24">
       <c r="A79" s="170" t="s">
         <v>633</v>
       </c>
@@ -10552,7 +10572,7 @@
       <c r="K80" s="184"/>
       <c r="L80" s="184"/>
     </row>
-    <row r="81" spans="1:12" ht="60">
+    <row r="81" spans="1:12" ht="48">
       <c r="A81" s="170" t="s">
         <v>662</v>
       </c>
@@ -10756,7 +10776,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="36">
+    <row r="88" spans="1:12" ht="24">
       <c r="A88" s="170" t="s">
         <v>636</v>
       </c>
@@ -10814,7 +10834,7 @@
       <c r="K89" s="184"/>
       <c r="L89" s="184"/>
     </row>
-    <row r="90" spans="1:12" ht="24">
+    <row r="90" spans="1:12">
       <c r="A90" s="170" t="s">
         <v>665</v>
       </c>
@@ -10872,7 +10892,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="24">
+    <row r="92" spans="1:12">
       <c r="A92" s="170" t="s">
         <v>667</v>
       </c>
@@ -10930,7 +10950,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="24">
+    <row r="94" spans="1:12">
       <c r="A94" s="170" t="s">
         <v>669</v>
       </c>
@@ -10988,7 +11008,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="24">
+    <row r="96" spans="1:12">
       <c r="A96" s="170" t="s">
         <v>637</v>
       </c>
@@ -11216,7 +11236,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="24">
+    <row r="104" spans="1:12">
       <c r="A104" s="170" t="s">
         <v>645</v>
       </c>
@@ -11303,20 +11323,20 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="21"/>
-    <col min="5" max="6" width="17.28515625" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="51" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" style="51" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="51" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="51" customWidth="1"/>
-    <col min="11" max="11" width="28.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="51" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="51"/>
+    <col min="1" max="1" width="20.7265625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="21"/>
+    <col min="5" max="6" width="17.26953125" style="51" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" style="51" customWidth="1"/>
+    <col min="8" max="8" width="29.7265625" style="51" customWidth="1"/>
+    <col min="9" max="9" width="21.453125" style="51" customWidth="1"/>
+    <col min="10" max="10" width="18.26953125" style="51" customWidth="1"/>
+    <col min="11" max="11" width="28.81640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.453125" style="51" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24">
@@ -11357,7 +11377,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="72">
+    <row r="2" spans="1:12" ht="60">
       <c r="A2" s="39" t="s">
         <v>172</v>
       </c>
@@ -11397,23 +11417,23 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L11" sqref="L11"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="7" width="23.5703125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="9"/>
-    <col min="11" max="11" width="28.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="51" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" customWidth="1"/>
+    <col min="6" max="7" width="23.54296875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.1796875" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="9"/>
+    <col min="11" max="11" width="28.81640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.453125" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -11537,6 +11557,9 @@
       </c>
       <c r="G5" s="10" t="s">
         <v>536</v>
+      </c>
+      <c r="J5" s="78" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="57" customFormat="1" ht="24">
@@ -11730,21 +11753,21 @@
       <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="51" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="51" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="51" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="51" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" style="51" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" style="51" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" style="51" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" style="51" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" style="51" customWidth="1"/>
+    <col min="5" max="5" width="31.453125" style="51" customWidth="1"/>
     <col min="6" max="6" width="12" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" style="84" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="51" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="51"/>
+    <col min="7" max="7" width="5.1796875" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.7265625" style="84" customWidth="1"/>
+    <col min="9" max="9" width="6.7265625" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.81640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.453125" style="51" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -11828,18 +11851,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.26953125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="21" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="21"/>
-    <col min="5" max="6" width="17.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="21" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="21"/>
-    <col min="11" max="11" width="28.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="51" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="21"/>
+    <col min="4" max="4" width="9.1796875" style="21"/>
+    <col min="5" max="6" width="17.26953125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7265625" style="21" customWidth="1"/>
+    <col min="9" max="10" width="9.1796875" style="21"/>
+    <col min="11" max="11" width="28.81640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.453125" style="51" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24">
@@ -11986,25 +12009,25 @@
   <dimension ref="A1:L413"/>
   <sheetViews>
     <sheetView topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I118" sqref="I118"/>
+      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="85" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="85" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" style="51" customWidth="1"/>
+    <col min="1" max="1" width="38.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.7265625" style="85" customWidth="1"/>
+    <col min="5" max="5" width="24.54296875" style="85" customWidth="1"/>
+    <col min="6" max="6" width="28.54296875" style="51" customWidth="1"/>
     <col min="7" max="7" width="40" style="51" customWidth="1"/>
-    <col min="8" max="8" width="41.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="51" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="51"/>
+    <col min="8" max="8" width="41.81640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.1796875" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" style="52" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.81640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.453125" style="51" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -12167,7 +12190,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="24">
+    <row r="6" spans="1:12">
       <c r="A6" s="65" t="s">
         <v>341</v>
       </c>
@@ -12486,7 +12509,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="24">
+    <row r="17" spans="1:12">
       <c r="A17" s="70" t="s">
         <v>438</v>
       </c>
@@ -12704,7 +12727,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="24">
+    <row r="24" spans="1:12">
       <c r="A24" s="17" t="s">
         <v>335</v>
       </c>
@@ -12944,7 +12967,7 @@
       <c r="K31" s="56"/>
       <c r="L31" s="56"/>
     </row>
-    <row r="32" spans="1:12" ht="24">
+    <row r="32" spans="1:12">
       <c r="A32" s="17" t="s">
         <v>338</v>
       </c>
@@ -13122,7 +13145,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="24">
+    <row r="38" spans="1:12">
       <c r="A38" s="70" t="s">
         <v>440</v>
       </c>
@@ -13340,7 +13363,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="24">
+    <row r="45" spans="1:12">
       <c r="A45" s="17" t="s">
         <v>334</v>
       </c>
@@ -13578,7 +13601,7 @@
       <c r="K52" s="56"/>
       <c r="L52" s="151"/>
     </row>
-    <row r="53" spans="1:12" ht="24">
+    <row r="53" spans="1:12">
       <c r="A53" s="17" t="s">
         <v>337</v>
       </c>
@@ -13734,7 +13757,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="48">
+    <row r="58" spans="1:12" ht="36">
       <c r="A58" s="65" t="s">
         <v>714</v>
       </c>
@@ -13764,7 +13787,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="48">
+    <row r="59" spans="1:12" ht="36">
       <c r="A59" s="65" t="s">
         <v>715</v>
       </c>
@@ -13794,7 +13817,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="48">
+    <row r="60" spans="1:12" ht="36">
       <c r="A60" s="65" t="s">
         <v>716</v>
       </c>
@@ -13824,7 +13847,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="48">
+    <row r="61" spans="1:12" ht="36">
       <c r="A61" s="65" t="s">
         <v>717</v>
       </c>
@@ -13854,7 +13877,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="48">
+    <row r="62" spans="1:12" ht="36">
       <c r="A62" s="65" t="s">
         <v>718</v>
       </c>
@@ -13884,7 +13907,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="48">
+    <row r="63" spans="1:12" ht="36">
       <c r="A63" s="65" t="s">
         <v>719</v>
       </c>
@@ -13914,7 +13937,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="48">
+    <row r="64" spans="1:12" ht="36">
       <c r="A64" s="65" t="s">
         <v>703</v>
       </c>
@@ -13944,7 +13967,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="48">
+    <row r="65" spans="1:12" ht="36">
       <c r="A65" s="65" t="s">
         <v>704</v>
       </c>
@@ -14006,7 +14029,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="36">
+    <row r="67" spans="1:12" ht="24">
       <c r="A67" s="120" t="s">
         <v>720</v>
       </c>
@@ -14038,7 +14061,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="48">
+    <row r="68" spans="1:12" ht="36">
       <c r="A68" s="120" t="s">
         <v>721</v>
       </c>
@@ -14068,7 +14091,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="48">
+    <row r="69" spans="1:12" ht="36">
       <c r="A69" s="120" t="s">
         <v>722</v>
       </c>
@@ -14098,7 +14121,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="48">
+    <row r="70" spans="1:12" ht="36">
       <c r="A70" s="120" t="s">
         <v>723</v>
       </c>
@@ -14128,7 +14151,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="48">
+    <row r="71" spans="1:12" ht="36">
       <c r="A71" s="120" t="s">
         <v>724</v>
       </c>
@@ -14158,7 +14181,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="48">
+    <row r="72" spans="1:12" ht="36">
       <c r="A72" s="120" t="s">
         <v>725</v>
       </c>
@@ -14188,7 +14211,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="48">
+    <row r="73" spans="1:12" ht="36">
       <c r="A73" s="120" t="s">
         <v>726</v>
       </c>
@@ -14218,7 +14241,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="48">
+    <row r="74" spans="1:12" ht="36">
       <c r="A74" s="120" t="s">
         <v>706</v>
       </c>
@@ -14248,7 +14271,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="48">
+    <row r="75" spans="1:12" ht="36">
       <c r="A75" s="120" t="s">
         <v>707</v>
       </c>
@@ -15334,7 +15357,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="36">
+    <row r="109" spans="1:12" ht="24">
       <c r="A109" s="65" t="s">
         <v>917</v>
       </c>
@@ -15428,7 +15451,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="36">
+    <row r="112" spans="1:12" ht="24">
       <c r="A112" s="65" t="s">
         <v>920</v>
       </c>
@@ -16462,7 +16485,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="145" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="145" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A145" s="8" t="s">
         <v>463</v>
       </c>
@@ -16500,7 +16523,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="146" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="146" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A146" s="80" t="s">
         <v>465</v>
       </c>
@@ -16528,7 +16551,7 @@
       </c>
       <c r="L146" s="56"/>
     </row>
-    <row r="147" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="147" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A147" s="80" t="s">
         <v>466</v>
       </c>
@@ -16548,7 +16571,7 @@
       </c>
       <c r="L147" s="56"/>
     </row>
-    <row r="148" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="148" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A148" s="80" t="s">
         <v>372</v>
       </c>
@@ -16576,7 +16599,7 @@
       </c>
       <c r="L148" s="56"/>
     </row>
-    <row r="149" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="149" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A149" s="80" t="s">
         <v>467</v>
       </c>
@@ -16604,7 +16627,7 @@
       </c>
       <c r="L149" s="56"/>
     </row>
-    <row r="150" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="150" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A150" s="80" t="s">
         <v>471</v>
       </c>
@@ -16624,7 +16647,7 @@
       </c>
       <c r="L150" s="56"/>
     </row>
-    <row r="151" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="151" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A151" s="80" t="s">
         <v>468</v>
       </c>
@@ -16658,7 +16681,7 @@
       </c>
       <c r="L151" s="56"/>
     </row>
-    <row r="152" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="152" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A152" s="80" t="s">
         <v>469</v>
       </c>
@@ -16686,7 +16709,7 @@
       </c>
       <c r="L152" s="56"/>
     </row>
-    <row r="153" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="153" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A153" s="80" t="s">
         <v>472</v>
       </c>
@@ -16706,7 +16729,7 @@
       </c>
       <c r="L153" s="56"/>
     </row>
-    <row r="154" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="154" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A154" s="80" t="s">
         <v>470</v>
       </c>
@@ -16734,7 +16757,7 @@
       </c>
       <c r="L154" s="56"/>
     </row>
-    <row r="155" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="155" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A155" s="80" t="s">
         <v>473</v>
       </c>
@@ -16754,7 +16777,7 @@
       </c>
       <c r="L155" s="56"/>
     </row>
-    <row r="156" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="156" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A156" s="80" t="s">
         <v>474</v>
       </c>
@@ -16774,7 +16797,7 @@
       </c>
       <c r="L156" s="56"/>
     </row>
-    <row r="157" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="157" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A157" s="80" t="s">
         <v>475</v>
       </c>
@@ -19330,21 +19353,21 @@
       <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="28" customWidth="1"/>
+    <col min="1" max="1" width="44.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" style="28" customWidth="1"/>
     <col min="3" max="3" width="30" style="28" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="28" customWidth="1"/>
     <col min="5" max="5" width="20" style="176" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" style="176" customWidth="1"/>
+    <col min="6" max="6" width="27.26953125" style="176" customWidth="1"/>
     <col min="7" max="7" width="24" style="176" customWidth="1"/>
-    <col min="8" max="8" width="37.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.54296875" style="28" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="52" style="5" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.85546875" style="185" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="185" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="24.7265625" style="81" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.81640625" style="185" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.453125" style="185" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -19385,7 +19408,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="48">
+    <row r="2" spans="1:12" ht="36">
       <c r="A2" s="170" t="s">
         <v>911</v>
       </c>
@@ -20021,7 +20044,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="60">
+    <row r="25" spans="1:12" ht="48">
       <c r="A25" s="170" t="s">
         <v>1029</v>
       </c>
@@ -20243,7 +20266,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="120">
+    <row r="33" spans="1:12" ht="96">
       <c r="A33" s="170" t="s">
         <v>986</v>
       </c>
@@ -20839,7 +20862,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="24">
+    <row r="54" spans="1:12">
       <c r="A54" s="170" t="s">
         <v>1020</v>
       </c>
@@ -20871,7 +20894,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="24">
+    <row r="55" spans="1:12">
       <c r="A55" s="170" t="s">
         <v>1020</v>
       </c>
@@ -22317,7 +22340,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="100" spans="1:12" s="163" customFormat="1" ht="24.75">
+    <row r="100" spans="1:12" s="163" customFormat="1" ht="24.5">
       <c r="A100" s="80" t="s">
         <v>386</v>
       </c>
@@ -22599,7 +22622,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="109" spans="1:12" s="163" customFormat="1" ht="24.75">
+    <row r="109" spans="1:12" s="163" customFormat="1" ht="24.5">
       <c r="A109" s="80" t="s">
         <v>390</v>
       </c>
@@ -22663,7 +22686,7 @@
       </c>
       <c r="L110" s="184"/>
     </row>
-    <row r="111" spans="1:12" s="163" customFormat="1" ht="24.75">
+    <row r="111" spans="1:12" s="163" customFormat="1" ht="24.5">
       <c r="A111" s="80" t="s">
         <v>391</v>
       </c>
@@ -22771,20 +22794,20 @@
       <selection pane="topRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.140625" style="105" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="105"/>
-    <col min="4" max="4" width="14.85546875" style="105" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="106" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="105" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" style="105" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61.42578125" style="135" customWidth="1"/>
-    <col min="9" max="9" width="52.42578125" style="105" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" style="105" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="105"/>
-    <col min="12" max="12" width="12.5703125" style="105" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="105"/>
+    <col min="1" max="1" width="31.1796875" style="105" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.1796875" style="105"/>
+    <col min="4" max="4" width="14.81640625" style="105" customWidth="1"/>
+    <col min="5" max="5" width="26.453125" style="106" customWidth="1"/>
+    <col min="6" max="6" width="30.7265625" style="105" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" style="105" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.453125" style="135" customWidth="1"/>
+    <col min="9" max="9" width="52.453125" style="105" customWidth="1"/>
+    <col min="10" max="10" width="24.81640625" style="105" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" style="105"/>
+    <col min="12" max="12" width="12.54296875" style="105" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="105"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="51" customFormat="1" ht="26.25" customHeight="1">
@@ -24169,7 +24192,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="24.75">
+    <row r="42" spans="1:12">
       <c r="A42" s="109" t="s">
         <v>821</v>
       </c>
@@ -24349,7 +24372,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="36.75">
+    <row r="48" spans="1:12" ht="36.5">
       <c r="A48" s="109" t="s">
         <v>828</v>
       </c>
@@ -24371,7 +24394,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="72.75">
+    <row r="49" spans="1:12" ht="60.5">
       <c r="A49" s="109" t="s">
         <v>829</v>
       </c>
@@ -24461,7 +24484,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="24.75">
+    <row r="52" spans="1:12" ht="24">
       <c r="A52" s="109" t="s">
         <v>832</v>
       </c>
@@ -24493,7 +24516,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="48.75">
+    <row r="53" spans="1:12" ht="36.5">
       <c r="A53" s="109" t="s">
         <v>833</v>
       </c>
@@ -24721,7 +24744,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="24.75">
+    <row r="61" spans="1:12">
       <c r="A61" s="109" t="s">
         <v>841</v>
       </c>
@@ -24895,7 +24918,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="36.75">
+    <row r="67" spans="1:12" ht="24.5">
       <c r="A67" s="109" t="s">
         <v>847</v>
       </c>
@@ -24921,7 +24944,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="72.75">
+    <row r="68" spans="1:12" ht="60.5">
       <c r="A68" s="109" t="s">
         <v>848</v>
       </c>
@@ -25011,7 +25034,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="24.75">
+    <row r="71" spans="1:12" ht="24">
       <c r="A71" s="109" t="s">
         <v>851</v>
       </c>
@@ -25043,7 +25066,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="48.75">
+    <row r="72" spans="1:12" ht="36.5">
       <c r="A72" s="109" t="s">
         <v>852</v>
       </c>

--- a/data/human/adult/validation/SystemValidationData.xlsx
+++ b/data/human/adult/validation/SystemValidationData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Pulse\engine\data\human\adult\validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\respiratory-mechanics-source\data\human\adult\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24AE0C5-D465-4C32-A1B9-F63E20425075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C95253-E957-45A0-ACE8-5941CE30A7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="32620" windowHeight="21360" tabRatio="724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="4680" windowWidth="43200" windowHeight="23535" tabRatio="724" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blood Chemistry" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3979" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3987" uniqueCount="1082">
   <si>
     <t>Output</t>
   </si>
@@ -3402,6 +3402,13 @@
   </si>
   <si>
     <t>8f</t>
+  </si>
+  <si>
+    <t>RelativeTotalLungVolume</t>
+  </si>
+  <si>
+    <t>Derived from Tidal Volume (TV) 
+~1/2 TV</t>
   </si>
 </sst>
 </file>
@@ -5091,25 +5098,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="40.1796875" style="51" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.81640625" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" style="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="52" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48" style="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.26953125" style="51" customWidth="1"/>
+    <col min="8" max="8" width="49.28515625" style="51" customWidth="1"/>
     <col min="9" max="9" width="36" style="51" customWidth="1"/>
-    <col min="10" max="11" width="28.81640625" style="52" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.453125" style="52" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="51"/>
+    <col min="10" max="11" width="28.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="52" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
@@ -5734,7 +5741,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="42">
+    <row r="22" spans="1:12" ht="56.25">
       <c r="A22" s="109" t="s">
         <v>886</v>
       </c>
@@ -5764,7 +5771,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="21">
+    <row r="23" spans="1:12" ht="22.5">
       <c r="A23" s="15" t="s">
         <v>887</v>
       </c>
@@ -6812,7 +6819,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="14.5">
+    <row r="56" spans="1:12" ht="15">
       <c r="A56" s="80" t="s">
         <v>431</v>
       </c>
@@ -6906,7 +6913,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="12.5">
+    <row r="59" spans="1:12" ht="12.75">
       <c r="A59" s="80" t="s">
         <v>434</v>
       </c>
@@ -8227,21 +8234,21 @@
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="38.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="29" customWidth="1"/>
-    <col min="6" max="6" width="21.7265625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="32.7265625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="36.26953125" style="107" customWidth="1"/>
-    <col min="9" max="9" width="29.54296875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="27.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.81640625" style="52" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.453125" style="52" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="5"/>
+    <col min="6" max="6" width="21.7109375" style="29" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" style="28" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" style="107" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="52" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -8396,7 +8403,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="48">
+    <row r="6" spans="1:12" ht="60">
       <c r="A6" s="172" t="s">
         <v>170</v>
       </c>
@@ -8726,7 +8733,7 @@
       <c r="K17" s="184"/>
       <c r="L17" s="184"/>
     </row>
-    <row r="18" spans="1:12" s="51" customFormat="1" ht="48">
+    <row r="18" spans="1:12" s="51" customFormat="1" ht="60">
       <c r="A18" s="170" t="s">
         <v>169</v>
       </c>
@@ -8758,7 +8765,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="51" customFormat="1">
+    <row r="19" spans="1:12" s="51" customFormat="1" ht="24">
       <c r="A19" s="170" t="s">
         <v>202</v>
       </c>
@@ -8972,7 +8979,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="51" customFormat="1">
+    <row r="27" spans="1:12" s="51" customFormat="1" ht="24">
       <c r="A27" s="170" t="s">
         <v>903</v>
       </c>
@@ -9034,7 +9041,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="51" customFormat="1" ht="36">
+    <row r="29" spans="1:12" s="51" customFormat="1" ht="48">
       <c r="A29" s="170" t="s">
         <v>177</v>
       </c>
@@ -9544,7 +9551,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="24">
+    <row r="46" spans="1:12" ht="36">
       <c r="A46" s="170" t="s">
         <v>623</v>
       </c>
@@ -9806,7 +9813,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="24">
+    <row r="55" spans="1:12" ht="36">
       <c r="A55" s="170" t="s">
         <v>626</v>
       </c>
@@ -9864,7 +9871,7 @@
       <c r="K56" s="184"/>
       <c r="L56" s="184"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" ht="24">
       <c r="A57" s="170" t="s">
         <v>647</v>
       </c>
@@ -9922,7 +9929,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" ht="24">
       <c r="A59" s="170" t="s">
         <v>649</v>
       </c>
@@ -9980,7 +9987,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" ht="24">
       <c r="A61" s="170" t="s">
         <v>651</v>
       </c>
@@ -10038,7 +10045,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" ht="24">
       <c r="A63" s="170" t="s">
         <v>627</v>
       </c>
@@ -10216,7 +10223,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" ht="24">
       <c r="A69" s="170" t="s">
         <v>653</v>
       </c>
@@ -10334,7 +10341,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" ht="24">
       <c r="A73" s="170" t="s">
         <v>656</v>
       </c>
@@ -10424,7 +10431,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" ht="24">
       <c r="A76" s="170" t="s">
         <v>659</v>
       </c>
@@ -10514,7 +10521,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="24">
+    <row r="79" spans="1:12" ht="36">
       <c r="A79" s="170" t="s">
         <v>633</v>
       </c>
@@ -10572,7 +10579,7 @@
       <c r="K80" s="184"/>
       <c r="L80" s="184"/>
     </row>
-    <row r="81" spans="1:12" ht="48">
+    <row r="81" spans="1:12" ht="60">
       <c r="A81" s="170" t="s">
         <v>662</v>
       </c>
@@ -10776,7 +10783,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="24">
+    <row r="88" spans="1:12" ht="36">
       <c r="A88" s="170" t="s">
         <v>636</v>
       </c>
@@ -10834,7 +10841,7 @@
       <c r="K89" s="184"/>
       <c r="L89" s="184"/>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" ht="24">
       <c r="A90" s="170" t="s">
         <v>665</v>
       </c>
@@ -10892,7 +10899,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" ht="24">
       <c r="A92" s="170" t="s">
         <v>667</v>
       </c>
@@ -10950,7 +10957,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" ht="24">
       <c r="A94" s="170" t="s">
         <v>669</v>
       </c>
@@ -11008,7 +11015,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" ht="24">
       <c r="A96" s="170" t="s">
         <v>637</v>
       </c>
@@ -11236,7 +11243,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" ht="24">
       <c r="A104" s="170" t="s">
         <v>645</v>
       </c>
@@ -11323,20 +11330,20 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="21"/>
-    <col min="5" max="6" width="17.26953125" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" style="51" customWidth="1"/>
-    <col min="8" max="8" width="29.7265625" style="51" customWidth="1"/>
-    <col min="9" max="9" width="21.453125" style="51" customWidth="1"/>
-    <col min="10" max="10" width="18.26953125" style="51" customWidth="1"/>
-    <col min="11" max="11" width="28.81640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.453125" style="51" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="51"/>
+    <col min="1" max="1" width="20.7109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="21"/>
+    <col min="5" max="6" width="17.28515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="51" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" style="51" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="51" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="51" customWidth="1"/>
+    <col min="11" max="11" width="28.85546875" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="51" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24">
@@ -11377,7 +11384,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60">
+    <row r="2" spans="1:12" ht="72">
       <c r="A2" s="39" t="s">
         <v>172</v>
       </c>
@@ -11421,22 +11428,22 @@
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.54296875" customWidth="1"/>
-    <col min="6" max="7" width="23.54296875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.1796875" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="9"/>
-    <col min="11" max="11" width="28.81640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.453125" style="51" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="7" width="23.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="9"/>
+    <col min="11" max="11" width="28.85546875" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="24">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -11753,21 +11760,21 @@
       <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="26.453125" style="51" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" style="51" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" style="51" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" style="51" customWidth="1"/>
-    <col min="5" max="5" width="31.453125" style="51" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="51" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="51" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="51" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="51" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" style="51" customWidth="1"/>
     <col min="6" max="6" width="12" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1796875" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.7265625" style="84" customWidth="1"/>
-    <col min="9" max="9" width="6.7265625" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.81640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.453125" style="51" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="51"/>
+    <col min="7" max="7" width="5.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" style="84" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.85546875" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="51" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -11851,18 +11858,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="28.26953125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="21" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="21"/>
-    <col min="5" max="6" width="17.26953125" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7265625" style="21" customWidth="1"/>
-    <col min="9" max="10" width="9.1796875" style="21"/>
-    <col min="11" max="11" width="28.81640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.453125" style="51" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="21"/>
+    <col min="4" max="4" width="9.140625" style="21"/>
+    <col min="5" max="6" width="17.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="21" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="21"/>
+    <col min="11" max="11" width="28.85546875" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="51" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24">
@@ -12013,21 +12020,21 @@
       <selection pane="topRight" activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="38.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" style="85" customWidth="1"/>
-    <col min="5" max="5" width="24.54296875" style="85" customWidth="1"/>
-    <col min="6" max="6" width="28.54296875" style="51" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="85" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="85" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" style="51" customWidth="1"/>
     <col min="7" max="7" width="40" style="51" customWidth="1"/>
-    <col min="8" max="8" width="41.81640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.1796875" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.453125" style="52" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.81640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.453125" style="51" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="51"/>
+    <col min="8" max="8" width="41.85546875" style="51" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.85546875" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="51" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -12190,7 +12197,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" ht="24">
       <c r="A6" s="65" t="s">
         <v>341</v>
       </c>
@@ -12509,7 +12516,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" ht="24">
       <c r="A17" s="70" t="s">
         <v>438</v>
       </c>
@@ -12727,7 +12734,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" ht="24">
       <c r="A24" s="17" t="s">
         <v>335</v>
       </c>
@@ -12967,7 +12974,7 @@
       <c r="K31" s="56"/>
       <c r="L31" s="56"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" ht="24">
       <c r="A32" s="17" t="s">
         <v>338</v>
       </c>
@@ -13145,7 +13152,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" ht="24">
       <c r="A38" s="70" t="s">
         <v>440</v>
       </c>
@@ -13363,7 +13370,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" ht="24">
       <c r="A45" s="17" t="s">
         <v>334</v>
       </c>
@@ -13601,7 +13608,7 @@
       <c r="K52" s="56"/>
       <c r="L52" s="151"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" ht="24">
       <c r="A53" s="17" t="s">
         <v>337</v>
       </c>
@@ -13757,7 +13764,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="36">
+    <row r="58" spans="1:12" ht="48">
       <c r="A58" s="65" t="s">
         <v>714</v>
       </c>
@@ -13787,7 +13794,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="36">
+    <row r="59" spans="1:12" ht="48">
       <c r="A59" s="65" t="s">
         <v>715</v>
       </c>
@@ -13817,7 +13824,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="36">
+    <row r="60" spans="1:12" ht="48">
       <c r="A60" s="65" t="s">
         <v>716</v>
       </c>
@@ -13847,7 +13854,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="36">
+    <row r="61" spans="1:12" ht="48">
       <c r="A61" s="65" t="s">
         <v>717</v>
       </c>
@@ -13877,7 +13884,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="36">
+    <row r="62" spans="1:12" ht="48">
       <c r="A62" s="65" t="s">
         <v>718</v>
       </c>
@@ -13907,7 +13914,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="36">
+    <row r="63" spans="1:12" ht="48">
       <c r="A63" s="65" t="s">
         <v>719</v>
       </c>
@@ -13937,7 +13944,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="36">
+    <row r="64" spans="1:12" ht="48">
       <c r="A64" s="65" t="s">
         <v>703</v>
       </c>
@@ -13967,7 +13974,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="36">
+    <row r="65" spans="1:12" ht="48">
       <c r="A65" s="65" t="s">
         <v>704</v>
       </c>
@@ -14029,7 +14036,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="24">
+    <row r="67" spans="1:12" ht="36">
       <c r="A67" s="120" t="s">
         <v>720</v>
       </c>
@@ -14061,7 +14068,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="36">
+    <row r="68" spans="1:12" ht="48">
       <c r="A68" s="120" t="s">
         <v>721</v>
       </c>
@@ -14091,7 +14098,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="36">
+    <row r="69" spans="1:12" ht="48">
       <c r="A69" s="120" t="s">
         <v>722</v>
       </c>
@@ -14121,7 +14128,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="36">
+    <row r="70" spans="1:12" ht="48">
       <c r="A70" s="120" t="s">
         <v>723</v>
       </c>
@@ -14151,7 +14158,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="36">
+    <row r="71" spans="1:12" ht="48">
       <c r="A71" s="120" t="s">
         <v>724</v>
       </c>
@@ -14181,7 +14188,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="36">
+    <row r="72" spans="1:12" ht="48">
       <c r="A72" s="120" t="s">
         <v>725</v>
       </c>
@@ -14211,7 +14218,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="36">
+    <row r="73" spans="1:12" ht="48">
       <c r="A73" s="120" t="s">
         <v>726</v>
       </c>
@@ -14241,7 +14248,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="36">
+    <row r="74" spans="1:12" ht="48">
       <c r="A74" s="120" t="s">
         <v>706</v>
       </c>
@@ -14271,7 +14278,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="36">
+    <row r="75" spans="1:12" ht="48">
       <c r="A75" s="120" t="s">
         <v>707</v>
       </c>
@@ -15357,7 +15364,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="24">
+    <row r="109" spans="1:12" ht="36">
       <c r="A109" s="65" t="s">
         <v>917</v>
       </c>
@@ -15451,7 +15458,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="24">
+    <row r="112" spans="1:12" ht="36">
       <c r="A112" s="65" t="s">
         <v>920</v>
       </c>
@@ -16485,7 +16492,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="145" spans="1:12" s="57" customFormat="1" ht="14.5">
+    <row r="145" spans="1:12" s="57" customFormat="1" ht="15">
       <c r="A145" s="8" t="s">
         <v>463</v>
       </c>
@@ -16523,7 +16530,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="146" spans="1:12" s="57" customFormat="1" ht="14.5">
+    <row r="146" spans="1:12" s="57" customFormat="1" ht="15">
       <c r="A146" s="80" t="s">
         <v>465</v>
       </c>
@@ -16551,7 +16558,7 @@
       </c>
       <c r="L146" s="56"/>
     </row>
-    <row r="147" spans="1:12" s="57" customFormat="1" ht="14.5">
+    <row r="147" spans="1:12" s="57" customFormat="1" ht="15">
       <c r="A147" s="80" t="s">
         <v>466</v>
       </c>
@@ -16571,7 +16578,7 @@
       </c>
       <c r="L147" s="56"/>
     </row>
-    <row r="148" spans="1:12" s="57" customFormat="1" ht="14.5">
+    <row r="148" spans="1:12" s="57" customFormat="1" ht="15">
       <c r="A148" s="80" t="s">
         <v>372</v>
       </c>
@@ -16599,7 +16606,7 @@
       </c>
       <c r="L148" s="56"/>
     </row>
-    <row r="149" spans="1:12" s="57" customFormat="1" ht="14.5">
+    <row r="149" spans="1:12" s="57" customFormat="1" ht="15">
       <c r="A149" s="80" t="s">
         <v>467</v>
       </c>
@@ -16627,7 +16634,7 @@
       </c>
       <c r="L149" s="56"/>
     </row>
-    <row r="150" spans="1:12" s="57" customFormat="1" ht="14.5">
+    <row r="150" spans="1:12" s="57" customFormat="1" ht="15">
       <c r="A150" s="80" t="s">
         <v>471</v>
       </c>
@@ -16647,7 +16654,7 @@
       </c>
       <c r="L150" s="56"/>
     </row>
-    <row r="151" spans="1:12" s="57" customFormat="1" ht="14.5">
+    <row r="151" spans="1:12" s="57" customFormat="1" ht="15">
       <c r="A151" s="80" t="s">
         <v>468</v>
       </c>
@@ -16681,7 +16688,7 @@
       </c>
       <c r="L151" s="56"/>
     </row>
-    <row r="152" spans="1:12" s="57" customFormat="1" ht="14.5">
+    <row r="152" spans="1:12" s="57" customFormat="1" ht="15">
       <c r="A152" s="80" t="s">
         <v>469</v>
       </c>
@@ -16709,7 +16716,7 @@
       </c>
       <c r="L152" s="56"/>
     </row>
-    <row r="153" spans="1:12" s="57" customFormat="1" ht="14.5">
+    <row r="153" spans="1:12" s="57" customFormat="1" ht="15">
       <c r="A153" s="80" t="s">
         <v>472</v>
       </c>
@@ -16729,7 +16736,7 @@
       </c>
       <c r="L153" s="56"/>
     </row>
-    <row r="154" spans="1:12" s="57" customFormat="1" ht="14.5">
+    <row r="154" spans="1:12" s="57" customFormat="1" ht="15">
       <c r="A154" s="80" t="s">
         <v>470</v>
       </c>
@@ -16757,7 +16764,7 @@
       </c>
       <c r="L154" s="56"/>
     </row>
-    <row r="155" spans="1:12" s="57" customFormat="1" ht="14.5">
+    <row r="155" spans="1:12" s="57" customFormat="1" ht="15">
       <c r="A155" s="80" t="s">
         <v>473</v>
       </c>
@@ -16777,7 +16784,7 @@
       </c>
       <c r="L155" s="56"/>
     </row>
-    <row r="156" spans="1:12" s="57" customFormat="1" ht="14.5">
+    <row r="156" spans="1:12" s="57" customFormat="1" ht="15">
       <c r="A156" s="80" t="s">
         <v>474</v>
       </c>
@@ -16797,7 +16804,7 @@
       </c>
       <c r="L156" s="56"/>
     </row>
-    <row r="157" spans="1:12" s="57" customFormat="1" ht="14.5">
+    <row r="157" spans="1:12" s="57" customFormat="1" ht="15">
       <c r="A157" s="80" t="s">
         <v>475</v>
       </c>
@@ -19344,30 +19351,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F8F0F7-B210-4329-9304-9AF1284E2465}">
-  <dimension ref="A1:L119"/>
+  <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="28" customWidth="1"/>
     <col min="3" max="3" width="30" style="28" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="28" customWidth="1"/>
     <col min="5" max="5" width="20" style="176" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.26953125" style="176" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="176" customWidth="1"/>
     <col min="7" max="7" width="24" style="176" customWidth="1"/>
-    <col min="8" max="8" width="37.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.5703125" style="28" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="52" style="5" customWidth="1"/>
-    <col min="10" max="10" width="24.7265625" style="81" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.81640625" style="185" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.453125" style="185" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="10" max="10" width="24.7109375" style="81" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.85546875" style="185" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="185" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -19408,7 +19415,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="36">
+    <row r="2" spans="1:12" ht="48">
       <c r="A2" s="170" t="s">
         <v>911</v>
       </c>
@@ -20044,7 +20051,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="48">
+    <row r="25" spans="1:12" ht="60">
       <c r="A25" s="170" t="s">
         <v>1029</v>
       </c>
@@ -20266,7 +20273,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="96">
+    <row r="33" spans="1:12" ht="120">
       <c r="A33" s="170" t="s">
         <v>986</v>
       </c>
@@ -20360,20 +20367,30 @@
         <v>778</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="172" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B36" s="180" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="180"/>
+    <row r="36" spans="1:12" s="163" customFormat="1" ht="24">
+      <c r="A36" s="170" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="C36" s="167" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D36" s="180">
+        <v>3.5</v>
+      </c>
+      <c r="E36" s="180" t="s">
+        <v>241</v>
+      </c>
+      <c r="F36" s="165" t="s">
+        <v>246</v>
+      </c>
       <c r="G36" s="180"/>
-      <c r="H36" s="183"/>
-      <c r="I36" s="34"/>
+      <c r="H36" s="183" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I36" s="32"/>
       <c r="J36" s="82" t="s">
         <v>383</v>
       </c>
@@ -20384,7 +20401,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="172" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B37" s="180" t="s">
         <v>1004</v>
@@ -20404,28 +20421,20 @@
         <v>778</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="36">
-      <c r="A38" s="170" t="s">
-        <v>232</v>
-      </c>
-      <c r="B38" s="62" t="s">
-        <v>199</v>
-      </c>
-      <c r="C38" s="167" t="s">
-        <v>167</v>
-      </c>
-      <c r="D38" s="62" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E38" s="196" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F38" s="165" t="s">
-        <v>1001</v>
-      </c>
+    <row r="38" spans="1:12">
+      <c r="A38" s="172" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B38" s="180" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C38" s="167"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="180"/>
+      <c r="F38" s="180"/>
       <c r="G38" s="180"/>
       <c r="H38" s="183"/>
-      <c r="I38" s="33"/>
+      <c r="I38" s="34"/>
       <c r="J38" s="82" t="s">
         <v>383</v>
       </c>
@@ -20434,24 +20443,28 @@
         <v>778</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="172" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B39" s="180"/>
+    <row r="39" spans="1:12" ht="36">
+      <c r="A39" s="170" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" s="62" t="s">
+        <v>199</v>
+      </c>
       <c r="C39" s="167" t="s">
         <v>167</v>
       </c>
-      <c r="D39" s="167">
-        <v>0</v>
-      </c>
-      <c r="E39" s="180" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F39" s="180"/>
+      <c r="D39" s="62" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E39" s="196" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F39" s="165" t="s">
+        <v>1001</v>
+      </c>
       <c r="G39" s="180"/>
       <c r="H39" s="183"/>
-      <c r="I39" s="34"/>
+      <c r="I39" s="33"/>
       <c r="J39" s="82" t="s">
         <v>383</v>
       </c>
@@ -20460,18 +20473,24 @@
         <v>778</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="163" customFormat="1">
+    <row r="40" spans="1:12">
       <c r="A40" s="172" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
-      <c r="E40" s="167"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="167"/>
-      <c r="H40" s="167"/>
-      <c r="I40" s="167"/>
+        <v>1053</v>
+      </c>
+      <c r="B40" s="180"/>
+      <c r="C40" s="167" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="167">
+        <v>0</v>
+      </c>
+      <c r="E40" s="180" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F40" s="180"/>
+      <c r="G40" s="180"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="34"/>
       <c r="J40" s="82" t="s">
         <v>383</v>
       </c>
@@ -20481,23 +20500,15 @@
       </c>
     </row>
     <row r="41" spans="1:12" s="163" customFormat="1">
-      <c r="A41" s="170" t="s">
-        <v>1067</v>
+      <c r="A41" s="172" t="s">
+        <v>1031</v>
       </c>
       <c r="B41" s="54"/>
-      <c r="C41" s="167" t="s">
-        <v>167</v>
-      </c>
-      <c r="D41" s="167">
-        <v>4.62</v>
-      </c>
-      <c r="E41" s="167" t="s">
-        <v>92</v>
-      </c>
+      <c r="C41" s="167"/>
+      <c r="D41" s="167"/>
+      <c r="E41" s="167"/>
       <c r="F41" s="167"/>
-      <c r="G41" s="167" t="s">
-        <v>1068</v>
-      </c>
+      <c r="G41" s="167"/>
       <c r="H41" s="167"/>
       <c r="I41" s="167"/>
       <c r="J41" s="82" t="s">
@@ -20508,28 +20519,26 @@
         <v>778</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="24">
+    <row r="42" spans="1:12" s="163" customFormat="1">
       <c r="A42" s="170" t="s">
-        <v>233</v>
-      </c>
-      <c r="B42" s="180"/>
+        <v>1067</v>
+      </c>
+      <c r="B42" s="54"/>
       <c r="C42" s="167" t="s">
         <v>167</v>
       </c>
-      <c r="D42" s="180">
-        <v>0.23</v>
-      </c>
-      <c r="E42" s="180" t="s">
-        <v>241</v>
-      </c>
-      <c r="F42" s="165" t="s">
-        <v>246</v>
-      </c>
-      <c r="G42" s="180"/>
-      <c r="H42" s="183" t="s">
-        <v>320</v>
-      </c>
-      <c r="I42" s="30"/>
+      <c r="D42" s="167">
+        <v>4.62</v>
+      </c>
+      <c r="E42" s="167" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="167"/>
+      <c r="G42" s="167" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H42" s="167"/>
+      <c r="I42" s="167"/>
       <c r="J42" s="82" t="s">
         <v>383</v>
       </c>
@@ -20538,18 +20547,16 @@
         <v>778</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" ht="24">
       <c r="A43" s="170" t="s">
-        <v>234</v>
-      </c>
-      <c r="B43" s="180" t="s">
-        <v>7</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B43" s="180"/>
       <c r="C43" s="167" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D43" s="167">
-        <v>7</v>
+        <v>167</v>
+      </c>
+      <c r="D43" s="180">
+        <v>0.23</v>
       </c>
       <c r="E43" s="180" t="s">
         <v>241</v>
@@ -20558,28 +20565,30 @@
         <v>246</v>
       </c>
       <c r="G43" s="180"/>
-      <c r="H43" s="183"/>
-      <c r="I43" s="34"/>
+      <c r="H43" s="183" t="s">
+        <v>320</v>
+      </c>
+      <c r="I43" s="30"/>
       <c r="J43" s="82" t="s">
         <v>383</v>
       </c>
       <c r="K43" s="184"/>
       <c r="L43" s="184" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="24">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="170" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B44" s="180" t="s">
-        <v>361</v>
+        <v>7</v>
       </c>
       <c r="C44" s="167" t="s">
         <v>1035</v>
       </c>
       <c r="D44" s="167">
-        <v>0.08</v>
+        <v>7</v>
       </c>
       <c r="E44" s="180" t="s">
         <v>241</v>
@@ -20588,21 +20597,19 @@
         <v>246</v>
       </c>
       <c r="G44" s="180"/>
-      <c r="H44" s="183" t="s">
-        <v>244</v>
-      </c>
+      <c r="H44" s="183"/>
       <c r="I44" s="34"/>
       <c r="J44" s="82" t="s">
         <v>383</v>
       </c>
       <c r="K44" s="184"/>
       <c r="L44" s="184" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="24">
       <c r="A45" s="170" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B45" s="180" t="s">
         <v>361</v>
@@ -20611,8 +20618,7 @@
         <v>1035</v>
       </c>
       <c r="D45" s="167">
-        <f>0.002*12</f>
-        <v>2.4E-2</v>
+        <v>0.08</v>
       </c>
       <c r="E45" s="180" t="s">
         <v>241</v>
@@ -20622,9 +20628,9 @@
       </c>
       <c r="G45" s="180"/>
       <c r="H45" s="183" t="s">
-        <v>30</v>
-      </c>
-      <c r="I45" s="177"/>
+        <v>244</v>
+      </c>
+      <c r="I45" s="34"/>
       <c r="J45" s="82" t="s">
         <v>383</v>
       </c>
@@ -20633,18 +20639,19 @@
         <v>778</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="163" customFormat="1" ht="36">
+    <row r="46" spans="1:12" ht="24">
       <c r="A46" s="170" t="s">
-        <v>237</v>
-      </c>
-      <c r="B46" s="62" t="s">
-        <v>362</v>
+        <v>236</v>
+      </c>
+      <c r="B46" s="180" t="s">
+        <v>361</v>
       </c>
       <c r="C46" s="167" t="s">
         <v>1035</v>
       </c>
-      <c r="D46" s="180">
-        <v>3.3500000000000002E-2</v>
+      <c r="D46" s="167">
+        <f>0.002*12</f>
+        <v>2.4E-2</v>
       </c>
       <c r="E46" s="180" t="s">
         <v>241</v>
@@ -20654,9 +20661,9 @@
       </c>
       <c r="G46" s="180"/>
       <c r="H46" s="183" t="s">
-        <v>261</v>
-      </c>
-      <c r="I46" s="32"/>
+        <v>30</v>
+      </c>
+      <c r="I46" s="177"/>
       <c r="J46" s="82" t="s">
         <v>383</v>
       </c>
@@ -20665,20 +20672,30 @@
         <v>778</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="172" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B47" s="180" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
-      <c r="E47" s="180"/>
-      <c r="F47" s="180"/>
+    <row r="47" spans="1:12" s="163" customFormat="1" ht="36">
+      <c r="A47" s="170" t="s">
+        <v>237</v>
+      </c>
+      <c r="B47" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="C47" s="167" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D47" s="180">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="E47" s="180" t="s">
+        <v>241</v>
+      </c>
+      <c r="F47" s="165" t="s">
+        <v>246</v>
+      </c>
       <c r="G47" s="180"/>
-      <c r="H47" s="183"/>
-      <c r="I47" s="34"/>
+      <c r="H47" s="183" t="s">
+        <v>261</v>
+      </c>
+      <c r="I47" s="32"/>
       <c r="J47" s="82" t="s">
         <v>383</v>
       </c>
@@ -20687,30 +20704,19 @@
         <v>778</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A48" s="170" t="s">
-        <v>238</v>
+    <row r="48" spans="1:12">
+      <c r="A48" s="172" t="s">
+        <v>1010</v>
       </c>
       <c r="B48" s="180" t="s">
-        <v>361</v>
-      </c>
-      <c r="C48" s="167" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D48" s="167">
-        <f>0.007*12</f>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="E48" s="180" t="s">
-        <v>241</v>
-      </c>
-      <c r="F48" s="165" t="s">
-        <v>246</v>
-      </c>
+        <v>1005</v>
+      </c>
+      <c r="C48" s="167"/>
+      <c r="D48" s="167"/>
+      <c r="E48" s="180"/>
+      <c r="F48" s="180"/>
       <c r="G48" s="180"/>
-      <c r="H48" s="183" t="s">
-        <v>260</v>
-      </c>
+      <c r="H48" s="183"/>
       <c r="I48" s="34"/>
       <c r="J48" s="82" t="s">
         <v>383</v>
@@ -20720,19 +20726,30 @@
         <v>778</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="172" t="s">
-        <v>1007</v>
+    <row r="49" spans="1:12" ht="45.75" customHeight="1">
+      <c r="A49" s="170" t="s">
+        <v>238</v>
       </c>
       <c r="B49" s="180" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
-      <c r="E49" s="180"/>
-      <c r="F49" s="180"/>
+        <v>361</v>
+      </c>
+      <c r="C49" s="167" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D49" s="167">
+        <f>0.007*12</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E49" s="180" t="s">
+        <v>241</v>
+      </c>
+      <c r="F49" s="165" t="s">
+        <v>246</v>
+      </c>
       <c r="G49" s="180"/>
-      <c r="H49" s="183"/>
+      <c r="H49" s="183" t="s">
+        <v>260</v>
+      </c>
       <c r="I49" s="34"/>
       <c r="J49" s="82" t="s">
         <v>383</v>
@@ -20743,24 +20760,16 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="170" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B50" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="182" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D50" s="167">
-        <v>-1</v>
-      </c>
-      <c r="E50" s="180" t="s">
-        <v>241</v>
-      </c>
-      <c r="F50" s="180" t="s">
-        <v>999</v>
-      </c>
+      <c r="A50" s="172" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B50" s="180" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C50" s="167"/>
+      <c r="D50" s="167"/>
+      <c r="E50" s="180"/>
+      <c r="F50" s="180"/>
       <c r="G50" s="180"/>
       <c r="H50" s="183"/>
       <c r="I50" s="34"/>
@@ -20780,10 +20789,10 @@
         <v>8</v>
       </c>
       <c r="C51" s="182" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D51" s="167">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E51" s="180" t="s">
         <v>241</v>
@@ -20804,22 +20813,22 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="170" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B52" s="180" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B52" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="182" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D52" s="167">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="E52" s="180" t="s">
-        <v>92</v>
+        <v>241</v>
       </c>
       <c r="F52" s="180" t="s">
-        <v>240</v>
+        <v>999</v>
       </c>
       <c r="G52" s="180"/>
       <c r="H52" s="183"/>
@@ -20840,10 +20849,10 @@
         <v>8</v>
       </c>
       <c r="C53" s="182" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D53" s="167">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
       <c r="E53" s="180" t="s">
         <v>92</v>
@@ -20864,27 +20873,25 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="170" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B54" s="62" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B54" s="180" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="182" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D54" s="162">
-        <v>-8</v>
+        <v>1045</v>
+      </c>
+      <c r="D54" s="167">
+        <v>7.2</v>
       </c>
       <c r="E54" s="180" t="s">
-        <v>241</v>
-      </c>
-      <c r="F54" s="165" t="s">
-        <v>988</v>
+        <v>92</v>
+      </c>
+      <c r="F54" s="180" t="s">
+        <v>240</v>
       </c>
       <c r="G54" s="180"/>
-      <c r="H54" s="183" t="s">
-        <v>995</v>
-      </c>
+      <c r="H54" s="183"/>
       <c r="I54" s="34"/>
       <c r="J54" s="82" t="s">
         <v>383</v>
@@ -20894,7 +20901,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" ht="24">
       <c r="A55" s="170" t="s">
         <v>1020</v>
       </c>
@@ -20902,10 +20909,10 @@
         <v>8</v>
       </c>
       <c r="C55" s="182" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D55" s="162">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="E55" s="180" t="s">
         <v>241</v>
@@ -20926,26 +20933,28 @@
         <v>778</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" ht="24">
       <c r="A56" s="170" t="s">
-        <v>1051</v>
+        <v>1020</v>
       </c>
       <c r="B56" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="182" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D56" s="193">
-        <v>-5.4</v>
+        <v>1045</v>
+      </c>
+      <c r="D56" s="162">
+        <v>-5</v>
       </c>
       <c r="E56" s="180" t="s">
-        <v>92</v>
-      </c>
-      <c r="F56" s="165"/>
+        <v>241</v>
+      </c>
+      <c r="F56" s="165" t="s">
+        <v>988</v>
+      </c>
       <c r="G56" s="180"/>
       <c r="H56" s="183" t="s">
-        <v>1052</v>
+        <v>995</v>
       </c>
       <c r="I56" s="34"/>
       <c r="J56" s="82" t="s">
@@ -20964,17 +20973,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="182" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D57" s="193">
-        <v>0</v>
+        <v>-5.4</v>
       </c>
       <c r="E57" s="180" t="s">
         <v>92</v>
       </c>
       <c r="F57" s="165"/>
       <c r="G57" s="180"/>
-      <c r="H57" s="183"/>
+      <c r="H57" s="183" t="s">
+        <v>1052</v>
+      </c>
       <c r="I57" s="34"/>
       <c r="J57" s="82" t="s">
         <v>383</v>
@@ -20986,23 +20997,21 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="170" t="s">
-        <v>239</v>
-      </c>
-      <c r="B58" s="180" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B58" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="182" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D58" s="167">
-        <v>5</v>
+        <v>1045</v>
+      </c>
+      <c r="D58" s="193">
+        <v>0</v>
       </c>
       <c r="E58" s="180" t="s">
         <v>92</v>
       </c>
-      <c r="F58" s="180" t="s">
-        <v>240</v>
-      </c>
+      <c r="F58" s="165"/>
       <c r="G58" s="180"/>
       <c r="H58" s="183"/>
       <c r="I58" s="34"/>
@@ -21022,10 +21031,10 @@
         <v>8</v>
       </c>
       <c r="C59" s="182" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D59" s="167">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="E59" s="180" t="s">
         <v>92</v>
@@ -21044,28 +21053,26 @@
         <v>778</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="24">
+    <row r="60" spans="1:12">
       <c r="A60" s="170" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B60" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="B60" s="180" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="182" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D60" s="167">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E60" s="180" t="s">
-        <v>1021</v>
+        <v>92</v>
       </c>
       <c r="F60" s="180" t="s">
-        <v>1022</v>
-      </c>
-      <c r="G60" s="180" t="s">
-        <v>1023</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G60" s="180"/>
       <c r="H60" s="183"/>
       <c r="I60" s="34"/>
       <c r="J60" s="82" t="s">
@@ -21084,7 +21091,7 @@
         <v>8</v>
       </c>
       <c r="C61" s="182" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D61" s="167">
         <v>0</v>
@@ -21108,26 +21115,28 @@
         <v>778</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" ht="24">
       <c r="A62" s="170" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B62" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="182" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D62" s="167">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E62" s="180" t="s">
-        <v>241</v>
+        <v>1021</v>
       </c>
       <c r="F62" s="180" t="s">
-        <v>999</v>
-      </c>
-      <c r="G62" s="180"/>
+        <v>1022</v>
+      </c>
+      <c r="G62" s="180" t="s">
+        <v>1023</v>
+      </c>
       <c r="H62" s="183"/>
       <c r="I62" s="34"/>
       <c r="J62" s="82" t="s">
@@ -21146,10 +21155,10 @@
         <v>8</v>
       </c>
       <c r="C63" s="182" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D63" s="167">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E63" s="180" t="s">
         <v>241</v>
@@ -21168,79 +21177,75 @@
         <v>778</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="163" customFormat="1">
-      <c r="A64" s="164" t="s">
+    <row r="64" spans="1:12">
+      <c r="A64" s="170" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B64" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="182" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D64" s="167">
+        <v>1</v>
+      </c>
+      <c r="E64" s="180" t="s">
+        <v>241</v>
+      </c>
+      <c r="F64" s="180" t="s">
+        <v>999</v>
+      </c>
+      <c r="G64" s="180"/>
+      <c r="H64" s="183"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="82" t="s">
+        <v>383</v>
+      </c>
+      <c r="K64" s="184"/>
+      <c r="L64" s="184" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="163" customFormat="1">
+      <c r="A65" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="169" t="s">
+      <c r="B65" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="174" t="s">
+      <c r="C65" s="174" t="s">
         <v>221</v>
       </c>
-      <c r="D64" s="174" t="s">
+      <c r="D65" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="E64" s="197" t="s">
+      <c r="E65" s="197" t="s">
         <v>64</v>
       </c>
-      <c r="F64" s="197" t="s">
+      <c r="F65" s="197" t="s">
         <v>65</v>
       </c>
-      <c r="G64" s="169" t="s">
+      <c r="G65" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="H64" s="169" t="s">
+      <c r="H65" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="I64" s="197" t="s">
+      <c r="I65" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="J64" s="174" t="s">
+      <c r="J65" s="174" t="s">
         <v>368</v>
       </c>
-      <c r="K64" s="174" t="s">
+      <c r="K65" s="174" t="s">
         <v>409</v>
       </c>
-      <c r="L64" s="174" t="s">
+      <c r="L65" s="174" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A65" s="170" t="s">
-        <v>676</v>
-      </c>
-      <c r="B65" s="180" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="182" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D65" s="45" t="s">
-        <v>414</v>
-      </c>
-      <c r="E65" s="180" t="s">
-        <v>92</v>
-      </c>
-      <c r="F65" s="180" t="s">
-        <v>262</v>
-      </c>
-      <c r="G65" s="180" t="s">
-        <v>496</v>
-      </c>
-      <c r="H65" s="183" t="s">
-        <v>263</v>
-      </c>
-      <c r="I65" s="34"/>
-      <c r="J65" s="82" t="s">
-        <v>384</v>
-      </c>
-      <c r="K65" s="184"/>
-      <c r="L65" s="184" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="24">
+    <row r="66" spans="1:12" ht="25.5" customHeight="1">
       <c r="A66" s="170" t="s">
         <v>676</v>
       </c>
@@ -21248,10 +21253,10 @@
         <v>8</v>
       </c>
       <c r="C66" s="182" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E66" s="180" t="s">
         <v>92</v>
@@ -21276,26 +21281,28 @@
     </row>
     <row r="67" spans="1:12" ht="24">
       <c r="A67" s="170" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B67" s="180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C67" s="182" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D67" s="180" t="s">
-        <v>249</v>
-      </c>
-      <c r="E67" s="196" t="s">
-        <v>250</v>
+        <v>1044</v>
+      </c>
+      <c r="D67" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="E67" s="180" t="s">
+        <v>92</v>
       </c>
       <c r="F67" s="180" t="s">
-        <v>251</v>
-      </c>
-      <c r="G67" s="180"/>
+        <v>262</v>
+      </c>
+      <c r="G67" s="180" t="s">
+        <v>496</v>
+      </c>
       <c r="H67" s="183" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="I67" s="34"/>
       <c r="J67" s="82" t="s">
@@ -21303,10 +21310,10 @@
       </c>
       <c r="K67" s="184"/>
       <c r="L67" s="184" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="24">
       <c r="A68" s="170" t="s">
         <v>677</v>
       </c>
@@ -21314,20 +21321,22 @@
         <v>5</v>
       </c>
       <c r="C68" s="182" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D68" s="91">
-        <v>120</v>
-      </c>
-      <c r="E68" s="167" t="s">
-        <v>241</v>
+        <v>1045</v>
+      </c>
+      <c r="D68" s="180" t="s">
+        <v>249</v>
+      </c>
+      <c r="E68" s="196" t="s">
+        <v>250</v>
       </c>
       <c r="F68" s="180" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G68" s="180"/>
-      <c r="H68" s="184"/>
-      <c r="I68" s="177"/>
+      <c r="H68" s="183" t="s">
+        <v>247</v>
+      </c>
+      <c r="I68" s="34"/>
       <c r="J68" s="82" t="s">
         <v>384</v>
       </c>
@@ -21338,35 +21347,35 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="170" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B69" s="180" t="s">
         <v>5</v>
       </c>
       <c r="C69" s="182" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D69" s="167" t="s">
-        <v>254</v>
+        <v>1044</v>
+      </c>
+      <c r="D69" s="91">
+        <v>120</v>
       </c>
       <c r="E69" s="167" t="s">
         <v>241</v>
       </c>
       <c r="F69" s="180" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G69" s="180"/>
-      <c r="H69" s="180"/>
-      <c r="I69" s="34"/>
+      <c r="H69" s="184"/>
+      <c r="I69" s="177"/>
       <c r="J69" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K69" s="184"/>
       <c r="L69" s="184" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="30" customHeight="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="170" t="s">
         <v>678</v>
       </c>
@@ -21374,21 +21383,19 @@
         <v>5</v>
       </c>
       <c r="C70" s="182" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D70" s="180" t="s">
-        <v>418</v>
-      </c>
-      <c r="E70" s="196" t="s">
-        <v>250</v>
+        <v>1045</v>
+      </c>
+      <c r="D70" s="167" t="s">
+        <v>254</v>
+      </c>
+      <c r="E70" s="167" t="s">
+        <v>241</v>
       </c>
       <c r="F70" s="180" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G70" s="180"/>
-      <c r="H70" s="183" t="s">
-        <v>248</v>
-      </c>
+      <c r="H70" s="180"/>
       <c r="I70" s="34"/>
       <c r="J70" s="82" t="s">
         <v>384</v>
@@ -21398,38 +21405,36 @@
         <v>778</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="163" customFormat="1" ht="24">
+    <row r="71" spans="1:12" ht="30" customHeight="1">
       <c r="A71" s="170" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B71" s="180" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71" s="182" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D71" s="167">
-        <v>1028.2</v>
-      </c>
-      <c r="E71" s="180" t="s">
-        <v>92</v>
+        <v>1044</v>
+      </c>
+      <c r="D71" s="180" t="s">
+        <v>418</v>
+      </c>
+      <c r="E71" s="196" t="s">
+        <v>250</v>
       </c>
       <c r="F71" s="180" t="s">
-        <v>240</v>
-      </c>
-      <c r="G71" s="180" t="s">
-        <v>496</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G71" s="180"/>
       <c r="H71" s="183" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="32"/>
+        <v>248</v>
+      </c>
+      <c r="I71" s="34"/>
       <c r="J71" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K71" s="184"/>
       <c r="L71" s="184" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="72" spans="1:12" s="163" customFormat="1" ht="24">
@@ -21440,10 +21445,10 @@
         <v>8</v>
       </c>
       <c r="C72" s="182" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D72" s="167">
-        <v>1025.7</v>
+        <v>1028.2</v>
       </c>
       <c r="E72" s="180" t="s">
         <v>92</v>
@@ -21468,16 +21473,16 @@
     </row>
     <row r="73" spans="1:12" s="163" customFormat="1" ht="24">
       <c r="A73" s="170" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B73" s="180" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="182" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D73" s="167">
-        <v>1028.2</v>
+        <v>1025.7</v>
       </c>
       <c r="E73" s="180" t="s">
         <v>92</v>
@@ -21508,10 +21513,10 @@
         <v>8</v>
       </c>
       <c r="C74" s="182" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D74" s="167">
-        <v>1025.7</v>
+        <v>1028.2</v>
       </c>
       <c r="E74" s="180" t="s">
         <v>92</v>
@@ -21534,36 +21539,38 @@
         <v>779</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" s="163" customFormat="1" ht="24">
       <c r="A75" s="170" t="s">
-        <v>689</v>
-      </c>
-      <c r="B75" s="62" t="s">
-        <v>362</v>
-      </c>
-      <c r="C75" s="167" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D75" s="198">
-        <v>0.03</v>
-      </c>
-      <c r="E75" s="167" t="s">
-        <v>241</v>
-      </c>
-      <c r="F75" s="165" t="s">
-        <v>246</v>
-      </c>
-      <c r="G75" s="180"/>
-      <c r="H75" s="168" t="s">
-        <v>323</v>
-      </c>
-      <c r="I75" s="199"/>
+        <v>680</v>
+      </c>
+      <c r="B75" s="180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="182" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D75" s="167">
+        <v>1025.7</v>
+      </c>
+      <c r="E75" s="180" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75" s="180" t="s">
+        <v>240</v>
+      </c>
+      <c r="G75" s="180" t="s">
+        <v>496</v>
+      </c>
+      <c r="H75" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="32"/>
       <c r="J75" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K75" s="184"/>
       <c r="L75" s="184" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -21574,10 +21581,10 @@
         <v>362</v>
       </c>
       <c r="C76" s="167" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D76" s="168">
-        <v>3.6999999999999998E-2</v>
+        <v>1036</v>
+      </c>
+      <c r="D76" s="198">
+        <v>0.03</v>
       </c>
       <c r="E76" s="167" t="s">
         <v>241</v>
@@ -21587,7 +21594,7 @@
       </c>
       <c r="G76" s="180"/>
       <c r="H76" s="168" t="s">
-        <v>259</v>
+        <v>323</v>
       </c>
       <c r="I76" s="199"/>
       <c r="J76" s="82" t="s">
@@ -21598,38 +21605,36 @@
         <v>777</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="24">
+    <row r="77" spans="1:12">
       <c r="A77" s="170" t="s">
-        <v>690</v>
-      </c>
-      <c r="B77" s="180" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="182" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D77" s="180" t="s">
-        <v>416</v>
-      </c>
-      <c r="E77" s="180" t="s">
-        <v>257</v>
-      </c>
-      <c r="F77" s="180" t="s">
-        <v>258</v>
-      </c>
-      <c r="G77" s="180" t="s">
-        <v>496</v>
-      </c>
-      <c r="H77" s="183" t="s">
-        <v>267</v>
-      </c>
-      <c r="I77" s="34"/>
+        <v>689</v>
+      </c>
+      <c r="B77" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="C77" s="167" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D77" s="168">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E77" s="167" t="s">
+        <v>241</v>
+      </c>
+      <c r="F77" s="165" t="s">
+        <v>246</v>
+      </c>
+      <c r="G77" s="180"/>
+      <c r="H77" s="168" t="s">
+        <v>259</v>
+      </c>
+      <c r="I77" s="199"/>
       <c r="J77" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K77" s="184"/>
       <c r="L77" s="184" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="24">
@@ -21640,10 +21645,10 @@
         <v>8</v>
       </c>
       <c r="C78" s="182" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D78" s="180" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E78" s="180" t="s">
         <v>257</v>
@@ -21668,16 +21673,16 @@
     </row>
     <row r="79" spans="1:12" ht="24">
       <c r="A79" s="170" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B79" s="180" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="182" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D79" s="180" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E79" s="180" t="s">
         <v>257</v>
@@ -21689,7 +21694,7 @@
         <v>496</v>
       </c>
       <c r="H79" s="183" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I79" s="34"/>
       <c r="J79" s="82" t="s">
@@ -21708,10 +21713,10 @@
         <v>8</v>
       </c>
       <c r="C80" s="182" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D80" s="180" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E80" s="180" t="s">
         <v>257</v>
@@ -21736,26 +21741,28 @@
     </row>
     <row r="81" spans="1:12" ht="24">
       <c r="A81" s="170" t="s">
-        <v>681</v>
-      </c>
-      <c r="B81" s="62" t="s">
-        <v>362</v>
-      </c>
-      <c r="C81" s="167" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D81" s="168">
-        <v>1.2599999999999998E-2</v>
-      </c>
-      <c r="E81" s="167" t="s">
-        <v>241</v>
-      </c>
-      <c r="F81" s="165" t="s">
-        <v>246</v>
-      </c>
-      <c r="G81" s="180"/>
-      <c r="H81" s="180" t="s">
-        <v>264</v>
+        <v>691</v>
+      </c>
+      <c r="B81" s="180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="182" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D81" s="180" t="s">
+        <v>417</v>
+      </c>
+      <c r="E81" s="180" t="s">
+        <v>257</v>
+      </c>
+      <c r="F81" s="180" t="s">
+        <v>258</v>
+      </c>
+      <c r="G81" s="180" t="s">
+        <v>496</v>
+      </c>
+      <c r="H81" s="183" t="s">
+        <v>266</v>
       </c>
       <c r="I81" s="34"/>
       <c r="J81" s="82" t="s">
@@ -21763,7 +21770,7 @@
       </c>
       <c r="K81" s="184"/>
       <c r="L81" s="184" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="24">
@@ -21774,10 +21781,10 @@
         <v>362</v>
       </c>
       <c r="C82" s="167" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D82" s="168">
-        <v>1.5800000000000002E-2</v>
+        <v>1.2599999999999998E-2</v>
       </c>
       <c r="E82" s="167" t="s">
         <v>241</v>
@@ -21787,7 +21794,7 @@
       </c>
       <c r="G82" s="180"/>
       <c r="H82" s="180" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I82" s="34"/>
       <c r="J82" s="82" t="s">
@@ -21800,34 +21807,34 @@
     </row>
     <row r="83" spans="1:12" ht="24">
       <c r="A83" s="170" t="s">
-        <v>682</v>
-      </c>
-      <c r="B83" s="180" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="182" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D83" s="180" t="s">
-        <v>416</v>
-      </c>
-      <c r="E83" s="180" t="s">
-        <v>257</v>
-      </c>
-      <c r="F83" s="180" t="s">
-        <v>258</v>
-      </c>
-      <c r="G83" s="180" t="s">
-        <v>496</v>
-      </c>
-      <c r="H83" s="183"/>
+        <v>681</v>
+      </c>
+      <c r="B83" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="C83" s="167" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D83" s="168">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="E83" s="167" t="s">
+        <v>241</v>
+      </c>
+      <c r="F83" s="165" t="s">
+        <v>246</v>
+      </c>
+      <c r="G83" s="180"/>
+      <c r="H83" s="180" t="s">
+        <v>265</v>
+      </c>
       <c r="I83" s="34"/>
       <c r="J83" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K83" s="184"/>
       <c r="L83" s="184" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="24">
@@ -21838,10 +21845,10 @@
         <v>8</v>
       </c>
       <c r="C84" s="182" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D84" s="180" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E84" s="180" t="s">
         <v>257</v>
@@ -21862,26 +21869,28 @@
         <v>779</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="36">
+    <row r="85" spans="1:12" ht="24">
       <c r="A85" s="170" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B85" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="167" t="s">
-        <v>167</v>
-      </c>
-      <c r="D85" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="E85" s="196" t="s">
-        <v>325</v>
+        <v>8</v>
+      </c>
+      <c r="C85" s="182" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D85" s="180" t="s">
+        <v>417</v>
+      </c>
+      <c r="E85" s="180" t="s">
+        <v>257</v>
       </c>
       <c r="F85" s="180" t="s">
-        <v>326</v>
-      </c>
-      <c r="G85" s="180"/>
+        <v>258</v>
+      </c>
+      <c r="G85" s="180" t="s">
+        <v>496</v>
+      </c>
       <c r="H85" s="183"/>
       <c r="I85" s="34"/>
       <c r="J85" s="82" t="s">
@@ -21889,12 +21898,12 @@
       </c>
       <c r="K85" s="184"/>
       <c r="L85" s="184" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="39" customHeight="1">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="36">
       <c r="A86" s="170" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B86" s="180" t="s">
         <v>5</v>
@@ -21902,49 +21911,47 @@
       <c r="C86" s="167" t="s">
         <v>167</v>
       </c>
-      <c r="D86" s="180" t="s">
-        <v>327</v>
+      <c r="D86" s="44" t="s">
+        <v>324</v>
       </c>
       <c r="E86" s="196" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F86" s="180" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G86" s="180"/>
-      <c r="H86" s="1"/>
+      <c r="H86" s="183"/>
       <c r="I86" s="34"/>
       <c r="J86" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K86" s="184"/>
       <c r="L86" s="184" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="24">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="39" customHeight="1">
       <c r="A87" s="170" t="s">
-        <v>685</v>
-      </c>
-      <c r="B87" s="62" t="s">
-        <v>362</v>
+        <v>684</v>
+      </c>
+      <c r="B87" s="180" t="s">
+        <v>5</v>
       </c>
       <c r="C87" s="167" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D87" s="168">
-        <v>1.54E-2</v>
-      </c>
-      <c r="E87" s="167" t="s">
-        <v>241</v>
-      </c>
-      <c r="F87" s="165" t="s">
-        <v>246</v>
+        <v>167</v>
+      </c>
+      <c r="D87" s="180" t="s">
+        <v>327</v>
+      </c>
+      <c r="E87" s="196" t="s">
+        <v>328</v>
+      </c>
+      <c r="F87" s="180" t="s">
+        <v>329</v>
       </c>
       <c r="G87" s="180"/>
-      <c r="H87" s="180" t="s">
-        <v>264</v>
-      </c>
+      <c r="H87" s="1"/>
       <c r="I87" s="34"/>
       <c r="J87" s="82" t="s">
         <v>384</v>
@@ -21962,10 +21969,10 @@
         <v>362</v>
       </c>
       <c r="C88" s="167" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D88" s="168">
-        <v>1.9300000000000001E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="E88" s="167" t="s">
         <v>241</v>
@@ -21975,7 +21982,7 @@
       </c>
       <c r="G88" s="180"/>
       <c r="H88" s="180" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I88" s="34"/>
       <c r="J88" s="82" t="s">
@@ -21988,34 +21995,34 @@
     </row>
     <row r="89" spans="1:12" ht="24">
       <c r="A89" s="170" t="s">
-        <v>686</v>
-      </c>
-      <c r="B89" s="180" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="182" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D89" s="180" t="s">
-        <v>416</v>
-      </c>
-      <c r="E89" s="180" t="s">
-        <v>257</v>
-      </c>
-      <c r="F89" s="180" t="s">
-        <v>258</v>
-      </c>
-      <c r="G89" s="180" t="s">
-        <v>496</v>
-      </c>
-      <c r="H89" s="183"/>
+        <v>685</v>
+      </c>
+      <c r="B89" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="C89" s="167" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D89" s="168">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="E89" s="167" t="s">
+        <v>241</v>
+      </c>
+      <c r="F89" s="165" t="s">
+        <v>246</v>
+      </c>
+      <c r="G89" s="180"/>
+      <c r="H89" s="180" t="s">
+        <v>265</v>
+      </c>
       <c r="I89" s="34"/>
       <c r="J89" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K89" s="184"/>
       <c r="L89" s="184" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="24">
@@ -22026,10 +22033,10 @@
         <v>8</v>
       </c>
       <c r="C90" s="182" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D90" s="180" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E90" s="180" t="s">
         <v>257</v>
@@ -22050,26 +22057,28 @@
         <v>779</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="36">
+    <row r="91" spans="1:12" ht="24">
       <c r="A91" s="170" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B91" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" s="167" t="s">
-        <v>167</v>
-      </c>
-      <c r="D91" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="E91" s="196" t="s">
-        <v>325</v>
+        <v>8</v>
+      </c>
+      <c r="C91" s="182" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D91" s="180" t="s">
+        <v>417</v>
+      </c>
+      <c r="E91" s="180" t="s">
+        <v>257</v>
       </c>
       <c r="F91" s="180" t="s">
-        <v>326</v>
-      </c>
-      <c r="G91" s="180"/>
+        <v>258</v>
+      </c>
+      <c r="G91" s="180" t="s">
+        <v>496</v>
+      </c>
       <c r="H91" s="183"/>
       <c r="I91" s="34"/>
       <c r="J91" s="82" t="s">
@@ -22077,12 +22086,12 @@
       </c>
       <c r="K91" s="184"/>
       <c r="L91" s="184" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="36.75" customHeight="1">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="36">
       <c r="A92" s="170" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B92" s="180" t="s">
         <v>5</v>
@@ -22090,14 +22099,14 @@
       <c r="C92" s="167" t="s">
         <v>167</v>
       </c>
-      <c r="D92" s="180" t="s">
-        <v>327</v>
+      <c r="D92" s="44" t="s">
+        <v>324</v>
       </c>
       <c r="E92" s="196" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F92" s="180" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G92" s="180"/>
       <c r="H92" s="183"/>
@@ -22107,63 +22116,61 @@
       </c>
       <c r="K92" s="184"/>
       <c r="L92" s="184" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="36.75" customHeight="1">
       <c r="A93" s="170" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B93" s="62" t="s">
-        <v>362</v>
+        <v>688</v>
+      </c>
+      <c r="B93" s="180" t="s">
+        <v>5</v>
       </c>
       <c r="C93" s="167" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D93" s="92">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="E93" s="167" t="s">
-        <v>241</v>
-      </c>
-      <c r="F93" s="165" t="s">
-        <v>246</v>
+        <v>167</v>
+      </c>
+      <c r="D93" s="180" t="s">
+        <v>327</v>
+      </c>
+      <c r="E93" s="196" t="s">
+        <v>328</v>
+      </c>
+      <c r="F93" s="180" t="s">
+        <v>329</v>
       </c>
       <c r="G93" s="180"/>
-      <c r="H93" s="180" t="s">
-        <v>256</v>
-      </c>
+      <c r="H93" s="183"/>
       <c r="I93" s="34"/>
       <c r="J93" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K93" s="184"/>
       <c r="L93" s="184" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="170" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B94" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="182" t="s">
-        <v>167</v>
-      </c>
-      <c r="D94" s="180" t="s">
-        <v>330</v>
-      </c>
-      <c r="E94" s="196" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B94" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="C94" s="167" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D94" s="92">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E94" s="167" t="s">
         <v>241</v>
       </c>
-      <c r="F94" s="180" t="s">
-        <v>331</v>
+      <c r="F94" s="165" t="s">
+        <v>246</v>
       </c>
       <c r="G94" s="180"/>
-      <c r="H94" s="183" t="s">
-        <v>332</v>
+      <c r="H94" s="180" t="s">
+        <v>256</v>
       </c>
       <c r="I94" s="34"/>
       <c r="J94" s="82" t="s">
@@ -22171,12 +22178,12 @@
       </c>
       <c r="K94" s="184"/>
       <c r="L94" s="184" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="170" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B95" s="180" t="s">
         <v>5</v>
@@ -22184,10 +22191,10 @@
       <c r="C95" s="182" t="s">
         <v>167</v>
       </c>
-      <c r="D95" s="167" t="s">
-        <v>333</v>
-      </c>
-      <c r="E95" s="167" t="s">
+      <c r="D95" s="180" t="s">
+        <v>330</v>
+      </c>
+      <c r="E95" s="196" t="s">
         <v>241</v>
       </c>
       <c r="F95" s="180" t="s">
@@ -22203,31 +22210,31 @@
       </c>
       <c r="K95" s="184"/>
       <c r="L95" s="184" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="170" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B96" s="62" t="s">
-        <v>362</v>
-      </c>
-      <c r="C96" s="167" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D96" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>1040</v>
+      </c>
+      <c r="B96" s="180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="182" t="s">
+        <v>167</v>
+      </c>
+      <c r="D96" s="167" t="s">
+        <v>333</v>
       </c>
       <c r="E96" s="167" t="s">
         <v>241</v>
       </c>
-      <c r="F96" s="165" t="s">
-        <v>246</v>
+      <c r="F96" s="180" t="s">
+        <v>331</v>
       </c>
       <c r="G96" s="180"/>
-      <c r="H96" s="180" t="s">
-        <v>255</v>
+      <c r="H96" s="183" t="s">
+        <v>332</v>
       </c>
       <c r="I96" s="34"/>
       <c r="J96" s="82" t="s">
@@ -22235,31 +22242,31 @@
       </c>
       <c r="K96" s="184"/>
       <c r="L96" s="184" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="170" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B97" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="182" t="s">
-        <v>167</v>
-      </c>
-      <c r="D97" s="180" t="s">
-        <v>330</v>
-      </c>
-      <c r="E97" s="196" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B97" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="C97" s="167" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D97" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E97" s="167" t="s">
         <v>241</v>
       </c>
-      <c r="F97" s="180" t="s">
-        <v>331</v>
+      <c r="F97" s="165" t="s">
+        <v>246</v>
       </c>
       <c r="G97" s="180"/>
-      <c r="H97" s="183" t="s">
-        <v>332</v>
+      <c r="H97" s="180" t="s">
+        <v>255</v>
       </c>
       <c r="I97" s="34"/>
       <c r="J97" s="82" t="s">
@@ -22267,12 +22274,12 @@
       </c>
       <c r="K97" s="184"/>
       <c r="L97" s="184" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="14.25" customHeight="1">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="170" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B98" s="180" t="s">
         <v>5</v>
@@ -22280,10 +22287,10 @@
       <c r="C98" s="182" t="s">
         <v>167</v>
       </c>
-      <c r="D98" s="167" t="s">
-        <v>333</v>
-      </c>
-      <c r="E98" s="167" t="s">
+      <c r="D98" s="180" t="s">
+        <v>330</v>
+      </c>
+      <c r="E98" s="196" t="s">
         <v>241</v>
       </c>
       <c r="F98" s="180" t="s">
@@ -22299,131 +22306,133 @@
       </c>
       <c r="K98" s="184"/>
       <c r="L98" s="184" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A99" s="170" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B99" s="180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="182" t="s">
+        <v>167</v>
+      </c>
+      <c r="D99" s="167" t="s">
+        <v>333</v>
+      </c>
+      <c r="E99" s="167" t="s">
+        <v>241</v>
+      </c>
+      <c r="F99" s="180" t="s">
+        <v>331</v>
+      </c>
+      <c r="G99" s="180"/>
+      <c r="H99" s="183" t="s">
+        <v>332</v>
+      </c>
+      <c r="I99" s="34"/>
+      <c r="J99" s="82" t="s">
+        <v>384</v>
+      </c>
+      <c r="K99" s="184"/>
+      <c r="L99" s="184" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="99" spans="1:12" s="163" customFormat="1">
-      <c r="A99" s="8" t="s">
+    <row r="100" spans="1:12" s="163" customFormat="1">
+      <c r="A100" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="B99" s="174" t="s">
+      <c r="B100" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="174" t="s">
+      <c r="C100" s="174" t="s">
         <v>221</v>
       </c>
-      <c r="D99" s="174" t="s">
+      <c r="D100" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="E99" s="174" t="s">
+      <c r="E100" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="F99" s="174" t="s">
+      <c r="F100" s="174" t="s">
         <v>63</v>
       </c>
-      <c r="G99" s="174" t="s">
+      <c r="G100" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="H99" s="174" t="s">
+      <c r="H100" s="174" t="s">
         <v>71</v>
       </c>
-      <c r="I99" s="174" t="s">
+      <c r="I100" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="J99" s="174" t="s">
+      <c r="J100" s="174" t="s">
         <v>368</v>
       </c>
-      <c r="K99" s="174" t="s">
+      <c r="K100" s="174" t="s">
         <v>409</v>
       </c>
-      <c r="L99" s="174" t="s">
+      <c r="L100" s="174" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="100" spans="1:12" s="163" customFormat="1" ht="24.5">
-      <c r="A100" s="80" t="s">
+    <row r="101" spans="1:12" s="163" customFormat="1" ht="24.75">
+      <c r="A101" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="B100" s="184" t="s">
+      <c r="B101" s="184" t="s">
         <v>362</v>
-      </c>
-      <c r="C100" s="167" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D100" s="184">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E100" s="167" t="s">
-        <v>427</v>
-      </c>
-      <c r="F100" s="64"/>
-      <c r="G100" s="64"/>
-      <c r="H100" s="101" t="s">
-        <v>446</v>
-      </c>
-      <c r="I100" s="7"/>
-      <c r="J100" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="K100" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="L100" s="184" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" s="163" customFormat="1">
-      <c r="A101" s="24" t="s">
-        <v>457</v>
-      </c>
-      <c r="B101" s="184" t="s">
-        <v>7</v>
       </c>
       <c r="C101" s="167" t="s">
         <v>1035</v>
       </c>
-      <c r="D101" s="102">
-        <v>0.06</v>
+      <c r="D101" s="184">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E101" s="167" t="s">
-        <v>241</v>
-      </c>
-      <c r="F101" s="165" t="s">
-        <v>246</v>
-      </c>
-      <c r="G101" s="180"/>
-      <c r="H101" s="168" t="s">
-        <v>447</v>
+        <v>427</v>
+      </c>
+      <c r="F101" s="64"/>
+      <c r="G101" s="64"/>
+      <c r="H101" s="101" t="s">
+        <v>446</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="K101" s="10" t="s">
+      <c r="K101" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="L101" s="184"/>
+      <c r="L101" s="184" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="102" spans="1:12" s="163" customFormat="1">
       <c r="A102" s="24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B102" s="184" t="s">
-        <v>362</v>
+        <v>7</v>
       </c>
       <c r="C102" s="167" t="s">
-        <v>167</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>455</v>
+        <v>1035</v>
+      </c>
+      <c r="D102" s="102">
+        <v>0.06</v>
       </c>
       <c r="E102" s="167" t="s">
-        <v>448</v>
-      </c>
-      <c r="F102" s="64"/>
-      <c r="G102" s="64"/>
-      <c r="H102" s="10" t="s">
-        <v>449</v>
+        <v>241</v>
+      </c>
+      <c r="F102" s="165" t="s">
+        <v>246</v>
+      </c>
+      <c r="G102" s="180"/>
+      <c r="H102" s="168" t="s">
+        <v>447</v>
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="10" t="s">
@@ -22436,24 +22445,24 @@
     </row>
     <row r="103" spans="1:12" s="163" customFormat="1">
       <c r="A103" s="24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B103" s="184" t="s">
-        <v>22</v>
+        <v>362</v>
       </c>
       <c r="C103" s="167" t="s">
         <v>167</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="E103" s="167" t="s">
         <v>448</v>
       </c>
       <c r="F103" s="64"/>
       <c r="G103" s="64"/>
-      <c r="H103" s="184" t="s">
-        <v>451</v>
+      <c r="H103" s="10" t="s">
+        <v>449</v>
       </c>
       <c r="I103" s="7"/>
       <c r="J103" s="10" t="s">
@@ -22465,59 +22474,57 @@
       <c r="L103" s="184"/>
     </row>
     <row r="104" spans="1:12" s="163" customFormat="1">
-      <c r="A104" s="80" t="s">
-        <v>387</v>
-      </c>
-      <c r="B104" s="183" t="s">
-        <v>362</v>
+      <c r="A104" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="B104" s="184" t="s">
+        <v>22</v>
       </c>
       <c r="C104" s="167" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D104" s="102">
-        <v>0.03</v>
+        <v>167</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>450</v>
       </c>
       <c r="E104" s="167" t="s">
-        <v>241</v>
-      </c>
-      <c r="F104" s="165" t="s">
-        <v>246</v>
-      </c>
-      <c r="G104" s="180"/>
-      <c r="H104" s="168"/>
-      <c r="I104" s="199"/>
+        <v>448</v>
+      </c>
+      <c r="F104" s="64"/>
+      <c r="G104" s="64"/>
+      <c r="H104" s="184" t="s">
+        <v>451</v>
+      </c>
+      <c r="I104" s="7"/>
       <c r="J104" s="10" t="s">
         <v>401</v>
       </c>
       <c r="K104" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="L104" s="184" t="s">
-        <v>777</v>
-      </c>
+      <c r="L104" s="184"/>
     </row>
     <row r="105" spans="1:12" s="163" customFormat="1">
       <c r="A105" s="80" t="s">
-        <v>388</v>
-      </c>
-      <c r="B105" s="184" t="s">
+        <v>387</v>
+      </c>
+      <c r="B105" s="183" t="s">
         <v>362</v>
       </c>
       <c r="C105" s="167" t="s">
         <v>1035</v>
       </c>
       <c r="D105" s="102">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="E105" s="167" t="s">
-        <v>427</v>
-      </c>
-      <c r="F105" s="64"/>
-      <c r="G105" s="64"/>
-      <c r="H105" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="I105" s="7"/>
+        <v>241</v>
+      </c>
+      <c r="F105" s="165" t="s">
+        <v>246</v>
+      </c>
+      <c r="G105" s="180"/>
+      <c r="H105" s="168"/>
+      <c r="I105" s="199"/>
       <c r="J105" s="10" t="s">
         <v>401</v>
       </c>
@@ -22530,7 +22537,7 @@
     </row>
     <row r="106" spans="1:12" s="163" customFormat="1">
       <c r="A106" s="80" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B106" s="184" t="s">
         <v>362</v>
@@ -22538,8 +22545,8 @@
       <c r="C106" s="167" t="s">
         <v>1035</v>
       </c>
-      <c r="D106" s="10">
-        <v>4.2999999999999997E-2</v>
+      <c r="D106" s="102">
+        <v>0.05</v>
       </c>
       <c r="E106" s="167" t="s">
         <v>427</v>
@@ -22561,17 +22568,17 @@
       </c>
     </row>
     <row r="107" spans="1:12" s="163" customFormat="1">
-      <c r="A107" s="24" t="s">
-        <v>460</v>
+      <c r="A107" s="80" t="s">
+        <v>389</v>
       </c>
       <c r="B107" s="184" t="s">
-        <v>22</v>
+        <v>362</v>
       </c>
       <c r="C107" s="167" t="s">
-        <v>167</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>452</v>
+        <v>1035</v>
+      </c>
+      <c r="D107" s="10">
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="E107" s="167" t="s">
         <v>427</v>
@@ -22588,62 +22595,62 @@
       <c r="K107" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="L107" s="184"/>
+      <c r="L107" s="184" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="108" spans="1:12" s="163" customFormat="1">
       <c r="A108" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="B108" s="62" t="s">
+        <v>460</v>
+      </c>
+      <c r="B108" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="C108" s="182" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D108" s="10">
-        <v>0.44</v>
-      </c>
-      <c r="E108" s="180" t="s">
-        <v>321</v>
-      </c>
-      <c r="F108" s="165" t="s">
-        <v>322</v>
-      </c>
-      <c r="G108" s="180"/>
-      <c r="H108" s="25"/>
-      <c r="I108" s="34"/>
+      <c r="C108" s="167" t="s">
+        <v>167</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="E108" s="167" t="s">
+        <v>427</v>
+      </c>
+      <c r="F108" s="64"/>
+      <c r="G108" s="64"/>
+      <c r="H108" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="I108" s="7"/>
       <c r="J108" s="10" t="s">
         <v>401</v>
       </c>
       <c r="K108" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="L108" s="184" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" s="163" customFormat="1" ht="24.5">
-      <c r="A109" s="80" t="s">
-        <v>390</v>
-      </c>
-      <c r="B109" s="184" t="s">
-        <v>362</v>
-      </c>
-      <c r="C109" s="167" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D109" s="184">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E109" s="167" t="s">
-        <v>427</v>
-      </c>
-      <c r="F109" s="64"/>
-      <c r="G109" s="64"/>
-      <c r="H109" s="101" t="s">
-        <v>446</v>
-      </c>
-      <c r="I109" s="7"/>
+      <c r="L108" s="184"/>
+    </row>
+    <row r="109" spans="1:12" s="163" customFormat="1">
+      <c r="A109" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="B109" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" s="182" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D109" s="10">
+        <v>0.44</v>
+      </c>
+      <c r="E109" s="180" t="s">
+        <v>321</v>
+      </c>
+      <c r="F109" s="165" t="s">
+        <v>322</v>
+      </c>
+      <c r="G109" s="180"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="34"/>
       <c r="J109" s="10" t="s">
         <v>401</v>
       </c>
@@ -22654,9 +22661,9 @@
         <v>777</v>
       </c>
     </row>
-    <row r="110" spans="1:12" s="163" customFormat="1">
-      <c r="A110" s="24" t="s">
-        <v>462</v>
+    <row r="110" spans="1:12" s="163" customFormat="1" ht="24.75">
+      <c r="A110" s="80" t="s">
+        <v>390</v>
       </c>
       <c r="B110" s="184" t="s">
         <v>362</v>
@@ -22664,18 +22671,16 @@
       <c r="C110" s="167" t="s">
         <v>1035</v>
       </c>
-      <c r="D110" s="103">
-        <v>0.06</v>
+      <c r="D110" s="184">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E110" s="167" t="s">
-        <v>241</v>
-      </c>
-      <c r="F110" s="165" t="s">
-        <v>246</v>
-      </c>
-      <c r="G110" s="180"/>
-      <c r="H110" s="168" t="s">
-        <v>453</v>
+        <v>427</v>
+      </c>
+      <c r="F110" s="64"/>
+      <c r="G110" s="64"/>
+      <c r="H110" s="101" t="s">
+        <v>446</v>
       </c>
       <c r="I110" s="7"/>
       <c r="J110" s="10" t="s">
@@ -22684,11 +22689,13 @@
       <c r="K110" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="L110" s="184"/>
-    </row>
-    <row r="111" spans="1:12" s="163" customFormat="1" ht="24.5">
-      <c r="A111" s="80" t="s">
-        <v>391</v>
+      <c r="L110" s="184" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" s="163" customFormat="1">
+      <c r="A111" s="24" t="s">
+        <v>462</v>
       </c>
       <c r="B111" s="184" t="s">
         <v>362</v>
@@ -22696,16 +22703,18 @@
       <c r="C111" s="167" t="s">
         <v>1035</v>
       </c>
-      <c r="D111" s="184">
-        <v>0.08</v>
+      <c r="D111" s="103">
+        <v>0.06</v>
       </c>
       <c r="E111" s="167" t="s">
-        <v>427</v>
-      </c>
-      <c r="F111" s="64"/>
-      <c r="G111" s="64"/>
-      <c r="H111" s="101" t="s">
-        <v>454</v>
+        <v>241</v>
+      </c>
+      <c r="F111" s="165" t="s">
+        <v>246</v>
+      </c>
+      <c r="G111" s="180"/>
+      <c r="H111" s="168" t="s">
+        <v>453</v>
       </c>
       <c r="I111" s="7"/>
       <c r="J111" s="10" t="s">
@@ -22714,32 +22723,30 @@
       <c r="K111" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="L111" s="184" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" s="163" customFormat="1">
+      <c r="L111" s="184"/>
+    </row>
+    <row r="112" spans="1:12" s="163" customFormat="1" ht="24.75">
       <c r="A112" s="80" t="s">
-        <v>392</v>
-      </c>
-      <c r="B112" s="183" t="s">
+        <v>391</v>
+      </c>
+      <c r="B112" s="184" t="s">
         <v>362</v>
       </c>
       <c r="C112" s="167" t="s">
         <v>1035</v>
       </c>
-      <c r="D112" s="103">
-        <v>0.06</v>
+      <c r="D112" s="184">
+        <v>0.08</v>
       </c>
       <c r="E112" s="167" t="s">
-        <v>241</v>
-      </c>
-      <c r="F112" s="165" t="s">
-        <v>246</v>
-      </c>
-      <c r="G112" s="180"/>
-      <c r="H112" s="168"/>
-      <c r="I112" s="199"/>
+        <v>427</v>
+      </c>
+      <c r="F112" s="64"/>
+      <c r="G112" s="64"/>
+      <c r="H112" s="101" t="s">
+        <v>454</v>
+      </c>
+      <c r="I112" s="7"/>
       <c r="J112" s="10" t="s">
         <v>401</v>
       </c>
@@ -22751,33 +22758,65 @@
       </c>
     </row>
     <row r="113" spans="1:12" s="163" customFormat="1">
-      <c r="A113" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="B113" s="64"/>
-      <c r="C113" s="167"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="64"/>
-      <c r="F113" s="64"/>
-      <c r="G113" s="64"/>
-      <c r="H113" s="64"/>
-      <c r="I113" s="7"/>
+      <c r="A113" s="80" t="s">
+        <v>392</v>
+      </c>
+      <c r="B113" s="183" t="s">
+        <v>362</v>
+      </c>
+      <c r="C113" s="167" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D113" s="103">
+        <v>0.06</v>
+      </c>
+      <c r="E113" s="167" t="s">
+        <v>241</v>
+      </c>
+      <c r="F113" s="165" t="s">
+        <v>246</v>
+      </c>
+      <c r="G113" s="180"/>
+      <c r="H113" s="168"/>
+      <c r="I113" s="199"/>
       <c r="J113" s="10" t="s">
         <v>401</v>
       </c>
       <c r="K113" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="L113" s="184"/>
-    </row>
-    <row r="117" spans="1:12">
-      <c r="E117" s="28"/>
+      <c r="L113" s="184" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" s="163" customFormat="1">
+      <c r="A114" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="B114" s="64"/>
+      <c r="C114" s="167"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="64"/>
+      <c r="F114" s="64"/>
+      <c r="G114" s="64"/>
+      <c r="H114" s="64"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="K114" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="L114" s="184"/>
     </row>
     <row r="118" spans="1:12">
       <c r="E118" s="28"/>
     </row>
     <row r="119" spans="1:12">
       <c r="E119" s="28"/>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="E120" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22794,20 +22833,20 @@
       <selection pane="topRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" style="105" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.1796875" style="105"/>
-    <col min="4" max="4" width="14.81640625" style="105" customWidth="1"/>
-    <col min="5" max="5" width="26.453125" style="106" customWidth="1"/>
-    <col min="6" max="6" width="30.7265625" style="105" customWidth="1"/>
-    <col min="7" max="7" width="26.1796875" style="105" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61.453125" style="135" customWidth="1"/>
-    <col min="9" max="9" width="52.453125" style="105" customWidth="1"/>
-    <col min="10" max="10" width="24.81640625" style="105" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" style="105"/>
-    <col min="12" max="12" width="12.54296875" style="105" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="105"/>
+    <col min="1" max="1" width="31.140625" style="105" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="105"/>
+    <col min="4" max="4" width="14.85546875" style="105" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="106" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" style="105" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="105" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.42578125" style="135" customWidth="1"/>
+    <col min="9" max="9" width="52.42578125" style="105" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" style="105" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="105"/>
+    <col min="12" max="12" width="12.5703125" style="105" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="105"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="51" customFormat="1" ht="26.25" customHeight="1">
@@ -24192,7 +24231,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" ht="24.75">
       <c r="A42" s="109" t="s">
         <v>821</v>
       </c>
@@ -24372,7 +24411,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="36.5">
+    <row r="48" spans="1:12" ht="36.75">
       <c r="A48" s="109" t="s">
         <v>828</v>
       </c>
@@ -24394,7 +24433,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="60.5">
+    <row r="49" spans="1:12" ht="72.75">
       <c r="A49" s="109" t="s">
         <v>829</v>
       </c>
@@ -24484,7 +24523,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="24">
+    <row r="52" spans="1:12" ht="24.75">
       <c r="A52" s="109" t="s">
         <v>832</v>
       </c>
@@ -24516,7 +24555,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="36.5">
+    <row r="53" spans="1:12" ht="48.75">
       <c r="A53" s="109" t="s">
         <v>833</v>
       </c>
@@ -24744,7 +24783,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" ht="24.75">
       <c r="A61" s="109" t="s">
         <v>841</v>
       </c>
@@ -24918,7 +24957,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="24.5">
+    <row r="67" spans="1:12" ht="36.75">
       <c r="A67" s="109" t="s">
         <v>847</v>
       </c>
@@ -24944,7 +24983,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="60.5">
+    <row r="68" spans="1:12" ht="72.75">
       <c r="A68" s="109" t="s">
         <v>848</v>
       </c>
@@ -25034,7 +25073,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="24">
+    <row r="71" spans="1:12" ht="24.75">
       <c r="A71" s="109" t="s">
         <v>851</v>
       </c>
@@ -25066,7 +25105,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="36.5">
+    <row r="72" spans="1:12" ht="48.75">
       <c r="A72" s="109" t="s">
         <v>852</v>
       </c>

--- a/data/human/adult/validation/SystemValidationData.xlsx
+++ b/data/human/adult/validation/SystemValidationData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\respiratory-mechanics-source\data\human\adult\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C95253-E957-45A0-ACE8-5941CE30A7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404BCA56-037F-4C87-B04A-A7AA1EE6E514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="43200" windowHeight="23535" tabRatio="724" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="724" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blood Chemistry" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3987" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4014" uniqueCount="1087">
   <si>
     <t>Output</t>
   </si>
@@ -3409,6 +3409,21 @@
   <si>
     <t>Derived from Tidal Volume (TV) 
 ~1/2 TV</t>
+  </si>
+  <si>
+    <t>AirwayPressure</t>
+  </si>
+  <si>
+    <t>IntrinsicPositiveEndExpiredPressure</t>
+  </si>
+  <si>
+    <t>InspiratoryTidalVolume</t>
+  </si>
+  <si>
+    <t>ExpiratoryTidalVolume</t>
+  </si>
+  <si>
+    <t>Atmospheric Pressure</t>
   </si>
 </sst>
 </file>
@@ -19351,13 +19366,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F8F0F7-B210-4329-9304-9AF1284E2465}">
-  <dimension ref="A1:L120"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -19415,60 +19430,56 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="48">
+    <row r="2" spans="1:12">
       <c r="A2" s="170" t="s">
-        <v>911</v>
-      </c>
-      <c r="B2" s="180" t="s">
-        <v>5</v>
+        <v>1082</v>
+      </c>
+      <c r="B2" s="183" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="167" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="167" t="s">
-        <v>912</v>
-      </c>
-      <c r="E2" s="165" t="s">
-        <v>913</v>
+      <c r="D2" s="195">
+        <v>1033.23</v>
+      </c>
+      <c r="E2" s="180" t="s">
+        <v>1021</v>
       </c>
       <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="183" t="s">
-        <v>914</v>
-      </c>
-      <c r="I2" s="30"/>
+      <c r="G2" s="180" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H2" s="183"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="82" t="s">
         <v>383</v>
       </c>
       <c r="K2" s="184"/>
       <c r="L2" s="184" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="36">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="48">
       <c r="A3" s="170" t="s">
-        <v>979</v>
+        <v>911</v>
       </c>
       <c r="B3" s="180" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="167" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="167">
-        <v>1</v>
-      </c>
-      <c r="E3" s="180" t="s">
-        <v>241</v>
-      </c>
-      <c r="F3" s="180" t="s">
-        <v>993</v>
-      </c>
-      <c r="G3" s="180" t="s">
-        <v>1054</v>
-      </c>
+      <c r="D3" s="167" t="s">
+        <v>912</v>
+      </c>
+      <c r="E3" s="165" t="s">
+        <v>913</v>
+      </c>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
       <c r="H3" s="183" t="s">
-        <v>994</v>
+        <v>914</v>
       </c>
       <c r="I3" s="30"/>
       <c r="J3" s="82" t="s">
@@ -19476,12 +19487,12 @@
       </c>
       <c r="K3" s="184"/>
       <c r="L3" s="184" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="36">
       <c r="A4" s="170" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B4" s="180" t="s">
         <v>7</v>
@@ -19490,16 +19501,20 @@
         <v>167</v>
       </c>
       <c r="D4" s="167">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="E4" s="180" t="s">
         <v>241</v>
       </c>
       <c r="F4" s="180" t="s">
-        <v>992</v>
-      </c>
-      <c r="G4" s="180"/>
-      <c r="H4" s="183"/>
+        <v>993</v>
+      </c>
+      <c r="G4" s="180" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H4" s="183" t="s">
+        <v>994</v>
+      </c>
       <c r="I4" s="30"/>
       <c r="J4" s="82" t="s">
         <v>383</v>
@@ -19511,26 +19526,24 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="170" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="B5" s="180" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="167" t="s">
         <v>167</v>
       </c>
       <c r="D5" s="167">
-        <v>452</v>
-      </c>
-      <c r="E5" s="165" t="s">
-        <v>92</v>
+        <v>150</v>
+      </c>
+      <c r="E5" s="180" t="s">
+        <v>241</v>
       </c>
       <c r="F5" s="180" t="s">
-        <v>910</v>
-      </c>
-      <c r="G5" s="180" t="s">
-        <v>1060</v>
-      </c>
+        <v>992</v>
+      </c>
+      <c r="G5" s="180"/>
       <c r="H5" s="183"/>
       <c r="I5" s="30"/>
       <c r="J5" s="82" t="s">
@@ -19543,26 +19556,28 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="170" t="s">
-        <v>991</v>
+        <v>909</v>
       </c>
       <c r="B6" s="180" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C6" s="167" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="194">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="180" t="s">
-        <v>241</v>
+      <c r="D6" s="167">
+        <v>452</v>
+      </c>
+      <c r="E6" s="165" t="s">
+        <v>92</v>
       </c>
       <c r="F6" s="180" t="s">
-        <v>990</v>
-      </c>
-      <c r="G6" s="180"/>
+        <v>910</v>
+      </c>
+      <c r="G6" s="180" t="s">
+        <v>1060</v>
+      </c>
       <c r="H6" s="183"/>
-      <c r="I6" s="34"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="82" t="s">
         <v>383</v>
       </c>
@@ -19572,16 +19587,24 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="172" t="s">
-        <v>1009</v>
+      <c r="A7" s="170" t="s">
+        <v>991</v>
       </c>
       <c r="B7" s="180" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
+        <v>27</v>
+      </c>
+      <c r="C7" s="167" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="194">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="180" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="180" t="s">
+        <v>990</v>
+      </c>
       <c r="G7" s="180"/>
       <c r="H7" s="183"/>
       <c r="I7" s="34"/>
@@ -19595,43 +19618,35 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="172" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B8" s="180"/>
-      <c r="C8" s="182"/>
+        <v>1009</v>
+      </c>
+      <c r="B8" s="180" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="167"/>
       <c r="D8" s="167"/>
       <c r="E8" s="180"/>
       <c r="F8" s="180"/>
       <c r="G8" s="180"/>
       <c r="H8" s="183"/>
-      <c r="I8" s="30"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="82" t="s">
         <v>383</v>
       </c>
       <c r="K8" s="184"/>
       <c r="L8" s="184" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="170" t="s">
-        <v>976</v>
-      </c>
-      <c r="B9" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="182" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" s="167" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E9" s="180" t="s">
-        <v>241</v>
-      </c>
-      <c r="F9" s="180" t="s">
-        <v>245</v>
-      </c>
+      <c r="A9" s="172" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B9" s="180"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
       <c r="G9" s="180"/>
       <c r="H9" s="183"/>
       <c r="I9" s="30"/>
@@ -19640,18 +19655,28 @@
       </c>
       <c r="K9" s="184"/>
       <c r="L9" s="184" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="172" t="s">
-        <v>977</v>
-      </c>
-      <c r="B10" s="180"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
+      <c r="A10" s="170" t="s">
+        <v>976</v>
+      </c>
+      <c r="B10" s="180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="182" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="167" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E10" s="180" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" s="180" t="s">
+        <v>245</v>
+      </c>
       <c r="G10" s="180"/>
       <c r="H10" s="183"/>
       <c r="I10" s="30"/>
@@ -19665,7 +19690,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="172" t="s">
-        <v>1003</v>
+        <v>977</v>
       </c>
       <c r="B11" s="180"/>
       <c r="C11" s="167"/>
@@ -19683,28 +19708,18 @@
         <v>778</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A12" s="170" t="s">
-        <v>916</v>
-      </c>
-      <c r="B12" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="182" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="E12" s="180" t="s">
-        <v>499</v>
-      </c>
-      <c r="F12" s="165" t="s">
-        <v>322</v>
-      </c>
+    <row r="12" spans="1:12">
+      <c r="A12" s="172" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B12" s="180"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="180"/>
       <c r="G12" s="180"/>
       <c r="H12" s="183"/>
-      <c r="I12" s="34"/>
+      <c r="I12" s="30"/>
       <c r="J12" s="82" t="s">
         <v>383</v>
       </c>
@@ -19713,28 +19728,28 @@
         <v>778</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="170" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B13" s="180" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="167" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="167" t="s">
-        <v>1027</v>
+        <v>916</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="182" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.44</v>
       </c>
       <c r="E13" s="180" t="s">
-        <v>1021</v>
-      </c>
-      <c r="F13" s="180" t="s">
-        <v>1028</v>
+        <v>499</v>
+      </c>
+      <c r="F13" s="165" t="s">
+        <v>322</v>
       </c>
       <c r="G13" s="180"/>
       <c r="H13" s="183"/>
-      <c r="I13" s="31"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="82" t="s">
         <v>383</v>
       </c>
@@ -19745,19 +19760,23 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="170" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B14" s="180"/>
+        <v>1049</v>
+      </c>
+      <c r="B14" s="180" t="s">
+        <v>28</v>
+      </c>
       <c r="C14" s="167" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="167">
-        <v>0.21</v>
+      <c r="D14" s="167" t="s">
+        <v>1027</v>
       </c>
       <c r="E14" s="180" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="180"/>
+        <v>1021</v>
+      </c>
+      <c r="F14" s="180" t="s">
+        <v>1028</v>
+      </c>
       <c r="G14" s="180"/>
       <c r="H14" s="183"/>
       <c r="I14" s="31"/>
@@ -19770,16 +19789,24 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="172" t="s">
-        <v>1012</v>
+      <c r="A15" s="170" t="s">
+        <v>1085</v>
       </c>
       <c r="B15" s="180" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C15" s="167"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
+        <v>7</v>
+      </c>
+      <c r="C15" s="167" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D15" s="167">
+        <v>7</v>
+      </c>
+      <c r="E15" s="180" t="s">
+        <v>241</v>
+      </c>
+      <c r="F15" s="165" t="s">
+        <v>246</v>
+      </c>
       <c r="G15" s="180"/>
       <c r="H15" s="183"/>
       <c r="I15" s="34"/>
@@ -19788,23 +19815,27 @@
       </c>
       <c r="K15" s="184"/>
       <c r="L15" s="184" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="172" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B16" s="180" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="180"/>
+      <c r="A16" s="170" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B16" s="180"/>
+      <c r="C16" s="167" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="167">
+        <v>0.21</v>
+      </c>
+      <c r="E16" s="180" t="s">
+        <v>92</v>
+      </c>
       <c r="F16" s="180"/>
       <c r="G16" s="180"/>
       <c r="H16" s="183"/>
-      <c r="I16" s="34"/>
+      <c r="I16" s="31"/>
       <c r="J16" s="82" t="s">
         <v>383</v>
       </c>
@@ -19814,27 +19845,19 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="170" t="s">
-        <v>230</v>
-      </c>
-      <c r="B17" s="180"/>
-      <c r="C17" s="167" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="167" t="s">
-        <v>901</v>
-      </c>
-      <c r="E17" s="180" t="s">
-        <v>241</v>
-      </c>
-      <c r="F17" s="180" t="s">
-        <v>989</v>
-      </c>
+      <c r="A17" s="172" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B17" s="180" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C17" s="167"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
       <c r="G17" s="180"/>
-      <c r="H17" s="183" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="31"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="34"/>
       <c r="J17" s="82" t="s">
         <v>383</v>
       </c>
@@ -19844,24 +19867,16 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="170" t="s">
-        <v>915</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="182" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D18" s="90">
-        <v>0.4</v>
-      </c>
-      <c r="E18" s="180" t="s">
-        <v>499</v>
-      </c>
-      <c r="F18" s="165" t="s">
-        <v>322</v>
-      </c>
+      <c r="A18" s="172" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B18" s="180" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="180"/>
       <c r="G18" s="180"/>
       <c r="H18" s="183"/>
       <c r="I18" s="34"/>
@@ -19875,25 +19890,25 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="170" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B19" s="180" t="s">
-        <v>28</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="B19" s="180"/>
       <c r="C19" s="167" t="s">
         <v>167</v>
       </c>
       <c r="D19" s="167" t="s">
-        <v>1027</v>
+        <v>901</v>
       </c>
       <c r="E19" s="180" t="s">
-        <v>1021</v>
+        <v>241</v>
       </c>
       <c r="F19" s="180" t="s">
-        <v>1028</v>
+        <v>989</v>
       </c>
       <c r="G19" s="180"/>
-      <c r="H19" s="183"/>
+      <c r="H19" s="183" t="s">
+        <v>29</v>
+      </c>
       <c r="I19" s="31"/>
       <c r="J19" s="82" t="s">
         <v>383</v>
@@ -19905,22 +19920,22 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="170" t="s">
-        <v>987</v>
+        <v>915</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C20" s="182" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D20" s="162">
-        <v>-8</v>
+        <v>1045</v>
+      </c>
+      <c r="D20" s="90">
+        <v>0.4</v>
       </c>
       <c r="E20" s="180" t="s">
-        <v>241</v>
+        <v>499</v>
       </c>
       <c r="F20" s="165" t="s">
-        <v>988</v>
+        <v>322</v>
       </c>
       <c r="G20" s="180"/>
       <c r="H20" s="183"/>
@@ -19935,26 +19950,26 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="170" t="s">
-        <v>987</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="182" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D21" s="162">
-        <v>-5</v>
+        <v>1048</v>
+      </c>
+      <c r="B21" s="180" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="167" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="167" t="s">
+        <v>1027</v>
       </c>
       <c r="E21" s="180" t="s">
-        <v>241</v>
-      </c>
-      <c r="F21" s="165" t="s">
-        <v>988</v>
+        <v>1021</v>
+      </c>
+      <c r="F21" s="180" t="s">
+        <v>1028</v>
       </c>
       <c r="G21" s="180"/>
       <c r="H21" s="183"/>
-      <c r="I21" s="34"/>
+      <c r="I21" s="31"/>
       <c r="J21" s="82" t="s">
         <v>383</v>
       </c>
@@ -19965,37 +19980,37 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="170" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="182" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D22" s="193">
-        <v>5.4</v>
+        <v>1084</v>
+      </c>
+      <c r="B22" s="180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="167" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D22" s="167">
+        <v>7</v>
       </c>
       <c r="E22" s="180" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="165"/>
+        <v>241</v>
+      </c>
+      <c r="F22" s="165" t="s">
+        <v>246</v>
+      </c>
       <c r="G22" s="180"/>
-      <c r="H22" s="183" t="s">
-        <v>1052</v>
-      </c>
+      <c r="H22" s="183"/>
       <c r="I22" s="34"/>
       <c r="J22" s="82" t="s">
         <v>383</v>
       </c>
       <c r="K22" s="184"/>
       <c r="L22" s="184" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="170" t="s">
-        <v>1050</v>
+        <v>987</v>
       </c>
       <c r="B23" s="62" t="s">
         <v>8</v>
@@ -20003,13 +20018,15 @@
       <c r="C23" s="182" t="s">
         <v>1044</v>
       </c>
-      <c r="D23" s="193">
-        <v>0</v>
+      <c r="D23" s="162">
+        <v>-8</v>
       </c>
       <c r="E23" s="180" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="165"/>
+        <v>241</v>
+      </c>
+      <c r="F23" s="165" t="s">
+        <v>988</v>
+      </c>
       <c r="G23" s="180"/>
       <c r="H23" s="183"/>
       <c r="I23" s="34"/>
@@ -20023,22 +20040,22 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="170" t="s">
-        <v>981</v>
-      </c>
-      <c r="B24" s="180" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="167" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" s="194">
-        <v>0.2</v>
+        <v>987</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="182" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D24" s="162">
+        <v>-5</v>
       </c>
       <c r="E24" s="180" t="s">
         <v>241</v>
       </c>
-      <c r="F24" s="180" t="s">
-        <v>990</v>
+      <c r="F24" s="165" t="s">
+        <v>988</v>
       </c>
       <c r="G24" s="180"/>
       <c r="H24" s="183"/>
@@ -20051,28 +20068,26 @@
         <v>778</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="60">
+    <row r="25" spans="1:12">
       <c r="A25" s="170" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B25" s="183" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B25" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="167" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25" s="195">
-        <v>-1</v>
+      <c r="C25" s="182" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D25" s="193">
+        <v>5.4</v>
       </c>
       <c r="E25" s="180" t="s">
-        <v>241</v>
-      </c>
-      <c r="F25" s="180" t="s">
-        <v>999</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F25" s="165"/>
       <c r="G25" s="180"/>
       <c r="H25" s="183" t="s">
-        <v>998</v>
+        <v>1052</v>
       </c>
       <c r="I25" s="34"/>
       <c r="J25" s="82" t="s">
@@ -20085,21 +20100,21 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="170" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B26" s="183" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B26" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="167" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" s="195">
+      <c r="C26" s="182" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D26" s="193">
         <v>0</v>
       </c>
       <c r="E26" s="180" t="s">
-        <v>1021</v>
-      </c>
-      <c r="F26" s="180"/>
+        <v>92</v>
+      </c>
+      <c r="F26" s="165"/>
       <c r="G26" s="180"/>
       <c r="H26" s="183"/>
       <c r="I26" s="34"/>
@@ -20113,22 +20128,22 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="170" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B27" s="183"/>
-      <c r="C27" s="167" t="s">
-        <v>167</v>
-      </c>
-      <c r="D27" s="195">
+        <v>1083</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="182" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D27" s="193">
         <v>0</v>
       </c>
       <c r="E27" s="180" t="s">
-        <v>1021</v>
-      </c>
-      <c r="F27" s="180"/>
-      <c r="G27" s="180" t="s">
-        <v>1064</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F27" s="165"/>
+      <c r="G27" s="180"/>
       <c r="H27" s="183"/>
       <c r="I27" s="34"/>
       <c r="J27" s="82" t="s">
@@ -20141,24 +20156,24 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="170" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B28" s="183" t="s">
-        <v>5</v>
+        <v>981</v>
+      </c>
+      <c r="B28" s="180" t="s">
+        <v>27</v>
       </c>
       <c r="C28" s="167" t="s">
         <v>167</v>
       </c>
-      <c r="D28" s="195">
-        <v>0</v>
+      <c r="D28" s="194">
+        <v>0.2</v>
       </c>
       <c r="E28" s="180" t="s">
-        <v>1021</v>
-      </c>
-      <c r="F28" s="180"/>
-      <c r="G28" s="180" t="s">
-        <v>1066</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="F28" s="180" t="s">
+        <v>990</v>
+      </c>
+      <c r="G28" s="180"/>
       <c r="H28" s="183"/>
       <c r="I28" s="34"/>
       <c r="J28" s="82" t="s">
@@ -20169,19 +20184,29 @@
         <v>778</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="172" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B29" s="180" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="180"/>
+    <row r="29" spans="1:12" ht="60">
+      <c r="A29" s="170" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B29" s="183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="167" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="195">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="180" t="s">
+        <v>241</v>
+      </c>
+      <c r="F29" s="180" t="s">
+        <v>999</v>
+      </c>
       <c r="G29" s="180"/>
-      <c r="H29" s="183"/>
+      <c r="H29" s="183" t="s">
+        <v>998</v>
+      </c>
       <c r="I29" s="34"/>
       <c r="J29" s="82" t="s">
         <v>383</v>
@@ -20192,15 +20217,21 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="172" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B30" s="180" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="180"/>
+      <c r="A30" s="170" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B30" s="183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="167" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="195">
+        <v>0</v>
+      </c>
+      <c r="E30" s="180" t="s">
+        <v>1021</v>
+      </c>
       <c r="F30" s="180"/>
       <c r="G30" s="180"/>
       <c r="H30" s="183"/>
@@ -20213,27 +20244,25 @@
         <v>778</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="24">
+    <row r="31" spans="1:12">
       <c r="A31" s="170" t="s">
-        <v>985</v>
-      </c>
-      <c r="B31" s="183" t="s">
-        <v>8</v>
-      </c>
+        <v>1063</v>
+      </c>
+      <c r="B31" s="183"/>
       <c r="C31" s="167" t="s">
         <v>167</v>
       </c>
       <c r="D31" s="195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="180" t="s">
-        <v>241</v>
+        <v>1021</v>
       </c>
       <c r="F31" s="180"/>
-      <c r="G31" s="180"/>
-      <c r="H31" s="183" t="s">
-        <v>997</v>
-      </c>
+      <c r="G31" s="180" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H31" s="183"/>
       <c r="I31" s="34"/>
       <c r="J31" s="82" t="s">
         <v>383</v>
@@ -20243,26 +20272,26 @@
         <v>778</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1">
+    <row r="32" spans="1:12">
       <c r="A32" s="170" t="s">
-        <v>980</v>
+        <v>1065</v>
       </c>
       <c r="B32" s="183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" s="167" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D32" s="168">
-        <v>2</v>
+        <v>167</v>
+      </c>
+      <c r="D32" s="195">
+        <v>0</v>
       </c>
       <c r="E32" s="180" t="s">
-        <v>241</v>
-      </c>
-      <c r="F32" s="165" t="s">
-        <v>246</v>
-      </c>
-      <c r="G32" s="180"/>
+        <v>1021</v>
+      </c>
+      <c r="F32" s="180"/>
+      <c r="G32" s="180" t="s">
+        <v>1066</v>
+      </c>
       <c r="H32" s="183"/>
       <c r="I32" s="34"/>
       <c r="J32" s="82" t="s">
@@ -20273,27 +20302,19 @@
         <v>778</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="120">
-      <c r="A33" s="170" t="s">
-        <v>986</v>
-      </c>
-      <c r="B33" s="183" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="167" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" s="195">
-        <v>0</v>
-      </c>
-      <c r="E33" s="180" t="s">
-        <v>241</v>
-      </c>
+    <row r="33" spans="1:12">
+      <c r="A33" s="172" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B33" s="180" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="180"/>
       <c r="F33" s="180"/>
       <c r="G33" s="180"/>
-      <c r="H33" s="183" t="s">
-        <v>996</v>
-      </c>
+      <c r="H33" s="183"/>
       <c r="I33" s="34"/>
       <c r="J33" s="82" t="s">
         <v>383</v>
@@ -20303,30 +20324,20 @@
         <v>778</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="96">
-      <c r="A34" s="170" t="s">
-        <v>231</v>
+    <row r="34" spans="1:12">
+      <c r="A34" s="172" t="s">
+        <v>1006</v>
       </c>
       <c r="B34" s="180" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="167" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" s="180" t="s">
-        <v>360</v>
-      </c>
-      <c r="E34" s="180" t="s">
-        <v>241</v>
-      </c>
-      <c r="F34" s="180" t="s">
-        <v>242</v>
-      </c>
+        <v>1004</v>
+      </c>
+      <c r="C34" s="167"/>
+      <c r="D34" s="167"/>
+      <c r="E34" s="180"/>
+      <c r="F34" s="180"/>
       <c r="G34" s="180"/>
-      <c r="H34" s="183" t="s">
-        <v>243</v>
-      </c>
-      <c r="I34" s="31"/>
+      <c r="H34" s="183"/>
+      <c r="I34" s="34"/>
       <c r="J34" s="82" t="s">
         <v>383</v>
       </c>
@@ -20335,30 +20346,28 @@
         <v>778</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" ht="24">
       <c r="A35" s="170" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B35" s="180" t="s">
-        <v>1025</v>
+        <v>985</v>
+      </c>
+      <c r="B35" s="183" t="s">
+        <v>8</v>
       </c>
       <c r="C35" s="167" t="s">
         <v>167</v>
       </c>
-      <c r="D35" s="180" t="s">
-        <v>1046</v>
+      <c r="D35" s="195">
+        <v>1</v>
       </c>
       <c r="E35" s="180" t="s">
         <v>241</v>
       </c>
-      <c r="F35" s="180" t="s">
-        <v>242</v>
-      </c>
+      <c r="F35" s="180"/>
       <c r="G35" s="180"/>
       <c r="H35" s="183" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I35" s="31"/>
+        <v>997</v>
+      </c>
+      <c r="I35" s="34"/>
       <c r="J35" s="82" t="s">
         <v>383</v>
       </c>
@@ -20367,18 +20376,18 @@
         <v>778</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="163" customFormat="1" ht="24">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1">
       <c r="A36" s="170" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B36" s="62" t="s">
-        <v>362</v>
+        <v>980</v>
+      </c>
+      <c r="B36" s="183" t="s">
+        <v>7</v>
       </c>
       <c r="C36" s="167" t="s">
         <v>1035</v>
       </c>
-      <c r="D36" s="180">
-        <v>3.5</v>
+      <c r="D36" s="168">
+        <v>2</v>
       </c>
       <c r="E36" s="180" t="s">
         <v>241</v>
@@ -20387,10 +20396,8 @@
         <v>246</v>
       </c>
       <c r="G36" s="180"/>
-      <c r="H36" s="183" t="s">
-        <v>1081</v>
-      </c>
-      <c r="I36" s="32"/>
+      <c r="H36" s="183"/>
+      <c r="I36" s="34"/>
       <c r="J36" s="82" t="s">
         <v>383</v>
       </c>
@@ -20399,19 +20406,27 @@
         <v>778</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="172" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B37" s="180" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="180"/>
+    <row r="37" spans="1:12" ht="120">
+      <c r="A37" s="170" t="s">
+        <v>986</v>
+      </c>
+      <c r="B37" s="183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="167" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="195">
+        <v>0</v>
+      </c>
+      <c r="E37" s="180" t="s">
+        <v>241</v>
+      </c>
       <c r="F37" s="180"/>
       <c r="G37" s="180"/>
-      <c r="H37" s="183"/>
+      <c r="H37" s="183" t="s">
+        <v>996</v>
+      </c>
       <c r="I37" s="34"/>
       <c r="J37" s="82" t="s">
         <v>383</v>
@@ -20421,20 +20436,30 @@
         <v>778</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="172" t="s">
-        <v>1013</v>
+    <row r="38" spans="1:12" ht="96">
+      <c r="A38" s="170" t="s">
+        <v>231</v>
       </c>
       <c r="B38" s="180" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="180"/>
-      <c r="F38" s="180"/>
+        <v>27</v>
+      </c>
+      <c r="C38" s="167" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="180" t="s">
+        <v>360</v>
+      </c>
+      <c r="E38" s="180" t="s">
+        <v>241</v>
+      </c>
+      <c r="F38" s="180" t="s">
+        <v>242</v>
+      </c>
       <c r="G38" s="180"/>
-      <c r="H38" s="183"/>
-      <c r="I38" s="34"/>
+      <c r="H38" s="183" t="s">
+        <v>243</v>
+      </c>
+      <c r="I38" s="31"/>
       <c r="J38" s="82" t="s">
         <v>383</v>
       </c>
@@ -20443,28 +20468,30 @@
         <v>778</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="36">
+    <row r="39" spans="1:12">
       <c r="A39" s="170" t="s">
-        <v>232</v>
-      </c>
-      <c r="B39" s="62" t="s">
-        <v>199</v>
+        <v>1024</v>
+      </c>
+      <c r="B39" s="180" t="s">
+        <v>1025</v>
       </c>
       <c r="C39" s="167" t="s">
         <v>167</v>
       </c>
-      <c r="D39" s="62" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E39" s="196" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F39" s="165" t="s">
-        <v>1001</v>
+      <c r="D39" s="180" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E39" s="180" t="s">
+        <v>241</v>
+      </c>
+      <c r="F39" s="180" t="s">
+        <v>242</v>
       </c>
       <c r="G39" s="180"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="33"/>
+      <c r="H39" s="183" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I39" s="31"/>
       <c r="J39" s="82" t="s">
         <v>383</v>
       </c>
@@ -20473,24 +20500,30 @@
         <v>778</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="172" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B40" s="180"/>
+    <row r="40" spans="1:12" s="163" customFormat="1" ht="24">
+      <c r="A40" s="170" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B40" s="62" t="s">
+        <v>362</v>
+      </c>
       <c r="C40" s="167" t="s">
-        <v>167</v>
-      </c>
-      <c r="D40" s="167">
-        <v>0</v>
+        <v>1035</v>
+      </c>
+      <c r="D40" s="180">
+        <v>3.5</v>
       </c>
       <c r="E40" s="180" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F40" s="180"/>
+        <v>241</v>
+      </c>
+      <c r="F40" s="165" t="s">
+        <v>246</v>
+      </c>
       <c r="G40" s="180"/>
-      <c r="H40" s="183"/>
-      <c r="I40" s="34"/>
+      <c r="H40" s="183" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I40" s="32"/>
       <c r="J40" s="82" t="s">
         <v>383</v>
       </c>
@@ -20499,18 +20532,20 @@
         <v>778</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="163" customFormat="1">
+    <row r="41" spans="1:12">
       <c r="A41" s="172" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B41" s="54"/>
+        <v>1014</v>
+      </c>
+      <c r="B41" s="180" t="s">
+        <v>1004</v>
+      </c>
       <c r="C41" s="167"/>
       <c r="D41" s="167"/>
-      <c r="E41" s="167"/>
-      <c r="F41" s="167"/>
-      <c r="G41" s="167"/>
-      <c r="H41" s="167"/>
-      <c r="I41" s="167"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="180"/>
+      <c r="G41" s="180"/>
+      <c r="H41" s="183"/>
+      <c r="I41" s="34"/>
       <c r="J41" s="82" t="s">
         <v>383</v>
       </c>
@@ -20519,26 +20554,20 @@
         <v>778</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="163" customFormat="1">
-      <c r="A42" s="170" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="167" t="s">
-        <v>167</v>
-      </c>
-      <c r="D42" s="167">
-        <v>4.62</v>
-      </c>
-      <c r="E42" s="167" t="s">
-        <v>92</v>
-      </c>
-      <c r="F42" s="167"/>
-      <c r="G42" s="167" t="s">
-        <v>1068</v>
-      </c>
-      <c r="H42" s="167"/>
-      <c r="I42" s="167"/>
+    <row r="42" spans="1:12">
+      <c r="A42" s="172" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B42" s="180" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C42" s="167"/>
+      <c r="D42" s="167"/>
+      <c r="E42" s="180"/>
+      <c r="F42" s="180"/>
+      <c r="G42" s="180"/>
+      <c r="H42" s="183"/>
+      <c r="I42" s="34"/>
       <c r="J42" s="82" t="s">
         <v>383</v>
       </c>
@@ -20547,28 +20576,28 @@
         <v>778</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="24">
+    <row r="43" spans="1:12" ht="36">
       <c r="A43" s="170" t="s">
-        <v>233</v>
-      </c>
-      <c r="B43" s="180"/>
+        <v>232</v>
+      </c>
+      <c r="B43" s="62" t="s">
+        <v>199</v>
+      </c>
       <c r="C43" s="167" t="s">
         <v>167</v>
       </c>
-      <c r="D43" s="180">
-        <v>0.23</v>
-      </c>
-      <c r="E43" s="180" t="s">
-        <v>241</v>
+      <c r="D43" s="62" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E43" s="196" t="s">
+        <v>1000</v>
       </c>
       <c r="F43" s="165" t="s">
-        <v>246</v>
+        <v>1001</v>
       </c>
       <c r="G43" s="180"/>
-      <c r="H43" s="183" t="s">
-        <v>320</v>
-      </c>
-      <c r="I43" s="30"/>
+      <c r="H43" s="183"/>
+      <c r="I43" s="33"/>
       <c r="J43" s="82" t="s">
         <v>383</v>
       </c>
@@ -20578,24 +20607,20 @@
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="170" t="s">
-        <v>234</v>
-      </c>
-      <c r="B44" s="180" t="s">
-        <v>7</v>
-      </c>
+      <c r="A44" s="172" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B44" s="180"/>
       <c r="C44" s="167" t="s">
-        <v>1035</v>
+        <v>167</v>
       </c>
       <c r="D44" s="167">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E44" s="180" t="s">
-        <v>241</v>
-      </c>
-      <c r="F44" s="165" t="s">
-        <v>246</v>
-      </c>
+        <v>1034</v>
+      </c>
+      <c r="F44" s="180"/>
       <c r="G44" s="180"/>
       <c r="H44" s="183"/>
       <c r="I44" s="34"/>
@@ -20604,33 +20629,21 @@
       </c>
       <c r="K44" s="184"/>
       <c r="L44" s="184" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="24">
-      <c r="A45" s="170" t="s">
-        <v>235</v>
-      </c>
-      <c r="B45" s="180" t="s">
-        <v>361</v>
-      </c>
-      <c r="C45" s="167" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D45" s="167">
-        <v>0.08</v>
-      </c>
-      <c r="E45" s="180" t="s">
-        <v>241</v>
-      </c>
-      <c r="F45" s="165" t="s">
-        <v>246</v>
-      </c>
-      <c r="G45" s="180"/>
-      <c r="H45" s="183" t="s">
-        <v>244</v>
-      </c>
-      <c r="I45" s="34"/>
+        <v>778</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="163" customFormat="1">
+      <c r="A45" s="172" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="167"/>
+      <c r="E45" s="167"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="167"/>
+      <c r="H45" s="167"/>
+      <c r="I45" s="167"/>
       <c r="J45" s="82" t="s">
         <v>383</v>
       </c>
@@ -20639,31 +20652,26 @@
         <v>778</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="24">
+    <row r="46" spans="1:12" s="163" customFormat="1">
       <c r="A46" s="170" t="s">
-        <v>236</v>
-      </c>
-      <c r="B46" s="180" t="s">
-        <v>361</v>
-      </c>
+        <v>1067</v>
+      </c>
+      <c r="B46" s="54"/>
       <c r="C46" s="167" t="s">
-        <v>1035</v>
+        <v>167</v>
       </c>
       <c r="D46" s="167">
-        <f>0.002*12</f>
-        <v>2.4E-2</v>
-      </c>
-      <c r="E46" s="180" t="s">
-        <v>241</v>
-      </c>
-      <c r="F46" s="165" t="s">
-        <v>246</v>
-      </c>
-      <c r="G46" s="180"/>
-      <c r="H46" s="183" t="s">
-        <v>30</v>
-      </c>
-      <c r="I46" s="177"/>
+        <v>4.62</v>
+      </c>
+      <c r="E46" s="167" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="167"/>
+      <c r="G46" s="167" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H46" s="167"/>
+      <c r="I46" s="167"/>
       <c r="J46" s="82" t="s">
         <v>383</v>
       </c>
@@ -20672,18 +20680,16 @@
         <v>778</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="163" customFormat="1" ht="36">
+    <row r="47" spans="1:12" ht="24">
       <c r="A47" s="170" t="s">
-        <v>237</v>
-      </c>
-      <c r="B47" s="62" t="s">
-        <v>362</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B47" s="180"/>
       <c r="C47" s="167" t="s">
-        <v>1035</v>
+        <v>167</v>
       </c>
       <c r="D47" s="180">
-        <v>3.3500000000000002E-2</v>
+        <v>0.23</v>
       </c>
       <c r="E47" s="180" t="s">
         <v>241</v>
@@ -20693,9 +20699,9 @@
       </c>
       <c r="G47" s="180"/>
       <c r="H47" s="183" t="s">
-        <v>261</v>
-      </c>
-      <c r="I47" s="32"/>
+        <v>320</v>
+      </c>
+      <c r="I47" s="30"/>
       <c r="J47" s="82" t="s">
         <v>383</v>
       </c>
@@ -20705,16 +20711,24 @@
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="172" t="s">
-        <v>1010</v>
+      <c r="A48" s="170" t="s">
+        <v>234</v>
       </c>
       <c r="B48" s="180" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
-      <c r="E48" s="180"/>
-      <c r="F48" s="180"/>
+        <v>7</v>
+      </c>
+      <c r="C48" s="167" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D48" s="167">
+        <v>7</v>
+      </c>
+      <c r="E48" s="180" t="s">
+        <v>241</v>
+      </c>
+      <c r="F48" s="165" t="s">
+        <v>246</v>
+      </c>
       <c r="G48" s="180"/>
       <c r="H48" s="183"/>
       <c r="I48" s="34"/>
@@ -20723,12 +20737,12 @@
       </c>
       <c r="K48" s="184"/>
       <c r="L48" s="184" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="45.75" customHeight="1">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="24">
       <c r="A49" s="170" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B49" s="180" t="s">
         <v>361</v>
@@ -20737,8 +20751,7 @@
         <v>1035</v>
       </c>
       <c r="D49" s="167">
-        <f>0.007*12</f>
-        <v>8.4000000000000005E-2</v>
+        <v>0.08</v>
       </c>
       <c r="E49" s="180" t="s">
         <v>241</v>
@@ -20748,7 +20761,7 @@
       </c>
       <c r="G49" s="180"/>
       <c r="H49" s="183" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="I49" s="34"/>
       <c r="J49" s="82" t="s">
@@ -20759,20 +20772,31 @@
         <v>778</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="172" t="s">
-        <v>1007</v>
+    <row r="50" spans="1:12" ht="24">
+      <c r="A50" s="170" t="s">
+        <v>236</v>
       </c>
       <c r="B50" s="180" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="180"/>
-      <c r="F50" s="180"/>
+        <v>361</v>
+      </c>
+      <c r="C50" s="167" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D50" s="167">
+        <f>0.002*12</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="E50" s="180" t="s">
+        <v>241</v>
+      </c>
+      <c r="F50" s="165" t="s">
+        <v>246</v>
+      </c>
       <c r="G50" s="180"/>
-      <c r="H50" s="183"/>
-      <c r="I50" s="34"/>
+      <c r="H50" s="183" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" s="177"/>
       <c r="J50" s="82" t="s">
         <v>383</v>
       </c>
@@ -20781,28 +20805,30 @@
         <v>778</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" s="163" customFormat="1" ht="36">
       <c r="A51" s="170" t="s">
-        <v>1018</v>
+        <v>237</v>
       </c>
       <c r="B51" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="182" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D51" s="167">
-        <v>-1</v>
+        <v>362</v>
+      </c>
+      <c r="C51" s="167" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D51" s="180">
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="E51" s="180" t="s">
         <v>241</v>
       </c>
-      <c r="F51" s="180" t="s">
-        <v>999</v>
+      <c r="F51" s="165" t="s">
+        <v>246</v>
       </c>
       <c r="G51" s="180"/>
-      <c r="H51" s="183"/>
-      <c r="I51" s="34"/>
+      <c r="H51" s="183" t="s">
+        <v>261</v>
+      </c>
+      <c r="I51" s="32"/>
       <c r="J51" s="82" t="s">
         <v>383</v>
       </c>
@@ -20812,24 +20838,16 @@
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="170" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B52" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="182" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D52" s="167">
-        <v>1</v>
-      </c>
-      <c r="E52" s="180" t="s">
-        <v>241</v>
-      </c>
-      <c r="F52" s="180" t="s">
-        <v>999</v>
-      </c>
+      <c r="A52" s="172" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B52" s="180" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C52" s="167"/>
+      <c r="D52" s="167"/>
+      <c r="E52" s="180"/>
+      <c r="F52" s="180"/>
       <c r="G52" s="180"/>
       <c r="H52" s="183"/>
       <c r="I52" s="34"/>
@@ -20841,27 +20859,30 @@
         <v>778</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" ht="45.75" customHeight="1">
       <c r="A53" s="170" t="s">
-        <v>1019</v>
+        <v>238</v>
       </c>
       <c r="B53" s="180" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="182" t="s">
-        <v>1044</v>
+        <v>361</v>
+      </c>
+      <c r="C53" s="167" t="s">
+        <v>1035</v>
       </c>
       <c r="D53" s="167">
-        <v>5.2</v>
+        <f>0.007*12</f>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E53" s="180" t="s">
-        <v>92</v>
-      </c>
-      <c r="F53" s="180" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+      <c r="F53" s="165" t="s">
+        <v>246</v>
       </c>
       <c r="G53" s="180"/>
-      <c r="H53" s="183"/>
+      <c r="H53" s="183" t="s">
+        <v>260</v>
+      </c>
       <c r="I53" s="34"/>
       <c r="J53" s="82" t="s">
         <v>383</v>
@@ -20872,24 +20893,16 @@
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="170" t="s">
-        <v>1019</v>
+      <c r="A54" s="172" t="s">
+        <v>1007</v>
       </c>
       <c r="B54" s="180" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="182" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D54" s="167">
-        <v>7.2</v>
-      </c>
-      <c r="E54" s="180" t="s">
-        <v>92</v>
-      </c>
-      <c r="F54" s="180" t="s">
-        <v>240</v>
-      </c>
+        <v>1004</v>
+      </c>
+      <c r="C54" s="167"/>
+      <c r="D54" s="167"/>
+      <c r="E54" s="180"/>
+      <c r="F54" s="180"/>
       <c r="G54" s="180"/>
       <c r="H54" s="183"/>
       <c r="I54" s="34"/>
@@ -20901,9 +20914,9 @@
         <v>778</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="24">
+    <row r="55" spans="1:12">
       <c r="A55" s="170" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B55" s="62" t="s">
         <v>8</v>
@@ -20911,19 +20924,17 @@
       <c r="C55" s="182" t="s">
         <v>1044</v>
       </c>
-      <c r="D55" s="162">
-        <v>-8</v>
+      <c r="D55" s="167">
+        <v>-1</v>
       </c>
       <c r="E55" s="180" t="s">
         <v>241</v>
       </c>
-      <c r="F55" s="165" t="s">
-        <v>988</v>
+      <c r="F55" s="180" t="s">
+        <v>999</v>
       </c>
       <c r="G55" s="180"/>
-      <c r="H55" s="183" t="s">
-        <v>995</v>
-      </c>
+      <c r="H55" s="183"/>
       <c r="I55" s="34"/>
       <c r="J55" s="82" t="s">
         <v>383</v>
@@ -20933,9 +20944,9 @@
         <v>778</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="24">
+    <row r="56" spans="1:12">
       <c r="A56" s="170" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B56" s="62" t="s">
         <v>8</v>
@@ -20943,19 +20954,17 @@
       <c r="C56" s="182" t="s">
         <v>1045</v>
       </c>
-      <c r="D56" s="162">
-        <v>-5</v>
+      <c r="D56" s="167">
+        <v>1</v>
       </c>
       <c r="E56" s="180" t="s">
         <v>241</v>
       </c>
-      <c r="F56" s="165" t="s">
-        <v>988</v>
+      <c r="F56" s="180" t="s">
+        <v>999</v>
       </c>
       <c r="G56" s="180"/>
-      <c r="H56" s="183" t="s">
-        <v>995</v>
-      </c>
+      <c r="H56" s="183"/>
       <c r="I56" s="34"/>
       <c r="J56" s="82" t="s">
         <v>383</v>
@@ -20967,25 +20976,25 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="170" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B57" s="62" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B57" s="180" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="182" t="s">
         <v>1044</v>
       </c>
-      <c r="D57" s="193">
-        <v>-5.4</v>
+      <c r="D57" s="167">
+        <v>5.2</v>
       </c>
       <c r="E57" s="180" t="s">
         <v>92</v>
       </c>
-      <c r="F57" s="165"/>
+      <c r="F57" s="180" t="s">
+        <v>240</v>
+      </c>
       <c r="G57" s="180"/>
-      <c r="H57" s="183" t="s">
-        <v>1052</v>
-      </c>
+      <c r="H57" s="183"/>
       <c r="I57" s="34"/>
       <c r="J57" s="82" t="s">
         <v>383</v>
@@ -20997,21 +21006,23 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="170" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B58" s="62" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B58" s="180" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="182" t="s">
         <v>1045</v>
       </c>
-      <c r="D58" s="193">
-        <v>0</v>
+      <c r="D58" s="167">
+        <v>7.2</v>
       </c>
       <c r="E58" s="180" t="s">
         <v>92</v>
       </c>
-      <c r="F58" s="165"/>
+      <c r="F58" s="180" t="s">
+        <v>240</v>
+      </c>
       <c r="G58" s="180"/>
       <c r="H58" s="183"/>
       <c r="I58" s="34"/>
@@ -21023,27 +21034,29 @@
         <v>778</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" ht="24">
       <c r="A59" s="170" t="s">
-        <v>239</v>
-      </c>
-      <c r="B59" s="180" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B59" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="182" t="s">
         <v>1044</v>
       </c>
-      <c r="D59" s="167">
-        <v>5</v>
+      <c r="D59" s="162">
+        <v>-8</v>
       </c>
       <c r="E59" s="180" t="s">
-        <v>92</v>
-      </c>
-      <c r="F59" s="180" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+      <c r="F59" s="165" t="s">
+        <v>988</v>
       </c>
       <c r="G59" s="180"/>
-      <c r="H59" s="183"/>
+      <c r="H59" s="183" t="s">
+        <v>995</v>
+      </c>
       <c r="I59" s="34"/>
       <c r="J59" s="82" t="s">
         <v>383</v>
@@ -21053,27 +21066,29 @@
         <v>778</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" ht="24">
       <c r="A60" s="170" t="s">
-        <v>239</v>
-      </c>
-      <c r="B60" s="180" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B60" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="182" t="s">
         <v>1045</v>
       </c>
-      <c r="D60" s="167">
-        <v>7.5</v>
+      <c r="D60" s="162">
+        <v>-5</v>
       </c>
       <c r="E60" s="180" t="s">
-        <v>92</v>
-      </c>
-      <c r="F60" s="180" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+      <c r="F60" s="165" t="s">
+        <v>988</v>
       </c>
       <c r="G60" s="180"/>
-      <c r="H60" s="183"/>
+      <c r="H60" s="183" t="s">
+        <v>995</v>
+      </c>
       <c r="I60" s="34"/>
       <c r="J60" s="82" t="s">
         <v>383</v>
@@ -21083,9 +21098,9 @@
         <v>778</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="24">
+    <row r="61" spans="1:12">
       <c r="A61" s="170" t="s">
-        <v>1016</v>
+        <v>1051</v>
       </c>
       <c r="B61" s="62" t="s">
         <v>8</v>
@@ -21093,19 +21108,17 @@
       <c r="C61" s="182" t="s">
         <v>1044</v>
       </c>
-      <c r="D61" s="167">
-        <v>0</v>
+      <c r="D61" s="193">
+        <v>-5.4</v>
       </c>
       <c r="E61" s="180" t="s">
-        <v>1021</v>
-      </c>
-      <c r="F61" s="180" t="s">
-        <v>1022</v>
-      </c>
-      <c r="G61" s="180" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H61" s="183"/>
+        <v>92</v>
+      </c>
+      <c r="F61" s="165"/>
+      <c r="G61" s="180"/>
+      <c r="H61" s="183" t="s">
+        <v>1052</v>
+      </c>
       <c r="I61" s="34"/>
       <c r="J61" s="82" t="s">
         <v>383</v>
@@ -21115,9 +21128,9 @@
         <v>778</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="24">
+    <row r="62" spans="1:12">
       <c r="A62" s="170" t="s">
-        <v>1016</v>
+        <v>1051</v>
       </c>
       <c r="B62" s="62" t="s">
         <v>8</v>
@@ -21125,18 +21138,14 @@
       <c r="C62" s="182" t="s">
         <v>1045</v>
       </c>
-      <c r="D62" s="167">
+      <c r="D62" s="193">
         <v>0</v>
       </c>
       <c r="E62" s="180" t="s">
-        <v>1021</v>
-      </c>
-      <c r="F62" s="180" t="s">
-        <v>1022</v>
-      </c>
-      <c r="G62" s="180" t="s">
-        <v>1023</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F62" s="165"/>
+      <c r="G62" s="180"/>
       <c r="H62" s="183"/>
       <c r="I62" s="34"/>
       <c r="J62" s="82" t="s">
@@ -21149,22 +21158,22 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="170" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B63" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="B63" s="180" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="182" t="s">
         <v>1044</v>
       </c>
       <c r="D63" s="167">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E63" s="180" t="s">
-        <v>241</v>
+        <v>92</v>
       </c>
       <c r="F63" s="180" t="s">
-        <v>999</v>
+        <v>240</v>
       </c>
       <c r="G63" s="180"/>
       <c r="H63" s="183"/>
@@ -21179,22 +21188,22 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="170" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B64" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="B64" s="180" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="182" t="s">
         <v>1045</v>
       </c>
       <c r="D64" s="167">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="E64" s="180" t="s">
-        <v>241</v>
+        <v>92</v>
       </c>
       <c r="F64" s="180" t="s">
-        <v>999</v>
+        <v>240</v>
       </c>
       <c r="G64" s="180"/>
       <c r="H64" s="183"/>
@@ -21207,226 +21216,226 @@
         <v>778</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="163" customFormat="1">
-      <c r="A65" s="164" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="169" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="174" t="s">
-        <v>221</v>
-      </c>
-      <c r="D65" s="174" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="197" t="s">
-        <v>64</v>
-      </c>
-      <c r="F65" s="197" t="s">
-        <v>65</v>
-      </c>
-      <c r="G65" s="169" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" s="169" t="s">
-        <v>71</v>
-      </c>
-      <c r="I65" s="197" t="s">
-        <v>14</v>
-      </c>
-      <c r="J65" s="174" t="s">
-        <v>368</v>
-      </c>
-      <c r="K65" s="174" t="s">
-        <v>409</v>
-      </c>
-      <c r="L65" s="174" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="25.5" customHeight="1">
+    <row r="65" spans="1:12" ht="24">
+      <c r="A65" s="170" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B65" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="182" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D65" s="167">
+        <v>0</v>
+      </c>
+      <c r="E65" s="180" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F65" s="180" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G65" s="180" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H65" s="183"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="82" t="s">
+        <v>383</v>
+      </c>
+      <c r="K65" s="184"/>
+      <c r="L65" s="184" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="24">
       <c r="A66" s="170" t="s">
-        <v>676</v>
-      </c>
-      <c r="B66" s="180" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B66" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="182" t="s">
         <v>1045</v>
       </c>
-      <c r="D66" s="45" t="s">
-        <v>414</v>
+      <c r="D66" s="167">
+        <v>0</v>
       </c>
       <c r="E66" s="180" t="s">
-        <v>92</v>
+        <v>1021</v>
       </c>
       <c r="F66" s="180" t="s">
-        <v>262</v>
+        <v>1022</v>
       </c>
       <c r="G66" s="180" t="s">
-        <v>496</v>
-      </c>
-      <c r="H66" s="183" t="s">
-        <v>263</v>
-      </c>
+        <v>1023</v>
+      </c>
+      <c r="H66" s="183"/>
       <c r="I66" s="34"/>
       <c r="J66" s="82" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K66" s="184"/>
       <c r="L66" s="184" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="24">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="170" t="s">
-        <v>676</v>
-      </c>
-      <c r="B67" s="180" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B67" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="182" t="s">
         <v>1044</v>
       </c>
-      <c r="D67" s="45" t="s">
-        <v>415</v>
+      <c r="D67" s="167">
+        <v>-1</v>
       </c>
       <c r="E67" s="180" t="s">
-        <v>92</v>
+        <v>241</v>
       </c>
       <c r="F67" s="180" t="s">
-        <v>262</v>
-      </c>
-      <c r="G67" s="180" t="s">
-        <v>496</v>
-      </c>
-      <c r="H67" s="183" t="s">
-        <v>263</v>
-      </c>
+        <v>999</v>
+      </c>
+      <c r="G67" s="180"/>
+      <c r="H67" s="183"/>
       <c r="I67" s="34"/>
       <c r="J67" s="82" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K67" s="184"/>
       <c r="L67" s="184" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="24">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="170" t="s">
-        <v>677</v>
-      </c>
-      <c r="B68" s="180" t="s">
-        <v>5</v>
+        <v>1017</v>
+      </c>
+      <c r="B68" s="62" t="s">
+        <v>8</v>
       </c>
       <c r="C68" s="182" t="s">
         <v>1045</v>
       </c>
-      <c r="D68" s="180" t="s">
-        <v>249</v>
-      </c>
-      <c r="E68" s="196" t="s">
-        <v>250</v>
+      <c r="D68" s="167">
+        <v>1</v>
+      </c>
+      <c r="E68" s="180" t="s">
+        <v>241</v>
       </c>
       <c r="F68" s="180" t="s">
-        <v>251</v>
+        <v>999</v>
       </c>
       <c r="G68" s="180"/>
-      <c r="H68" s="183" t="s">
-        <v>247</v>
-      </c>
+      <c r="H68" s="183"/>
       <c r="I68" s="34"/>
       <c r="J68" s="82" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K68" s="184"/>
       <c r="L68" s="184" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="170" t="s">
-        <v>677</v>
-      </c>
-      <c r="B69" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="182" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D69" s="91">
-        <v>120</v>
-      </c>
-      <c r="E69" s="167" t="s">
-        <v>241</v>
-      </c>
-      <c r="F69" s="180" t="s">
-        <v>252</v>
-      </c>
-      <c r="G69" s="180"/>
-      <c r="H69" s="184"/>
-      <c r="I69" s="177"/>
-      <c r="J69" s="82" t="s">
-        <v>384</v>
-      </c>
-      <c r="K69" s="184"/>
-      <c r="L69" s="184" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="163" customFormat="1">
+      <c r="A69" s="164" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="169" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="174" t="s">
+        <v>221</v>
+      </c>
+      <c r="D69" s="174" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="197" t="s">
+        <v>64</v>
+      </c>
+      <c r="F69" s="197" t="s">
+        <v>65</v>
+      </c>
+      <c r="G69" s="169" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="169" t="s">
+        <v>71</v>
+      </c>
+      <c r="I69" s="197" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" s="174" t="s">
+        <v>368</v>
+      </c>
+      <c r="K69" s="174" t="s">
+        <v>409</v>
+      </c>
+      <c r="L69" s="174" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="25.5" customHeight="1">
       <c r="A70" s="170" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B70" s="180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" s="182" t="s">
         <v>1045</v>
       </c>
-      <c r="D70" s="167" t="s">
-        <v>254</v>
-      </c>
-      <c r="E70" s="167" t="s">
-        <v>241</v>
+      <c r="D70" s="45" t="s">
+        <v>414</v>
+      </c>
+      <c r="E70" s="180" t="s">
+        <v>92</v>
       </c>
       <c r="F70" s="180" t="s">
-        <v>253</v>
-      </c>
-      <c r="G70" s="180"/>
-      <c r="H70" s="180"/>
+        <v>262</v>
+      </c>
+      <c r="G70" s="180" t="s">
+        <v>496</v>
+      </c>
+      <c r="H70" s="183" t="s">
+        <v>263</v>
+      </c>
       <c r="I70" s="34"/>
       <c r="J70" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K70" s="184"/>
       <c r="L70" s="184" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="30" customHeight="1">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="24">
       <c r="A71" s="170" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B71" s="180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C71" s="182" t="s">
         <v>1044</v>
       </c>
-      <c r="D71" s="180" t="s">
-        <v>418</v>
-      </c>
-      <c r="E71" s="196" t="s">
-        <v>250</v>
+      <c r="D71" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="E71" s="180" t="s">
+        <v>92</v>
       </c>
       <c r="F71" s="180" t="s">
-        <v>251</v>
-      </c>
-      <c r="G71" s="180"/>
+        <v>262</v>
+      </c>
+      <c r="G71" s="180" t="s">
+        <v>496</v>
+      </c>
       <c r="H71" s="183" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="I71" s="34"/>
       <c r="J71" s="82" t="s">
@@ -21434,212 +21443,204 @@
       </c>
       <c r="K71" s="184"/>
       <c r="L71" s="184" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" s="163" customFormat="1" ht="24">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="24">
       <c r="A72" s="170" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B72" s="180" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C72" s="182" t="s">
         <v>1045</v>
       </c>
-      <c r="D72" s="167">
-        <v>1028.2</v>
-      </c>
-      <c r="E72" s="180" t="s">
-        <v>92</v>
+      <c r="D72" s="180" t="s">
+        <v>249</v>
+      </c>
+      <c r="E72" s="196" t="s">
+        <v>250</v>
       </c>
       <c r="F72" s="180" t="s">
-        <v>240</v>
-      </c>
-      <c r="G72" s="180" t="s">
-        <v>496</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G72" s="180"/>
       <c r="H72" s="183" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" s="32"/>
+        <v>247</v>
+      </c>
+      <c r="I72" s="34"/>
       <c r="J72" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K72" s="184"/>
       <c r="L72" s="184" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" s="163" customFormat="1" ht="24">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="170" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B73" s="180" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C73" s="182" t="s">
         <v>1044</v>
       </c>
-      <c r="D73" s="167">
-        <v>1025.7</v>
-      </c>
-      <c r="E73" s="180" t="s">
-        <v>92</v>
+      <c r="D73" s="91">
+        <v>120</v>
+      </c>
+      <c r="E73" s="167" t="s">
+        <v>241</v>
       </c>
       <c r="F73" s="180" t="s">
-        <v>240</v>
-      </c>
-      <c r="G73" s="180" t="s">
-        <v>496</v>
-      </c>
-      <c r="H73" s="183" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="32"/>
+        <v>252</v>
+      </c>
+      <c r="G73" s="180"/>
+      <c r="H73" s="184"/>
+      <c r="I73" s="177"/>
       <c r="J73" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K73" s="184"/>
       <c r="L73" s="184" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" s="163" customFormat="1" ht="24">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="170" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B74" s="180" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C74" s="182" t="s">
         <v>1045</v>
       </c>
-      <c r="D74" s="167">
-        <v>1028.2</v>
-      </c>
-      <c r="E74" s="180" t="s">
-        <v>92</v>
+      <c r="D74" s="167" t="s">
+        <v>254</v>
+      </c>
+      <c r="E74" s="167" t="s">
+        <v>241</v>
       </c>
       <c r="F74" s="180" t="s">
-        <v>240</v>
-      </c>
-      <c r="G74" s="180" t="s">
-        <v>496</v>
-      </c>
-      <c r="H74" s="183" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="32"/>
+        <v>253</v>
+      </c>
+      <c r="G74" s="180"/>
+      <c r="H74" s="180"/>
+      <c r="I74" s="34"/>
       <c r="J74" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K74" s="184"/>
       <c r="L74" s="184" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" s="163" customFormat="1" ht="24">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="30" customHeight="1">
       <c r="A75" s="170" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B75" s="180" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C75" s="182" t="s">
         <v>1044</v>
       </c>
-      <c r="D75" s="167">
-        <v>1025.7</v>
-      </c>
-      <c r="E75" s="180" t="s">
-        <v>92</v>
+      <c r="D75" s="180" t="s">
+        <v>418</v>
+      </c>
+      <c r="E75" s="196" t="s">
+        <v>250</v>
       </c>
       <c r="F75" s="180" t="s">
-        <v>240</v>
-      </c>
-      <c r="G75" s="180" t="s">
-        <v>496</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G75" s="180"/>
       <c r="H75" s="183" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="32"/>
+        <v>248</v>
+      </c>
+      <c r="I75" s="34"/>
       <c r="J75" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K75" s="184"/>
       <c r="L75" s="184" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" s="163" customFormat="1" ht="24">
       <c r="A76" s="170" t="s">
-        <v>689</v>
-      </c>
-      <c r="B76" s="62" t="s">
-        <v>362</v>
-      </c>
-      <c r="C76" s="167" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D76" s="198">
-        <v>0.03</v>
-      </c>
-      <c r="E76" s="167" t="s">
-        <v>241</v>
-      </c>
-      <c r="F76" s="165" t="s">
-        <v>246</v>
-      </c>
-      <c r="G76" s="180"/>
-      <c r="H76" s="168" t="s">
-        <v>323</v>
-      </c>
-      <c r="I76" s="199"/>
+        <v>679</v>
+      </c>
+      <c r="B76" s="180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="182" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D76" s="167">
+        <v>1028.2</v>
+      </c>
+      <c r="E76" s="180" t="s">
+        <v>92</v>
+      </c>
+      <c r="F76" s="180" t="s">
+        <v>240</v>
+      </c>
+      <c r="G76" s="180" t="s">
+        <v>496</v>
+      </c>
+      <c r="H76" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="32"/>
       <c r="J76" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K76" s="184"/>
       <c r="L76" s="184" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" s="163" customFormat="1" ht="24">
       <c r="A77" s="170" t="s">
-        <v>689</v>
-      </c>
-      <c r="B77" s="62" t="s">
-        <v>362</v>
-      </c>
-      <c r="C77" s="167" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D77" s="168">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E77" s="167" t="s">
-        <v>241</v>
-      </c>
-      <c r="F77" s="165" t="s">
-        <v>246</v>
-      </c>
-      <c r="G77" s="180"/>
-      <c r="H77" s="168" t="s">
-        <v>259</v>
-      </c>
-      <c r="I77" s="199"/>
+        <v>679</v>
+      </c>
+      <c r="B77" s="180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="182" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D77" s="167">
+        <v>1025.7</v>
+      </c>
+      <c r="E77" s="180" t="s">
+        <v>92</v>
+      </c>
+      <c r="F77" s="180" t="s">
+        <v>240</v>
+      </c>
+      <c r="G77" s="180" t="s">
+        <v>496</v>
+      </c>
+      <c r="H77" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" s="32"/>
       <c r="J77" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K77" s="184"/>
       <c r="L77" s="184" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="24">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" s="163" customFormat="1" ht="24">
       <c r="A78" s="170" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="B78" s="180" t="s">
         <v>8</v>
@@ -21647,22 +21648,22 @@
       <c r="C78" s="182" t="s">
         <v>1045</v>
       </c>
-      <c r="D78" s="180" t="s">
-        <v>416</v>
+      <c r="D78" s="167">
+        <v>1028.2</v>
       </c>
       <c r="E78" s="180" t="s">
-        <v>257</v>
+        <v>92</v>
       </c>
       <c r="F78" s="180" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G78" s="180" t="s">
         <v>496</v>
       </c>
       <c r="H78" s="183" t="s">
-        <v>267</v>
-      </c>
-      <c r="I78" s="34"/>
+        <v>13</v>
+      </c>
+      <c r="I78" s="32"/>
       <c r="J78" s="82" t="s">
         <v>384</v>
       </c>
@@ -21671,9 +21672,9 @@
         <v>779</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="24">
+    <row r="79" spans="1:12" s="163" customFormat="1" ht="24">
       <c r="A79" s="170" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="B79" s="180" t="s">
         <v>8</v>
@@ -21681,22 +21682,22 @@
       <c r="C79" s="182" t="s">
         <v>1044</v>
       </c>
-      <c r="D79" s="180" t="s">
-        <v>417</v>
+      <c r="D79" s="167">
+        <v>1025.7</v>
       </c>
       <c r="E79" s="180" t="s">
-        <v>257</v>
+        <v>92</v>
       </c>
       <c r="F79" s="180" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G79" s="180" t="s">
         <v>496</v>
       </c>
       <c r="H79" s="183" t="s">
-        <v>267</v>
-      </c>
-      <c r="I79" s="34"/>
+        <v>13</v>
+      </c>
+      <c r="I79" s="32"/>
       <c r="J79" s="82" t="s">
         <v>384</v>
       </c>
@@ -21705,96 +21706,94 @@
         <v>779</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="24">
+    <row r="80" spans="1:12">
       <c r="A80" s="170" t="s">
-        <v>691</v>
-      </c>
-      <c r="B80" s="180" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="182" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D80" s="180" t="s">
-        <v>416</v>
-      </c>
-      <c r="E80" s="180" t="s">
-        <v>257</v>
-      </c>
-      <c r="F80" s="180" t="s">
-        <v>258</v>
-      </c>
-      <c r="G80" s="180" t="s">
-        <v>496</v>
-      </c>
-      <c r="H80" s="183" t="s">
-        <v>266</v>
-      </c>
-      <c r="I80" s="34"/>
+        <v>689</v>
+      </c>
+      <c r="B80" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="C80" s="167" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D80" s="198">
+        <v>0.03</v>
+      </c>
+      <c r="E80" s="167" t="s">
+        <v>241</v>
+      </c>
+      <c r="F80" s="165" t="s">
+        <v>246</v>
+      </c>
+      <c r="G80" s="180"/>
+      <c r="H80" s="168" t="s">
+        <v>323</v>
+      </c>
+      <c r="I80" s="199"/>
       <c r="J80" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K80" s="184"/>
       <c r="L80" s="184" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="24">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="170" t="s">
-        <v>691</v>
-      </c>
-      <c r="B81" s="180" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="182" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D81" s="180" t="s">
-        <v>417</v>
-      </c>
-      <c r="E81" s="180" t="s">
-        <v>257</v>
-      </c>
-      <c r="F81" s="180" t="s">
-        <v>258</v>
-      </c>
-      <c r="G81" s="180" t="s">
-        <v>496</v>
-      </c>
-      <c r="H81" s="183" t="s">
-        <v>266</v>
-      </c>
-      <c r="I81" s="34"/>
+        <v>689</v>
+      </c>
+      <c r="B81" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="C81" s="167" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D81" s="168">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E81" s="167" t="s">
+        <v>241</v>
+      </c>
+      <c r="F81" s="165" t="s">
+        <v>246</v>
+      </c>
+      <c r="G81" s="180"/>
+      <c r="H81" s="168" t="s">
+        <v>259</v>
+      </c>
+      <c r="I81" s="199"/>
       <c r="J81" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K81" s="184"/>
       <c r="L81" s="184" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="24">
       <c r="A82" s="170" t="s">
-        <v>681</v>
-      </c>
-      <c r="B82" s="62" t="s">
-        <v>362</v>
-      </c>
-      <c r="C82" s="167" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D82" s="168">
-        <v>1.2599999999999998E-2</v>
-      </c>
-      <c r="E82" s="167" t="s">
-        <v>241</v>
-      </c>
-      <c r="F82" s="165" t="s">
-        <v>246</v>
-      </c>
-      <c r="G82" s="180"/>
-      <c r="H82" s="180" t="s">
-        <v>264</v>
+        <v>690</v>
+      </c>
+      <c r="B82" s="180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="182" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D82" s="180" t="s">
+        <v>416</v>
+      </c>
+      <c r="E82" s="180" t="s">
+        <v>257</v>
+      </c>
+      <c r="F82" s="180" t="s">
+        <v>258</v>
+      </c>
+      <c r="G82" s="180" t="s">
+        <v>496</v>
+      </c>
+      <c r="H82" s="183" t="s">
+        <v>267</v>
       </c>
       <c r="I82" s="34"/>
       <c r="J82" s="82" t="s">
@@ -21802,31 +21801,33 @@
       </c>
       <c r="K82" s="184"/>
       <c r="L82" s="184" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="24">
       <c r="A83" s="170" t="s">
-        <v>681</v>
-      </c>
-      <c r="B83" s="62" t="s">
-        <v>362</v>
-      </c>
-      <c r="C83" s="167" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D83" s="168">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="E83" s="167" t="s">
-        <v>241</v>
-      </c>
-      <c r="F83" s="165" t="s">
-        <v>246</v>
-      </c>
-      <c r="G83" s="180"/>
-      <c r="H83" s="180" t="s">
-        <v>265</v>
+        <v>690</v>
+      </c>
+      <c r="B83" s="180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="182" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D83" s="180" t="s">
+        <v>417</v>
+      </c>
+      <c r="E83" s="180" t="s">
+        <v>257</v>
+      </c>
+      <c r="F83" s="180" t="s">
+        <v>258</v>
+      </c>
+      <c r="G83" s="180" t="s">
+        <v>496</v>
+      </c>
+      <c r="H83" s="183" t="s">
+        <v>267</v>
       </c>
       <c r="I83" s="34"/>
       <c r="J83" s="82" t="s">
@@ -21834,12 +21835,12 @@
       </c>
       <c r="K83" s="184"/>
       <c r="L83" s="184" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="24">
       <c r="A84" s="170" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="B84" s="180" t="s">
         <v>8</v>
@@ -21859,7 +21860,9 @@
       <c r="G84" s="180" t="s">
         <v>496</v>
       </c>
-      <c r="H84" s="183"/>
+      <c r="H84" s="183" t="s">
+        <v>266</v>
+      </c>
       <c r="I84" s="34"/>
       <c r="J84" s="82" t="s">
         <v>384</v>
@@ -21871,7 +21874,7 @@
     </row>
     <row r="85" spans="1:12" ht="24">
       <c r="A85" s="170" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="B85" s="180" t="s">
         <v>8</v>
@@ -21891,7 +21894,9 @@
       <c r="G85" s="180" t="s">
         <v>496</v>
       </c>
-      <c r="H85" s="183"/>
+      <c r="H85" s="183" t="s">
+        <v>266</v>
+      </c>
       <c r="I85" s="34"/>
       <c r="J85" s="82" t="s">
         <v>384</v>
@@ -21901,57 +21906,61 @@
         <v>779</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="36">
+    <row r="86" spans="1:12" ht="24">
       <c r="A86" s="170" t="s">
-        <v>683</v>
-      </c>
-      <c r="B86" s="180" t="s">
-        <v>5</v>
+        <v>681</v>
+      </c>
+      <c r="B86" s="62" t="s">
+        <v>362</v>
       </c>
       <c r="C86" s="167" t="s">
-        <v>167</v>
-      </c>
-      <c r="D86" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="E86" s="196" t="s">
-        <v>325</v>
-      </c>
-      <c r="F86" s="180" t="s">
-        <v>326</v>
+        <v>1036</v>
+      </c>
+      <c r="D86" s="168">
+        <v>1.2599999999999998E-2</v>
+      </c>
+      <c r="E86" s="167" t="s">
+        <v>241</v>
+      </c>
+      <c r="F86" s="165" t="s">
+        <v>246</v>
       </c>
       <c r="G86" s="180"/>
-      <c r="H86" s="183"/>
+      <c r="H86" s="180" t="s">
+        <v>264</v>
+      </c>
       <c r="I86" s="34"/>
       <c r="J86" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K86" s="184"/>
       <c r="L86" s="184" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="39" customHeight="1">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="24">
       <c r="A87" s="170" t="s">
-        <v>684</v>
-      </c>
-      <c r="B87" s="180" t="s">
-        <v>5</v>
+        <v>681</v>
+      </c>
+      <c r="B87" s="62" t="s">
+        <v>362</v>
       </c>
       <c r="C87" s="167" t="s">
-        <v>167</v>
-      </c>
-      <c r="D87" s="180" t="s">
-        <v>327</v>
-      </c>
-      <c r="E87" s="196" t="s">
-        <v>328</v>
-      </c>
-      <c r="F87" s="180" t="s">
-        <v>329</v>
+        <v>1037</v>
+      </c>
+      <c r="D87" s="168">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="E87" s="167" t="s">
+        <v>241</v>
+      </c>
+      <c r="F87" s="165" t="s">
+        <v>246</v>
       </c>
       <c r="G87" s="180"/>
-      <c r="H87" s="1"/>
+      <c r="H87" s="180" t="s">
+        <v>265</v>
+      </c>
       <c r="I87" s="34"/>
       <c r="J87" s="82" t="s">
         <v>384</v>
@@ -21963,90 +21972,88 @@
     </row>
     <row r="88" spans="1:12" ht="24">
       <c r="A88" s="170" t="s">
-        <v>685</v>
-      </c>
-      <c r="B88" s="62" t="s">
-        <v>362</v>
-      </c>
-      <c r="C88" s="167" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D88" s="168">
-        <v>1.54E-2</v>
-      </c>
-      <c r="E88" s="167" t="s">
-        <v>241</v>
-      </c>
-      <c r="F88" s="165" t="s">
-        <v>246</v>
-      </c>
-      <c r="G88" s="180"/>
-      <c r="H88" s="180" t="s">
-        <v>264</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="B88" s="180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="182" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D88" s="180" t="s">
+        <v>416</v>
+      </c>
+      <c r="E88" s="180" t="s">
+        <v>257</v>
+      </c>
+      <c r="F88" s="180" t="s">
+        <v>258</v>
+      </c>
+      <c r="G88" s="180" t="s">
+        <v>496</v>
+      </c>
+      <c r="H88" s="183"/>
       <c r="I88" s="34"/>
       <c r="J88" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K88" s="184"/>
       <c r="L88" s="184" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="24">
       <c r="A89" s="170" t="s">
-        <v>685</v>
-      </c>
-      <c r="B89" s="62" t="s">
-        <v>362</v>
-      </c>
-      <c r="C89" s="167" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D89" s="168">
-        <v>1.9300000000000001E-2</v>
-      </c>
-      <c r="E89" s="167" t="s">
-        <v>241</v>
-      </c>
-      <c r="F89" s="165" t="s">
-        <v>246</v>
-      </c>
-      <c r="G89" s="180"/>
-      <c r="H89" s="180" t="s">
-        <v>265</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="B89" s="180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="182" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D89" s="180" t="s">
+        <v>417</v>
+      </c>
+      <c r="E89" s="180" t="s">
+        <v>257</v>
+      </c>
+      <c r="F89" s="180" t="s">
+        <v>258</v>
+      </c>
+      <c r="G89" s="180" t="s">
+        <v>496</v>
+      </c>
+      <c r="H89" s="183"/>
       <c r="I89" s="34"/>
       <c r="J89" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K89" s="184"/>
       <c r="L89" s="184" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="24">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="36">
       <c r="A90" s="170" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B90" s="180" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="182" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D90" s="180" t="s">
-        <v>416</v>
-      </c>
-      <c r="E90" s="180" t="s">
-        <v>257</v>
+        <v>5</v>
+      </c>
+      <c r="C90" s="167" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="E90" s="196" t="s">
+        <v>325</v>
       </c>
       <c r="F90" s="180" t="s">
-        <v>258</v>
-      </c>
-      <c r="G90" s="180" t="s">
-        <v>496</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="G90" s="180"/>
       <c r="H90" s="183"/>
       <c r="I90" s="34"/>
       <c r="J90" s="82" t="s">
@@ -22054,92 +22061,94 @@
       </c>
       <c r="K90" s="184"/>
       <c r="L90" s="184" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="24">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="39" customHeight="1">
       <c r="A91" s="170" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B91" s="180" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="182" t="s">
-        <v>1044</v>
+        <v>5</v>
+      </c>
+      <c r="C91" s="167" t="s">
+        <v>167</v>
       </c>
       <c r="D91" s="180" t="s">
-        <v>417</v>
-      </c>
-      <c r="E91" s="180" t="s">
-        <v>257</v>
+        <v>327</v>
+      </c>
+      <c r="E91" s="196" t="s">
+        <v>328</v>
       </c>
       <c r="F91" s="180" t="s">
-        <v>258</v>
-      </c>
-      <c r="G91" s="180" t="s">
-        <v>496</v>
-      </c>
-      <c r="H91" s="183"/>
+        <v>329</v>
+      </c>
+      <c r="G91" s="180"/>
+      <c r="H91" s="1"/>
       <c r="I91" s="34"/>
       <c r="J91" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K91" s="184"/>
       <c r="L91" s="184" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="36">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="24">
       <c r="A92" s="170" t="s">
-        <v>687</v>
-      </c>
-      <c r="B92" s="180" t="s">
-        <v>5</v>
+        <v>685</v>
+      </c>
+      <c r="B92" s="62" t="s">
+        <v>362</v>
       </c>
       <c r="C92" s="167" t="s">
-        <v>167</v>
-      </c>
-      <c r="D92" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="E92" s="196" t="s">
-        <v>325</v>
-      </c>
-      <c r="F92" s="180" t="s">
-        <v>326</v>
+        <v>1036</v>
+      </c>
+      <c r="D92" s="168">
+        <v>1.54E-2</v>
+      </c>
+      <c r="E92" s="167" t="s">
+        <v>241</v>
+      </c>
+      <c r="F92" s="165" t="s">
+        <v>246</v>
       </c>
       <c r="G92" s="180"/>
-      <c r="H92" s="183"/>
+      <c r="H92" s="180" t="s">
+        <v>264</v>
+      </c>
       <c r="I92" s="34"/>
       <c r="J92" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K92" s="184"/>
       <c r="L92" s="184" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="36.75" customHeight="1">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="24">
       <c r="A93" s="170" t="s">
-        <v>688</v>
-      </c>
-      <c r="B93" s="180" t="s">
-        <v>5</v>
+        <v>685</v>
+      </c>
+      <c r="B93" s="62" t="s">
+        <v>362</v>
       </c>
       <c r="C93" s="167" t="s">
-        <v>167</v>
-      </c>
-      <c r="D93" s="180" t="s">
-        <v>327</v>
-      </c>
-      <c r="E93" s="196" t="s">
-        <v>328</v>
-      </c>
-      <c r="F93" s="180" t="s">
-        <v>329</v>
+        <v>1037</v>
+      </c>
+      <c r="D93" s="168">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="E93" s="167" t="s">
+        <v>241</v>
+      </c>
+      <c r="F93" s="165" t="s">
+        <v>246</v>
       </c>
       <c r="G93" s="180"/>
-      <c r="H93" s="183"/>
+      <c r="H93" s="180" t="s">
+        <v>265</v>
+      </c>
       <c r="I93" s="34"/>
       <c r="J93" s="82" t="s">
         <v>384</v>
@@ -22149,156 +22158,152 @@
         <v>778</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" ht="24">
       <c r="A94" s="170" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B94" s="62" t="s">
-        <v>362</v>
-      </c>
-      <c r="C94" s="167" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D94" s="92">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="E94" s="167" t="s">
-        <v>241</v>
-      </c>
-      <c r="F94" s="165" t="s">
-        <v>246</v>
-      </c>
-      <c r="G94" s="180"/>
-      <c r="H94" s="180" t="s">
-        <v>256</v>
-      </c>
+        <v>686</v>
+      </c>
+      <c r="B94" s="180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="182" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D94" s="180" t="s">
+        <v>416</v>
+      </c>
+      <c r="E94" s="180" t="s">
+        <v>257</v>
+      </c>
+      <c r="F94" s="180" t="s">
+        <v>258</v>
+      </c>
+      <c r="G94" s="180" t="s">
+        <v>496</v>
+      </c>
+      <c r="H94" s="183"/>
       <c r="I94" s="34"/>
       <c r="J94" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K94" s="184"/>
       <c r="L94" s="184" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="24">
       <c r="A95" s="170" t="s">
-        <v>1039</v>
+        <v>686</v>
       </c>
       <c r="B95" s="180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C95" s="182" t="s">
-        <v>167</v>
+        <v>1044</v>
       </c>
       <c r="D95" s="180" t="s">
-        <v>330</v>
-      </c>
-      <c r="E95" s="196" t="s">
-        <v>241</v>
+        <v>417</v>
+      </c>
+      <c r="E95" s="180" t="s">
+        <v>257</v>
       </c>
       <c r="F95" s="180" t="s">
-        <v>331</v>
-      </c>
-      <c r="G95" s="180"/>
-      <c r="H95" s="183" t="s">
-        <v>332</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G95" s="180" t="s">
+        <v>496</v>
+      </c>
+      <c r="H95" s="183"/>
       <c r="I95" s="34"/>
       <c r="J95" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K95" s="184"/>
       <c r="L95" s="184" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="36">
       <c r="A96" s="170" t="s">
-        <v>1040</v>
+        <v>687</v>
       </c>
       <c r="B96" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="C96" s="182" t="s">
-        <v>167</v>
-      </c>
-      <c r="D96" s="167" t="s">
-        <v>333</v>
-      </c>
-      <c r="E96" s="167" t="s">
-        <v>241</v>
+      <c r="C96" s="167" t="s">
+        <v>167</v>
+      </c>
+      <c r="D96" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="E96" s="196" t="s">
+        <v>325</v>
       </c>
       <c r="F96" s="180" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G96" s="180"/>
-      <c r="H96" s="183" t="s">
-        <v>332</v>
-      </c>
+      <c r="H96" s="183"/>
       <c r="I96" s="34"/>
       <c r="J96" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K96" s="184"/>
       <c r="L96" s="184" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="36.75" customHeight="1">
       <c r="A97" s="170" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B97" s="62" t="s">
-        <v>362</v>
+        <v>688</v>
+      </c>
+      <c r="B97" s="180" t="s">
+        <v>5</v>
       </c>
       <c r="C97" s="167" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D97" s="3">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="E97" s="167" t="s">
-        <v>241</v>
-      </c>
-      <c r="F97" s="165" t="s">
-        <v>246</v>
+        <v>167</v>
+      </c>
+      <c r="D97" s="180" t="s">
+        <v>327</v>
+      </c>
+      <c r="E97" s="196" t="s">
+        <v>328</v>
+      </c>
+      <c r="F97" s="180" t="s">
+        <v>329</v>
       </c>
       <c r="G97" s="180"/>
-      <c r="H97" s="180" t="s">
-        <v>255</v>
-      </c>
+      <c r="H97" s="183"/>
       <c r="I97" s="34"/>
       <c r="J97" s="82" t="s">
         <v>384</v>
       </c>
       <c r="K97" s="184"/>
       <c r="L97" s="184" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="170" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B98" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="182" t="s">
-        <v>167</v>
-      </c>
-      <c r="D98" s="180" t="s">
-        <v>330</v>
-      </c>
-      <c r="E98" s="196" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B98" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="C98" s="167" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D98" s="92">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E98" s="167" t="s">
         <v>241</v>
       </c>
-      <c r="F98" s="180" t="s">
-        <v>331</v>
+      <c r="F98" s="165" t="s">
+        <v>246</v>
       </c>
       <c r="G98" s="180"/>
-      <c r="H98" s="183" t="s">
-        <v>332</v>
+      <c r="H98" s="180" t="s">
+        <v>256</v>
       </c>
       <c r="I98" s="34"/>
       <c r="J98" s="82" t="s">
@@ -22306,12 +22311,12 @@
       </c>
       <c r="K98" s="184"/>
       <c r="L98" s="184" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="14.25" customHeight="1">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="170" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B99" s="180" t="s">
         <v>5</v>
@@ -22319,10 +22324,10 @@
       <c r="C99" s="182" t="s">
         <v>167</v>
       </c>
-      <c r="D99" s="167" t="s">
-        <v>333</v>
-      </c>
-      <c r="E99" s="167" t="s">
+      <c r="D99" s="180" t="s">
+        <v>330</v>
+      </c>
+      <c r="E99" s="196" t="s">
         <v>241</v>
       </c>
       <c r="F99" s="180" t="s">
@@ -22338,197 +22343,201 @@
       </c>
       <c r="K99" s="184"/>
       <c r="L99" s="184" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="170" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B100" s="180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="182" t="s">
+        <v>167</v>
+      </c>
+      <c r="D100" s="167" t="s">
+        <v>333</v>
+      </c>
+      <c r="E100" s="167" t="s">
+        <v>241</v>
+      </c>
+      <c r="F100" s="180" t="s">
+        <v>331</v>
+      </c>
+      <c r="G100" s="180"/>
+      <c r="H100" s="183" t="s">
+        <v>332</v>
+      </c>
+      <c r="I100" s="34"/>
+      <c r="J100" s="82" t="s">
+        <v>384</v>
+      </c>
+      <c r="K100" s="184"/>
+      <c r="L100" s="184" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="100" spans="1:12" s="163" customFormat="1">
-      <c r="A100" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="B100" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="C100" s="174" t="s">
-        <v>221</v>
-      </c>
-      <c r="D100" s="174" t="s">
-        <v>2</v>
-      </c>
-      <c r="E100" s="174" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="174" t="s">
-        <v>63</v>
-      </c>
-      <c r="G100" s="174" t="s">
-        <v>19</v>
-      </c>
-      <c r="H100" s="174" t="s">
-        <v>71</v>
-      </c>
-      <c r="I100" s="174" t="s">
-        <v>14</v>
-      </c>
-      <c r="J100" s="174" t="s">
-        <v>368</v>
-      </c>
-      <c r="K100" s="174" t="s">
-        <v>409</v>
-      </c>
-      <c r="L100" s="174" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" s="163" customFormat="1" ht="24.75">
-      <c r="A101" s="80" t="s">
-        <v>386</v>
-      </c>
-      <c r="B101" s="184" t="s">
+    <row r="101" spans="1:12">
+      <c r="A101" s="170" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B101" s="62" t="s">
         <v>362</v>
       </c>
       <c r="C101" s="167" t="s">
         <v>1035</v>
       </c>
-      <c r="D101" s="184">
-        <v>1.4999999999999999E-2</v>
+      <c r="D101" s="3">
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="E101" s="167" t="s">
-        <v>427</v>
-      </c>
-      <c r="F101" s="64"/>
-      <c r="G101" s="64"/>
-      <c r="H101" s="101" t="s">
-        <v>446</v>
-      </c>
-      <c r="I101" s="7"/>
-      <c r="J101" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="K101" s="21" t="s">
-        <v>456</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="F101" s="165" t="s">
+        <v>246</v>
+      </c>
+      <c r="G101" s="180"/>
+      <c r="H101" s="180" t="s">
+        <v>255</v>
+      </c>
+      <c r="I101" s="34"/>
+      <c r="J101" s="82" t="s">
+        <v>384</v>
+      </c>
+      <c r="K101" s="184"/>
       <c r="L101" s="184" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="163" customFormat="1">
-      <c r="A102" s="24" t="s">
-        <v>457</v>
-      </c>
-      <c r="B102" s="184" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" s="167" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D102" s="102">
-        <v>0.06</v>
-      </c>
-      <c r="E102" s="167" t="s">
+    <row r="102" spans="1:12">
+      <c r="A102" s="170" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B102" s="180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="182" t="s">
+        <v>167</v>
+      </c>
+      <c r="D102" s="180" t="s">
+        <v>330</v>
+      </c>
+      <c r="E102" s="196" t="s">
         <v>241</v>
       </c>
-      <c r="F102" s="165" t="s">
-        <v>246</v>
+      <c r="F102" s="180" t="s">
+        <v>331</v>
       </c>
       <c r="G102" s="180"/>
-      <c r="H102" s="168" t="s">
-        <v>447</v>
-      </c>
-      <c r="I102" s="7"/>
-      <c r="J102" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="K102" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="L102" s="184"/>
-    </row>
-    <row r="103" spans="1:12" s="163" customFormat="1">
-      <c r="A103" s="24" t="s">
-        <v>458</v>
-      </c>
-      <c r="B103" s="184" t="s">
-        <v>362</v>
-      </c>
-      <c r="C103" s="167" t="s">
-        <v>167</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>455</v>
+      <c r="H102" s="183" t="s">
+        <v>332</v>
+      </c>
+      <c r="I102" s="34"/>
+      <c r="J102" s="82" t="s">
+        <v>384</v>
+      </c>
+      <c r="K102" s="184"/>
+      <c r="L102" s="184" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A103" s="170" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B103" s="180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="182" t="s">
+        <v>167</v>
+      </c>
+      <c r="D103" s="167" t="s">
+        <v>333</v>
       </c>
       <c r="E103" s="167" t="s">
-        <v>448</v>
-      </c>
-      <c r="F103" s="64"/>
-      <c r="G103" s="64"/>
-      <c r="H103" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="I103" s="7"/>
-      <c r="J103" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="K103" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="L103" s="184"/>
+        <v>241</v>
+      </c>
+      <c r="F103" s="180" t="s">
+        <v>331</v>
+      </c>
+      <c r="G103" s="180"/>
+      <c r="H103" s="183" t="s">
+        <v>332</v>
+      </c>
+      <c r="I103" s="34"/>
+      <c r="J103" s="82" t="s">
+        <v>384</v>
+      </c>
+      <c r="K103" s="184"/>
+      <c r="L103" s="184" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="104" spans="1:12" s="163" customFormat="1">
-      <c r="A104" s="24" t="s">
-        <v>459</v>
-      </c>
-      <c r="B104" s="184" t="s">
-        <v>22</v>
-      </c>
-      <c r="C104" s="167" t="s">
-        <v>167</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="E104" s="167" t="s">
-        <v>448</v>
-      </c>
-      <c r="F104" s="64"/>
-      <c r="G104" s="64"/>
-      <c r="H104" s="184" t="s">
-        <v>451</v>
-      </c>
-      <c r="I104" s="7"/>
-      <c r="J104" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="K104" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="L104" s="184"/>
-    </row>
-    <row r="105" spans="1:12" s="163" customFormat="1">
+      <c r="A104" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B104" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="174" t="s">
+        <v>221</v>
+      </c>
+      <c r="D104" s="174" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="174" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104" s="174" t="s">
+        <v>63</v>
+      </c>
+      <c r="G104" s="174" t="s">
+        <v>19</v>
+      </c>
+      <c r="H104" s="174" t="s">
+        <v>71</v>
+      </c>
+      <c r="I104" s="174" t="s">
+        <v>14</v>
+      </c>
+      <c r="J104" s="174" t="s">
+        <v>368</v>
+      </c>
+      <c r="K104" s="174" t="s">
+        <v>409</v>
+      </c>
+      <c r="L104" s="174" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" s="163" customFormat="1" ht="24.75">
       <c r="A105" s="80" t="s">
-        <v>387</v>
-      </c>
-      <c r="B105" s="183" t="s">
+        <v>386</v>
+      </c>
+      <c r="B105" s="184" t="s">
         <v>362</v>
       </c>
       <c r="C105" s="167" t="s">
         <v>1035</v>
       </c>
-      <c r="D105" s="102">
-        <v>0.03</v>
+      <c r="D105" s="184">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E105" s="167" t="s">
-        <v>241</v>
-      </c>
-      <c r="F105" s="165" t="s">
-        <v>246</v>
-      </c>
-      <c r="G105" s="180"/>
-      <c r="H105" s="168"/>
-      <c r="I105" s="199"/>
+        <v>427</v>
+      </c>
+      <c r="F105" s="64"/>
+      <c r="G105" s="64"/>
+      <c r="H105" s="101" t="s">
+        <v>446</v>
+      </c>
+      <c r="I105" s="7"/>
       <c r="J105" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="K105" s="10" t="s">
+      <c r="K105" s="21" t="s">
         <v>456</v>
       </c>
       <c r="L105" s="184" t="s">
@@ -22536,25 +22545,27 @@
       </c>
     </row>
     <row r="106" spans="1:12" s="163" customFormat="1">
-      <c r="A106" s="80" t="s">
-        <v>388</v>
+      <c r="A106" s="24" t="s">
+        <v>457</v>
       </c>
       <c r="B106" s="184" t="s">
-        <v>362</v>
+        <v>7</v>
       </c>
       <c r="C106" s="167" t="s">
         <v>1035</v>
       </c>
       <c r="D106" s="102">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E106" s="167" t="s">
-        <v>427</v>
-      </c>
-      <c r="F106" s="64"/>
-      <c r="G106" s="64"/>
-      <c r="H106" s="10" t="s">
-        <v>419</v>
+        <v>241</v>
+      </c>
+      <c r="F106" s="165" t="s">
+        <v>246</v>
+      </c>
+      <c r="G106" s="180"/>
+      <c r="H106" s="168" t="s">
+        <v>447</v>
       </c>
       <c r="I106" s="7"/>
       <c r="J106" s="10" t="s">
@@ -22563,30 +22574,28 @@
       <c r="K106" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="L106" s="184" t="s">
-        <v>777</v>
-      </c>
+      <c r="L106" s="184"/>
     </row>
     <row r="107" spans="1:12" s="163" customFormat="1">
-      <c r="A107" s="80" t="s">
-        <v>389</v>
+      <c r="A107" s="24" t="s">
+        <v>458</v>
       </c>
       <c r="B107" s="184" t="s">
         <v>362</v>
       </c>
       <c r="C107" s="167" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D107" s="10">
-        <v>4.2999999999999997E-2</v>
+        <v>167</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>455</v>
       </c>
       <c r="E107" s="167" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="F107" s="64"/>
       <c r="G107" s="64"/>
       <c r="H107" s="10" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="I107" s="7"/>
       <c r="J107" s="10" t="s">
@@ -22595,13 +22604,11 @@
       <c r="K107" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="L107" s="184" t="s">
-        <v>777</v>
-      </c>
+      <c r="L107" s="184"/>
     </row>
     <row r="108" spans="1:12" s="163" customFormat="1">
       <c r="A108" s="24" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B108" s="184" t="s">
         <v>22</v>
@@ -22610,15 +22617,15 @@
         <v>167</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E108" s="167" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="F108" s="64"/>
       <c r="G108" s="64"/>
-      <c r="H108" s="10" t="s">
-        <v>419</v>
+      <c r="H108" s="184" t="s">
+        <v>451</v>
       </c>
       <c r="I108" s="7"/>
       <c r="J108" s="10" t="s">
@@ -22630,27 +22637,27 @@
       <c r="L108" s="184"/>
     </row>
     <row r="109" spans="1:12" s="163" customFormat="1">
-      <c r="A109" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="B109" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="C109" s="182" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D109" s="10">
-        <v>0.44</v>
-      </c>
-      <c r="E109" s="180" t="s">
-        <v>321</v>
+      <c r="A109" s="80" t="s">
+        <v>387</v>
+      </c>
+      <c r="B109" s="183" t="s">
+        <v>362</v>
+      </c>
+      <c r="C109" s="167" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D109" s="102">
+        <v>0.03</v>
+      </c>
+      <c r="E109" s="167" t="s">
+        <v>241</v>
       </c>
       <c r="F109" s="165" t="s">
-        <v>322</v>
+        <v>246</v>
       </c>
       <c r="G109" s="180"/>
-      <c r="H109" s="25"/>
-      <c r="I109" s="34"/>
+      <c r="H109" s="168"/>
+      <c r="I109" s="199"/>
       <c r="J109" s="10" t="s">
         <v>401</v>
       </c>
@@ -22661,9 +22668,9 @@
         <v>777</v>
       </c>
     </row>
-    <row r="110" spans="1:12" s="163" customFormat="1" ht="24.75">
+    <row r="110" spans="1:12" s="163" customFormat="1">
       <c r="A110" s="80" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B110" s="184" t="s">
         <v>362</v>
@@ -22671,16 +22678,16 @@
       <c r="C110" s="167" t="s">
         <v>1035</v>
       </c>
-      <c r="D110" s="184">
-        <v>1.4999999999999999E-2</v>
+      <c r="D110" s="102">
+        <v>0.05</v>
       </c>
       <c r="E110" s="167" t="s">
         <v>427</v>
       </c>
       <c r="F110" s="64"/>
       <c r="G110" s="64"/>
-      <c r="H110" s="101" t="s">
-        <v>446</v>
+      <c r="H110" s="10" t="s">
+        <v>419</v>
       </c>
       <c r="I110" s="7"/>
       <c r="J110" s="10" t="s">
@@ -22694,8 +22701,8 @@
       </c>
     </row>
     <row r="111" spans="1:12" s="163" customFormat="1">
-      <c r="A111" s="24" t="s">
-        <v>462</v>
+      <c r="A111" s="80" t="s">
+        <v>389</v>
       </c>
       <c r="B111" s="184" t="s">
         <v>362</v>
@@ -22703,18 +22710,16 @@
       <c r="C111" s="167" t="s">
         <v>1035</v>
       </c>
-      <c r="D111" s="103">
-        <v>0.06</v>
+      <c r="D111" s="10">
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="E111" s="167" t="s">
-        <v>241</v>
-      </c>
-      <c r="F111" s="165" t="s">
-        <v>246</v>
-      </c>
-      <c r="G111" s="180"/>
-      <c r="H111" s="168" t="s">
-        <v>453</v>
+        <v>427</v>
+      </c>
+      <c r="F111" s="64"/>
+      <c r="G111" s="64"/>
+      <c r="H111" s="10" t="s">
+        <v>419</v>
       </c>
       <c r="I111" s="7"/>
       <c r="J111" s="10" t="s">
@@ -22723,28 +22728,30 @@
       <c r="K111" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="L111" s="184"/>
-    </row>
-    <row r="112" spans="1:12" s="163" customFormat="1" ht="24.75">
-      <c r="A112" s="80" t="s">
-        <v>391</v>
+      <c r="L111" s="184" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" s="163" customFormat="1">
+      <c r="A112" s="24" t="s">
+        <v>460</v>
       </c>
       <c r="B112" s="184" t="s">
-        <v>362</v>
+        <v>22</v>
       </c>
       <c r="C112" s="167" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D112" s="184">
-        <v>0.08</v>
+        <v>167</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>452</v>
       </c>
       <c r="E112" s="167" t="s">
         <v>427</v>
       </c>
       <c r="F112" s="64"/>
       <c r="G112" s="64"/>
-      <c r="H112" s="101" t="s">
-        <v>454</v>
+      <c r="H112" s="10" t="s">
+        <v>419</v>
       </c>
       <c r="I112" s="7"/>
       <c r="J112" s="10" t="s">
@@ -22753,32 +22760,30 @@
       <c r="K112" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="L112" s="184" t="s">
-        <v>777</v>
-      </c>
+      <c r="L112" s="184"/>
     </row>
     <row r="113" spans="1:12" s="163" customFormat="1">
-      <c r="A113" s="80" t="s">
-        <v>392</v>
-      </c>
-      <c r="B113" s="183" t="s">
-        <v>362</v>
-      </c>
-      <c r="C113" s="167" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D113" s="103">
-        <v>0.06</v>
-      </c>
-      <c r="E113" s="167" t="s">
-        <v>241</v>
+      <c r="A113" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="B113" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" s="182" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D113" s="10">
+        <v>0.44</v>
+      </c>
+      <c r="E113" s="180" t="s">
+        <v>321</v>
       </c>
       <c r="F113" s="165" t="s">
-        <v>246</v>
+        <v>322</v>
       </c>
       <c r="G113" s="180"/>
-      <c r="H113" s="168"/>
-      <c r="I113" s="199"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="34"/>
       <c r="J113" s="10" t="s">
         <v>401</v>
       </c>
@@ -22789,17 +22794,27 @@
         <v>777</v>
       </c>
     </row>
-    <row r="114" spans="1:12" s="163" customFormat="1">
-      <c r="A114" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="B114" s="64"/>
-      <c r="C114" s="167"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="64"/>
+    <row r="114" spans="1:12" s="163" customFormat="1" ht="24.75">
+      <c r="A114" s="80" t="s">
+        <v>390</v>
+      </c>
+      <c r="B114" s="184" t="s">
+        <v>362</v>
+      </c>
+      <c r="C114" s="167" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D114" s="184">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E114" s="167" t="s">
+        <v>427</v>
+      </c>
       <c r="F114" s="64"/>
       <c r="G114" s="64"/>
-      <c r="H114" s="64"/>
+      <c r="H114" s="101" t="s">
+        <v>446</v>
+      </c>
       <c r="I114" s="7"/>
       <c r="J114" s="10" t="s">
         <v>401</v>
@@ -22807,16 +22822,134 @@
       <c r="K114" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="L114" s="184"/>
-    </row>
-    <row r="118" spans="1:12">
-      <c r="E118" s="28"/>
-    </row>
-    <row r="119" spans="1:12">
-      <c r="E119" s="28"/>
-    </row>
-    <row r="120" spans="1:12">
-      <c r="E120" s="28"/>
+      <c r="L114" s="184" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" s="163" customFormat="1">
+      <c r="A115" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="B115" s="184" t="s">
+        <v>362</v>
+      </c>
+      <c r="C115" s="167" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D115" s="103">
+        <v>0.06</v>
+      </c>
+      <c r="E115" s="167" t="s">
+        <v>241</v>
+      </c>
+      <c r="F115" s="165" t="s">
+        <v>246</v>
+      </c>
+      <c r="G115" s="180"/>
+      <c r="H115" s="168" t="s">
+        <v>453</v>
+      </c>
+      <c r="I115" s="7"/>
+      <c r="J115" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="K115" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="L115" s="184"/>
+    </row>
+    <row r="116" spans="1:12" s="163" customFormat="1" ht="24.75">
+      <c r="A116" s="80" t="s">
+        <v>391</v>
+      </c>
+      <c r="B116" s="184" t="s">
+        <v>362</v>
+      </c>
+      <c r="C116" s="167" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D116" s="184">
+        <v>0.08</v>
+      </c>
+      <c r="E116" s="167" t="s">
+        <v>427</v>
+      </c>
+      <c r="F116" s="64"/>
+      <c r="G116" s="64"/>
+      <c r="H116" s="101" t="s">
+        <v>454</v>
+      </c>
+      <c r="I116" s="7"/>
+      <c r="J116" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="K116" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="L116" s="184" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" s="163" customFormat="1">
+      <c r="A117" s="80" t="s">
+        <v>392</v>
+      </c>
+      <c r="B117" s="183" t="s">
+        <v>362</v>
+      </c>
+      <c r="C117" s="167" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D117" s="103">
+        <v>0.06</v>
+      </c>
+      <c r="E117" s="167" t="s">
+        <v>241</v>
+      </c>
+      <c r="F117" s="165" t="s">
+        <v>246</v>
+      </c>
+      <c r="G117" s="180"/>
+      <c r="H117" s="168"/>
+      <c r="I117" s="199"/>
+      <c r="J117" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="K117" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="L117" s="184" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" s="163" customFormat="1">
+      <c r="A118" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="B118" s="64"/>
+      <c r="C118" s="167"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="64"/>
+      <c r="G118" s="64"/>
+      <c r="H118" s="64"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="K118" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="L118" s="184"/>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="E122" s="28"/>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="E123" s="28"/>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="E124" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/human/adult/validation/SystemValidationData.xlsx
+++ b/data/human/adult/validation/SystemValidationData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\4x-Source\data\human\adult\validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Pulse\engine\data\human\adult\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D39507-6670-447D-99AB-88A8C05783E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DD9594-EA56-47E9-B66C-DB4E67E76EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24165" yWindow="5340" windowWidth="28005" windowHeight="23970" tabRatio="724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="32620" windowHeight="21360" tabRatio="724" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blood Chemistry" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4021" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4095" uniqueCount="1091">
   <si>
     <t>Output</t>
   </si>
@@ -3429,6 +3429,12 @@
   </si>
   <si>
     <t>[5.2E06,5.4E06]</t>
+  </si>
+  <si>
+    <t>OptimizerTargets</t>
+  </si>
+  <si>
+    <t>HemodynamicsTargets</t>
   </si>
 </sst>
 </file>
@@ -4179,7 +4185,7 @@
     <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4736,6 +4742,10 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -5118,25 +5128,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="40.140625" style="51" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.1796875" style="51" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.81640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" style="52" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48" style="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.28515625" style="51" customWidth="1"/>
+    <col min="8" max="8" width="49.26953125" style="51" customWidth="1"/>
     <col min="9" max="9" width="36" style="51" customWidth="1"/>
-    <col min="10" max="11" width="28.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="52" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="51"/>
+    <col min="10" max="11" width="28.81640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.453125" style="52" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
@@ -5761,7 +5771,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="56.25">
+    <row r="22" spans="1:12" ht="42">
       <c r="A22" s="109" t="s">
         <v>884</v>
       </c>
@@ -5791,7 +5801,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="22.5">
+    <row r="23" spans="1:12" ht="21">
       <c r="A23" s="15" t="s">
         <v>885</v>
       </c>
@@ -6867,7 +6877,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15">
+    <row r="57" spans="1:12" ht="14.5">
       <c r="A57" s="80" t="s">
         <v>429</v>
       </c>
@@ -6961,7 +6971,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="12.75">
+    <row r="60" spans="1:12" ht="12.5">
       <c r="A60" s="80" t="s">
         <v>432</v>
       </c>
@@ -8274,31 +8284,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="29" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="29" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" style="28" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" style="107" customWidth="1"/>
-    <col min="9" max="9" width="29.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="52" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
+    <col min="6" max="6" width="21.7265625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="32.7265625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="36.26953125" style="107" customWidth="1"/>
+    <col min="9" max="9" width="29.54296875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="27.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.81640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" style="52" customWidth="1"/>
+    <col min="13" max="13" width="25.1796875" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="169" t="s">
         <v>0</v>
       </c>
@@ -8335,8 +8346,11 @@
       <c r="L1" s="174" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="51" customFormat="1" ht="24">
+      <c r="M1" s="174" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="51" customFormat="1" ht="24">
       <c r="A2" s="172" t="s">
         <v>138</v>
       </c>
@@ -8355,8 +8369,9 @@
       </c>
       <c r="K2" s="184"/>
       <c r="L2" s="184"/>
-    </row>
-    <row r="3" spans="1:12" ht="36.75" customHeight="1">
+      <c r="M2" s="64"/>
+    </row>
+    <row r="3" spans="1:13" ht="36.75" customHeight="1">
       <c r="A3" s="170" t="s">
         <v>136</v>
       </c>
@@ -8387,8 +8402,9 @@
       <c r="L3" s="184" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="36.75" customHeight="1">
+      <c r="M3" s="200"/>
+    </row>
+    <row r="4" spans="1:13" ht="36.75" customHeight="1">
       <c r="A4" s="170" t="s">
         <v>900</v>
       </c>
@@ -8419,8 +8435,9 @@
       <c r="L4" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="45.75" customHeight="1">
+      <c r="M4" s="200"/>
+    </row>
+    <row r="5" spans="1:13" ht="45.75" customHeight="1">
       <c r="A5" s="170" t="s">
         <v>137</v>
       </c>
@@ -8449,8 +8466,9 @@
       <c r="L5" s="184" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="60">
+      <c r="M5" s="200"/>
+    </row>
+    <row r="6" spans="1:13" ht="48">
       <c r="A6" s="172" t="s">
         <v>169</v>
       </c>
@@ -8481,8 +8499,9 @@
       </c>
       <c r="K6" s="184"/>
       <c r="L6" s="184"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="200"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="170" t="s">
         <v>878</v>
       </c>
@@ -8509,8 +8528,9 @@
       <c r="L7" s="184" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="200"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="170" t="s">
         <v>879</v>
       </c>
@@ -8537,8 +8557,9 @@
       <c r="L8" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="45.75" customHeight="1">
+      <c r="M8" s="200"/>
+    </row>
+    <row r="9" spans="1:13" ht="45.75" customHeight="1">
       <c r="A9" s="170" t="s">
         <v>140</v>
       </c>
@@ -8569,8 +8590,9 @@
       <c r="L9" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="27.75" customHeight="1">
+      <c r="M9" s="200"/>
+    </row>
+    <row r="10" spans="1:13" ht="27.75" customHeight="1">
       <c r="A10" s="170" t="s">
         <v>141</v>
       </c>
@@ -8597,8 +8619,9 @@
       <c r="L10" s="184" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="74.25" customHeight="1">
+      <c r="M10" s="200"/>
+    </row>
+    <row r="11" spans="1:13" ht="74.25" customHeight="1">
       <c r="A11" s="170" t="s">
         <v>142</v>
       </c>
@@ -8627,8 +8650,9 @@
       <c r="L11" s="184" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" s="51" customFormat="1">
+      <c r="M11" s="200"/>
+    </row>
+    <row r="12" spans="1:13" s="51" customFormat="1">
       <c r="A12" s="172" t="s">
         <v>139</v>
       </c>
@@ -8647,8 +8671,9 @@
       </c>
       <c r="K12" s="184"/>
       <c r="L12" s="184"/>
-    </row>
-    <row r="13" spans="1:12" ht="65.25" customHeight="1">
+      <c r="M12" s="64"/>
+    </row>
+    <row r="13" spans="1:13" ht="65.25" customHeight="1">
       <c r="A13" s="170" t="s">
         <v>143</v>
       </c>
@@ -8677,8 +8702,9 @@
       <c r="L13" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="200"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="170" t="s">
         <v>880</v>
       </c>
@@ -8707,8 +8733,9 @@
       <c r="L14" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="40.5" customHeight="1">
+      <c r="M14" s="200"/>
+    </row>
+    <row r="15" spans="1:13" ht="40.5" customHeight="1">
       <c r="A15" s="170" t="s">
         <v>144</v>
       </c>
@@ -8739,8 +8766,9 @@
       <c r="L15" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" s="51" customFormat="1">
+      <c r="M15" s="200"/>
+    </row>
+    <row r="16" spans="1:13" s="51" customFormat="1">
       <c r="A16" s="172" t="s">
         <v>152</v>
       </c>
@@ -8759,8 +8787,9 @@
       </c>
       <c r="K16" s="184"/>
       <c r="L16" s="184"/>
-    </row>
-    <row r="17" spans="1:12" s="51" customFormat="1">
+      <c r="M16" s="64"/>
+    </row>
+    <row r="17" spans="1:13" s="51" customFormat="1">
       <c r="A17" s="172" t="s">
         <v>153</v>
       </c>
@@ -8779,8 +8808,9 @@
       </c>
       <c r="K17" s="184"/>
       <c r="L17" s="184"/>
-    </row>
-    <row r="18" spans="1:12" s="51" customFormat="1" ht="60">
+      <c r="M17" s="64"/>
+    </row>
+    <row r="18" spans="1:13" s="51" customFormat="1" ht="48">
       <c r="A18" s="170" t="s">
         <v>168</v>
       </c>
@@ -8811,8 +8841,9 @@
       <c r="L18" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" s="51" customFormat="1" ht="24">
+      <c r="M18" s="64"/>
+    </row>
+    <row r="19" spans="1:13" s="51" customFormat="1">
       <c r="A19" s="170" t="s">
         <v>201</v>
       </c>
@@ -8841,8 +8872,9 @@
       <c r="L19" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" s="51" customFormat="1" ht="24">
+      <c r="M19" s="64"/>
+    </row>
+    <row r="20" spans="1:13" s="51" customFormat="1" ht="24">
       <c r="A20" s="172" t="s">
         <v>154</v>
       </c>
@@ -8861,8 +8893,9 @@
       </c>
       <c r="K20" s="184"/>
       <c r="L20" s="184"/>
-    </row>
-    <row r="21" spans="1:12" ht="41.25" customHeight="1">
+      <c r="M20" s="64"/>
+    </row>
+    <row r="21" spans="1:13" ht="41.25" customHeight="1">
       <c r="A21" s="170" t="s">
         <v>145</v>
       </c>
@@ -8893,8 +8926,9 @@
       <c r="L21" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" s="51" customFormat="1" ht="24">
+      <c r="M21" s="200"/>
+    </row>
+    <row r="22" spans="1:13" s="51" customFormat="1" ht="24">
       <c r="A22" s="170" t="s">
         <v>179</v>
       </c>
@@ -8925,8 +8959,9 @@
       <c r="L22" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" s="51" customFormat="1">
+      <c r="M22" s="64"/>
+    </row>
+    <row r="23" spans="1:13" s="51" customFormat="1">
       <c r="A23" s="170" t="s">
         <v>178</v>
       </c>
@@ -8953,8 +8988,9 @@
       <c r="L23" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" s="51" customFormat="1">
+      <c r="M23" s="64"/>
+    </row>
+    <row r="24" spans="1:13" s="51" customFormat="1">
       <c r="A24" s="172" t="s">
         <v>755</v>
       </c>
@@ -8973,8 +9009,9 @@
       </c>
       <c r="K24" s="184"/>
       <c r="L24" s="184"/>
-    </row>
-    <row r="25" spans="1:12" s="51" customFormat="1">
+      <c r="M24" s="64"/>
+    </row>
+    <row r="25" spans="1:13" s="51" customFormat="1">
       <c r="A25" s="172" t="s">
         <v>756</v>
       </c>
@@ -8993,8 +9030,9 @@
       </c>
       <c r="K25" s="184"/>
       <c r="L25" s="184"/>
-    </row>
-    <row r="26" spans="1:12" s="51" customFormat="1">
+      <c r="M25" s="64"/>
+    </row>
+    <row r="26" spans="1:13" s="51" customFormat="1">
       <c r="A26" s="170" t="s">
         <v>177</v>
       </c>
@@ -9025,8 +9063,9 @@
       <c r="L26" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" s="51" customFormat="1" ht="24">
+      <c r="M26" s="64"/>
+    </row>
+    <row r="27" spans="1:13" s="51" customFormat="1">
       <c r="A27" s="170" t="s">
         <v>901</v>
       </c>
@@ -9055,8 +9094,9 @@
       <c r="L27" s="184" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" s="51" customFormat="1" ht="36">
+      <c r="M27" s="64"/>
+    </row>
+    <row r="28" spans="1:13" s="51" customFormat="1" ht="36">
       <c r="A28" s="170" t="s">
         <v>902</v>
       </c>
@@ -9087,8 +9127,9 @@
       <c r="L28" s="184" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" s="51" customFormat="1" ht="48">
+      <c r="M28" s="64"/>
+    </row>
+    <row r="29" spans="1:13" s="51" customFormat="1" ht="36">
       <c r="A29" s="170" t="s">
         <v>176</v>
       </c>
@@ -9121,8 +9162,9 @@
       <c r="L29" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" s="51" customFormat="1" ht="24" customHeight="1">
+      <c r="M29" s="64"/>
+    </row>
+    <row r="30" spans="1:13" s="51" customFormat="1" ht="24" customHeight="1">
       <c r="A30" s="170" t="s">
         <v>175</v>
       </c>
@@ -9153,8 +9195,9 @@
       <c r="L30" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="44.25" customHeight="1">
+      <c r="M30" s="64"/>
+    </row>
+    <row r="31" spans="1:13" ht="44.25" customHeight="1">
       <c r="A31" s="170" t="s">
         <v>146</v>
       </c>
@@ -9185,8 +9228,9 @@
       <c r="L31" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" s="51" customFormat="1">
+      <c r="M31" s="200"/>
+    </row>
+    <row r="32" spans="1:13" s="51" customFormat="1">
       <c r="A32" s="164" t="s">
         <v>66</v>
       </c>
@@ -9223,8 +9267,11 @@
       <c r="L32" s="174" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="24">
+      <c r="M32" s="174" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="24">
       <c r="A33" s="170" t="s">
         <v>611</v>
       </c>
@@ -9253,8 +9300,11 @@
       <c r="L33" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="36">
+      <c r="M33" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="36">
       <c r="A34" s="170" t="s">
         <v>612</v>
       </c>
@@ -9283,8 +9333,11 @@
       <c r="L34" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="170" t="s">
         <v>613</v>
       </c>
@@ -9311,8 +9364,11 @@
       <c r="L35" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="170" t="s">
         <v>614</v>
       </c>
@@ -9339,8 +9395,11 @@
       <c r="L36" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="170" t="s">
         <v>953</v>
       </c>
@@ -9369,8 +9428,9 @@
       <c r="L37" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37" s="200"/>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="170" t="s">
         <v>615</v>
       </c>
@@ -9399,8 +9459,11 @@
       <c r="L38" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="170" t="s">
         <v>616</v>
       </c>
@@ -9427,8 +9490,11 @@
       <c r="L39" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="170" t="s">
         <v>617</v>
       </c>
@@ -9455,8 +9521,11 @@
       <c r="L40" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="170" t="s">
         <v>618</v>
       </c>
@@ -9483,8 +9552,11 @@
       <c r="L41" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="170" t="s">
         <v>669</v>
       </c>
@@ -9511,8 +9583,11 @@
       <c r="L42" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="170" t="s">
         <v>670</v>
       </c>
@@ -9539,8 +9614,11 @@
       <c r="L43" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="24">
+      <c r="M43" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="24">
       <c r="A44" s="170" t="s">
         <v>619</v>
       </c>
@@ -9569,8 +9647,11 @@
       <c r="L44" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="170" t="s">
         <v>620</v>
       </c>
@@ -9597,8 +9678,11 @@
       <c r="L45" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="36">
+      <c r="M45" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="24">
       <c r="A46" s="170" t="s">
         <v>621</v>
       </c>
@@ -9627,8 +9711,11 @@
       <c r="L46" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="170" t="s">
         <v>965</v>
       </c>
@@ -9655,8 +9742,11 @@
       </c>
       <c r="K47" s="184"/>
       <c r="L47" s="184"/>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="170" t="s">
         <v>672</v>
       </c>
@@ -9683,8 +9773,11 @@
       <c r="L48" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="170" t="s">
         <v>672</v>
       </c>
@@ -9711,8 +9804,11 @@
       <c r="L49" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="170" t="s">
         <v>671</v>
       </c>
@@ -9739,8 +9835,11 @@
       <c r="L50" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="48">
+      <c r="M50" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="48">
       <c r="A51" s="170" t="s">
         <v>671</v>
       </c>
@@ -9771,8 +9870,11 @@
       <c r="L51" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="170" t="s">
         <v>673</v>
       </c>
@@ -9799,8 +9901,11 @@
       <c r="L52" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="24">
+      <c r="M52" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="24">
       <c r="A53" s="170" t="s">
         <v>622</v>
       </c>
@@ -9829,8 +9934,11 @@
       <c r="L53" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="24">
+      <c r="M53" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="24">
       <c r="A54" s="170" t="s">
         <v>623</v>
       </c>
@@ -9859,8 +9967,11 @@
       <c r="L54" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="36">
+      <c r="M54" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="24">
       <c r="A55" s="170" t="s">
         <v>624</v>
       </c>
@@ -9889,8 +10000,11 @@
       <c r="L55" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="170" t="s">
         <v>968</v>
       </c>
@@ -9917,8 +10031,11 @@
       </c>
       <c r="K56" s="184"/>
       <c r="L56" s="184"/>
-    </row>
-    <row r="57" spans="1:12" ht="24">
+      <c r="M56" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="170" t="s">
         <v>645</v>
       </c>
@@ -9947,8 +10064,11 @@
       <c r="L57" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="170" t="s">
         <v>646</v>
       </c>
@@ -9975,8 +10095,11 @@
       <c r="L58" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="24">
+      <c r="M58" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="170" t="s">
         <v>647</v>
       </c>
@@ -10005,8 +10128,11 @@
       <c r="L59" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="170" t="s">
         <v>648</v>
       </c>
@@ -10033,8 +10159,11 @@
       <c r="L60" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="24">
+      <c r="M60" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="170" t="s">
         <v>649</v>
       </c>
@@ -10063,8 +10192,11 @@
       <c r="L61" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="170" t="s">
         <v>650</v>
       </c>
@@ -10091,8 +10223,11 @@
       <c r="L62" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="24">
+      <c r="M62" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="170" t="s">
         <v>625</v>
       </c>
@@ -10121,8 +10256,11 @@
       <c r="L63" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="170" t="s">
         <v>626</v>
       </c>
@@ -10153,8 +10291,11 @@
       <c r="L64" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="170" t="s">
         <v>627</v>
       </c>
@@ -10183,8 +10324,11 @@
       <c r="L65" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="170" t="s">
         <v>628</v>
       </c>
@@ -10211,8 +10355,11 @@
       <c r="L66" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="170" t="s">
         <v>629</v>
       </c>
@@ -10241,8 +10388,11 @@
       <c r="L67" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="170" t="s">
         <v>630</v>
       </c>
@@ -10269,8 +10419,11 @@
       <c r="L68" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" ht="24">
+      <c r="M68" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="170" t="s">
         <v>651</v>
       </c>
@@ -10299,8 +10452,11 @@
       <c r="L69" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="170" t="s">
         <v>652</v>
       </c>
@@ -10327,8 +10483,11 @@
       <c r="L70" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="170" t="s">
         <v>653</v>
       </c>
@@ -10357,8 +10516,11 @@
       <c r="L71" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="170" t="s">
         <v>653</v>
       </c>
@@ -10387,8 +10549,11 @@
       <c r="L72" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" ht="24">
+      <c r="M72" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="170" t="s">
         <v>654</v>
       </c>
@@ -10417,8 +10582,11 @@
       <c r="L73" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="M73" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="170" t="s">
         <v>655</v>
       </c>
@@ -10445,8 +10613,11 @@
       <c r="L74" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="M74" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="170" t="s">
         <v>656</v>
       </c>
@@ -10477,8 +10648,11 @@
       <c r="L75" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="24">
+      <c r="M75" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="170" t="s">
         <v>657</v>
       </c>
@@ -10507,8 +10681,11 @@
       <c r="L76" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="M76" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="170" t="s">
         <v>658</v>
       </c>
@@ -10535,8 +10712,11 @@
       <c r="L77" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="36">
+      <c r="M77" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="36">
       <c r="A78" s="170" t="s">
         <v>659</v>
       </c>
@@ -10567,8 +10747,11 @@
       <c r="L78" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" ht="36">
+      <c r="M78" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="24">
       <c r="A79" s="170" t="s">
         <v>631</v>
       </c>
@@ -10597,8 +10780,11 @@
       <c r="L79" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="M79" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="170" t="s">
         <v>972</v>
       </c>
@@ -10625,8 +10811,11 @@
       </c>
       <c r="K80" s="184"/>
       <c r="L80" s="184"/>
-    </row>
-    <row r="81" spans="1:12" ht="60">
+      <c r="M80" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="48">
       <c r="A81" s="170" t="s">
         <v>660</v>
       </c>
@@ -10655,8 +10844,11 @@
       <c r="L81" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="24">
+      <c r="M81" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="24">
       <c r="A82" s="170" t="s">
         <v>660</v>
       </c>
@@ -10683,8 +10875,11 @@
       <c r="L82" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="36">
+      <c r="M82" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="36">
       <c r="A83" s="170" t="s">
         <v>661</v>
       </c>
@@ -10713,8 +10908,11 @@
       <c r="L83" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="M83" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="170" t="s">
         <v>661</v>
       </c>
@@ -10741,8 +10939,11 @@
       <c r="L84" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="M84" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="170" t="s">
         <v>662</v>
       </c>
@@ -10769,8 +10970,11 @@
       <c r="L85" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" ht="24">
+      <c r="M85" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="24">
       <c r="A86" s="170" t="s">
         <v>632</v>
       </c>
@@ -10799,8 +11003,11 @@
       <c r="L86" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" ht="24">
+      <c r="M86" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="24">
       <c r="A87" s="170" t="s">
         <v>633</v>
       </c>
@@ -10829,8 +11036,11 @@
       <c r="L87" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" ht="36">
+      <c r="M87" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="24">
       <c r="A88" s="170" t="s">
         <v>634</v>
       </c>
@@ -10859,8 +11069,11 @@
       <c r="L88" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="M88" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="170" t="s">
         <v>969</v>
       </c>
@@ -10887,8 +11100,11 @@
       </c>
       <c r="K89" s="184"/>
       <c r="L89" s="184"/>
-    </row>
-    <row r="90" spans="1:12" ht="24">
+      <c r="M89" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="170" t="s">
         <v>663</v>
       </c>
@@ -10917,8 +11133,11 @@
       <c r="L90" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="91" spans="1:12">
+      <c r="M90" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="170" t="s">
         <v>664</v>
       </c>
@@ -10945,8 +11164,11 @@
       <c r="L91" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" ht="24">
+      <c r="M91" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="170" t="s">
         <v>665</v>
       </c>
@@ -10975,8 +11197,11 @@
       <c r="L92" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="93" spans="1:12">
+      <c r="M92" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="170" t="s">
         <v>666</v>
       </c>
@@ -11003,8 +11228,11 @@
       <c r="L93" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" ht="24">
+      <c r="M93" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="170" t="s">
         <v>667</v>
       </c>
@@ -11033,8 +11261,11 @@
       <c r="L94" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="95" spans="1:12">
+      <c r="M94" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="170" t="s">
         <v>668</v>
       </c>
@@ -11061,8 +11292,11 @@
       <c r="L95" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" ht="24">
+      <c r="M95" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="170" t="s">
         <v>635</v>
       </c>
@@ -11091,8 +11325,11 @@
       <c r="L96" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="97" spans="1:12">
+      <c r="M96" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="170" t="s">
         <v>636</v>
       </c>
@@ -11119,8 +11356,11 @@
       <c r="L97" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="98" spans="1:12">
+      <c r="M97" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="170" t="s">
         <v>637</v>
       </c>
@@ -11147,8 +11387,11 @@
       <c r="L98" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="M98" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="170" t="s">
         <v>638</v>
       </c>
@@ -11175,8 +11418,11 @@
       <c r="L99" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="100" spans="1:12">
+      <c r="M99" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="170" t="s">
         <v>639</v>
       </c>
@@ -11203,8 +11449,11 @@
       <c r="L100" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="101" spans="1:12">
+      <c r="M100" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="170" t="s">
         <v>640</v>
       </c>
@@ -11233,8 +11482,11 @@
       <c r="L101" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="102" spans="1:12">
+      <c r="M101" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="170" t="s">
         <v>641</v>
       </c>
@@ -11261,8 +11513,11 @@
       <c r="L102" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="103" spans="1:12">
+      <c r="M102" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="170" t="s">
         <v>642</v>
       </c>
@@ -11289,8 +11544,11 @@
       <c r="L103" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" ht="24">
+      <c r="M103" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="170" t="s">
         <v>643</v>
       </c>
@@ -11319,8 +11577,11 @@
       <c r="L104" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="105" spans="1:12">
+      <c r="M104" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="170" t="s">
         <v>644</v>
       </c>
@@ -11347,17 +11608,20 @@
       <c r="L105" s="184" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="106" spans="1:12">
+      <c r="M105" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="F106" s="28"/>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:13">
       <c r="F107" s="28"/>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:13">
       <c r="E108" s="28"/>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:13">
       <c r="E109" s="28"/>
     </row>
   </sheetData>
@@ -11377,20 +11641,20 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="21"/>
-    <col min="5" max="6" width="17.28515625" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="51" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" style="51" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="51" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="51" customWidth="1"/>
-    <col min="11" max="11" width="28.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="51" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="51"/>
+    <col min="1" max="1" width="20.7265625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="21"/>
+    <col min="5" max="6" width="17.26953125" style="51" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" style="51" customWidth="1"/>
+    <col min="8" max="8" width="29.7265625" style="51" customWidth="1"/>
+    <col min="9" max="9" width="21.453125" style="51" customWidth="1"/>
+    <col min="10" max="10" width="18.26953125" style="51" customWidth="1"/>
+    <col min="11" max="11" width="28.81640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.453125" style="51" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24">
@@ -11431,7 +11695,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="72">
+    <row r="2" spans="1:12" ht="60">
       <c r="A2" s="39" t="s">
         <v>171</v>
       </c>
@@ -11475,19 +11739,19 @@
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="7" width="23.5703125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="9"/>
-    <col min="11" max="11" width="28.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="51" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" customWidth="1"/>
+    <col min="6" max="7" width="23.54296875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.1796875" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="9"/>
+    <col min="11" max="11" width="28.81640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.453125" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24">
@@ -11807,21 +12071,21 @@
       <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="51" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="51" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="51" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="51" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" style="51" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" style="51" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" style="51" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" style="51" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" style="51" customWidth="1"/>
+    <col min="5" max="5" width="31.453125" style="51" customWidth="1"/>
     <col min="6" max="6" width="12" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" style="84" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="51" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="51"/>
+    <col min="7" max="7" width="5.1796875" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.7265625" style="84" customWidth="1"/>
+    <col min="9" max="9" width="6.7265625" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.81640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.453125" style="51" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -11905,18 +12169,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.26953125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="21" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="21"/>
-    <col min="5" max="6" width="17.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="21" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="21"/>
-    <col min="11" max="11" width="28.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="51" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="21"/>
+    <col min="4" max="4" width="9.1796875" style="21"/>
+    <col min="5" max="6" width="17.26953125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7265625" style="21" customWidth="1"/>
+    <col min="9" max="10" width="9.1796875" style="21"/>
+    <col min="11" max="11" width="28.81640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.453125" style="51" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24">
@@ -12067,21 +12331,21 @@
       <selection pane="topRight" activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="85" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="85" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" style="51" customWidth="1"/>
+    <col min="1" max="1" width="38.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.7265625" style="85" customWidth="1"/>
+    <col min="5" max="5" width="24.54296875" style="85" customWidth="1"/>
+    <col min="6" max="6" width="28.54296875" style="51" customWidth="1"/>
     <col min="7" max="7" width="40" style="51" customWidth="1"/>
-    <col min="8" max="8" width="41.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="51" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="51"/>
+    <col min="8" max="8" width="41.81640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.1796875" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" style="52" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.81640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.453125" style="51" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -12244,7 +12508,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="24">
+    <row r="6" spans="1:12">
       <c r="A6" s="65" t="s">
         <v>340</v>
       </c>
@@ -12563,7 +12827,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="24">
+    <row r="17" spans="1:12">
       <c r="A17" s="70" t="s">
         <v>436</v>
       </c>
@@ -12781,7 +13045,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="24">
+    <row r="24" spans="1:12">
       <c r="A24" s="17" t="s">
         <v>334</v>
       </c>
@@ -13021,7 +13285,7 @@
       <c r="K31" s="56"/>
       <c r="L31" s="56"/>
     </row>
-    <row r="32" spans="1:12" ht="24">
+    <row r="32" spans="1:12">
       <c r="A32" s="17" t="s">
         <v>337</v>
       </c>
@@ -13199,7 +13463,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="24">
+    <row r="38" spans="1:12">
       <c r="A38" s="70" t="s">
         <v>438</v>
       </c>
@@ -13417,7 +13681,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="24">
+    <row r="45" spans="1:12">
       <c r="A45" s="17" t="s">
         <v>333</v>
       </c>
@@ -13655,7 +13919,7 @@
       <c r="K52" s="56"/>
       <c r="L52" s="151"/>
     </row>
-    <row r="53" spans="1:12" ht="24">
+    <row r="53" spans="1:12">
       <c r="A53" s="17" t="s">
         <v>336</v>
       </c>
@@ -13811,7 +14075,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="48">
+    <row r="58" spans="1:12" ht="36">
       <c r="A58" s="65" t="s">
         <v>712</v>
       </c>
@@ -13841,7 +14105,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="48">
+    <row r="59" spans="1:12" ht="36">
       <c r="A59" s="65" t="s">
         <v>713</v>
       </c>
@@ -13871,7 +14135,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="48">
+    <row r="60" spans="1:12" ht="36">
       <c r="A60" s="65" t="s">
         <v>714</v>
       </c>
@@ -13901,7 +14165,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="48">
+    <row r="61" spans="1:12" ht="36">
       <c r="A61" s="65" t="s">
         <v>715</v>
       </c>
@@ -13931,7 +14195,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="48">
+    <row r="62" spans="1:12" ht="36">
       <c r="A62" s="65" t="s">
         <v>716</v>
       </c>
@@ -13961,7 +14225,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="48">
+    <row r="63" spans="1:12" ht="36">
       <c r="A63" s="65" t="s">
         <v>717</v>
       </c>
@@ -13991,7 +14255,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="48">
+    <row r="64" spans="1:12" ht="36">
       <c r="A64" s="65" t="s">
         <v>701</v>
       </c>
@@ -14021,7 +14285,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="48">
+    <row r="65" spans="1:12" ht="36">
       <c r="A65" s="65" t="s">
         <v>702</v>
       </c>
@@ -14083,7 +14347,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="36">
+    <row r="67" spans="1:12" ht="24">
       <c r="A67" s="120" t="s">
         <v>718</v>
       </c>
@@ -14115,7 +14379,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="48">
+    <row r="68" spans="1:12" ht="36">
       <c r="A68" s="120" t="s">
         <v>719</v>
       </c>
@@ -14145,7 +14409,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="48">
+    <row r="69" spans="1:12" ht="36">
       <c r="A69" s="120" t="s">
         <v>720</v>
       </c>
@@ -14175,7 +14439,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="48">
+    <row r="70" spans="1:12" ht="36">
       <c r="A70" s="120" t="s">
         <v>721</v>
       </c>
@@ -14205,7 +14469,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="48">
+    <row r="71" spans="1:12" ht="36">
       <c r="A71" s="120" t="s">
         <v>722</v>
       </c>
@@ -14235,7 +14499,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="48">
+    <row r="72" spans="1:12" ht="36">
       <c r="A72" s="120" t="s">
         <v>723</v>
       </c>
@@ -14265,7 +14529,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="48">
+    <row r="73" spans="1:12" ht="36">
       <c r="A73" s="120" t="s">
         <v>724</v>
       </c>
@@ -14295,7 +14559,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="48">
+    <row r="74" spans="1:12" ht="36">
       <c r="A74" s="120" t="s">
         <v>704</v>
       </c>
@@ -14325,7 +14589,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="48">
+    <row r="75" spans="1:12" ht="36">
       <c r="A75" s="120" t="s">
         <v>705</v>
       </c>
@@ -15411,7 +15675,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="36">
+    <row r="109" spans="1:12" ht="24">
       <c r="A109" s="65" t="s">
         <v>914</v>
       </c>
@@ -15505,7 +15769,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="36">
+    <row r="112" spans="1:12" ht="24">
       <c r="A112" s="65" t="s">
         <v>917</v>
       </c>
@@ -16539,7 +16803,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="145" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="145" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A145" s="8" t="s">
         <v>461</v>
       </c>
@@ -16577,7 +16841,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="146" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="146" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A146" s="80" t="s">
         <v>463</v>
       </c>
@@ -16605,7 +16869,7 @@
       </c>
       <c r="L146" s="56"/>
     </row>
-    <row r="147" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="147" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A147" s="80" t="s">
         <v>464</v>
       </c>
@@ -16625,7 +16889,7 @@
       </c>
       <c r="L147" s="56"/>
     </row>
-    <row r="148" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="148" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A148" s="80" t="s">
         <v>371</v>
       </c>
@@ -16653,7 +16917,7 @@
       </c>
       <c r="L148" s="56"/>
     </row>
-    <row r="149" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="149" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A149" s="80" t="s">
         <v>465</v>
       </c>
@@ -16681,7 +16945,7 @@
       </c>
       <c r="L149" s="56"/>
     </row>
-    <row r="150" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="150" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A150" s="80" t="s">
         <v>469</v>
       </c>
@@ -16701,7 +16965,7 @@
       </c>
       <c r="L150" s="56"/>
     </row>
-    <row r="151" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="151" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A151" s="80" t="s">
         <v>466</v>
       </c>
@@ -16735,7 +16999,7 @@
       </c>
       <c r="L151" s="56"/>
     </row>
-    <row r="152" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="152" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A152" s="80" t="s">
         <v>467</v>
       </c>
@@ -16763,7 +17027,7 @@
       </c>
       <c r="L152" s="56"/>
     </row>
-    <row r="153" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="153" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A153" s="80" t="s">
         <v>470</v>
       </c>
@@ -16783,7 +17047,7 @@
       </c>
       <c r="L153" s="56"/>
     </row>
-    <row r="154" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="154" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A154" s="80" t="s">
         <v>468</v>
       </c>
@@ -16811,7 +17075,7 @@
       </c>
       <c r="L154" s="56"/>
     </row>
-    <row r="155" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="155" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A155" s="80" t="s">
         <v>471</v>
       </c>
@@ -16831,7 +17095,7 @@
       </c>
       <c r="L155" s="56"/>
     </row>
-    <row r="156" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="156" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A156" s="80" t="s">
         <v>472</v>
       </c>
@@ -16851,7 +17115,7 @@
       </c>
       <c r="L156" s="56"/>
     </row>
-    <row r="157" spans="1:12" s="57" customFormat="1" ht="15">
+    <row r="157" spans="1:12" s="57" customFormat="1" ht="14.5">
       <c r="A157" s="80" t="s">
         <v>473</v>
       </c>
@@ -19407,21 +19671,21 @@
       <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="28" customWidth="1"/>
+    <col min="1" max="1" width="44.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" style="28" customWidth="1"/>
     <col min="3" max="3" width="30" style="28" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="28" customWidth="1"/>
     <col min="5" max="5" width="20" style="176" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" style="176" customWidth="1"/>
+    <col min="6" max="6" width="27.26953125" style="176" customWidth="1"/>
     <col min="7" max="7" width="24" style="176" customWidth="1"/>
-    <col min="8" max="8" width="37.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.54296875" style="28" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="52" style="5" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.85546875" style="185" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="185" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="24.7265625" style="81" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.81640625" style="185" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.453125" style="185" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -19492,7 +19756,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="48">
+    <row r="3" spans="1:12" ht="36">
       <c r="A3" s="170" t="s">
         <v>908</v>
       </c>
@@ -20216,7 +20480,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="60">
+    <row r="29" spans="1:12" ht="48">
       <c r="A29" s="170" t="s">
         <v>1026</v>
       </c>
@@ -20438,7 +20702,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="120">
+    <row r="37" spans="1:12" ht="96">
       <c r="A37" s="170" t="s">
         <v>983</v>
       </c>
@@ -21066,7 +21330,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="24">
+    <row r="59" spans="1:12">
       <c r="A59" s="170" t="s">
         <v>1017</v>
       </c>
@@ -21098,7 +21362,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="24">
+    <row r="60" spans="1:12">
       <c r="A60" s="170" t="s">
         <v>1017</v>
       </c>
@@ -22544,7 +22808,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="163" customFormat="1" ht="24.75">
+    <row r="105" spans="1:12" s="163" customFormat="1" ht="24.5">
       <c r="A105" s="80" t="s">
         <v>385</v>
       </c>
@@ -22826,7 +23090,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="114" spans="1:12" s="163" customFormat="1" ht="24.75">
+    <row r="114" spans="1:12" s="163" customFormat="1" ht="24.5">
       <c r="A114" s="80" t="s">
         <v>389</v>
       </c>
@@ -22890,7 +23154,7 @@
       </c>
       <c r="L115" s="184"/>
     </row>
-    <row r="116" spans="1:12" s="163" customFormat="1" ht="24.75">
+    <row r="116" spans="1:12" s="163" customFormat="1" ht="24.5">
       <c r="A116" s="80" t="s">
         <v>390</v>
       </c>
@@ -22998,20 +23262,20 @@
       <selection pane="topRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.140625" style="105" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="105"/>
-    <col min="4" max="4" width="14.85546875" style="105" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="106" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="105" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" style="105" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61.42578125" style="135" customWidth="1"/>
-    <col min="9" max="9" width="52.42578125" style="105" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" style="105" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="105"/>
-    <col min="12" max="12" width="12.5703125" style="105" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="105"/>
+    <col min="1" max="1" width="31.1796875" style="105" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.1796875" style="105"/>
+    <col min="4" max="4" width="14.81640625" style="105" customWidth="1"/>
+    <col min="5" max="5" width="26.453125" style="106" customWidth="1"/>
+    <col min="6" max="6" width="30.7265625" style="105" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" style="105" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.453125" style="135" customWidth="1"/>
+    <col min="9" max="9" width="52.453125" style="105" customWidth="1"/>
+    <col min="10" max="10" width="24.81640625" style="105" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" style="105"/>
+    <col min="12" max="12" width="12.54296875" style="105" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="105"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="51" customFormat="1" ht="26.25" customHeight="1">
@@ -24396,7 +24660,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="24.75">
+    <row r="42" spans="1:12">
       <c r="A42" s="109" t="s">
         <v>819</v>
       </c>
@@ -24576,7 +24840,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="36.75">
+    <row r="48" spans="1:12" ht="36.5">
       <c r="A48" s="109" t="s">
         <v>826</v>
       </c>
@@ -24598,7 +24862,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="72.75">
+    <row r="49" spans="1:12" ht="60.5">
       <c r="A49" s="109" t="s">
         <v>827</v>
       </c>
@@ -24688,7 +24952,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="24.75">
+    <row r="52" spans="1:12" ht="24">
       <c r="A52" s="109" t="s">
         <v>830</v>
       </c>
@@ -24720,7 +24984,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="48.75">
+    <row r="53" spans="1:12" ht="36.5">
       <c r="A53" s="109" t="s">
         <v>831</v>
       </c>
@@ -24948,7 +25212,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="24.75">
+    <row r="61" spans="1:12">
       <c r="A61" s="109" t="s">
         <v>839</v>
       </c>
@@ -25122,7 +25386,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="36.75">
+    <row r="67" spans="1:12" ht="24.5">
       <c r="A67" s="109" t="s">
         <v>845</v>
       </c>
@@ -25148,7 +25412,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="72.75">
+    <row r="68" spans="1:12" ht="60.5">
       <c r="A68" s="109" t="s">
         <v>846</v>
       </c>
@@ -25238,7 +25502,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="24.75">
+    <row r="71" spans="1:12" ht="24">
       <c r="A71" s="109" t="s">
         <v>849</v>
       </c>
@@ -25270,7 +25534,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="48.75">
+    <row r="72" spans="1:12" ht="36.5">
       <c r="A72" s="109" t="s">
         <v>850</v>
       </c>

--- a/data/human/adult/validation/SystemValidationData.xlsx
+++ b/data/human/adult/validation/SystemValidationData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Pulse\engine\data\human\adult\validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.bray\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DD9594-EA56-47E9-B66C-DB4E67E76EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C559A11B-F4BE-4DC8-8349-03C4065E10AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="32620" windowHeight="21360" tabRatio="724" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="380" windowWidth="32400" windowHeight="10590" tabRatio="724" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blood Chemistry" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4095" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4126" uniqueCount="1095">
   <si>
     <t>Output</t>
   </si>
@@ -3435,6 +3435,18 @@
   </si>
   <si>
     <t>HemodynamicsTargets</t>
+  </si>
+  <si>
+    <t>DiastolicLeftHeartPressure</t>
+  </si>
+  <si>
+    <t>DiastolicRightHeartPressure</t>
+  </si>
+  <si>
+    <t>SystolicLeftHeartPressure</t>
+  </si>
+  <si>
+    <t>SystolicRightHeartPressure</t>
   </si>
 </sst>
 </file>
@@ -8284,11 +8296,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B33" sqref="B33"/>
+      <selection pane="topRight" activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12"/>
@@ -8592,171 +8604,165 @@
       </c>
       <c r="M9" s="200"/>
     </row>
-    <row r="10" spans="1:13" ht="27.75" customHeight="1">
+    <row r="10" spans="1:13" ht="45.75" customHeight="1">
       <c r="A10" s="170" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="165"/>
+        <v>1091</v>
+      </c>
+      <c r="B10" s="165" t="s">
+        <v>5</v>
+      </c>
       <c r="C10" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="175">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E10" s="165" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="183"/>
+      <c r="D10" s="179" t="s">
+        <v>512</v>
+      </c>
+      <c r="E10" s="180" t="s">
+        <v>868</v>
+      </c>
+      <c r="F10" s="165"/>
       <c r="G10" s="165"/>
-      <c r="H10" s="165" t="s">
-        <v>509</v>
-      </c>
+      <c r="H10" s="165"/>
       <c r="I10" s="187"/>
       <c r="J10" s="184" t="s">
         <v>395</v>
       </c>
       <c r="K10" s="184"/>
       <c r="L10" s="184" t="s">
-        <v>962</v>
-      </c>
-      <c r="M10" s="200"/>
-    </row>
-    <row r="11" spans="1:13" ht="74.25" customHeight="1">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="45.75" customHeight="1">
       <c r="A11" s="170" t="s">
-        <v>142</v>
+        <v>1092</v>
       </c>
       <c r="B11" s="165" t="s">
-        <v>198</v>
+        <v>5</v>
       </c>
       <c r="C11" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="175">
-        <v>72</v>
-      </c>
-      <c r="E11" s="165" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="165" t="s">
-        <v>149</v>
-      </c>
-      <c r="G11" s="163"/>
-      <c r="H11" s="165"/>
+      <c r="D11" s="179" t="s">
+        <v>517</v>
+      </c>
+      <c r="E11" s="180" t="s">
+        <v>868</v>
+      </c>
+      <c r="F11" s="180"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="189" t="s">
+        <v>518</v>
+      </c>
       <c r="I11" s="187"/>
       <c r="J11" s="184" t="s">
         <v>395</v>
       </c>
       <c r="K11" s="184"/>
       <c r="L11" s="184" t="s">
-        <v>964</v>
-      </c>
-      <c r="M11" s="200"/>
-    </row>
-    <row r="12" spans="1:13" s="51" customFormat="1">
-      <c r="A12" s="172" t="s">
-        <v>139</v>
+        <v>963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A12" s="170" t="s">
+        <v>141</v>
       </c>
       <c r="B12" s="165"/>
-      <c r="C12" s="165"/>
-      <c r="D12" s="165"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165" t="s">
-        <v>172</v>
-      </c>
-      <c r="H12" s="165"/>
-      <c r="I12" s="186"/>
+      <c r="C12" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="175">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E12" s="165" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="183"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165" t="s">
+        <v>509</v>
+      </c>
+      <c r="I12" s="187"/>
       <c r="J12" s="184" t="s">
         <v>395</v>
       </c>
       <c r="K12" s="184"/>
-      <c r="L12" s="184"/>
-      <c r="M12" s="64"/>
-    </row>
-    <row r="13" spans="1:13" ht="65.25" customHeight="1">
+      <c r="L12" s="184" t="s">
+        <v>962</v>
+      </c>
+      <c r="M12" s="200"/>
+    </row>
+    <row r="13" spans="1:13" ht="74.25" customHeight="1">
       <c r="A13" s="170" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B13" s="165" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="C13" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D13" s="165" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" s="176" t="s">
-        <v>477</v>
-      </c>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="165" t="s">
-        <v>510</v>
-      </c>
+      <c r="D13" s="175">
+        <v>72</v>
+      </c>
+      <c r="E13" s="165" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="165" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="163"/>
+      <c r="H13" s="165"/>
       <c r="I13" s="187"/>
       <c r="J13" s="184" t="s">
         <v>395</v>
       </c>
       <c r="K13" s="184"/>
       <c r="L13" s="184" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="M13" s="200"/>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="170" t="s">
-        <v>880</v>
-      </c>
-      <c r="B14" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" s="175" t="s">
-        <v>875</v>
-      </c>
-      <c r="E14" s="181" t="s">
-        <v>881</v>
-      </c>
+    <row r="14" spans="1:13" s="51" customFormat="1">
+      <c r="A14" s="172" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="165"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
       <c r="F14" s="165"/>
-      <c r="G14" s="183" t="s">
-        <v>882</v>
-      </c>
-      <c r="H14" s="180"/>
-      <c r="I14" s="187"/>
+      <c r="G14" s="165" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="165"/>
+      <c r="I14" s="186"/>
       <c r="J14" s="184" t="s">
         <v>395</v>
       </c>
       <c r="K14" s="184"/>
-      <c r="L14" s="184" t="s">
-        <v>963</v>
-      </c>
-      <c r="M14" s="200"/>
-    </row>
-    <row r="15" spans="1:13" ht="40.5" customHeight="1">
+      <c r="L14" s="184"/>
+      <c r="M14" s="64"/>
+    </row>
+    <row r="15" spans="1:13" ht="65.25" customHeight="1">
       <c r="A15" s="170" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" s="165" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="179" t="s">
-        <v>511</v>
-      </c>
-      <c r="E15" s="181" t="s">
-        <v>787</v>
-      </c>
-      <c r="F15" s="165" t="s">
-        <v>514</v>
-      </c>
+      <c r="D15" s="165" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="176" t="s">
+        <v>477</v>
+      </c>
+      <c r="F15" s="165"/>
       <c r="G15" s="165"/>
       <c r="H15" s="165" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="I15" s="187"/>
       <c r="J15" s="184" t="s">
@@ -8768,157 +8774,167 @@
       </c>
       <c r="M15" s="200"/>
     </row>
-    <row r="16" spans="1:13" s="51" customFormat="1">
-      <c r="A16" s="172" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="165"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="165"/>
-      <c r="E16" s="165"/>
+    <row r="16" spans="1:13">
+      <c r="A16" s="170" t="s">
+        <v>880</v>
+      </c>
+      <c r="B16" s="180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="175" t="s">
+        <v>875</v>
+      </c>
+      <c r="E16" s="181" t="s">
+        <v>881</v>
+      </c>
       <c r="F16" s="165"/>
-      <c r="G16" s="165" t="s">
-        <v>173</v>
-      </c>
-      <c r="H16" s="165"/>
-      <c r="I16" s="186"/>
+      <c r="G16" s="183" t="s">
+        <v>882</v>
+      </c>
+      <c r="H16" s="180"/>
+      <c r="I16" s="187"/>
       <c r="J16" s="184" t="s">
         <v>395</v>
       </c>
       <c r="K16" s="184"/>
-      <c r="L16" s="184"/>
-      <c r="M16" s="64"/>
-    </row>
-    <row r="17" spans="1:13" s="51" customFormat="1">
-      <c r="A17" s="172" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17" s="165"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="165" t="s">
-        <v>173</v>
-      </c>
-      <c r="H17" s="165"/>
-      <c r="I17" s="186"/>
+      <c r="L16" s="184" t="s">
+        <v>963</v>
+      </c>
+      <c r="M16" s="200"/>
+    </row>
+    <row r="17" spans="1:13" ht="40.5" customHeight="1">
+      <c r="A17" s="170" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="179" t="s">
+        <v>511</v>
+      </c>
+      <c r="E17" s="181" t="s">
+        <v>787</v>
+      </c>
+      <c r="F17" s="165" t="s">
+        <v>514</v>
+      </c>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165" t="s">
+        <v>508</v>
+      </c>
+      <c r="I17" s="187"/>
       <c r="J17" s="184" t="s">
         <v>395</v>
       </c>
       <c r="K17" s="184"/>
-      <c r="L17" s="184"/>
-      <c r="M17" s="64"/>
-    </row>
-    <row r="18" spans="1:13" s="51" customFormat="1" ht="48">
-      <c r="A18" s="170" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" s="175" t="s">
-        <v>505</v>
-      </c>
-      <c r="E18" s="181" t="s">
-        <v>787</v>
-      </c>
-      <c r="F18" s="165" t="s">
-        <v>514</v>
-      </c>
-      <c r="G18" s="165"/>
-      <c r="H18" s="180" t="s">
-        <v>506</v>
-      </c>
+      <c r="L17" s="184" t="s">
+        <v>963</v>
+      </c>
+      <c r="M17" s="200"/>
+    </row>
+    <row r="18" spans="1:13" s="51" customFormat="1">
+      <c r="A18" s="172" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="165"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165" t="s">
+        <v>173</v>
+      </c>
+      <c r="H18" s="165"/>
       <c r="I18" s="186"/>
       <c r="J18" s="184" t="s">
         <v>395</v>
       </c>
       <c r="K18" s="184"/>
-      <c r="L18" s="184" t="s">
-        <v>963</v>
-      </c>
+      <c r="L18" s="184"/>
       <c r="M18" s="64"/>
     </row>
     <row r="19" spans="1:13" s="51" customFormat="1">
-      <c r="A19" s="170" t="s">
-        <v>201</v>
-      </c>
-      <c r="B19" s="165" t="s">
-        <v>528</v>
-      </c>
-      <c r="C19" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" s="165">
-        <v>6.3</v>
-      </c>
-      <c r="E19" s="165" t="s">
-        <v>94</v>
-      </c>
+      <c r="A19" s="172" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="165"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="165"/>
       <c r="F19" s="165"/>
-      <c r="G19" s="185"/>
-      <c r="H19" s="165" t="s">
-        <v>202</v>
-      </c>
+      <c r="G19" s="165" t="s">
+        <v>173</v>
+      </c>
+      <c r="H19" s="165"/>
       <c r="I19" s="186"/>
       <c r="J19" s="184" t="s">
         <v>395</v>
       </c>
       <c r="K19" s="184"/>
-      <c r="L19" s="184" t="s">
-        <v>963</v>
-      </c>
+      <c r="L19" s="184"/>
       <c r="M19" s="64"/>
     </row>
-    <row r="20" spans="1:13" s="51" customFormat="1" ht="24">
-      <c r="A20" s="172" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="165"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="183" t="s">
-        <v>203</v>
-      </c>
-      <c r="H20" s="165"/>
+    <row r="20" spans="1:13" s="51" customFormat="1" ht="48">
+      <c r="A20" s="170" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="175" t="s">
+        <v>505</v>
+      </c>
+      <c r="E20" s="181" t="s">
+        <v>787</v>
+      </c>
+      <c r="F20" s="165" t="s">
+        <v>514</v>
+      </c>
+      <c r="G20" s="165"/>
+      <c r="H20" s="180" t="s">
+        <v>506</v>
+      </c>
       <c r="I20" s="186"/>
       <c r="J20" s="184" t="s">
         <v>395</v>
       </c>
       <c r="K20" s="184"/>
-      <c r="L20" s="184"/>
+      <c r="L20" s="184" t="s">
+        <v>963</v>
+      </c>
       <c r="M20" s="64"/>
     </row>
-    <row r="21" spans="1:13" ht="41.25" customHeight="1">
+    <row r="21" spans="1:13" s="51" customFormat="1">
       <c r="A21" s="170" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" s="180" t="s">
-        <v>5</v>
+        <v>201</v>
+      </c>
+      <c r="B21" s="165" t="s">
+        <v>528</v>
       </c>
       <c r="C21" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="180" t="s">
-        <v>512</v>
-      </c>
-      <c r="E21" s="181" t="s">
-        <v>787</v>
-      </c>
-      <c r="F21" s="180" t="s">
-        <v>514</v>
-      </c>
-      <c r="G21" s="180"/>
-      <c r="H21" s="180" t="s">
-        <v>515</v>
-      </c>
-      <c r="I21" s="187"/>
+      <c r="D21" s="165">
+        <v>6.3</v>
+      </c>
+      <c r="E21" s="165" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="165"/>
+      <c r="G21" s="185"/>
+      <c r="H21" s="165" t="s">
+        <v>202</v>
+      </c>
+      <c r="I21" s="186"/>
       <c r="J21" s="184" t="s">
         <v>395</v>
       </c>
@@ -8926,61 +8942,53 @@
       <c r="L21" s="184" t="s">
         <v>963</v>
       </c>
-      <c r="M21" s="200"/>
+      <c r="M21" s="64"/>
     </row>
     <row r="22" spans="1:13" s="51" customFormat="1" ht="24">
-      <c r="A22" s="170" t="s">
-        <v>179</v>
-      </c>
-      <c r="B22" s="165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="165" t="s">
-        <v>527</v>
-      </c>
-      <c r="E22" s="181" t="s">
-        <v>867</v>
-      </c>
-      <c r="F22" s="165" t="s">
-        <v>519</v>
-      </c>
-      <c r="G22" s="165"/>
-      <c r="H22" s="165" t="s">
-        <v>508</v>
-      </c>
+      <c r="A22" s="172" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="165"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="183" t="s">
+        <v>203</v>
+      </c>
+      <c r="H22" s="165"/>
       <c r="I22" s="186"/>
       <c r="J22" s="184" t="s">
         <v>395</v>
       </c>
       <c r="K22" s="184"/>
-      <c r="L22" s="184" t="s">
-        <v>963</v>
-      </c>
+      <c r="L22" s="184"/>
       <c r="M22" s="64"/>
     </row>
-    <row r="23" spans="1:13" s="51" customFormat="1">
+    <row r="23" spans="1:13" ht="41.25" customHeight="1">
       <c r="A23" s="170" t="s">
-        <v>178</v>
-      </c>
-      <c r="B23" s="165" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="180" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="165" t="s">
-        <v>520</v>
-      </c>
-      <c r="E23" s="165" t="s">
-        <v>868</v>
-      </c>
-      <c r="F23" s="165"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="186"/>
+      <c r="D23" s="180" t="s">
+        <v>512</v>
+      </c>
+      <c r="E23" s="181" t="s">
+        <v>787</v>
+      </c>
+      <c r="F23" s="180" t="s">
+        <v>514</v>
+      </c>
+      <c r="G23" s="180"/>
+      <c r="H23" s="180" t="s">
+        <v>515</v>
+      </c>
+      <c r="I23" s="187"/>
       <c r="J23" s="184" t="s">
         <v>395</v>
       </c>
@@ -8988,218 +8996,212 @@
       <c r="L23" s="184" t="s">
         <v>963</v>
       </c>
-      <c r="M23" s="64"/>
-    </row>
-    <row r="24" spans="1:13" s="51" customFormat="1">
-      <c r="A24" s="172" t="s">
-        <v>755</v>
-      </c>
-      <c r="B24" s="165"/>
-      <c r="C24" s="165"/>
-      <c r="D24" s="165"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="165"/>
+      <c r="M23" s="200"/>
+    </row>
+    <row r="24" spans="1:13" s="51" customFormat="1" ht="24">
+      <c r="A24" s="170" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" s="165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="165" t="s">
+        <v>527</v>
+      </c>
+      <c r="E24" s="181" t="s">
+        <v>867</v>
+      </c>
+      <c r="F24" s="165" t="s">
+        <v>519</v>
+      </c>
       <c r="G24" s="165"/>
       <c r="H24" s="165" t="s">
-        <v>774</v>
+        <v>508</v>
       </c>
       <c r="I24" s="186"/>
       <c r="J24" s="184" t="s">
         <v>395</v>
       </c>
       <c r="K24" s="184"/>
-      <c r="L24" s="184"/>
+      <c r="L24" s="184" t="s">
+        <v>963</v>
+      </c>
       <c r="M24" s="64"/>
     </row>
     <row r="25" spans="1:13" s="51" customFormat="1">
-      <c r="A25" s="172" t="s">
-        <v>756</v>
-      </c>
-      <c r="B25" s="165"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="191"/>
-      <c r="E25" s="165"/>
+      <c r="A25" s="170" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="165" t="s">
+        <v>520</v>
+      </c>
+      <c r="E25" s="165" t="s">
+        <v>868</v>
+      </c>
       <c r="F25" s="165"/>
       <c r="G25" s="165"/>
-      <c r="H25" s="165" t="s">
-        <v>774</v>
-      </c>
+      <c r="H25" s="165"/>
       <c r="I25" s="186"/>
       <c r="J25" s="184" t="s">
         <v>395</v>
       </c>
       <c r="K25" s="184"/>
-      <c r="L25" s="184"/>
+      <c r="L25" s="184" t="s">
+        <v>963</v>
+      </c>
       <c r="M25" s="64"/>
     </row>
     <row r="26" spans="1:13" s="51" customFormat="1">
-      <c r="A26" s="170" t="s">
-        <v>177</v>
-      </c>
-      <c r="B26" s="165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="D26" s="165" t="s">
-        <v>167</v>
-      </c>
-      <c r="E26" s="181" t="s">
-        <v>787</v>
-      </c>
-      <c r="F26" s="165" t="s">
-        <v>514</v>
-      </c>
+      <c r="A26" s="172" t="s">
+        <v>755</v>
+      </c>
+      <c r="B26" s="165"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
       <c r="G26" s="165"/>
       <c r="H26" s="165" t="s">
-        <v>508</v>
+        <v>774</v>
       </c>
       <c r="I26" s="186"/>
       <c r="J26" s="184" t="s">
         <v>395</v>
       </c>
       <c r="K26" s="184"/>
-      <c r="L26" s="184" t="s">
-        <v>963</v>
-      </c>
+      <c r="L26" s="184"/>
       <c r="M26" s="64"/>
     </row>
     <row r="27" spans="1:13" s="51" customFormat="1">
-      <c r="A27" s="170" t="s">
-        <v>901</v>
-      </c>
-      <c r="B27" s="165" t="s">
-        <v>197</v>
-      </c>
-      <c r="C27" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" s="165">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E27" s="165" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="165" t="s">
-        <v>903</v>
-      </c>
+      <c r="A27" s="172" t="s">
+        <v>756</v>
+      </c>
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="191"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
       <c r="G27" s="165"/>
-      <c r="H27" s="165"/>
+      <c r="H27" s="165" t="s">
+        <v>774</v>
+      </c>
       <c r="I27" s="186"/>
       <c r="J27" s="184" t="s">
         <v>395</v>
       </c>
       <c r="K27" s="184"/>
-      <c r="L27" s="184" t="s">
-        <v>961</v>
-      </c>
+      <c r="L27" s="184"/>
       <c r="M27" s="64"/>
     </row>
-    <row r="28" spans="1:13" s="51" customFormat="1" ht="36">
+    <row r="28" spans="1:13" s="51" customFormat="1">
       <c r="A28" s="170" t="s">
-        <v>902</v>
+        <v>177</v>
       </c>
       <c r="B28" s="165" t="s">
-        <v>904</v>
+        <v>5</v>
       </c>
       <c r="C28" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D28" s="165">
-        <v>0.24</v>
-      </c>
-      <c r="E28" s="165" t="s">
-        <v>92</v>
+      <c r="D28" s="165" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="181" t="s">
+        <v>787</v>
       </c>
       <c r="F28" s="165" t="s">
-        <v>906</v>
-      </c>
-      <c r="G28" s="165" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H28" s="185"/>
+        <v>514</v>
+      </c>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165" t="s">
+        <v>508</v>
+      </c>
       <c r="I28" s="186"/>
       <c r="J28" s="184" t="s">
         <v>395</v>
       </c>
       <c r="K28" s="184"/>
       <c r="L28" s="184" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="M28" s="64"/>
     </row>
-    <row r="29" spans="1:13" s="51" customFormat="1" ht="36">
+    <row r="29" spans="1:13" s="51" customFormat="1">
       <c r="A29" s="170" t="s">
-        <v>176</v>
+        <v>901</v>
       </c>
       <c r="B29" s="165" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
       <c r="C29" s="165" t="s">
         <v>166</v>
       </c>
       <c r="D29" s="165">
-        <v>40</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E29" s="165" t="s">
         <v>92</v>
       </c>
       <c r="F29" s="165" t="s">
-        <v>513</v>
-      </c>
-      <c r="G29" s="165" t="s">
-        <v>204</v>
-      </c>
-      <c r="H29" s="165" t="s">
-        <v>516</v>
-      </c>
+        <v>903</v>
+      </c>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
       <c r="I29" s="186"/>
       <c r="J29" s="184" t="s">
         <v>395</v>
       </c>
       <c r="K29" s="184"/>
       <c r="L29" s="184" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="M29" s="64"/>
     </row>
-    <row r="30" spans="1:13" s="51" customFormat="1" ht="24" customHeight="1">
+    <row r="30" spans="1:13" s="51" customFormat="1" ht="36">
       <c r="A30" s="170" t="s">
-        <v>175</v>
+        <v>902</v>
       </c>
       <c r="B30" s="165" t="s">
-        <v>197</v>
+        <v>904</v>
       </c>
       <c r="C30" s="165" t="s">
         <v>166</v>
       </c>
       <c r="D30" s="165">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="E30" s="165" t="s">
         <v>92</v>
       </c>
       <c r="F30" s="165" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="165"/>
-      <c r="H30" s="165" t="s">
-        <v>859</v>
-      </c>
+        <v>906</v>
+      </c>
+      <c r="G30" s="165" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H30" s="185"/>
       <c r="I30" s="186"/>
       <c r="J30" s="184" t="s">
         <v>395</v>
       </c>
       <c r="K30" s="184"/>
       <c r="L30" s="184" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="M30" s="64"/>
     </row>
-    <row r="31" spans="1:13" ht="44.25" customHeight="1">
+    <row r="31" spans="1:13" s="51" customFormat="1" ht="36">
       <c r="A31" s="170" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="B31" s="165" t="s">
         <v>5</v>
@@ -9207,20 +9209,22 @@
       <c r="C31" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D31" s="175" t="s">
-        <v>165</v>
-      </c>
-      <c r="E31" s="181" t="s">
-        <v>787</v>
+      <c r="D31" s="165">
+        <v>40</v>
+      </c>
+      <c r="E31" s="165" t="s">
+        <v>92</v>
       </c>
       <c r="F31" s="165" t="s">
-        <v>514</v>
-      </c>
-      <c r="G31" s="165"/>
+        <v>513</v>
+      </c>
+      <c r="G31" s="165" t="s">
+        <v>204</v>
+      </c>
       <c r="H31" s="165" t="s">
-        <v>508</v>
-      </c>
-      <c r="I31" s="187"/>
+        <v>516</v>
+      </c>
+      <c r="I31" s="186"/>
       <c r="J31" s="184" t="s">
         <v>395</v>
       </c>
@@ -9228,198 +9232,196 @@
       <c r="L31" s="184" t="s">
         <v>963</v>
       </c>
-      <c r="M31" s="200"/>
-    </row>
-    <row r="32" spans="1:13" s="51" customFormat="1">
-      <c r="A32" s="164" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="169" t="s">
+      <c r="M31" s="64"/>
+    </row>
+    <row r="32" spans="1:13" s="51" customFormat="1" ht="24" customHeight="1">
+      <c r="A32" s="170" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="165" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" s="165">
         <v>1</v>
       </c>
-      <c r="C32" s="174" t="s">
-        <v>220</v>
-      </c>
-      <c r="D32" s="174" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="171" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="171" t="s">
-        <v>65</v>
-      </c>
-      <c r="G32" s="169" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="169" t="s">
-        <v>71</v>
-      </c>
-      <c r="I32" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="174" t="s">
-        <v>367</v>
-      </c>
-      <c r="K32" s="174" t="s">
-        <v>408</v>
-      </c>
-      <c r="L32" s="174" t="s">
-        <v>412</v>
-      </c>
-      <c r="M32" s="174" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="24">
+      <c r="E32" s="165" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="165" t="s">
+        <v>174</v>
+      </c>
+      <c r="G32" s="165"/>
+      <c r="H32" s="165" t="s">
+        <v>859</v>
+      </c>
+      <c r="I32" s="186"/>
+      <c r="J32" s="184" t="s">
+        <v>395</v>
+      </c>
+      <c r="K32" s="184"/>
+      <c r="L32" s="184" t="s">
+        <v>963</v>
+      </c>
+      <c r="M32" s="64"/>
+    </row>
+    <row r="33" spans="1:13" ht="44.25" customHeight="1">
       <c r="A33" s="170" t="s">
-        <v>611</v>
-      </c>
-      <c r="B33" s="180" t="s">
-        <v>7</v>
+        <v>146</v>
+      </c>
+      <c r="B33" s="165" t="s">
+        <v>5</v>
       </c>
       <c r="C33" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D33" s="179">
-        <v>283.7</v>
-      </c>
-      <c r="E33" s="180" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" s="180"/>
-      <c r="G33" s="167"/>
-      <c r="H33" s="188" t="s">
-        <v>541</v>
+      <c r="D33" s="175" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="181" t="s">
+        <v>787</v>
+      </c>
+      <c r="F33" s="165" t="s">
+        <v>514</v>
+      </c>
+      <c r="G33" s="165"/>
+      <c r="H33" s="165" t="s">
+        <v>508</v>
       </c>
       <c r="I33" s="187"/>
       <c r="J33" s="184" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K33" s="184"/>
       <c r="L33" s="184" t="s">
         <v>963</v>
       </c>
-      <c r="M33" s="201" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="36">
+      <c r="M33" s="200"/>
+    </row>
+    <row r="34" spans="1:13" ht="44.25" customHeight="1">
       <c r="A34" s="170" t="s">
-        <v>612</v>
-      </c>
-      <c r="B34" s="180" t="s">
-        <v>528</v>
+        <v>1093</v>
+      </c>
+      <c r="B34" s="165" t="s">
+        <v>5</v>
       </c>
       <c r="C34" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D34" s="179">
-        <v>94.7</v>
+      <c r="D34" s="179" t="s">
+        <v>165</v>
       </c>
       <c r="E34" s="180" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" s="180"/>
+        <v>522</v>
+      </c>
+      <c r="F34" s="180" t="s">
+        <v>523</v>
+      </c>
       <c r="G34" s="167"/>
       <c r="H34" s="189" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="I34" s="187"/>
       <c r="J34" s="184" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K34" s="184"/>
       <c r="L34" s="184" t="s">
         <v>963</v>
       </c>
-      <c r="M34" s="201" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+    </row>
+    <row r="35" spans="1:13" ht="44.25" customHeight="1">
       <c r="A35" s="170" t="s">
-        <v>613</v>
-      </c>
-      <c r="B35" s="180" t="s">
-        <v>7</v>
+        <v>1094</v>
+      </c>
+      <c r="B35" s="165" t="s">
+        <v>5</v>
       </c>
       <c r="C35" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D35" s="175">
-        <v>68.099999999999994</v>
+      <c r="D35" s="179" t="s">
+        <v>167</v>
       </c>
       <c r="E35" s="180" t="s">
-        <v>94</v>
-      </c>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="189"/>
+        <v>868</v>
+      </c>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
       <c r="I35" s="187"/>
       <c r="J35" s="184" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K35" s="184"/>
       <c r="L35" s="184" t="s">
         <v>963</v>
       </c>
-      <c r="M35" s="201" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="170" t="s">
-        <v>614</v>
-      </c>
-      <c r="B36" s="180" t="s">
-        <v>528</v>
-      </c>
-      <c r="C36" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="175">
-        <v>11.4</v>
-      </c>
-      <c r="E36" s="180" t="s">
+    </row>
+    <row r="36" spans="1:13" s="51" customFormat="1">
+      <c r="A36" s="164" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="169" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="174" t="s">
+        <v>220</v>
+      </c>
+      <c r="D36" s="174" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="171" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="171" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="169" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="169" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="171" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="174" t="s">
+        <v>367</v>
+      </c>
+      <c r="K36" s="174" t="s">
+        <v>408</v>
+      </c>
+      <c r="L36" s="174" t="s">
+        <v>412</v>
+      </c>
+      <c r="M36" s="174" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="24">
+      <c r="A37" s="170" t="s">
+        <v>611</v>
+      </c>
+      <c r="B37" s="180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="179">
+        <v>283.7</v>
+      </c>
+      <c r="E37" s="180" t="s">
         <v>94</v>
       </c>
-      <c r="F36" s="180"/>
-      <c r="G36" s="180"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="187"/>
-      <c r="J36" s="184" t="s">
-        <v>396</v>
-      </c>
-      <c r="K36" s="184"/>
-      <c r="L36" s="184" t="s">
-        <v>963</v>
-      </c>
-      <c r="M36" s="201" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="170" t="s">
-        <v>953</v>
-      </c>
-      <c r="B37" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="D37" s="175">
-        <v>40</v>
-      </c>
-      <c r="E37" s="180" t="s">
-        <v>954</v>
-      </c>
-      <c r="F37" s="180">
-        <v>409</v>
-      </c>
-      <c r="G37" s="180"/>
-      <c r="H37" s="192"/>
+      <c r="F37" s="180"/>
+      <c r="G37" s="167"/>
+      <c r="H37" s="188" t="s">
+        <v>541</v>
+      </c>
       <c r="I37" s="187"/>
       <c r="J37" s="184" t="s">
         <v>396</v>
@@ -9428,28 +9430,30 @@
       <c r="L37" s="184" t="s">
         <v>963</v>
       </c>
-      <c r="M37" s="200"/>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="M37" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="36">
       <c r="A38" s="170" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B38" s="180" t="s">
-        <v>7</v>
+        <v>528</v>
       </c>
       <c r="C38" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D38" s="175">
-        <v>397.2</v>
+      <c r="D38" s="179">
+        <v>94.7</v>
       </c>
       <c r="E38" s="180" t="s">
         <v>94</v>
       </c>
       <c r="F38" s="180"/>
-      <c r="G38" s="180"/>
-      <c r="H38" s="188" t="s">
-        <v>543</v>
+      <c r="G38" s="167"/>
+      <c r="H38" s="189" t="s">
+        <v>554</v>
       </c>
       <c r="I38" s="187"/>
       <c r="J38" s="184" t="s">
@@ -9465,16 +9469,16 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="170" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B39" s="180" t="s">
-        <v>528</v>
+        <v>7</v>
       </c>
       <c r="C39" s="165" t="s">
         <v>166</v>
       </c>
       <c r="D39" s="175">
-        <v>4.7</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="E39" s="180" t="s">
         <v>94</v>
@@ -9496,22 +9500,22 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="170" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B40" s="180" t="s">
-        <v>7</v>
+        <v>528</v>
       </c>
       <c r="C40" s="165" t="s">
         <v>166</v>
       </c>
       <c r="D40" s="175">
-        <v>283.7</v>
+        <v>11.4</v>
       </c>
       <c r="E40" s="180" t="s">
         <v>94</v>
       </c>
-      <c r="F40" s="165"/>
-      <c r="G40" s="165"/>
+      <c r="F40" s="180"/>
+      <c r="G40" s="180"/>
       <c r="H40" s="189"/>
       <c r="I40" s="187"/>
       <c r="J40" s="184" t="s">
@@ -9527,23 +9531,25 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="170" t="s">
-        <v>618</v>
+        <v>953</v>
       </c>
       <c r="B41" s="180" t="s">
-        <v>528</v>
+        <v>5</v>
       </c>
       <c r="C41" s="165" t="s">
         <v>166</v>
       </c>
       <c r="D41" s="175">
-        <v>4.7</v>
+        <v>40</v>
       </c>
       <c r="E41" s="180" t="s">
-        <v>94</v>
-      </c>
-      <c r="F41" s="180"/>
+        <v>954</v>
+      </c>
+      <c r="F41" s="180">
+        <v>409</v>
+      </c>
       <c r="G41" s="180"/>
-      <c r="H41" s="189"/>
+      <c r="H41" s="192"/>
       <c r="I41" s="187"/>
       <c r="J41" s="184" t="s">
         <v>396</v>
@@ -9552,13 +9558,11 @@
       <c r="L41" s="184" t="s">
         <v>963</v>
       </c>
-      <c r="M41" s="201" t="s">
-        <v>1090</v>
-      </c>
+      <c r="M41" s="200"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="170" t="s">
-        <v>669</v>
+        <v>615</v>
       </c>
       <c r="B42" s="180" t="s">
         <v>7</v>
@@ -9566,15 +9570,17 @@
       <c r="C42" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D42" s="175" t="s">
-        <v>761</v>
-      </c>
-      <c r="E42" s="183" t="s">
-        <v>760</v>
-      </c>
-      <c r="F42" s="166"/>
-      <c r="G42" s="166"/>
-      <c r="H42" s="189"/>
+      <c r="D42" s="175">
+        <v>397.2</v>
+      </c>
+      <c r="E42" s="180" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="180"/>
+      <c r="G42" s="180"/>
+      <c r="H42" s="188" t="s">
+        <v>543</v>
+      </c>
       <c r="I42" s="187"/>
       <c r="J42" s="184" t="s">
         <v>396</v>
@@ -9589,7 +9595,7 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="170" t="s">
-        <v>670</v>
+        <v>616</v>
       </c>
       <c r="B43" s="180" t="s">
         <v>528</v>
@@ -9598,7 +9604,7 @@
         <v>166</v>
       </c>
       <c r="D43" s="175">
-        <v>18.600000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="E43" s="180" t="s">
         <v>94</v>
@@ -9618,9 +9624,9 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="24">
+    <row r="44" spans="1:13">
       <c r="A44" s="170" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B44" s="180" t="s">
         <v>7</v>
@@ -9629,16 +9635,14 @@
         <v>166</v>
       </c>
       <c r="D44" s="175">
-        <v>107.8</v>
+        <v>283.7</v>
       </c>
       <c r="E44" s="180" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="180"/>
-      <c r="G44" s="181"/>
-      <c r="H44" s="188" t="s">
-        <v>546</v>
-      </c>
+      <c r="F44" s="165"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="189"/>
       <c r="I44" s="187"/>
       <c r="J44" s="184" t="s">
         <v>396</v>
@@ -9653,7 +9657,7 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="170" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B45" s="180" t="s">
         <v>528</v>
@@ -9662,13 +9666,13 @@
         <v>166</v>
       </c>
       <c r="D45" s="175">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="E45" s="180" t="s">
         <v>94</v>
       </c>
-      <c r="F45" s="181"/>
-      <c r="G45" s="181"/>
+      <c r="F45" s="180"/>
+      <c r="G45" s="180"/>
       <c r="H45" s="189"/>
       <c r="I45" s="187"/>
       <c r="J45" s="184" t="s">
@@ -9682,9 +9686,9 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="24">
+    <row r="46" spans="1:13">
       <c r="A46" s="170" t="s">
-        <v>621</v>
+        <v>669</v>
       </c>
       <c r="B46" s="180" t="s">
         <v>7</v>
@@ -9692,17 +9696,15 @@
       <c r="C46" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D46" s="179">
-        <v>56.7</v>
-      </c>
-      <c r="E46" s="180" t="s">
-        <v>94</v>
-      </c>
-      <c r="F46" s="180"/>
-      <c r="G46" s="167"/>
-      <c r="H46" s="188" t="s">
-        <v>542</v>
-      </c>
+      <c r="D46" s="175" t="s">
+        <v>761</v>
+      </c>
+      <c r="E46" s="183" t="s">
+        <v>760</v>
+      </c>
+      <c r="F46" s="166"/>
+      <c r="G46" s="166"/>
+      <c r="H46" s="189"/>
       <c r="I46" s="187"/>
       <c r="J46" s="184" t="s">
         <v>396</v>
@@ -9717,7 +9719,7 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="170" t="s">
-        <v>965</v>
+        <v>670</v>
       </c>
       <c r="B47" s="180" t="s">
         <v>528</v>
@@ -9725,46 +9727,48 @@
       <c r="C47" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="179">
-        <v>1.23</v>
+      <c r="D47" s="175">
+        <v>18.600000000000001</v>
       </c>
       <c r="E47" s="180" t="s">
-        <v>970</v>
+        <v>94</v>
       </c>
       <c r="F47" s="180"/>
-      <c r="G47" s="167"/>
-      <c r="H47" s="188" t="s">
-        <v>971</v>
-      </c>
+      <c r="G47" s="180"/>
+      <c r="H47" s="189"/>
       <c r="I47" s="187"/>
       <c r="J47" s="184" t="s">
         <v>396</v>
       </c>
       <c r="K47" s="184"/>
-      <c r="L47" s="184"/>
+      <c r="L47" s="184" t="s">
+        <v>963</v>
+      </c>
       <c r="M47" s="201" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" ht="24">
       <c r="A48" s="170" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="B48" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="182" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D48" s="179" t="s">
-        <v>164</v>
+      <c r="C48" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="175">
+        <v>107.8</v>
       </c>
       <c r="E48" s="180" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="F48" s="180"/>
-      <c r="G48" s="167"/>
-      <c r="H48" s="189"/>
+      <c r="G48" s="181"/>
+      <c r="H48" s="188" t="s">
+        <v>546</v>
+      </c>
       <c r="I48" s="187"/>
       <c r="J48" s="184" t="s">
         <v>396</v>
@@ -9779,22 +9783,22 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="170" t="s">
-        <v>672</v>
+        <v>620</v>
       </c>
       <c r="B49" s="180" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="182" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D49" s="179" t="s">
-        <v>521</v>
+        <v>528</v>
+      </c>
+      <c r="C49" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="175">
+        <v>3.8</v>
       </c>
       <c r="E49" s="180" t="s">
-        <v>151</v>
-      </c>
-      <c r="F49" s="180"/>
-      <c r="G49" s="167"/>
+        <v>94</v>
+      </c>
+      <c r="F49" s="181"/>
+      <c r="G49" s="181"/>
       <c r="H49" s="189"/>
       <c r="I49" s="187"/>
       <c r="J49" s="184" t="s">
@@ -9808,25 +9812,27 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" ht="24">
       <c r="A50" s="170" t="s">
-        <v>671</v>
+        <v>621</v>
       </c>
       <c r="B50" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="182" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D50" s="179" t="s">
-        <v>512</v>
+        <v>7</v>
+      </c>
+      <c r="C50" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="179">
+        <v>56.7</v>
       </c>
       <c r="E50" s="180" t="s">
-        <v>868</v>
+        <v>94</v>
       </c>
       <c r="F50" s="180"/>
       <c r="G50" s="167"/>
-      <c r="H50" s="189"/>
+      <c r="H50" s="188" t="s">
+        <v>542</v>
+      </c>
       <c r="I50" s="187"/>
       <c r="J50" s="184" t="s">
         <v>396</v>
@@ -9839,56 +9845,52 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="48">
+    <row r="51" spans="1:13">
       <c r="A51" s="170" t="s">
-        <v>671</v>
+        <v>965</v>
       </c>
       <c r="B51" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="182" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D51" s="179" t="s">
-        <v>165</v>
+        <v>528</v>
+      </c>
+      <c r="C51" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="179">
+        <v>1.23</v>
       </c>
       <c r="E51" s="180" t="s">
-        <v>522</v>
-      </c>
-      <c r="F51" s="180" t="s">
-        <v>523</v>
-      </c>
+        <v>970</v>
+      </c>
+      <c r="F51" s="180"/>
       <c r="G51" s="167"/>
-      <c r="H51" s="189" t="s">
-        <v>524</v>
+      <c r="H51" s="188" t="s">
+        <v>971</v>
       </c>
       <c r="I51" s="187"/>
       <c r="J51" s="184" t="s">
         <v>396</v>
       </c>
       <c r="K51" s="184"/>
-      <c r="L51" s="184" t="s">
-        <v>963</v>
-      </c>
+      <c r="L51" s="184"/>
       <c r="M51" s="201" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="170" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B52" s="180" t="s">
-        <v>528</v>
-      </c>
-      <c r="C52" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="D52" s="179">
-        <v>94.7</v>
+        <v>7</v>
+      </c>
+      <c r="C52" s="182" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D52" s="179" t="s">
+        <v>164</v>
       </c>
       <c r="E52" s="180" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="F52" s="180"/>
       <c r="G52" s="167"/>
@@ -9905,27 +9907,25 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="24">
+    <row r="53" spans="1:13">
       <c r="A53" s="170" t="s">
-        <v>622</v>
+        <v>672</v>
       </c>
       <c r="B53" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="D53" s="184" t="s">
-        <v>759</v>
-      </c>
-      <c r="E53" s="183" t="s">
-        <v>760</v>
+      <c r="C53" s="182" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D53" s="179" t="s">
+        <v>521</v>
+      </c>
+      <c r="E53" s="180" t="s">
+        <v>151</v>
       </c>
       <c r="F53" s="180"/>
       <c r="G53" s="167"/>
-      <c r="H53" s="188" t="s">
-        <v>545</v>
-      </c>
+      <c r="H53" s="189"/>
       <c r="I53" s="187"/>
       <c r="J53" s="184" t="s">
         <v>396</v>
@@ -9938,27 +9938,25 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="24">
+    <row r="54" spans="1:13">
       <c r="A54" s="170" t="s">
-        <v>623</v>
+        <v>671</v>
       </c>
       <c r="B54" s="180" t="s">
-        <v>528</v>
-      </c>
-      <c r="C54" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="D54" s="175">
-        <v>9.3000000000000007</v>
+        <v>5</v>
+      </c>
+      <c r="C54" s="182" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D54" s="179" t="s">
+        <v>512</v>
       </c>
       <c r="E54" s="180" t="s">
-        <v>94</v>
+        <v>868</v>
       </c>
       <c r="F54" s="180"/>
       <c r="G54" s="167"/>
-      <c r="H54" s="189" t="s">
-        <v>553</v>
-      </c>
+      <c r="H54" s="189"/>
       <c r="I54" s="187"/>
       <c r="J54" s="184" t="s">
         <v>396</v>
@@ -9971,26 +9969,28 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="24">
+    <row r="55" spans="1:13" ht="48">
       <c r="A55" s="170" t="s">
-        <v>624</v>
+        <v>671</v>
       </c>
       <c r="B55" s="180" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="D55" s="179">
-        <v>85.7</v>
+        <v>5</v>
+      </c>
+      <c r="C55" s="182" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D55" s="179" t="s">
+        <v>165</v>
       </c>
       <c r="E55" s="180" t="s">
-        <v>94</v>
-      </c>
-      <c r="F55" s="180"/>
+        <v>522</v>
+      </c>
+      <c r="F55" s="180" t="s">
+        <v>523</v>
+      </c>
       <c r="G55" s="167"/>
-      <c r="H55" s="188" t="s">
-        <v>542</v>
+      <c r="H55" s="189" t="s">
+        <v>524</v>
       </c>
       <c r="I55" s="187"/>
       <c r="J55" s="184" t="s">
@@ -10006,7 +10006,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="170" t="s">
-        <v>968</v>
+        <v>673</v>
       </c>
       <c r="B56" s="180" t="s">
         <v>528</v>
@@ -10015,29 +10015,29 @@
         <v>166</v>
       </c>
       <c r="D56" s="179">
-        <v>2.5299999999999998</v>
+        <v>94.7</v>
       </c>
       <c r="E56" s="180" t="s">
-        <v>967</v>
+        <v>94</v>
       </c>
       <c r="F56" s="180"/>
       <c r="G56" s="167"/>
-      <c r="H56" s="188" t="s">
-        <v>966</v>
-      </c>
+      <c r="H56" s="189"/>
       <c r="I56" s="187"/>
       <c r="J56" s="184" t="s">
         <v>396</v>
       </c>
       <c r="K56" s="184"/>
-      <c r="L56" s="184"/>
+      <c r="L56" s="184" t="s">
+        <v>963</v>
+      </c>
       <c r="M56" s="201" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" ht="24">
       <c r="A57" s="170" t="s">
-        <v>645</v>
+        <v>622</v>
       </c>
       <c r="B57" s="180" t="s">
         <v>7</v>
@@ -10045,16 +10045,16 @@
       <c r="C57" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D57" s="179">
-        <v>96.5</v>
-      </c>
-      <c r="E57" s="180" t="s">
-        <v>94</v>
+      <c r="D57" s="184" t="s">
+        <v>759</v>
+      </c>
+      <c r="E57" s="183" t="s">
+        <v>760</v>
       </c>
       <c r="F57" s="180"/>
       <c r="G57" s="167"/>
       <c r="H57" s="188" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="I57" s="187"/>
       <c r="J57" s="184" t="s">
@@ -10068,9 +10068,9 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" ht="24">
       <c r="A58" s="170" t="s">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="B58" s="180" t="s">
         <v>528</v>
@@ -10078,15 +10078,17 @@
       <c r="C58" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D58" s="179">
-        <v>45</v>
+      <c r="D58" s="175">
+        <v>9.3000000000000007</v>
       </c>
       <c r="E58" s="180" t="s">
         <v>94</v>
       </c>
       <c r="F58" s="180"/>
       <c r="G58" s="167"/>
-      <c r="H58" s="189"/>
+      <c r="H58" s="189" t="s">
+        <v>553</v>
+      </c>
       <c r="I58" s="187"/>
       <c r="J58" s="184" t="s">
         <v>396</v>
@@ -10099,9 +10101,9 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" ht="24">
       <c r="A59" s="170" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="B59" s="180" t="s">
         <v>7</v>
@@ -10110,7 +10112,7 @@
         <v>166</v>
       </c>
       <c r="D59" s="179">
-        <v>65.3</v>
+        <v>85.7</v>
       </c>
       <c r="E59" s="180" t="s">
         <v>94</v>
@@ -10118,7 +10120,7 @@
       <c r="F59" s="180"/>
       <c r="G59" s="167"/>
       <c r="H59" s="188" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="I59" s="187"/>
       <c r="J59" s="184" t="s">
@@ -10134,7 +10136,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="170" t="s">
-        <v>648</v>
+        <v>968</v>
       </c>
       <c r="B60" s="180" t="s">
         <v>528</v>
@@ -10143,29 +10145,29 @@
         <v>166</v>
       </c>
       <c r="D60" s="179">
-        <v>45</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="E60" s="180" t="s">
-        <v>94</v>
+        <v>967</v>
       </c>
       <c r="F60" s="180"/>
       <c r="G60" s="167"/>
-      <c r="H60" s="189"/>
+      <c r="H60" s="188" t="s">
+        <v>966</v>
+      </c>
       <c r="I60" s="187"/>
       <c r="J60" s="184" t="s">
         <v>396</v>
       </c>
       <c r="K60" s="184"/>
-      <c r="L60" s="184" t="s">
-        <v>963</v>
-      </c>
+      <c r="L60" s="184"/>
       <c r="M60" s="201" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="170" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B61" s="180" t="s">
         <v>7</v>
@@ -10174,7 +10176,7 @@
         <v>166</v>
       </c>
       <c r="D61" s="179">
-        <v>192.9</v>
+        <v>96.5</v>
       </c>
       <c r="E61" s="180" t="s">
         <v>94</v>
@@ -10198,7 +10200,7 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="170" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B62" s="180" t="s">
         <v>528</v>
@@ -10229,7 +10231,7 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="170" t="s">
-        <v>625</v>
+        <v>647</v>
       </c>
       <c r="B63" s="180" t="s">
         <v>7</v>
@@ -10237,16 +10239,16 @@
       <c r="C63" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D63" s="175">
-        <v>601.5</v>
+      <c r="D63" s="179">
+        <v>65.3</v>
       </c>
       <c r="E63" s="180" t="s">
         <v>94</v>
       </c>
       <c r="F63" s="180"/>
-      <c r="G63" s="180"/>
+      <c r="G63" s="167"/>
       <c r="H63" s="188" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="I63" s="187"/>
       <c r="J63" s="184" t="s">
@@ -10262,7 +10264,7 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="170" t="s">
-        <v>626</v>
+        <v>648</v>
       </c>
       <c r="B64" s="180" t="s">
         <v>528</v>
@@ -10270,19 +10272,15 @@
       <c r="C64" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D64" s="175">
-        <v>24.2</v>
+      <c r="D64" s="179">
+        <v>45</v>
       </c>
       <c r="E64" s="180" t="s">
-        <v>92</v>
-      </c>
-      <c r="F64" s="180" t="s">
-        <v>219</v>
-      </c>
-      <c r="G64" s="180"/>
-      <c r="H64" s="189" t="s">
-        <v>552</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F64" s="180"/>
+      <c r="G64" s="167"/>
+      <c r="H64" s="189"/>
       <c r="I64" s="187"/>
       <c r="J64" s="184" t="s">
         <v>396</v>
@@ -10297,7 +10295,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="170" t="s">
-        <v>627</v>
+        <v>649</v>
       </c>
       <c r="B65" s="180" t="s">
         <v>7</v>
@@ -10306,15 +10304,15 @@
         <v>166</v>
       </c>
       <c r="D65" s="179">
-        <v>794.4</v>
+        <v>192.9</v>
       </c>
       <c r="E65" s="180" t="s">
         <v>94</v>
       </c>
       <c r="F65" s="180"/>
-      <c r="G65" s="180"/>
+      <c r="G65" s="167"/>
       <c r="H65" s="188" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I65" s="187"/>
       <c r="J65" s="184" t="s">
@@ -10330,7 +10328,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="170" t="s">
-        <v>628</v>
+        <v>650</v>
       </c>
       <c r="B66" s="180" t="s">
         <v>528</v>
@@ -10339,13 +10337,13 @@
         <v>166</v>
       </c>
       <c r="D66" s="179">
-        <v>16.100000000000001</v>
+        <v>45</v>
       </c>
       <c r="E66" s="180" t="s">
         <v>94</v>
       </c>
       <c r="F66" s="180"/>
-      <c r="G66" s="180"/>
+      <c r="G66" s="167"/>
       <c r="H66" s="189"/>
       <c r="I66" s="187"/>
       <c r="J66" s="184" t="s">
@@ -10361,7 +10359,7 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="170" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B67" s="180" t="s">
         <v>7</v>
@@ -10369,16 +10367,16 @@
       <c r="C67" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D67" s="179">
-        <v>39.700000000000003</v>
+      <c r="D67" s="175">
+        <v>601.5</v>
       </c>
       <c r="E67" s="180" t="s">
         <v>94</v>
       </c>
       <c r="F67" s="180"/>
-      <c r="G67" s="178"/>
+      <c r="G67" s="180"/>
       <c r="H67" s="188" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I67" s="187"/>
       <c r="J67" s="184" t="s">
@@ -10394,7 +10392,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="170" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B68" s="180" t="s">
         <v>528</v>
@@ -10402,15 +10400,19 @@
       <c r="C68" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D68" s="179">
-        <v>3.8</v>
+      <c r="D68" s="175">
+        <v>24.2</v>
       </c>
       <c r="E68" s="180" t="s">
-        <v>94</v>
-      </c>
-      <c r="F68" s="180"/>
-      <c r="G68" s="178"/>
-      <c r="H68" s="189"/>
+        <v>92</v>
+      </c>
+      <c r="F68" s="180" t="s">
+        <v>219</v>
+      </c>
+      <c r="G68" s="180"/>
+      <c r="H68" s="189" t="s">
+        <v>552</v>
+      </c>
       <c r="I68" s="187"/>
       <c r="J68" s="184" t="s">
         <v>396</v>
@@ -10425,7 +10427,7 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="170" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="B69" s="180" t="s">
         <v>7</v>
@@ -10434,15 +10436,15 @@
         <v>166</v>
       </c>
       <c r="D69" s="179">
-        <v>192.9</v>
+        <v>794.4</v>
       </c>
       <c r="E69" s="180" t="s">
         <v>94</v>
       </c>
       <c r="F69" s="180"/>
-      <c r="G69" s="167"/>
+      <c r="G69" s="180"/>
       <c r="H69" s="188" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I69" s="187"/>
       <c r="J69" s="184" t="s">
@@ -10458,7 +10460,7 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="170" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B70" s="180" t="s">
         <v>528</v>
@@ -10467,13 +10469,13 @@
         <v>166</v>
       </c>
       <c r="D70" s="179">
-        <v>94.7</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E70" s="180" t="s">
         <v>94</v>
       </c>
       <c r="F70" s="180"/>
-      <c r="G70" s="167"/>
+      <c r="G70" s="180"/>
       <c r="H70" s="189"/>
       <c r="I70" s="187"/>
       <c r="J70" s="184" t="s">
@@ -10489,25 +10491,25 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="170" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
       <c r="B71" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="182" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D71" s="179" t="s">
-        <v>512</v>
-      </c>
-      <c r="E71" s="181" t="s">
-        <v>787</v>
-      </c>
-      <c r="F71" s="180" t="s">
-        <v>514</v>
-      </c>
-      <c r="G71" s="167"/>
-      <c r="H71" s="189"/>
+        <v>7</v>
+      </c>
+      <c r="C71" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" s="179">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="E71" s="180" t="s">
+        <v>94</v>
+      </c>
+      <c r="F71" s="180"/>
+      <c r="G71" s="178"/>
+      <c r="H71" s="188" t="s">
+        <v>549</v>
+      </c>
       <c r="I71" s="187"/>
       <c r="J71" s="184" t="s">
         <v>396</v>
@@ -10522,24 +10524,22 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="170" t="s">
-        <v>653</v>
+        <v>630</v>
       </c>
       <c r="B72" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="182" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D72" s="179" t="s">
-        <v>167</v>
-      </c>
-      <c r="E72" s="181" t="s">
-        <v>787</v>
-      </c>
-      <c r="F72" s="180" t="s">
-        <v>514</v>
-      </c>
-      <c r="G72" s="167"/>
+        <v>528</v>
+      </c>
+      <c r="C72" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72" s="179">
+        <v>3.8</v>
+      </c>
+      <c r="E72" s="180" t="s">
+        <v>94</v>
+      </c>
+      <c r="F72" s="180"/>
+      <c r="G72" s="178"/>
       <c r="H72" s="189"/>
       <c r="I72" s="187"/>
       <c r="J72" s="184" t="s">
@@ -10555,7 +10555,7 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="170" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B73" s="180" t="s">
         <v>7</v>
@@ -10564,7 +10564,7 @@
         <v>166</v>
       </c>
       <c r="D73" s="179">
-        <v>130.5</v>
+        <v>192.9</v>
       </c>
       <c r="E73" s="180" t="s">
         <v>94</v>
@@ -10588,7 +10588,7 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="170" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B74" s="180" t="s">
         <v>528</v>
@@ -10619,27 +10619,25 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="170" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B75" s="180" t="s">
         <v>5</v>
       </c>
       <c r="C75" s="182" t="s">
-        <v>166</v>
+        <v>1041</v>
       </c>
       <c r="D75" s="179" t="s">
         <v>512</v>
       </c>
-      <c r="E75" s="180" t="s">
+      <c r="E75" s="181" t="s">
         <v>787</v>
       </c>
       <c r="F75" s="180" t="s">
         <v>514</v>
       </c>
       <c r="G75" s="167"/>
-      <c r="H75" s="189" t="s">
-        <v>757</v>
-      </c>
+      <c r="H75" s="189"/>
       <c r="I75" s="187"/>
       <c r="J75" s="184" t="s">
         <v>396</v>
@@ -10654,25 +10652,25 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="170" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B76" s="180" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="D76" s="179">
-        <v>385.8</v>
-      </c>
-      <c r="E76" s="180" t="s">
-        <v>94</v>
-      </c>
-      <c r="F76" s="180"/>
+        <v>5</v>
+      </c>
+      <c r="C76" s="182" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D76" s="179" t="s">
+        <v>167</v>
+      </c>
+      <c r="E76" s="181" t="s">
+        <v>787</v>
+      </c>
+      <c r="F76" s="180" t="s">
+        <v>514</v>
+      </c>
       <c r="G76" s="167"/>
-      <c r="H76" s="188" t="s">
-        <v>550</v>
-      </c>
+      <c r="H76" s="189"/>
       <c r="I76" s="187"/>
       <c r="J76" s="184" t="s">
         <v>396</v>
@@ -10687,23 +10685,25 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="170" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B77" s="180" t="s">
-        <v>528</v>
+        <v>7</v>
       </c>
       <c r="C77" s="165" t="s">
         <v>166</v>
       </c>
       <c r="D77" s="179">
-        <v>94.7</v>
+        <v>130.5</v>
       </c>
       <c r="E77" s="180" t="s">
         <v>94</v>
       </c>
       <c r="F77" s="180"/>
       <c r="G77" s="167"/>
-      <c r="H77" s="189"/>
+      <c r="H77" s="188" t="s">
+        <v>550</v>
+      </c>
       <c r="I77" s="187"/>
       <c r="J77" s="184" t="s">
         <v>396</v>
@@ -10716,29 +10716,25 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="36">
+    <row r="78" spans="1:13">
       <c r="A78" s="170" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B78" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" s="182" t="s">
-        <v>166</v>
-      </c>
-      <c r="D78" s="179" t="s">
-        <v>512</v>
+        <v>528</v>
+      </c>
+      <c r="C78" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D78" s="179">
+        <v>94.7</v>
       </c>
       <c r="E78" s="180" t="s">
-        <v>787</v>
-      </c>
-      <c r="F78" s="180" t="s">
-        <v>514</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F78" s="180"/>
       <c r="G78" s="167"/>
-      <c r="H78" s="189" t="s">
-        <v>758</v>
-      </c>
+      <c r="H78" s="189"/>
       <c r="I78" s="187"/>
       <c r="J78" s="184" t="s">
         <v>396</v>
@@ -10751,26 +10747,28 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="24">
+    <row r="79" spans="1:13">
       <c r="A79" s="170" t="s">
-        <v>631</v>
+        <v>656</v>
       </c>
       <c r="B79" s="180" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="D79" s="179">
-        <v>56.7</v>
+        <v>5</v>
+      </c>
+      <c r="C79" s="182" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79" s="179" t="s">
+        <v>512</v>
       </c>
       <c r="E79" s="180" t="s">
-        <v>94</v>
-      </c>
-      <c r="F79" s="180"/>
+        <v>787</v>
+      </c>
+      <c r="F79" s="180" t="s">
+        <v>514</v>
+      </c>
       <c r="G79" s="167"/>
-      <c r="H79" s="188" t="s">
-        <v>542</v>
+      <c r="H79" s="189" t="s">
+        <v>757</v>
       </c>
       <c r="I79" s="187"/>
       <c r="J79" s="184" t="s">
@@ -10786,56 +10784,56 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="170" t="s">
-        <v>972</v>
+        <v>657</v>
       </c>
       <c r="B80" s="180" t="s">
-        <v>528</v>
+        <v>7</v>
       </c>
       <c r="C80" s="165" t="s">
         <v>166</v>
       </c>
       <c r="D80" s="179">
-        <v>1.23</v>
+        <v>385.8</v>
       </c>
       <c r="E80" s="180" t="s">
-        <v>970</v>
+        <v>94</v>
       </c>
       <c r="F80" s="180"/>
       <c r="G80" s="167"/>
       <c r="H80" s="188" t="s">
-        <v>971</v>
+        <v>550</v>
       </c>
       <c r="I80" s="187"/>
       <c r="J80" s="184" t="s">
         <v>396</v>
       </c>
       <c r="K80" s="184"/>
-      <c r="L80" s="184"/>
+      <c r="L80" s="184" t="s">
+        <v>963</v>
+      </c>
       <c r="M80" s="201" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="48">
+    <row r="81" spans="1:13">
       <c r="A81" s="170" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B81" s="180" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="182" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D81" s="179" t="s">
-        <v>525</v>
+        <v>528</v>
+      </c>
+      <c r="C81" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" s="179">
+        <v>94.7</v>
       </c>
       <c r="E81" s="180" t="s">
-        <v>869</v>
+        <v>94</v>
       </c>
       <c r="F81" s="180"/>
       <c r="G81" s="167"/>
-      <c r="H81" s="188" t="s">
-        <v>544</v>
-      </c>
+      <c r="H81" s="189"/>
       <c r="I81" s="187"/>
       <c r="J81" s="184" t="s">
         <v>396</v>
@@ -10848,25 +10846,29 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="24">
+    <row r="82" spans="1:13" ht="36">
       <c r="A82" s="170" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B82" s="180" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C82" s="182" t="s">
-        <v>1042</v>
+        <v>166</v>
       </c>
       <c r="D82" s="179" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="E82" s="180" t="s">
-        <v>869</v>
-      </c>
-      <c r="F82" s="180"/>
+        <v>787</v>
+      </c>
+      <c r="F82" s="180" t="s">
+        <v>514</v>
+      </c>
       <c r="G82" s="167"/>
-      <c r="H82" s="189"/>
+      <c r="H82" s="189" t="s">
+        <v>758</v>
+      </c>
       <c r="I82" s="187"/>
       <c r="J82" s="184" t="s">
         <v>396</v>
@@ -10879,26 +10881,26 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="36">
+    <row r="83" spans="1:13" ht="24">
       <c r="A83" s="170" t="s">
-        <v>661</v>
+        <v>631</v>
       </c>
       <c r="B83" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="182" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D83" s="179" t="s">
-        <v>517</v>
+        <v>7</v>
+      </c>
+      <c r="C83" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" s="179">
+        <v>56.7</v>
       </c>
       <c r="E83" s="180" t="s">
-        <v>868</v>
+        <v>94</v>
       </c>
       <c r="F83" s="180"/>
       <c r="G83" s="167"/>
-      <c r="H83" s="189" t="s">
-        <v>518</v>
+      <c r="H83" s="188" t="s">
+        <v>542</v>
       </c>
       <c r="I83" s="187"/>
       <c r="J83" s="184" t="s">
@@ -10914,54 +10916,56 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="170" t="s">
-        <v>661</v>
+        <v>972</v>
       </c>
       <c r="B84" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" s="182" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D84" s="179" t="s">
-        <v>167</v>
+        <v>528</v>
+      </c>
+      <c r="C84" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" s="179">
+        <v>1.23</v>
       </c>
       <c r="E84" s="180" t="s">
-        <v>868</v>
+        <v>970</v>
       </c>
       <c r="F84" s="180"/>
       <c r="G84" s="167"/>
-      <c r="H84" s="189"/>
+      <c r="H84" s="188" t="s">
+        <v>971</v>
+      </c>
       <c r="I84" s="187"/>
       <c r="J84" s="184" t="s">
         <v>396</v>
       </c>
       <c r="K84" s="184"/>
-      <c r="L84" s="184" t="s">
-        <v>963</v>
-      </c>
+      <c r="L84" s="184"/>
       <c r="M84" s="201" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" ht="48">
       <c r="A85" s="170" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B85" s="180" t="s">
-        <v>528</v>
-      </c>
-      <c r="C85" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="D85" s="179">
-        <v>94.7</v>
+        <v>7</v>
+      </c>
+      <c r="C85" s="182" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D85" s="179" t="s">
+        <v>525</v>
       </c>
       <c r="E85" s="180" t="s">
-        <v>94</v>
+        <v>869</v>
       </c>
       <c r="F85" s="180"/>
       <c r="G85" s="167"/>
-      <c r="H85" s="189"/>
+      <c r="H85" s="188" t="s">
+        <v>544</v>
+      </c>
       <c r="I85" s="187"/>
       <c r="J85" s="184" t="s">
         <v>396</v>
@@ -10976,25 +10980,23 @@
     </row>
     <row r="86" spans="1:13" ht="24">
       <c r="A86" s="170" t="s">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="B86" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="D86" s="184" t="s">
-        <v>759</v>
-      </c>
-      <c r="E86" s="183" t="s">
-        <v>760</v>
+      <c r="C86" s="182" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D86" s="179" t="s">
+        <v>526</v>
+      </c>
+      <c r="E86" s="180" t="s">
+        <v>869</v>
       </c>
       <c r="F86" s="180"/>
       <c r="G86" s="167"/>
-      <c r="H86" s="188" t="s">
-        <v>545</v>
-      </c>
+      <c r="H86" s="189"/>
       <c r="I86" s="187"/>
       <c r="J86" s="184" t="s">
         <v>396</v>
@@ -11007,26 +11009,26 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="24">
+    <row r="87" spans="1:13" ht="36">
       <c r="A87" s="170" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="B87" s="180" t="s">
-        <v>528</v>
-      </c>
-      <c r="C87" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="D87" s="175">
-        <v>9.3000000000000007</v>
+        <v>5</v>
+      </c>
+      <c r="C87" s="182" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D87" s="179" t="s">
+        <v>517</v>
       </c>
       <c r="E87" s="180" t="s">
-        <v>94</v>
+        <v>868</v>
       </c>
       <c r="F87" s="180"/>
       <c r="G87" s="167"/>
       <c r="H87" s="189" t="s">
-        <v>553</v>
+        <v>518</v>
       </c>
       <c r="I87" s="187"/>
       <c r="J87" s="184" t="s">
@@ -11040,27 +11042,25 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="24">
+    <row r="88" spans="1:13">
       <c r="A88" s="170" t="s">
-        <v>634</v>
+        <v>661</v>
       </c>
       <c r="B88" s="180" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="D88" s="179">
-        <v>85.7</v>
+        <v>5</v>
+      </c>
+      <c r="C88" s="182" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D88" s="179" t="s">
+        <v>167</v>
       </c>
       <c r="E88" s="180" t="s">
-        <v>94</v>
+        <v>868</v>
       </c>
       <c r="F88" s="180"/>
       <c r="G88" s="167"/>
-      <c r="H88" s="188" t="s">
-        <v>542</v>
-      </c>
+      <c r="H88" s="189"/>
       <c r="I88" s="187"/>
       <c r="J88" s="184" t="s">
         <v>396</v>
@@ -11075,7 +11075,7 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="170" t="s">
-        <v>969</v>
+        <v>662</v>
       </c>
       <c r="B89" s="180" t="s">
         <v>528</v>
@@ -11084,29 +11084,29 @@
         <v>166</v>
       </c>
       <c r="D89" s="179">
-        <v>2.5299999999999998</v>
+        <v>94.7</v>
       </c>
       <c r="E89" s="180" t="s">
-        <v>967</v>
+        <v>94</v>
       </c>
       <c r="F89" s="180"/>
       <c r="G89" s="167"/>
-      <c r="H89" s="188" t="s">
-        <v>966</v>
-      </c>
+      <c r="H89" s="189"/>
       <c r="I89" s="187"/>
       <c r="J89" s="184" t="s">
         <v>396</v>
       </c>
       <c r="K89" s="184"/>
-      <c r="L89" s="184"/>
+      <c r="L89" s="184" t="s">
+        <v>963</v>
+      </c>
       <c r="M89" s="201" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" ht="24">
       <c r="A90" s="170" t="s">
-        <v>663</v>
+        <v>632</v>
       </c>
       <c r="B90" s="180" t="s">
         <v>7</v>
@@ -11114,16 +11114,16 @@
       <c r="C90" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D90" s="179">
-        <v>96.5</v>
-      </c>
-      <c r="E90" s="180" t="s">
-        <v>94</v>
+      <c r="D90" s="184" t="s">
+        <v>759</v>
+      </c>
+      <c r="E90" s="183" t="s">
+        <v>760</v>
       </c>
       <c r="F90" s="180"/>
       <c r="G90" s="167"/>
       <c r="H90" s="188" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="I90" s="187"/>
       <c r="J90" s="184" t="s">
@@ -11137,9 +11137,9 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" ht="24">
       <c r="A91" s="170" t="s">
-        <v>664</v>
+        <v>633</v>
       </c>
       <c r="B91" s="180" t="s">
         <v>528</v>
@@ -11147,15 +11147,17 @@
       <c r="C91" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D91" s="179">
-        <v>49.7</v>
+      <c r="D91" s="175">
+        <v>9.3000000000000007</v>
       </c>
       <c r="E91" s="180" t="s">
         <v>94</v>
       </c>
       <c r="F91" s="180"/>
       <c r="G91" s="167"/>
-      <c r="H91" s="189"/>
+      <c r="H91" s="189" t="s">
+        <v>553</v>
+      </c>
       <c r="I91" s="187"/>
       <c r="J91" s="184" t="s">
         <v>396</v>
@@ -11168,9 +11170,9 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" ht="24">
       <c r="A92" s="170" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="B92" s="180" t="s">
         <v>7</v>
@@ -11179,7 +11181,7 @@
         <v>166</v>
       </c>
       <c r="D92" s="179">
-        <v>65.3</v>
+        <v>85.7</v>
       </c>
       <c r="E92" s="180" t="s">
         <v>94</v>
@@ -11187,7 +11189,7 @@
       <c r="F92" s="180"/>
       <c r="G92" s="167"/>
       <c r="H92" s="188" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="I92" s="187"/>
       <c r="J92" s="184" t="s">
@@ -11203,7 +11205,7 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="170" t="s">
-        <v>666</v>
+        <v>969</v>
       </c>
       <c r="B93" s="180" t="s">
         <v>528</v>
@@ -11212,29 +11214,29 @@
         <v>166</v>
       </c>
       <c r="D93" s="179">
-        <v>49.7</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="E93" s="180" t="s">
-        <v>94</v>
+        <v>967</v>
       </c>
       <c r="F93" s="180"/>
       <c r="G93" s="167"/>
-      <c r="H93" s="189"/>
+      <c r="H93" s="188" t="s">
+        <v>966</v>
+      </c>
       <c r="I93" s="187"/>
       <c r="J93" s="184" t="s">
         <v>396</v>
       </c>
       <c r="K93" s="184"/>
-      <c r="L93" s="184" t="s">
-        <v>963</v>
-      </c>
+      <c r="L93" s="184"/>
       <c r="M93" s="201" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="170" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B94" s="180" t="s">
         <v>7</v>
@@ -11243,13 +11245,13 @@
         <v>166</v>
       </c>
       <c r="D94" s="179">
-        <v>192.9</v>
+        <v>96.5</v>
       </c>
       <c r="E94" s="180" t="s">
         <v>94</v>
       </c>
       <c r="F94" s="180"/>
-      <c r="G94" s="180"/>
+      <c r="G94" s="167"/>
       <c r="H94" s="188" t="s">
         <v>550</v>
       </c>
@@ -11267,7 +11269,7 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="170" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B95" s="180" t="s">
         <v>528</v>
@@ -11282,7 +11284,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="180"/>
-      <c r="G95" s="180"/>
+      <c r="G95" s="167"/>
       <c r="H95" s="189"/>
       <c r="I95" s="187"/>
       <c r="J95" s="184" t="s">
@@ -11298,7 +11300,7 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="170" t="s">
-        <v>635</v>
+        <v>665</v>
       </c>
       <c r="B96" s="180" t="s">
         <v>7</v>
@@ -11307,15 +11309,15 @@
         <v>166</v>
       </c>
       <c r="D96" s="179">
-        <v>181.6</v>
+        <v>65.3</v>
       </c>
       <c r="E96" s="180" t="s">
         <v>94</v>
       </c>
       <c r="F96" s="180"/>
-      <c r="G96" s="180"/>
+      <c r="G96" s="167"/>
       <c r="H96" s="188" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="I96" s="187"/>
       <c r="J96" s="184" t="s">
@@ -11331,7 +11333,7 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="170" t="s">
-        <v>636</v>
+        <v>666</v>
       </c>
       <c r="B97" s="180" t="s">
         <v>528</v>
@@ -11340,13 +11342,13 @@
         <v>166</v>
       </c>
       <c r="D97" s="179">
-        <v>6.3</v>
+        <v>49.7</v>
       </c>
       <c r="E97" s="180" t="s">
         <v>94</v>
       </c>
       <c r="F97" s="180"/>
-      <c r="G97" s="180"/>
+      <c r="G97" s="167"/>
       <c r="H97" s="189"/>
       <c r="I97" s="187"/>
       <c r="J97" s="184" t="s">
@@ -11362,7 +11364,7 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="170" t="s">
-        <v>637</v>
+        <v>667</v>
       </c>
       <c r="B98" s="180" t="s">
         <v>7</v>
@@ -11370,15 +11372,17 @@
       <c r="C98" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D98" s="175">
-        <v>215.6</v>
+      <c r="D98" s="179">
+        <v>192.9</v>
       </c>
       <c r="E98" s="180" t="s">
         <v>94</v>
       </c>
       <c r="F98" s="180"/>
       <c r="G98" s="180"/>
-      <c r="H98" s="189"/>
+      <c r="H98" s="188" t="s">
+        <v>550</v>
+      </c>
       <c r="I98" s="187"/>
       <c r="J98" s="184" t="s">
         <v>396</v>
@@ -11393,7 +11397,7 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="170" t="s">
-        <v>638</v>
+        <v>668</v>
       </c>
       <c r="B99" s="180" t="s">
         <v>528</v>
@@ -11401,8 +11405,8 @@
       <c r="C99" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D99" s="175">
-        <v>9.5</v>
+      <c r="D99" s="179">
+        <v>49.7</v>
       </c>
       <c r="E99" s="180" t="s">
         <v>94</v>
@@ -11424,7 +11428,7 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="170" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B100" s="180" t="s">
         <v>7</v>
@@ -11432,15 +11436,17 @@
       <c r="C100" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D100" s="175">
-        <v>65.8</v>
+      <c r="D100" s="179">
+        <v>181.6</v>
       </c>
       <c r="E100" s="180" t="s">
         <v>94</v>
       </c>
       <c r="F100" s="180"/>
       <c r="G100" s="180"/>
-      <c r="H100" s="189"/>
+      <c r="H100" s="188" t="s">
+        <v>547</v>
+      </c>
       <c r="I100" s="187"/>
       <c r="J100" s="184" t="s">
         <v>396</v>
@@ -11455,7 +11461,7 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="170" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B101" s="180" t="s">
         <v>528</v>
@@ -11463,17 +11469,15 @@
       <c r="C101" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D101" s="175">
-        <v>2.4</v>
+      <c r="D101" s="179">
+        <v>6.3</v>
       </c>
       <c r="E101" s="180" t="s">
         <v>94</v>
       </c>
-      <c r="F101" s="165"/>
-      <c r="G101" s="165"/>
-      <c r="H101" s="188" t="s">
-        <v>551</v>
-      </c>
+      <c r="F101" s="180"/>
+      <c r="G101" s="180"/>
+      <c r="H101" s="189"/>
       <c r="I101" s="187"/>
       <c r="J101" s="184" t="s">
         <v>396</v>
@@ -11488,7 +11492,7 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="170" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B102" s="180" t="s">
         <v>7</v>
@@ -11497,13 +11501,13 @@
         <v>166</v>
       </c>
       <c r="D102" s="175">
-        <v>79.400000000000006</v>
+        <v>215.6</v>
       </c>
       <c r="E102" s="180" t="s">
         <v>94</v>
       </c>
       <c r="F102" s="180"/>
-      <c r="G102" s="167"/>
+      <c r="G102" s="180"/>
       <c r="H102" s="189"/>
       <c r="I102" s="187"/>
       <c r="J102" s="184" t="s">
@@ -11519,7 +11523,7 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="170" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B103" s="180" t="s">
         <v>528</v>
@@ -11528,13 +11532,13 @@
         <v>166</v>
       </c>
       <c r="D103" s="175">
-        <v>2.84</v>
+        <v>9.5</v>
       </c>
       <c r="E103" s="180" t="s">
         <v>94</v>
       </c>
       <c r="F103" s="180"/>
-      <c r="G103" s="167"/>
+      <c r="G103" s="180"/>
       <c r="H103" s="189"/>
       <c r="I103" s="187"/>
       <c r="J103" s="184" t="s">
@@ -11550,7 +11554,7 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="170" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B104" s="180" t="s">
         <v>7</v>
@@ -11558,18 +11562,16 @@
       <c r="C104" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D104" s="179">
-        <v>1032.7</v>
+      <c r="D104" s="175">
+        <v>65.8</v>
       </c>
       <c r="E104" s="180" t="s">
         <v>94</v>
       </c>
-      <c r="F104" s="183"/>
-      <c r="G104" s="168"/>
-      <c r="H104" s="188" t="s">
-        <v>547</v>
-      </c>
-      <c r="I104" s="177"/>
+      <c r="F104" s="180"/>
+      <c r="G104" s="180"/>
+      <c r="H104" s="189"/>
+      <c r="I104" s="187"/>
       <c r="J104" s="184" t="s">
         <v>396</v>
       </c>
@@ -11583,7 +11585,7 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="170" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B105" s="180" t="s">
         <v>528</v>
@@ -11591,16 +11593,18 @@
       <c r="C105" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="D105" s="179">
-        <v>94.7</v>
+      <c r="D105" s="175">
+        <v>2.4</v>
       </c>
       <c r="E105" s="180" t="s">
         <v>94</v>
       </c>
-      <c r="F105" s="183"/>
-      <c r="G105" s="168"/>
-      <c r="H105" s="190"/>
-      <c r="I105" s="177"/>
+      <c r="F105" s="165"/>
+      <c r="G105" s="165"/>
+      <c r="H105" s="188" t="s">
+        <v>551</v>
+      </c>
+      <c r="I105" s="187"/>
       <c r="J105" s="184" t="s">
         <v>396</v>
       </c>
@@ -11613,16 +11617,142 @@
       </c>
     </row>
     <row r="106" spans="1:13">
-      <c r="F106" s="28"/>
+      <c r="A106" s="170" t="s">
+        <v>641</v>
+      </c>
+      <c r="B106" s="180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D106" s="175">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="E106" s="180" t="s">
+        <v>94</v>
+      </c>
+      <c r="F106" s="180"/>
+      <c r="G106" s="167"/>
+      <c r="H106" s="189"/>
+      <c r="I106" s="187"/>
+      <c r="J106" s="184" t="s">
+        <v>396</v>
+      </c>
+      <c r="K106" s="184"/>
+      <c r="L106" s="184" t="s">
+        <v>963</v>
+      </c>
+      <c r="M106" s="201" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="107" spans="1:13">
-      <c r="F107" s="28"/>
+      <c r="A107" s="170" t="s">
+        <v>642</v>
+      </c>
+      <c r="B107" s="180" t="s">
+        <v>528</v>
+      </c>
+      <c r="C107" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D107" s="175">
+        <v>2.84</v>
+      </c>
+      <c r="E107" s="180" t="s">
+        <v>94</v>
+      </c>
+      <c r="F107" s="180"/>
+      <c r="G107" s="167"/>
+      <c r="H107" s="189"/>
+      <c r="I107" s="187"/>
+      <c r="J107" s="184" t="s">
+        <v>396</v>
+      </c>
+      <c r="K107" s="184"/>
+      <c r="L107" s="184" t="s">
+        <v>963</v>
+      </c>
+      <c r="M107" s="201" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="108" spans="1:13">
-      <c r="E108" s="28"/>
+      <c r="A108" s="170" t="s">
+        <v>643</v>
+      </c>
+      <c r="B108" s="180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D108" s="179">
+        <v>1032.7</v>
+      </c>
+      <c r="E108" s="180" t="s">
+        <v>94</v>
+      </c>
+      <c r="F108" s="183"/>
+      <c r="G108" s="168"/>
+      <c r="H108" s="188" t="s">
+        <v>547</v>
+      </c>
+      <c r="I108" s="177"/>
+      <c r="J108" s="184" t="s">
+        <v>396</v>
+      </c>
+      <c r="K108" s="184"/>
+      <c r="L108" s="184" t="s">
+        <v>963</v>
+      </c>
+      <c r="M108" s="201" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="E109" s="28"/>
+      <c r="A109" s="170" t="s">
+        <v>644</v>
+      </c>
+      <c r="B109" s="180" t="s">
+        <v>528</v>
+      </c>
+      <c r="C109" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D109" s="179">
+        <v>94.7</v>
+      </c>
+      <c r="E109" s="180" t="s">
+        <v>94</v>
+      </c>
+      <c r="F109" s="183"/>
+      <c r="G109" s="168"/>
+      <c r="H109" s="190"/>
+      <c r="I109" s="177"/>
+      <c r="J109" s="184" t="s">
+        <v>396</v>
+      </c>
+      <c r="K109" s="184"/>
+      <c r="L109" s="184" t="s">
+        <v>963</v>
+      </c>
+      <c r="M109" s="201" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="F110" s="28"/>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="F111" s="28"/>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="E112" s="28"/>
+    </row>
+    <row r="113" spans="5:5">
+      <c r="E113" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/human/adult/validation/SystemValidationData.xlsx
+++ b/data/human/adult/validation/SystemValidationData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.bray\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Pulse\engine\data\human\adult\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C559A11B-F4BE-4DC8-8349-03C4065E10AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F800B9A3-90DE-46F0-B93C-1046C2BBD25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="380" windowWidth="32400" windowHeight="10590" tabRatio="724" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="32620" windowHeight="21360" tabRatio="724" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blood Chemistry" sheetId="4" r:id="rId1"/>
@@ -8298,9 +8298,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12"/>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="K2" s="184"/>
       <c r="L2" s="184"/>
-      <c r="M2" s="64"/>
+      <c r="M2" s="200"/>
     </row>
     <row r="3" spans="1:13" ht="36.75" customHeight="1">
       <c r="A3" s="170" t="s">
@@ -8631,6 +8631,7 @@
       <c r="L10" s="184" t="s">
         <v>963</v>
       </c>
+      <c r="M10" s="200"/>
     </row>
     <row r="11" spans="1:13" ht="45.75" customHeight="1">
       <c r="A11" s="170" t="s">
@@ -8661,6 +8662,7 @@
       <c r="L11" s="184" t="s">
         <v>963</v>
       </c>
+      <c r="M11" s="200"/>
     </row>
     <row r="12" spans="1:13" ht="27.75" customHeight="1">
       <c r="A12" s="170" t="s">
@@ -8741,7 +8743,7 @@
       </c>
       <c r="K14" s="184"/>
       <c r="L14" s="184"/>
-      <c r="M14" s="64"/>
+      <c r="M14" s="200"/>
     </row>
     <row r="15" spans="1:13" ht="65.25" customHeight="1">
       <c r="A15" s="170" t="s">
@@ -8857,7 +8859,7 @@
       </c>
       <c r="K18" s="184"/>
       <c r="L18" s="184"/>
-      <c r="M18" s="64"/>
+      <c r="M18" s="200"/>
     </row>
     <row r="19" spans="1:13" s="51" customFormat="1">
       <c r="A19" s="172" t="s">
@@ -8878,7 +8880,7 @@
       </c>
       <c r="K19" s="184"/>
       <c r="L19" s="184"/>
-      <c r="M19" s="64"/>
+      <c r="M19" s="200"/>
     </row>
     <row r="20" spans="1:13" s="51" customFormat="1" ht="48">
       <c r="A20" s="170" t="s">
@@ -8911,7 +8913,7 @@
       <c r="L20" s="184" t="s">
         <v>963</v>
       </c>
-      <c r="M20" s="64"/>
+      <c r="M20" s="200"/>
     </row>
     <row r="21" spans="1:13" s="51" customFormat="1">
       <c r="A21" s="170" t="s">
@@ -8942,7 +8944,7 @@
       <c r="L21" s="184" t="s">
         <v>963</v>
       </c>
-      <c r="M21" s="64"/>
+      <c r="M21" s="200"/>
     </row>
     <row r="22" spans="1:13" s="51" customFormat="1" ht="24">
       <c r="A22" s="172" t="s">
@@ -8963,7 +8965,7 @@
       </c>
       <c r="K22" s="184"/>
       <c r="L22" s="184"/>
-      <c r="M22" s="64"/>
+      <c r="M22" s="200"/>
     </row>
     <row r="23" spans="1:13" ht="41.25" customHeight="1">
       <c r="A23" s="170" t="s">
@@ -9029,7 +9031,7 @@
       <c r="L24" s="184" t="s">
         <v>963</v>
       </c>
-      <c r="M24" s="64"/>
+      <c r="M24" s="200"/>
     </row>
     <row r="25" spans="1:13" s="51" customFormat="1">
       <c r="A25" s="170" t="s">
@@ -9058,7 +9060,7 @@
       <c r="L25" s="184" t="s">
         <v>963</v>
       </c>
-      <c r="M25" s="64"/>
+      <c r="M25" s="200"/>
     </row>
     <row r="26" spans="1:13" s="51" customFormat="1">
       <c r="A26" s="172" t="s">
@@ -9079,7 +9081,7 @@
       </c>
       <c r="K26" s="184"/>
       <c r="L26" s="184"/>
-      <c r="M26" s="64"/>
+      <c r="M26" s="200"/>
     </row>
     <row r="27" spans="1:13" s="51" customFormat="1">
       <c r="A27" s="172" t="s">
@@ -9100,7 +9102,7 @@
       </c>
       <c r="K27" s="184"/>
       <c r="L27" s="184"/>
-      <c r="M27" s="64"/>
+      <c r="M27" s="200"/>
     </row>
     <row r="28" spans="1:13" s="51" customFormat="1">
       <c r="A28" s="170" t="s">
@@ -9133,7 +9135,7 @@
       <c r="L28" s="184" t="s">
         <v>963</v>
       </c>
-      <c r="M28" s="64"/>
+      <c r="M28" s="200"/>
     </row>
     <row r="29" spans="1:13" s="51" customFormat="1">
       <c r="A29" s="170" t="s">
@@ -9164,7 +9166,7 @@
       <c r="L29" s="184" t="s">
         <v>961</v>
       </c>
-      <c r="M29" s="64"/>
+      <c r="M29" s="200"/>
     </row>
     <row r="30" spans="1:13" s="51" customFormat="1" ht="36">
       <c r="A30" s="170" t="s">
@@ -9197,7 +9199,7 @@
       <c r="L30" s="184" t="s">
         <v>961</v>
       </c>
-      <c r="M30" s="64"/>
+      <c r="M30" s="200"/>
     </row>
     <row r="31" spans="1:13" s="51" customFormat="1" ht="36">
       <c r="A31" s="170" t="s">
@@ -9232,7 +9234,7 @@
       <c r="L31" s="184" t="s">
         <v>963</v>
       </c>
-      <c r="M31" s="64"/>
+      <c r="M31" s="200"/>
     </row>
     <row r="32" spans="1:13" s="51" customFormat="1" ht="24" customHeight="1">
       <c r="A32" s="170" t="s">
@@ -9265,7 +9267,7 @@
       <c r="L32" s="184" t="s">
         <v>963</v>
       </c>
-      <c r="M32" s="64"/>
+      <c r="M32" s="200"/>
     </row>
     <row r="33" spans="1:13" ht="44.25" customHeight="1">
       <c r="A33" s="170" t="s">
@@ -9331,6 +9333,7 @@
       <c r="L34" s="184" t="s">
         <v>963</v>
       </c>
+      <c r="M34" s="200"/>
     </row>
     <row r="35" spans="1:13" ht="44.25" customHeight="1">
       <c r="A35" s="170" t="s">
@@ -9359,6 +9362,7 @@
       <c r="L35" s="184" t="s">
         <v>963</v>
       </c>
+      <c r="M35" s="200"/>
     </row>
     <row r="36" spans="1:13" s="51" customFormat="1">
       <c r="A36" s="164" t="s">

--- a/data/human/adult/validation/SystemValidationData.xlsx
+++ b/data/human/adult/validation/SystemValidationData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Patient" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4193" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4194" uniqueCount="1111">
   <si>
     <t xml:space="preserve">Patient Inputs</t>
   </si>
@@ -2413,6 +2413,9 @@
     <t xml:space="preserve">AlveolarDeadSpace</t>
   </si>
   <si>
+    <t xml:space="preserve">MeanPerIdealWeight(kg)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Levitzky2013pulmonary</t>
   </si>
   <si>
@@ -2431,6 +2434,9 @@
     <t xml:space="preserve">p71</t>
   </si>
   <si>
+    <t xml:space="preserve">150mL for standard male</t>
+  </si>
+  <si>
     <t xml:space="preserve">ChestWallCompliance</t>
   </si>
   <si>
@@ -2489,9 +2495,6 @@
   </si>
   <si>
     <t xml:space="preserve">ExpiratoryTidalVolume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MeanPerIdealWeight(kg)</t>
   </si>
   <si>
     <t xml:space="preserve">p290 App IV</t>
@@ -4116,7 +4119,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -4307,7 +4310,7 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -4534,7 +4537,7 @@
         <v>31</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="L1" s="12" t="s">
         <v>33</v>
@@ -4548,7 +4551,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="63" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>14</v>
@@ -4562,7 +4565,7 @@
         <v>200</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -4571,7 +4574,7 @@
         <v>200</v>
       </c>
       <c r="L2" s="62" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4" t="s">
@@ -4580,7 +4583,7 @@
     </row>
     <row r="3" s="1" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>17</v>
@@ -4599,16 +4602,16 @@
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="11" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="K3" s="8" t="n">
         <v>7363</v>
       </c>
       <c r="L3" s="62" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4" t="s">
@@ -4617,7 +4620,7 @@
     </row>
     <row r="4" s="1" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>17</v>
@@ -4637,13 +4640,13 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="15" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="L4" s="62" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4" t="s">
@@ -4652,7 +4655,7 @@
     </row>
     <row r="5" s="1" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="8" t="s">
@@ -4661,23 +4664,23 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="8" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="L5" s="62" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4" t="s">
@@ -4686,7 +4689,7 @@
     </row>
     <row r="6" s="1" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>17</v>
@@ -4704,14 +4707,14 @@
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="11" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8" t="n">
         <v>16700</v>
       </c>
       <c r="L6" s="62" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
@@ -4720,7 +4723,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="63" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>14</v>
@@ -4734,7 +4737,7 @@
         <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H7" s="61"/>
       <c r="I7" s="7"/>
@@ -4743,7 +4746,7 @@
         <v>250</v>
       </c>
       <c r="L7" s="62" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4" t="s">
@@ -4752,10 +4755,10 @@
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="63" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>38</v>
@@ -4766,10 +4769,10 @@
         <v>0.85</v>
       </c>
       <c r="G8" s="104" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H8" s="104" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="I8" s="104"/>
       <c r="J8" s="103"/>
@@ -4777,7 +4780,7 @@
         <v>0.85</v>
       </c>
       <c r="L8" s="62" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4" t="s">
@@ -4786,7 +4789,7 @@
     </row>
     <row r="9" s="1" customFormat="true" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
@@ -4816,7 +4819,7 @@
         <v>31</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>33</v>
@@ -4830,7 +4833,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="63" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>14</v>
@@ -4844,10 +4847,10 @@
         <v>-250</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="I10" s="105"/>
       <c r="J10" s="7"/>
@@ -4855,7 +4858,7 @@
         <v>250</v>
       </c>
       <c r="L10" s="62" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
@@ -4864,7 +4867,7 @@
     </row>
     <row r="11" s="1" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="63" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>14</v>
@@ -4878,10 +4881,10 @@
         <v>300</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="18"/>
@@ -4889,7 +4892,7 @@
         <v>300</v>
       </c>
       <c r="L11" s="62" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
@@ -4898,7 +4901,7 @@
     </row>
     <row r="12" s="1" customFormat="true" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
@@ -4928,7 +4931,7 @@
         <v>31</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>33</v>
@@ -4942,7 +4945,7 @@
     </row>
     <row r="13" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="31" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>17</v>
@@ -4956,20 +4959,20 @@
         <v>2127.6</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="33" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="K13" s="4" t="n">
         <v>3140</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4" t="s">
@@ -4978,7 +4981,7 @@
     </row>
     <row r="14" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="31" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>17</v>
@@ -4992,20 +4995,20 @@
         <v>267.92</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="33" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="K14" s="4" t="n">
         <v>3140</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
@@ -5014,7 +5017,7 @@
     </row>
     <row r="15" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="31" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>17</v>
@@ -5028,20 +5031,20 @@
         <v>808</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I15" s="18"/>
       <c r="J15" s="33" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="K15" s="4" t="n">
         <v>2680</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4" t="s">
@@ -5050,7 +5053,7 @@
     </row>
     <row r="16" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="31" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>17</v>
@@ -5064,20 +5067,20 @@
         <v>2795.68</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="33" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="K16" s="4" t="n">
         <v>2680</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4" t="s">
@@ -5086,7 +5089,7 @@
     </row>
     <row r="17" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="31" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>17</v>
@@ -5100,20 +5103,20 @@
         <v>234.9</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="33" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K17" s="4" t="n">
         <v>1020</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
@@ -5122,7 +5125,7 @@
     </row>
     <row r="18" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="31" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>17</v>
@@ -5136,20 +5139,20 @@
         <v>899</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="33" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K18" s="4" t="n">
         <v>1020</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
@@ -5158,7 +5161,7 @@
     </row>
     <row r="19" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="31" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>17</v>
@@ -5172,20 +5175,20 @@
         <v>287.64</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="33" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K19" s="4" t="n">
         <v>730</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
@@ -5194,7 +5197,7 @@
     </row>
     <row r="20" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="31" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>17</v>
@@ -5208,20 +5211,20 @@
         <v>484.5</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="33" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K20" s="4" t="n">
         <v>730</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
@@ -5230,7 +5233,7 @@
     </row>
     <row r="21" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>17</v>
@@ -5244,20 +5247,20 @@
         <v>42.315</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="33" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K21" s="4" t="n">
         <v>110</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4" t="s">
@@ -5266,7 +5269,7 @@
     </row>
     <row r="22" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="31" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>17</v>
@@ -5280,20 +5283,20 @@
         <v>74.865</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="33" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K22" s="4" t="n">
         <v>110</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4" t="s">
@@ -5302,7 +5305,7 @@
     </row>
     <row r="23" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="31" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>17</v>
@@ -5316,20 +5319,20 @@
         <v>42.315</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="33" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K23" s="4" t="n">
         <v>110</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4" t="s">
@@ -5338,7 +5341,7 @@
     </row>
     <row r="24" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="31" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>17</v>
@@ -5352,20 +5355,20 @@
         <v>74.865</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="33" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K24" s="4" t="n">
         <v>110</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4" t="s">
@@ -5374,7 +5377,7 @@
     </row>
     <row r="25" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="31" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>17</v>
@@ -5388,20 +5391,20 @@
         <v>289.8</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="33" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K25" s="4" t="n">
         <v>1030</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4" t="s">
@@ -5410,7 +5413,7 @@
     </row>
     <row r="26" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="31" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>17</v>
@@ -5424,20 +5427,20 @@
         <v>1031.4</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="33" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K26" s="4" t="n">
         <v>1030</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4" t="s">
@@ -5446,7 +5449,7 @@
     </row>
     <row r="27" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="31" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>17</v>
@@ -5460,20 +5463,20 @@
         <v>84</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="33" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K27" s="4" t="n">
         <v>160</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
@@ -5482,7 +5485,7 @@
     </row>
     <row r="28" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="31" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>17</v>
@@ -5496,20 +5499,20 @@
         <v>111.5</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="33" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K28" s="4" t="n">
         <v>160</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4" t="s">
@@ -5518,7 +5521,7 @@
     </row>
     <row r="29" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="31" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>17</v>
@@ -5532,20 +5535,20 @@
         <v>84</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="33" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K29" s="4" t="n">
         <v>160</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
@@ -5554,7 +5557,7 @@
     </row>
     <row r="30" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="31" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>17</v>
@@ -5568,20 +5571,20 @@
         <v>111.5</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="33" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K30" s="4" t="n">
         <v>160</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4" t="s">
@@ -5590,7 +5593,7 @@
     </row>
     <row r="31" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="31" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>17</v>
@@ -5604,20 +5607,20 @@
         <v>3422</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="33" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K31" s="4" t="n">
         <v>13090</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4" t="s">
@@ -5626,7 +5629,7 @@
     </row>
     <row r="32" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="31" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>17</v>
@@ -5640,20 +5643,20 @@
         <v>18270</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I32" s="18"/>
       <c r="J32" s="33" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K32" s="4" t="n">
         <v>13090</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4" t="s">
@@ -5662,7 +5665,7 @@
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="31" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>75</v>
@@ -5673,17 +5676,17 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="8" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" s="33"/>
       <c r="K33" s="22"/>
       <c r="L33" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4" t="s">
@@ -5692,7 +5695,7 @@
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="31" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>75</v>
@@ -5703,7 +5706,7 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="27" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="G34" s="18" t="s">
         <v>459</v>
@@ -5711,11 +5714,11 @@
       <c r="H34" s="27"/>
       <c r="I34" s="4"/>
       <c r="J34" s="33" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4" t="s">
@@ -5724,7 +5727,7 @@
     </row>
     <row r="35" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="31" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>17</v>
@@ -5738,20 +5741,20 @@
         <v>105.6</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I35" s="18"/>
       <c r="J35" s="33" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K35" s="4" t="n">
         <v>190</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4" t="s">
@@ -5760,7 +5763,7 @@
     </row>
     <row r="36" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="31" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>17</v>
@@ -5774,20 +5777,20 @@
         <v>150.48</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I36" s="18"/>
       <c r="J36" s="33" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K36" s="4" t="n">
         <v>190</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4" t="s">
@@ -5796,7 +5799,7 @@
     </row>
     <row r="37" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="31" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>17</v>
@@ -5810,20 +5813,20 @@
         <v>1260.6</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I37" s="18"/>
       <c r="J37" s="33" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K37" s="4" t="n">
         <v>1550</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4" t="s">
@@ -5832,7 +5835,7 @@
     </row>
     <row r="38" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="31" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>17</v>
@@ -5846,20 +5849,20 @@
         <v>960.3</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I38" s="18"/>
       <c r="J38" s="33" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K38" s="4" t="n">
         <v>1550</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4" t="s">
@@ -5868,7 +5871,7 @@
     </row>
     <row r="39" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="31" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>17</v>
@@ -5882,20 +5885,20 @@
         <v>31.05</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I39" s="18"/>
       <c r="J39" s="33" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K39" s="4" t="n">
         <v>100</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4" t="s">
@@ -5904,7 +5907,7 @@
     </row>
     <row r="40" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="31" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>17</v>
@@ -5918,20 +5921,20 @@
         <v>86.85</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H40" s="27" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I40" s="18"/>
       <c r="J40" s="33" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K40" s="4" t="n">
         <v>100</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4" t="s">
@@ -5940,7 +5943,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="29" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>1</v>
@@ -5984,7 +5987,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="31" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>75</v>
@@ -5995,7 +5998,7 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="19" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="G42" s="19" t="s">
         <v>129</v>
@@ -6003,11 +6006,11 @@
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="106" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4" t="s">
@@ -6016,7 +6019,7 @@
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="31" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>75</v>
@@ -6034,10 +6037,10 @@
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="35" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4" t="s">
@@ -6046,7 +6049,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="31" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>75</v>
@@ -6060,18 +6063,18 @@
         <v>25</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I44" s="18"/>
       <c r="J44" s="20"/>
       <c r="K44" s="15" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4" t="s">
@@ -6080,7 +6083,7 @@
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="31" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>75</v>
@@ -6094,18 +6097,18 @@
         <v>1.2</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I45" s="18"/>
       <c r="J45" s="20"/>
       <c r="K45" s="8" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4" t="s">
@@ -6114,7 +6117,7 @@
     </row>
     <row r="46" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="31" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B46" s="107" t="s">
         <v>75</v>
@@ -6125,17 +6128,17 @@
       <c r="D46" s="107"/>
       <c r="E46" s="107"/>
       <c r="F46" s="108" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="G46" s="107"/>
       <c r="H46" s="108"/>
       <c r="I46" s="108"/>
       <c r="J46" s="108" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="K46" s="8"/>
       <c r="L46" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4" t="s">
@@ -6144,7 +6147,7 @@
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="31" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>75</v>
@@ -6158,16 +6161,16 @@
         <v>116</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I47" s="18"/>
       <c r="J47" s="33"/>
       <c r="K47" s="7"/>
       <c r="L47" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4" t="s">
@@ -6176,7 +6179,7 @@
     </row>
     <row r="48" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="31" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B48" s="107"/>
       <c r="C48" s="108"/>
@@ -6187,11 +6190,11 @@
       <c r="H48" s="107"/>
       <c r="I48" s="108"/>
       <c r="J48" s="109" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="K48" s="7"/>
       <c r="L48" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4" t="s">
@@ -6200,10 +6203,10 @@
     </row>
     <row r="49" customFormat="false" ht="60.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="31" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>38</v>
@@ -6211,21 +6214,21 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="8" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="I49" s="18"/>
       <c r="J49" s="106" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4" t="s">
@@ -6234,7 +6237,7 @@
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="31" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>75</v>
@@ -6248,16 +6251,16 @@
         <v>5.9</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I50" s="18"/>
       <c r="J50" s="33"/>
       <c r="K50" s="22"/>
       <c r="L50" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4" t="s">
@@ -6266,7 +6269,7 @@
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="31" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>75</v>
@@ -6283,11 +6286,11 @@
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
       <c r="J51" s="33" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4" t="s">
@@ -6296,10 +6299,10 @@
     </row>
     <row r="52" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="31" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>38</v>
@@ -6307,21 +6310,21 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="27" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="106" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4" t="s">
@@ -6330,7 +6333,7 @@
     </row>
     <row r="53" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="31" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>75</v>
@@ -6341,21 +6344,21 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="27" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="33" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4" t="s">
@@ -6364,7 +6367,7 @@
     </row>
     <row r="54" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="31" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B54" s="107"/>
       <c r="C54" s="108"/>
@@ -6375,11 +6378,11 @@
       <c r="H54" s="108"/>
       <c r="I54" s="108"/>
       <c r="J54" s="107" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M54" s="4"/>
       <c r="N54" s="4" t="s">
@@ -6388,10 +6391,10 @@
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="31" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>38</v>
@@ -6399,19 +6402,19 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="27" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H55" s="27" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="27"/>
       <c r="K55" s="3"/>
       <c r="L55" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" s="4" t="s">
@@ -6420,7 +6423,7 @@
     </row>
     <row r="56" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="31" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B56" s="19" t="s">
         <v>75</v>
@@ -6431,17 +6434,17 @@
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="8" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
       <c r="J56" s="108" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M56" s="4"/>
       <c r="N56" s="4" t="s">
@@ -6450,7 +6453,7 @@
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B57" s="19" t="s">
         <v>75</v>
@@ -6464,16 +6467,16 @@
         <v>4.5</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I57" s="27"/>
       <c r="J57" s="33"/>
       <c r="K57" s="3"/>
       <c r="L57" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M57" s="4"/>
       <c r="N57" s="4" t="s">
@@ -6482,7 +6485,7 @@
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="31" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>75</v>
@@ -6496,16 +6499,16 @@
         <v>145</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H58" s="27" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I58" s="27"/>
       <c r="J58" s="33"/>
       <c r="K58" s="3"/>
       <c r="L58" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M58" s="4"/>
       <c r="N58" s="4" t="s">
@@ -6514,7 +6517,7 @@
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="31" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B59" s="36" t="s">
         <v>75</v>
@@ -6529,11 +6532,11 @@
       <c r="H59" s="36"/>
       <c r="I59" s="110"/>
       <c r="J59" s="106" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4" t="s">
@@ -6542,7 +6545,7 @@
     </row>
     <row r="60" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="31" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B60" s="27" t="s">
         <v>52</v>
@@ -6561,11 +6564,11 @@
       <c r="H60" s="27"/>
       <c r="I60" s="111"/>
       <c r="J60" s="46" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4" t="s">
@@ -6574,7 +6577,7 @@
     </row>
     <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="31" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>75</v>
@@ -6585,17 +6588,17 @@
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="19" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="106" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="K61" s="3"/>
       <c r="L61" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="4" t="s">
@@ -6604,7 +6607,7 @@
     </row>
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="31" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>75</v>
@@ -6621,11 +6624,11 @@
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="35" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M62" s="4"/>
       <c r="N62" s="4" t="s">
@@ -6634,7 +6637,7 @@
     </row>
     <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="31" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B63" s="19" t="s">
         <v>75</v>
@@ -6648,16 +6651,16 @@
         <v>16</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I63" s="18"/>
       <c r="J63" s="20"/>
       <c r="K63" s="3"/>
       <c r="L63" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M63" s="4"/>
       <c r="N63" s="4" t="s">
@@ -6666,7 +6669,7 @@
     </row>
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="31" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B64" s="19" t="s">
         <v>75</v>
@@ -6680,16 +6683,16 @@
         <v>0.0001</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I64" s="18"/>
       <c r="J64" s="20"/>
       <c r="K64" s="3"/>
       <c r="L64" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4" t="s">
@@ -6698,7 +6701,7 @@
     </row>
     <row r="65" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="31" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B65" s="107" t="s">
         <v>75</v>
@@ -6709,17 +6712,17 @@
       <c r="D65" s="107"/>
       <c r="E65" s="107"/>
       <c r="F65" s="108" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="G65" s="107"/>
       <c r="H65" s="108"/>
       <c r="I65" s="108"/>
       <c r="J65" s="108" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M65" s="4"/>
       <c r="N65" s="4" t="s">
@@ -6728,7 +6731,7 @@
     </row>
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="31" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>75</v>
@@ -6742,16 +6745,16 @@
         <v>20</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I66" s="18"/>
       <c r="J66" s="33"/>
       <c r="K66" s="3"/>
       <c r="L66" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M66" s="4"/>
       <c r="N66" s="4" t="s">
@@ -6760,7 +6763,7 @@
     </row>
     <row r="67" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="31" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>75</v>
@@ -6775,11 +6778,11 @@
       <c r="H67" s="19"/>
       <c r="I67" s="18"/>
       <c r="J67" s="106" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="4" t="s">
@@ -6788,10 +6791,10 @@
     </row>
     <row r="68" customFormat="false" ht="60.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="31" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>38</v>
@@ -6799,21 +6802,21 @@
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="8" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="I68" s="18"/>
       <c r="J68" s="106" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M68" s="4"/>
       <c r="N68" s="4" t="s">
@@ -6822,7 +6825,7 @@
     </row>
     <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="31" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>75</v>
@@ -6836,16 +6839,16 @@
         <v>0</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I69" s="18"/>
       <c r="J69" s="33"/>
       <c r="K69" s="22"/>
       <c r="L69" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4" t="s">
@@ -6854,7 +6857,7 @@
     </row>
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="31" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>75</v>
@@ -6871,11 +6874,11 @@
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
       <c r="J70" s="33" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4" t="s">
@@ -6884,10 +6887,10 @@
     </row>
     <row r="71" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="31" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>38</v>
@@ -6895,21 +6898,21 @@
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="27" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H71" s="27" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="106" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4" t="s">
@@ -6918,7 +6921,7 @@
     </row>
     <row r="72" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="31" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>75</v>
@@ -6929,21 +6932,21 @@
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="27" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H72" s="27" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="33" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="K72" s="3"/>
       <c r="L72" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4" t="s">
@@ -6952,7 +6955,7 @@
     </row>
     <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="31" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B73" s="19" t="s">
         <v>75</v>
@@ -6969,7 +6972,7 @@
       <c r="J73" s="27"/>
       <c r="K73" s="3"/>
       <c r="L73" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="4" t="s">
@@ -6978,10 +6981,10 @@
     </row>
     <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="31" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>38</v>
@@ -6989,19 +6992,19 @@
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="27" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H74" s="27" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="27"/>
       <c r="K74" s="3"/>
       <c r="L74" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M74" s="4"/>
       <c r="N74" s="4" t="s">
@@ -7010,7 +7013,7 @@
     </row>
     <row r="75" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="31" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B75" s="19" t="s">
         <v>75</v>
@@ -7021,17 +7024,17 @@
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="8" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="G75" s="18"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
       <c r="J75" s="108" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="K75" s="3"/>
       <c r="L75" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M75" s="4"/>
       <c r="N75" s="4" t="s">
@@ -7040,7 +7043,7 @@
     </row>
     <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>75</v>
@@ -7054,16 +7057,16 @@
         <v>120</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H76" s="19" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I76" s="27"/>
       <c r="J76" s="33"/>
       <c r="K76" s="3"/>
       <c r="L76" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="4" t="s">
@@ -7072,7 +7075,7 @@
     </row>
     <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="31" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B77" s="19" t="s">
         <v>75</v>
@@ -7086,16 +7089,16 @@
         <v>15</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H77" s="27" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I77" s="27"/>
       <c r="J77" s="33"/>
       <c r="K77" s="3"/>
       <c r="L77" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M77" s="4"/>
       <c r="N77" s="4" t="s">
@@ -7104,7 +7107,7 @@
     </row>
     <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="31" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B78" s="36" t="s">
         <v>75</v>
@@ -7119,11 +7122,11 @@
       <c r="H78" s="36"/>
       <c r="I78" s="106"/>
       <c r="J78" s="106" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="K78" s="3"/>
       <c r="L78" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="4" t="s">
@@ -7132,7 +7135,7 @@
     </row>
     <row r="79" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="31" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B79" s="27" t="s">
         <v>52</v>
@@ -7151,11 +7154,11 @@
       <c r="H79" s="27"/>
       <c r="I79" s="20"/>
       <c r="J79" s="46" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M79" s="4"/>
       <c r="N79" s="4" t="s">
@@ -32741,12 +32744,12 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A118" activeCellId="0" sqref="A118"/>
-      <selection pane="bottomRight" activeCell="D124" activeCellId="0" sqref="D124"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32882,24 +32885,24 @@
         <v>17</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>38</v>
+        <v>775</v>
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
       <c r="F4" s="50" t="n">
-        <v>1</v>
+        <v>0.013</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="K4" s="84"/>
       <c r="L4" s="62" t="s">
@@ -32910,28 +32913,30 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>38</v>
+        <v>775</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
       <c r="F5" s="50" t="n">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>780</v>
-      </c>
-      <c r="I5" s="18"/>
+        <v>781</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>782</v>
+      </c>
       <c r="J5" s="27"/>
       <c r="K5" s="84"/>
       <c r="L5" s="62" t="s">
@@ -32944,10 +32949,10 @@
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>38</v>
@@ -32958,10 +32963,10 @@
         <v>0.2</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="27"/>
@@ -32976,10 +32981,10 @@
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="47" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C7" s="50"/>
       <c r="D7" s="50"/>
@@ -33000,7 +33005,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="47" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="21"/>
@@ -33022,7 +33027,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>186</v>
@@ -33033,13 +33038,13 @@
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="50" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="27"/>
@@ -33054,7 +33059,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="47" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="50"/>
@@ -33076,7 +33081,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="47" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="50"/>
@@ -33098,10 +33103,10 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>362</v>
@@ -33112,10 +33117,10 @@
         <v>0.44</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="27"/>
@@ -33130,10 +33135,10 @@
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C13" s="50" t="s">
         <v>38</v>
@@ -33141,13 +33146,13 @@
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>766</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="27"/>
@@ -33162,13 +33167,13 @@
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
@@ -33176,10 +33181,10 @@
         <v>7</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="27"/>
@@ -33194,7 +33199,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="50" t="s">
@@ -33222,7 +33227,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>186</v>
@@ -33239,10 +33244,10 @@
         <v>15</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="84"/>
@@ -33256,10 +33261,10 @@
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="47" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="50"/>
@@ -33280,10 +33285,10 @@
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="47" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="50"/>
@@ -33304,7 +33309,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="50" t="s">
@@ -33313,17 +33318,17 @@
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="27" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="K19" s="87"/>
       <c r="L19" s="62" t="s">
@@ -33336,10 +33341,10 @@
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>362</v>
@@ -33350,10 +33355,10 @@
         <v>0.4</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="27"/>
@@ -33368,10 +33373,10 @@
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C21" s="50" t="s">
         <v>38</v>
@@ -33379,13 +33384,13 @@
       <c r="D21" s="50"/>
       <c r="E21" s="50"/>
       <c r="F21" s="50" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>766</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="27"/>
@@ -33400,13 +33405,13 @@
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="D22" s="50"/>
       <c r="E22" s="50"/>
@@ -33414,10 +33419,10 @@
         <v>7</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="27"/>
@@ -33432,7 +33437,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>765</v>
@@ -33446,10 +33451,10 @@
         <v>-8</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="27"/>
@@ -33464,7 +33469,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>765</v>
@@ -33478,10 +33483,10 @@
         <v>-5</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="27"/>
@@ -33496,7 +33501,7 @@
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>765</v>
@@ -33515,7 +33520,7 @@
       <c r="H25" s="8"/>
       <c r="I25" s="18"/>
       <c r="J25" s="27" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="K25" s="83"/>
       <c r="L25" s="62" t="s">
@@ -33528,7 +33533,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>765</v>
@@ -33558,7 +33563,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>765</v>
@@ -33588,10 +33593,10 @@
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C28" s="50" t="s">
         <v>38</v>
@@ -33602,10 +33607,10 @@
         <v>0.2</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="27"/>
@@ -33620,7 +33625,7 @@
     </row>
     <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>765</v>
@@ -33634,14 +33639,14 @@
         <v>-1</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="27" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="K29" s="83"/>
       <c r="L29" s="62" t="s">
@@ -33654,7 +33659,7 @@
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>765</v>
@@ -33684,7 +33689,7 @@
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="50" t="s">
@@ -33700,7 +33705,7 @@
       </c>
       <c r="H31" s="18"/>
       <c r="I31" s="18" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="J31" s="27"/>
       <c r="K31" s="83"/>
@@ -33714,7 +33719,7 @@
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>186</v>
@@ -33732,7 +33737,7 @@
       </c>
       <c r="H32" s="18"/>
       <c r="I32" s="18" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="J32" s="27"/>
       <c r="K32" s="83"/>
@@ -33746,10 +33751,10 @@
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="47" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C33" s="50"/>
       <c r="D33" s="50"/>
@@ -33770,10 +33775,10 @@
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="47" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C34" s="50"/>
       <c r="D34" s="50"/>
@@ -33794,7 +33799,7 @@
     </row>
     <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>765</v>
@@ -33808,12 +33813,12 @@
         <v>1</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" s="27" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="K35" s="83"/>
       <c r="L35" s="62" t="s">
@@ -33826,13 +33831,13 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="D36" s="50"/>
       <c r="E36" s="50"/>
@@ -33840,10 +33845,10 @@
         <v>2</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I36" s="18"/>
       <c r="J36" s="27"/>
@@ -33858,7 +33863,7 @@
     </row>
     <row r="37" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>765</v>
@@ -33872,12 +33877,12 @@
         <v>0</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
       <c r="J37" s="27" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="K37" s="83"/>
       <c r="L37" s="62" t="s">
@@ -33890,10 +33895,10 @@
     </row>
     <row r="38" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C38" s="50" t="s">
         <v>38</v>
@@ -33901,17 +33906,17 @@
       <c r="D38" s="50"/>
       <c r="E38" s="50"/>
       <c r="F38" s="18" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="I38" s="18"/>
       <c r="J38" s="27" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="K38" s="87"/>
       <c r="L38" s="62" t="s">
@@ -33924,10 +33929,10 @@
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C39" s="50" t="s">
         <v>38</v>
@@ -33935,17 +33940,17 @@
       <c r="D39" s="50"/>
       <c r="E39" s="50"/>
       <c r="F39" s="18" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="I39" s="18"/>
       <c r="J39" s="27" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="K39" s="87"/>
       <c r="L39" s="62" t="s">
@@ -33958,13 +33963,13 @@
     </row>
     <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C40" s="50" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="D40" s="50"/>
       <c r="E40" s="50"/>
@@ -33972,14 +33977,14 @@
         <v>3.5</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I40" s="18"/>
       <c r="J40" s="27" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="K40" s="55"/>
       <c r="L40" s="62" t="s">
@@ -35002,10 +35007,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="47" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C41" s="50"/>
       <c r="D41" s="50"/>
@@ -35026,10 +35031,10 @@
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="47" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C42" s="50"/>
       <c r="D42" s="50"/>
@@ -35050,7 +35055,7 @@
     </row>
     <row r="43" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>277</v>
@@ -35061,13 +35066,13 @@
       <c r="D43" s="50"/>
       <c r="E43" s="50"/>
       <c r="F43" s="19" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G43" s="91" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="I43" s="18"/>
       <c r="J43" s="27"/>
@@ -35082,7 +35087,7 @@
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="47" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="50" t="s">
@@ -35094,7 +35099,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
@@ -35110,7 +35115,7 @@
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="47" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="50"/>
@@ -36142,7 +36147,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="50" t="s">
@@ -36158,7 +36163,7 @@
       </c>
       <c r="H46" s="50"/>
       <c r="I46" s="50" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="J46" s="50"/>
       <c r="K46" s="50"/>
@@ -37182,7 +37187,7 @@
     </row>
     <row r="47" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="50" t="s">
@@ -37194,14 +37199,14 @@
         <v>0.23</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I47" s="18"/>
       <c r="J47" s="27" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="K47" s="84"/>
       <c r="L47" s="62" t="s">
@@ -37214,13 +37219,13 @@
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="50" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="D48" s="50"/>
       <c r="E48" s="50"/>
@@ -37228,10 +37233,10 @@
         <v>7</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I48" s="18"/>
       <c r="J48" s="27"/>
@@ -37246,13 +37251,13 @@
     </row>
     <row r="49" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C49" s="50" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="D49" s="50"/>
       <c r="E49" s="50"/>
@@ -37260,14 +37265,14 @@
         <v>0.08</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I49" s="18"/>
       <c r="J49" s="27" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K49" s="83"/>
       <c r="L49" s="62" t="s">
@@ -37280,13 +37285,13 @@
     </row>
     <row r="50" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C50" s="50" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="D50" s="50"/>
       <c r="E50" s="50"/>
@@ -37295,14 +37300,14 @@
         <v>0.024</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I50" s="18"/>
       <c r="J50" s="27" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="K50" s="55"/>
       <c r="L50" s="62" t="s">
@@ -37315,13 +37320,13 @@
     </row>
     <row r="51" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="13" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="D51" s="50"/>
       <c r="E51" s="50"/>
@@ -37329,14 +37334,14 @@
         <v>0.0335</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I51" s="18"/>
       <c r="J51" s="27" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="K51" s="55"/>
       <c r="L51" s="62" t="s">
@@ -38359,10 +38364,10 @@
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="47" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C52" s="50"/>
       <c r="D52" s="50"/>
@@ -38383,13 +38388,13 @@
     </row>
     <row r="53" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="13" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C53" s="50" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="D53" s="50"/>
       <c r="E53" s="50"/>
@@ -38398,14 +38403,14 @@
         <v>0.084</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I53" s="18"/>
       <c r="J53" s="27" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="K53" s="83"/>
       <c r="L53" s="62" t="s">
@@ -38418,10 +38423,10 @@
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="47" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C54" s="50"/>
       <c r="D54" s="50"/>
@@ -38442,7 +38447,7 @@
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="13" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B55" s="19" t="s">
         <v>765</v>
@@ -38456,10 +38461,10 @@
         <v>-1</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="I55" s="18"/>
       <c r="J55" s="27"/>
@@ -38474,7 +38479,7 @@
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B56" s="19" t="s">
         <v>765</v>
@@ -38488,10 +38493,10 @@
         <v>1</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="I56" s="18"/>
       <c r="J56" s="27"/>
@@ -38506,7 +38511,7 @@
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>765</v>
@@ -38523,7 +38528,7 @@
         <v>15</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="I57" s="18"/>
       <c r="J57" s="27"/>
@@ -38538,7 +38543,7 @@
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>765</v>
@@ -38555,7 +38560,7 @@
         <v>15</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="I58" s="18"/>
       <c r="J58" s="27"/>
@@ -38570,7 +38575,7 @@
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>765</v>
@@ -38584,14 +38589,14 @@
         <v>-8</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="I59" s="18"/>
       <c r="J59" s="27" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="K59" s="83"/>
       <c r="L59" s="62" t="s">
@@ -38604,7 +38609,7 @@
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>765</v>
@@ -38618,14 +38623,14 @@
         <v>-5</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="I60" s="18"/>
       <c r="J60" s="27" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="K60" s="83"/>
       <c r="L60" s="62" t="s">
@@ -38638,7 +38643,7 @@
     </row>
     <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>765</v>
@@ -38657,7 +38662,7 @@
       <c r="H61" s="8"/>
       <c r="I61" s="18"/>
       <c r="J61" s="27" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="K61" s="83"/>
       <c r="L61" s="62" t="s">
@@ -38670,7 +38675,7 @@
     </row>
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>765</v>
@@ -38700,7 +38705,7 @@
     </row>
     <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B63" s="18" t="s">
         <v>765</v>
@@ -38717,7 +38722,7 @@
         <v>15</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="I63" s="18"/>
       <c r="J63" s="27"/>
@@ -38732,7 +38737,7 @@
     </row>
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B64" s="18" t="s">
         <v>765</v>
@@ -38749,7 +38754,7 @@
         <v>15</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="I64" s="18"/>
       <c r="J64" s="27"/>
@@ -38764,7 +38769,7 @@
     </row>
     <row r="65" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B65" s="19" t="s">
         <v>765</v>
@@ -38781,10 +38786,10 @@
         <v>766</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="J65" s="27"/>
       <c r="K65" s="83"/>
@@ -38798,7 +38803,7 @@
     </row>
     <row r="66" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>765</v>
@@ -38815,10 +38820,10 @@
         <v>766</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="J66" s="27"/>
       <c r="K66" s="83"/>
@@ -38832,7 +38837,7 @@
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="13" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>765</v>
@@ -38846,10 +38851,10 @@
         <v>-1</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="I67" s="18"/>
       <c r="J67" s="27"/>
@@ -38864,7 +38869,7 @@
     </row>
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="13" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>765</v>
@@ -38878,10 +38883,10 @@
         <v>1</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="I68" s="18"/>
       <c r="J68" s="27"/>
@@ -39950,7 +39955,7 @@
     </row>
     <row r="70" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="13" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>765</v>
@@ -39961,32 +39966,32 @@
       <c r="D70" s="21"/>
       <c r="E70" s="21"/>
       <c r="F70" s="94" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G70" s="18" t="s">
         <v>15</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J70" s="27" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="K70" s="83"/>
       <c r="L70" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="13" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>765</v>
@@ -39997,32 +40002,32 @@
       <c r="D71" s="21"/>
       <c r="E71" s="21"/>
       <c r="F71" s="94" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G71" s="18" t="s">
         <v>15</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J71" s="27" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="K71" s="83"/>
       <c r="L71" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="13" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B72" s="18" t="s">
         <v>186</v>
@@ -40033,21 +40038,21 @@
       <c r="D72" s="21"/>
       <c r="E72" s="21"/>
       <c r="F72" s="18" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="G72" s="91" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="I72" s="18"/>
       <c r="J72" s="27" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="K72" s="83"/>
       <c r="L72" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4" t="s">
@@ -40056,7 +40061,7 @@
     </row>
     <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="13" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B73" s="18" t="s">
         <v>186</v>
@@ -40070,16 +40075,16 @@
         <v>120</v>
       </c>
       <c r="G73" s="50" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I73" s="18"/>
       <c r="J73" s="4"/>
       <c r="K73" s="55"/>
       <c r="L73" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="4" t="s">
@@ -40088,7 +40093,7 @@
     </row>
     <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>186</v>
@@ -40099,19 +40104,19 @@
       <c r="D74" s="21"/>
       <c r="E74" s="21"/>
       <c r="F74" s="50" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G74" s="50" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="I74" s="18"/>
       <c r="J74" s="18"/>
       <c r="K74" s="83"/>
       <c r="L74" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M74" s="4"/>
       <c r="N74" s="4" t="s">
@@ -40120,7 +40125,7 @@
     </row>
     <row r="75" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="13" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B75" s="18" t="s">
         <v>186</v>
@@ -40131,21 +40136,21 @@
       <c r="D75" s="21"/>
       <c r="E75" s="21"/>
       <c r="F75" s="18" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G75" s="91" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="I75" s="18"/>
       <c r="J75" s="27" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="K75" s="83"/>
       <c r="L75" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M75" s="4"/>
       <c r="N75" s="4" t="s">
@@ -40154,7 +40159,7 @@
     </row>
     <row r="76" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B76" s="18" t="s">
         <v>765</v>
@@ -40171,21 +40176,21 @@
         <v>15</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="K76" s="55"/>
       <c r="L76" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="O76" s="0"/>
       <c r="P76" s="0"/>
@@ -41200,7 +41205,7 @@
     </row>
     <row r="77" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B77" s="18" t="s">
         <v>765</v>
@@ -41217,21 +41222,21 @@
         <v>15</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J77" s="27" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="K77" s="55"/>
       <c r="L77" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M77" s="4"/>
       <c r="N77" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="O77" s="0"/>
       <c r="P77" s="0"/>
@@ -42246,7 +42251,7 @@
     </row>
     <row r="78" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>765</v>
@@ -42263,21 +42268,21 @@
         <v>15</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J78" s="27" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="K78" s="55"/>
       <c r="L78" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="O78" s="0"/>
       <c r="P78" s="0"/>
@@ -43292,7 +43297,7 @@
     </row>
     <row r="79" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="13" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>765</v>
@@ -43309,21 +43314,21 @@
         <v>15</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J79" s="27" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="K79" s="55"/>
       <c r="L79" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M79" s="4"/>
       <c r="N79" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="O79" s="0"/>
       <c r="P79" s="0"/>
@@ -44338,13 +44343,13 @@
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="13" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C80" s="50" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D80" s="50"/>
       <c r="E80" s="50"/>
@@ -44352,18 +44357,18 @@
         <v>0.03</v>
       </c>
       <c r="G80" s="50" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="4" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="K80" s="97"/>
       <c r="L80" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M80" s="4"/>
       <c r="N80" s="4" t="s">
@@ -44372,13 +44377,13 @@
     </row>
     <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="13" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C81" s="50" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D81" s="50"/>
       <c r="E81" s="50"/>
@@ -44386,18 +44391,18 @@
         <v>0.037</v>
       </c>
       <c r="G81" s="50" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="4" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="K81" s="97"/>
       <c r="L81" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M81" s="4"/>
       <c r="N81" s="4" t="s">
@@ -44406,7 +44411,7 @@
     </row>
     <row r="82" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="13" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B82" s="18" t="s">
         <v>765</v>
@@ -44417,32 +44422,32 @@
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
       <c r="F82" s="18" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J82" s="27" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="K82" s="83"/>
       <c r="L82" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M82" s="4"/>
       <c r="N82" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="13" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B83" s="18" t="s">
         <v>765</v>
@@ -44453,32 +44458,32 @@
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
       <c r="F83" s="18" t="s">
+        <v>918</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>915</v>
+      </c>
+      <c r="H83" s="18" t="s">
+        <v>916</v>
+      </c>
+      <c r="I83" s="18" t="s">
+        <v>889</v>
+      </c>
+      <c r="J83" s="27" t="s">
         <v>917</v>
-      </c>
-      <c r="G83" s="18" t="s">
-        <v>914</v>
-      </c>
-      <c r="H83" s="18" t="s">
-        <v>915</v>
-      </c>
-      <c r="I83" s="18" t="s">
-        <v>888</v>
-      </c>
-      <c r="J83" s="27" t="s">
-        <v>916</v>
       </c>
       <c r="K83" s="83"/>
       <c r="L83" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M83" s="4"/>
       <c r="N83" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>765</v>
@@ -44489,32 +44494,32 @@
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
       <c r="F84" s="18" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J84" s="27" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="K84" s="83"/>
       <c r="L84" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M84" s="4"/>
       <c r="N84" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="13" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>765</v>
@@ -44525,38 +44530,38 @@
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
       <c r="F85" s="18" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J85" s="27" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="K85" s="83"/>
       <c r="L85" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M85" s="4"/>
       <c r="N85" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="13" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C86" s="50" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D86" s="50"/>
       <c r="E86" s="50"/>
@@ -44564,18 +44569,18 @@
         <v>0.0126</v>
       </c>
       <c r="G86" s="50" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="18" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="K86" s="83"/>
       <c r="L86" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" s="4" t="s">
@@ -44584,13 +44589,13 @@
     </row>
     <row r="87" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="13" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C87" s="50" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D87" s="50"/>
       <c r="E87" s="50"/>
@@ -44598,18 +44603,18 @@
         <v>0.0158</v>
       </c>
       <c r="G87" s="50" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="18" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="K87" s="83"/>
       <c r="L87" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M87" s="4"/>
       <c r="N87" s="4" t="s">
@@ -44618,7 +44623,7 @@
     </row>
     <row r="88" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="13" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B88" s="18" t="s">
         <v>765</v>
@@ -44629,30 +44634,30 @@
       <c r="D88" s="21"/>
       <c r="E88" s="21"/>
       <c r="F88" s="18" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J88" s="27"/>
       <c r="K88" s="83"/>
       <c r="L88" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M88" s="4"/>
       <c r="N88" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B89" s="18" t="s">
         <v>765</v>
@@ -44663,30 +44668,30 @@
       <c r="D89" s="21"/>
       <c r="E89" s="21"/>
       <c r="F89" s="18" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H89" s="18" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J89" s="27"/>
       <c r="K89" s="83"/>
       <c r="L89" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M89" s="4"/>
       <c r="N89" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="13" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B90" s="18" t="s">
         <v>186</v>
@@ -44697,19 +44702,19 @@
       <c r="D90" s="50"/>
       <c r="E90" s="50"/>
       <c r="F90" s="98" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G90" s="91" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="27"/>
       <c r="K90" s="83"/>
       <c r="L90" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M90" s="4"/>
       <c r="N90" s="4" t="s">
@@ -44718,7 +44723,7 @@
     </row>
     <row r="91" s="81" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B91" s="18" t="s">
         <v>186</v>
@@ -44729,18 +44734,18 @@
       <c r="D91" s="50"/>
       <c r="E91" s="50"/>
       <c r="F91" s="18" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G91" s="91" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="I91" s="18"/>
       <c r="K91" s="83"/>
       <c r="L91" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M91" s="4"/>
       <c r="N91" s="4" t="s">
@@ -44749,13 +44754,13 @@
     </row>
     <row r="92" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="13" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C92" s="50" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D92" s="50"/>
       <c r="E92" s="50"/>
@@ -44763,18 +44768,18 @@
         <v>0.0154</v>
       </c>
       <c r="G92" s="50" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I92" s="18"/>
       <c r="J92" s="18" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="K92" s="83"/>
       <c r="L92" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M92" s="4"/>
       <c r="N92" s="4" t="s">
@@ -44783,13 +44788,13 @@
     </row>
     <row r="93" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="13" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C93" s="50" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D93" s="50"/>
       <c r="E93" s="50"/>
@@ -44797,18 +44802,18 @@
         <v>0.0193</v>
       </c>
       <c r="G93" s="50" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I93" s="18"/>
       <c r="J93" s="18" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="K93" s="83"/>
       <c r="L93" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M93" s="4"/>
       <c r="N93" s="4" t="s">
@@ -44817,7 +44822,7 @@
     </row>
     <row r="94" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>765</v>
@@ -44828,30 +44833,30 @@
       <c r="D94" s="21"/>
       <c r="E94" s="21"/>
       <c r="F94" s="18" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H94" s="18" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J94" s="27"/>
       <c r="K94" s="83"/>
       <c r="L94" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M94" s="4"/>
       <c r="N94" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="13" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B95" s="18" t="s">
         <v>765</v>
@@ -44862,30 +44867,30 @@
       <c r="D95" s="21"/>
       <c r="E95" s="21"/>
       <c r="F95" s="18" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H95" s="18" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J95" s="27"/>
       <c r="K95" s="83"/>
       <c r="L95" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M95" s="4"/>
       <c r="N95" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="13" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B96" s="18" t="s">
         <v>186</v>
@@ -44896,19 +44901,19 @@
       <c r="D96" s="50"/>
       <c r="E96" s="50"/>
       <c r="F96" s="98" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G96" s="91" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H96" s="18" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="I96" s="18"/>
       <c r="J96" s="27"/>
       <c r="K96" s="83"/>
       <c r="L96" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M96" s="4"/>
       <c r="N96" s="4" t="s">
@@ -44917,7 +44922,7 @@
     </row>
     <row r="97" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="13" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B97" s="18" t="s">
         <v>186</v>
@@ -44928,19 +44933,19 @@
       <c r="D97" s="50"/>
       <c r="E97" s="50"/>
       <c r="F97" s="18" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G97" s="91" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H97" s="18" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="I97" s="18"/>
       <c r="J97" s="27"/>
       <c r="K97" s="83"/>
       <c r="L97" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M97" s="4"/>
       <c r="N97" s="4" t="s">
@@ -44949,13 +44954,13 @@
     </row>
     <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="13" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C98" s="50" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="D98" s="50"/>
       <c r="E98" s="50"/>
@@ -44963,18 +44968,18 @@
         <v>0.0009</v>
       </c>
       <c r="G98" s="50" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I98" s="18"/>
       <c r="J98" s="18" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="K98" s="83"/>
       <c r="L98" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M98" s="4"/>
       <c r="N98" s="4" t="s">
@@ -44983,7 +44988,7 @@
     </row>
     <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="13" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>186</v>
@@ -44994,21 +44999,21 @@
       <c r="D99" s="21"/>
       <c r="E99" s="21"/>
       <c r="F99" s="18" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="G99" s="91" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H99" s="18" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="I99" s="18"/>
       <c r="J99" s="27" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="K99" s="83"/>
       <c r="L99" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M99" s="4"/>
       <c r="N99" s="4" t="s">
@@ -45017,7 +45022,7 @@
     </row>
     <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="13" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B100" s="18" t="s">
         <v>186</v>
@@ -45028,21 +45033,21 @@
       <c r="D100" s="21"/>
       <c r="E100" s="21"/>
       <c r="F100" s="50" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="G100" s="50" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="I100" s="18"/>
       <c r="J100" s="27" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="K100" s="83"/>
       <c r="L100" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M100" s="4"/>
       <c r="N100" s="4" t="s">
@@ -45051,13 +45056,13 @@
     </row>
     <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="13" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C101" s="50" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="D101" s="50"/>
       <c r="E101" s="50"/>
@@ -45065,18 +45070,18 @@
         <v>0.0011</v>
       </c>
       <c r="G101" s="50" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I101" s="18"/>
       <c r="J101" s="18" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="K101" s="83"/>
       <c r="L101" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M101" s="4"/>
       <c r="N101" s="4" t="s">
@@ -45085,7 +45090,7 @@
     </row>
     <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B102" s="18" t="s">
         <v>186</v>
@@ -45096,21 +45101,21 @@
       <c r="D102" s="21"/>
       <c r="E102" s="21"/>
       <c r="F102" s="18" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="G102" s="91" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H102" s="18" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="I102" s="18"/>
       <c r="J102" s="27" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="K102" s="83"/>
       <c r="L102" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M102" s="4"/>
       <c r="N102" s="4" t="s">
@@ -45119,7 +45124,7 @@
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="13" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B103" s="18" t="s">
         <v>186</v>
@@ -45130,21 +45135,21 @@
       <c r="D103" s="21"/>
       <c r="E103" s="21"/>
       <c r="F103" s="50" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="G103" s="50" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H103" s="18" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="I103" s="18"/>
       <c r="J103" s="27" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="K103" s="83"/>
       <c r="L103" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M103" s="4"/>
       <c r="N103" s="4" t="s">
@@ -45153,7 +45158,7 @@
     </row>
     <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="60" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B104" s="12" t="s">
         <v>1</v>
@@ -46207,13 +46212,13 @@
     </row>
     <row r="105" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="40" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C105" s="50" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="D105" s="50"/>
       <c r="E105" s="50"/>
@@ -46221,19 +46226,19 @@
         <v>0.015</v>
       </c>
       <c r="G105" s="50" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="58" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="K105" s="61"/>
       <c r="L105" s="7" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="M105" s="56" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="N105" s="4" t="s">
         <v>773</v>
@@ -47251,13 +47256,13 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="65" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C106" s="50" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="D106" s="50"/>
       <c r="E106" s="50"/>
@@ -47265,21 +47270,21 @@
         <v>0.06</v>
       </c>
       <c r="G106" s="50" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I106" s="18"/>
       <c r="J106" s="4" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="K106" s="61"/>
       <c r="L106" s="7" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="M106" s="7" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="N106" s="4"/>
       <c r="O106" s="0"/>
@@ -48295,10 +48300,10 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="65" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C107" s="50" t="s">
         <v>38</v>
@@ -48306,22 +48311,22 @@
       <c r="D107" s="50"/>
       <c r="E107" s="50"/>
       <c r="F107" s="7" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="G107" s="50" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="7" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="K107" s="61"/>
       <c r="L107" s="7" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="N107" s="4"/>
       <c r="O107" s="0"/>
@@ -49337,10 +49342,10 @@
     </row>
     <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="65" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C108" s="50" t="s">
         <v>38</v>
@@ -49348,22 +49353,22 @@
       <c r="D108" s="50"/>
       <c r="E108" s="50"/>
       <c r="F108" s="7" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="G108" s="50" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="4" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="K108" s="61"/>
       <c r="L108" s="7" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="M108" s="7" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="N108" s="4"/>
       <c r="O108" s="0"/>
@@ -50379,13 +50384,13 @@
     </row>
     <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="40" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C109" s="50" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="D109" s="50"/>
       <c r="E109" s="50"/>
@@ -50393,19 +50398,19 @@
         <v>0.03</v>
       </c>
       <c r="G109" s="50" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I109" s="18"/>
       <c r="J109" s="4"/>
       <c r="K109" s="97"/>
       <c r="L109" s="7" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="N109" s="4" t="s">
         <v>773</v>
@@ -51423,13 +51428,13 @@
     </row>
     <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="40" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C110" s="50" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="D110" s="50"/>
       <c r="E110" s="50"/>
@@ -51437,19 +51442,19 @@
         <v>0.05</v>
       </c>
       <c r="G110" s="50" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="7" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="K110" s="61"/>
       <c r="L110" s="7" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="N110" s="4" t="s">
         <v>773</v>
@@ -52467,13 +52472,13 @@
     </row>
     <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="40" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C111" s="50" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="D111" s="50"/>
       <c r="E111" s="50"/>
@@ -52481,19 +52486,19 @@
         <v>0.043</v>
       </c>
       <c r="G111" s="50" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="7" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="K111" s="61"/>
       <c r="L111" s="7" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="M111" s="7" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="N111" s="4" t="s">
         <v>773</v>
@@ -53511,10 +53516,10 @@
     </row>
     <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="65" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C112" s="50" t="s">
         <v>38</v>
@@ -53522,22 +53527,22 @@
       <c r="D112" s="50"/>
       <c r="E112" s="50"/>
       <c r="F112" s="7" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="G112" s="50" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="7" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="K112" s="61"/>
       <c r="L112" s="7" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="M112" s="7" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="N112" s="4"/>
       <c r="O112" s="0"/>
@@ -54553,10 +54558,10 @@
     </row>
     <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="65" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C113" s="21" t="s">
         <v>362</v>
@@ -54567,19 +54572,19 @@
         <v>0.44</v>
       </c>
       <c r="G113" s="18" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="I113" s="18"/>
       <c r="J113" s="101"/>
       <c r="K113" s="83"/>
       <c r="L113" s="7" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="M113" s="7" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="N113" s="4" t="s">
         <v>773</v>
@@ -55597,13 +55602,13 @@
     </row>
     <row r="114" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="40" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C114" s="50" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="D114" s="50"/>
       <c r="E114" s="50"/>
@@ -55611,19 +55616,19 @@
         <v>0.015</v>
       </c>
       <c r="G114" s="50" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="58" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="K114" s="61"/>
       <c r="L114" s="7" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="N114" s="4" t="s">
         <v>773</v>
@@ -56641,13 +56646,13 @@
     </row>
     <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="65" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C115" s="50" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="D115" s="50"/>
       <c r="E115" s="50"/>
@@ -56655,21 +56660,21 @@
         <v>0.06</v>
       </c>
       <c r="G115" s="50" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I115" s="18"/>
       <c r="J115" s="4" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="K115" s="61"/>
       <c r="L115" s="7" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="M115" s="7" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="N115" s="4"/>
       <c r="O115" s="0"/>
@@ -57685,13 +57690,13 @@
     </row>
     <row r="116" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="40" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C116" s="50" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="D116" s="50"/>
       <c r="E116" s="50"/>
@@ -57699,19 +57704,19 @@
         <v>0.08</v>
       </c>
       <c r="G116" s="50" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="58" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="K116" s="61"/>
       <c r="L116" s="7" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="M116" s="7" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="N116" s="4" t="s">
         <v>773</v>
@@ -58729,13 +58734,13 @@
     </row>
     <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="40" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C117" s="50" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="D117" s="50"/>
       <c r="E117" s="50"/>
@@ -58743,19 +58748,19 @@
         <v>0.06</v>
       </c>
       <c r="G117" s="50" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I117" s="18"/>
       <c r="J117" s="4"/>
       <c r="K117" s="97"/>
       <c r="L117" s="7" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="M117" s="7" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="N117" s="4" t="s">
         <v>773</v>
@@ -59773,7 +59778,7 @@
     </row>
     <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="65" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="50"/>
@@ -59786,10 +59791,10 @@
       <c r="J118" s="3"/>
       <c r="K118" s="61"/>
       <c r="L118" s="7" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="M118" s="7" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="N118" s="4"/>
       <c r="O118" s="0"/>

--- a/data/human/adult/validation/SystemValidationData.xlsx
+++ b/data/human/adult/validation/SystemValidationData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngineStable\data\human\adult\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D52FBD6-B79B-4010-8E9B-65D4A5AC7BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F0E173-D360-48F2-BA1C-7F181E1C33FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29235" yWindow="13110" windowWidth="19440" windowHeight="11190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20490" yWindow="7320" windowWidth="38445" windowHeight="21540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient" sheetId="1" r:id="rId1"/>
@@ -4492,8 +4492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9925,10 +9925,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK109"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A81" sqref="A81"/>
-      <selection pane="topRight" activeCell="F47" sqref="F47"/>
+      <selection pane="topRight" activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12022,10 +12022,15 @@
       <c r="C61" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
+      <c r="D61" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="E61" s="8">
+        <v>0.03</v>
+      </c>
       <c r="F61" s="8">
-        <v>96.5</v>
+        <f>Patient!C10*Patient!C7*IF(Patient!C2="Male",D61,E61)</f>
+        <v>51.262450249986841</v>
       </c>
       <c r="G61" s="18" t="s">
         <v>259</v>
@@ -12057,10 +12062,15 @@
       <c r="C62" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
+      <c r="D62" s="8">
+        <v>1</v>
+      </c>
+      <c r="E62" s="8">
+        <v>1</v>
+      </c>
       <c r="F62" s="8">
-        <v>45</v>
+        <f>Patient!C10*Patient!C6*IF(Patient!C3="Male",D62,E62)/60</f>
+        <v>32.666666666666664</v>
       </c>
       <c r="G62" s="18" t="s">
         <v>259</v>
@@ -12090,10 +12100,15 @@
       <c r="C63" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
+      <c r="D63" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="E63" s="8">
+        <v>0.02</v>
+      </c>
       <c r="F63" s="8">
-        <v>65.3</v>
+        <f>Patient!C10*Patient!C7*IF(Patient!C4="Male",D63,E63)</f>
+        <v>34.174966833324561</v>
       </c>
       <c r="G63" s="18" t="s">
         <v>259</v>
@@ -12125,10 +12140,15 @@
       <c r="C64" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
+      <c r="D64" s="8">
+        <v>1</v>
+      </c>
+      <c r="E64" s="8">
+        <v>1</v>
+      </c>
       <c r="F64" s="8">
-        <v>45</v>
+        <f>Patient!C10*Patient!C6*IF(Patient!C5="Male",D64,E64)/60</f>
+        <v>32.666666666666664</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>259</v>
@@ -12158,10 +12178,15 @@
       <c r="C65" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
+      <c r="D65" s="8">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E65" s="8">
+        <v>5.5E-2</v>
+      </c>
       <c r="F65" s="8">
-        <v>192.9</v>
+        <f>Patient!C10*Patient!C7*IF(Patient!C6="Male",D65,E65)</f>
+        <v>93.981158791642542</v>
       </c>
       <c r="G65" s="18" t="s">
         <v>259</v>
@@ -12193,10 +12218,15 @@
       <c r="C66" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
+      <c r="D66" s="8">
+        <v>1</v>
+      </c>
+      <c r="E66" s="8">
+        <v>1</v>
+      </c>
       <c r="F66" s="8">
-        <v>45</v>
+        <f>Patient!C10*Patient!C6*IF(Patient!C7="Male",D66,E66)/60</f>
+        <v>32.666666666666664</v>
       </c>
       <c r="G66" s="18" t="s">
         <v>259</v>
@@ -12464,10 +12494,15 @@
       <c r="C73" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
+      <c r="D73" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="E73" s="8">
+        <v>0.03</v>
+      </c>
       <c r="F73" s="8">
-        <v>192.9</v>
+        <f>Patient!C7*IF(Patient!C14="Male",D73,E73)</f>
+        <v>128.15612562496707</v>
       </c>
       <c r="G73" s="18" t="s">
         <v>259</v>
@@ -12499,10 +12534,15 @@
       <c r="C74" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
+      <c r="D74" s="8">
+        <v>1</v>
+      </c>
+      <c r="E74" s="8">
+        <v>1</v>
+      </c>
       <c r="F74" s="8">
-        <v>94.7</v>
+        <f>Patient!C6*IF(Patient!C15="Male",D74,E74)/60</f>
+        <v>81.666666666666671</v>
       </c>
       <c r="G74" s="18" t="s">
         <v>259</v>
@@ -12532,8 +12572,8 @@
       <c r="C75" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
       <c r="F75" s="8" t="s">
         <v>267</v>
       </c>
@@ -12567,8 +12607,8 @@
       <c r="C76" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
       <c r="F76" s="8" t="s">
         <v>308</v>
       </c>
@@ -12602,10 +12642,15 @@
       <c r="C77" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
+      <c r="D77" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="E77" s="8">
+        <v>0.02</v>
+      </c>
       <c r="F77" s="8">
-        <v>130.5</v>
+        <f>Patient!C7*IF(Patient!C18="Male",D77,E77)</f>
+        <v>85.437417083311388</v>
       </c>
       <c r="G77" s="18" t="s">
         <v>259</v>
@@ -12637,10 +12682,15 @@
       <c r="C78" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
+      <c r="D78" s="8">
+        <v>1</v>
+      </c>
+      <c r="E78" s="8">
+        <v>1</v>
+      </c>
       <c r="F78" s="8">
-        <v>94.7</v>
+        <f>Patient!C6*IF(Patient!C19="Male",D78,E78)/60</f>
+        <v>81.666666666666671</v>
       </c>
       <c r="G78" s="18" t="s">
         <v>259</v>
@@ -12670,8 +12720,8 @@
       <c r="C79" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
       <c r="F79" s="8" t="s">
         <v>267</v>
       </c>
@@ -12707,10 +12757,15 @@
       <c r="C80" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
+      <c r="D80" s="8">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E80" s="8">
+        <v>5.5E-2</v>
+      </c>
       <c r="F80" s="8">
-        <v>385.8</v>
+        <f>Patient!C7*IF(Patient!C21="Male",D80,E80)</f>
+        <v>234.95289697910633</v>
       </c>
       <c r="G80" s="18" t="s">
         <v>259</v>
@@ -12742,10 +12797,15 @@
       <c r="C81" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
+      <c r="D81" s="8">
+        <v>1</v>
+      </c>
+      <c r="E81" s="8">
+        <v>1</v>
+      </c>
       <c r="F81" s="8">
-        <v>94.7</v>
+        <f>Patient!C6*IF(Patient!C22="Male",D81,E81)/60</f>
+        <v>81.666666666666671</v>
       </c>
       <c r="G81" s="18" t="s">
         <v>259</v>
@@ -13209,10 +13269,15 @@
       <c r="C94" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
+      <c r="D94" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="E94" s="8">
+        <v>0.03</v>
+      </c>
       <c r="F94" s="8">
-        <v>96.5</v>
+        <f>Patient!C9*Patient!C7*IF(Patient!C35="Male",D94,E94)</f>
+        <v>76.893675374980248</v>
       </c>
       <c r="G94" s="18" t="s">
         <v>259</v>
@@ -13244,10 +13309,15 @@
       <c r="C95" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
+      <c r="D95" s="8">
+        <v>1</v>
+      </c>
+      <c r="E95" s="8">
+        <v>1</v>
+      </c>
       <c r="F95" s="8">
-        <v>49.7</v>
+        <f>Patient!C9*Patient!C6*IF(Patient!C36="Male",D95,E95)/60</f>
+        <v>49</v>
       </c>
       <c r="G95" s="18" t="s">
         <v>259</v>
@@ -13277,10 +13347,15 @@
       <c r="C96" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
+      <c r="D96" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="E96" s="8">
+        <v>0.02</v>
+      </c>
       <c r="F96" s="8">
-        <v>65.3</v>
+        <f>Patient!C9*Patient!C7*IF(Patient!C37="Male",D96,E96)</f>
+        <v>51.262450249986834</v>
       </c>
       <c r="G96" s="18" t="s">
         <v>259</v>
@@ -13312,10 +13387,15 @@
       <c r="C97" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
+      <c r="D97" s="8">
+        <v>1</v>
+      </c>
+      <c r="E97" s="8">
+        <v>1</v>
+      </c>
       <c r="F97" s="8">
-        <v>49.7</v>
+        <f>Patient!C9*Patient!C6*IF(Patient!C38="Male",D97,E97)/60</f>
+        <v>49</v>
       </c>
       <c r="G97" s="18" t="s">
         <v>259</v>
@@ -13345,10 +13425,15 @@
       <c r="C98" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
+      <c r="D98" s="8">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E98" s="8">
+        <v>5.5E-2</v>
+      </c>
       <c r="F98" s="8">
-        <v>192.9</v>
+        <f>Patient!C9*Patient!C7*IF(Patient!C39="Male",D98,E98)</f>
+        <v>140.97173818746379</v>
       </c>
       <c r="G98" s="18" t="s">
         <v>259</v>
@@ -13380,10 +13465,15 @@
       <c r="C99" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
+      <c r="D99" s="8">
+        <v>1</v>
+      </c>
+      <c r="E99" s="8">
+        <v>1</v>
+      </c>
       <c r="F99" s="8">
-        <v>49.7</v>
+        <f>Patient!C9*Patient!C6*IF(Patient!C40="Male",D99,E99)/60</f>
+        <v>49</v>
       </c>
       <c r="G99" s="18" t="s">
         <v>259</v>

--- a/data/human/adult/validation/SystemValidationData.xlsx
+++ b/data/human/adult/validation/SystemValidationData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngineStable\data\human\adult\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F0E173-D360-48F2-BA1C-7F181E1C33FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E666E75-DC5E-426C-A972-E5C4704061AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20490" yWindow="7320" windowWidth="38445" windowHeight="21540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10575" yWindow="675" windowWidth="15525" windowHeight="11190" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient" sheetId="1" r:id="rId1"/>
@@ -3497,9 +3497,6 @@
     <t>[25,100]</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>1790 roza1984metabolic for 77 kg man</t>
   </si>
   <si>
@@ -3510,6 +3507,9 @@
   </si>
   <si>
     <t>Norgan2003energy</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
 </sst>
 </file>
@@ -4493,7 +4493,7 @@
   <dimension ref="A1:AMK11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="C6" s="5">
         <f>IF(C2="Male",5600,4900)</f>
-        <v>4900</v>
+        <v>5600</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>14</v>
@@ -4606,7 +4606,7 @@
       </c>
       <c r="C8" s="6">
         <f>0.001*C6/C5</f>
-        <v>2.9819853955979925</v>
+        <v>3.4079833092548486</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>14</v>
@@ -4642,7 +4642,7 @@
       </c>
       <c r="C11" s="10">
         <f>IF(C2="Male",15,14)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="10"/>
     </row>
@@ -7353,9 +7353,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F9" sqref="F9"/>
+      <selection pane="topRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7644,7 +7644,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="23">
         <f>Patient!C6*Patient!C11/100</f>
-        <v>686</v>
+        <v>840</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>68</v>
@@ -7805,7 +7805,7 @@
       <c r="E14" s="25"/>
       <c r="F14" s="23">
         <f>(F9/0.000000000029)/(Patient!C7*1000)</f>
-        <v>5537426.8608159265</v>
+        <v>6780522.6867133798</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>14</v>
@@ -9385,7 +9385,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="7">
         <f>F14</f>
-        <v>5537426.8608159265</v>
+        <v>6780522.6867133798</v>
       </c>
       <c r="G61" s="7" t="str">
         <f>G14</f>
@@ -9925,10 +9925,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A81" sqref="A81"/>
-      <selection pane="topRight" activeCell="F91" sqref="F91"/>
+      <selection pane="topRight" activeCell="D92" sqref="D92:E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10069,7 +10069,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="49">
         <f>Patient!C8</f>
-        <v>2.9819853955979925</v>
+        <v>3.4079833092548486</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>14</v>
@@ -10105,7 +10105,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="24">
         <f>Patient!C6</f>
-        <v>4900</v>
+        <v>5600</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>14</v>
@@ -10170,17 +10170,11 @@
       <c r="C7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="8">
-        <f>VLOOKUP(A40,A2:J128,MATCH(D1,A1:J1,0),0)</f>
-        <v>0.12</v>
-      </c>
-      <c r="E7" s="8">
-        <f>VLOOKUP(A40,A2:J128,MATCH(E1,A1:J1,0),0)</f>
-        <v>0.12</v>
-      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="21">
         <f>F40*60</f>
-        <v>588</v>
+        <v>672</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>259</v>
@@ -10605,9 +10599,9 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="8">
-        <f>60*F101</f>
-        <v>244.99999999999997</v>
+      <c r="F21" s="52">
+        <f>F101</f>
+        <v>4.666666666666667</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>259</v>
@@ -10945,7 +10939,7 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="8">
+      <c r="F32" s="52">
         <v>1</v>
       </c>
       <c r="G32" s="8" t="s">
@@ -11172,7 +11166,7 @@
       </c>
       <c r="F38" s="52">
         <f>Patient!C6*IF(Patient!C2="Male",D38,E38)/60</f>
-        <v>81.666666666666671</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="G38" s="18" t="s">
         <v>259</v>
@@ -11250,7 +11244,7 @@
       </c>
       <c r="F40" s="52">
         <f>Patient!C6*IF(Patient!C2="Male",D40,E40)/60</f>
-        <v>9.8000000000000007</v>
+        <v>11.2</v>
       </c>
       <c r="G40" s="18" t="s">
         <v>259</v>
@@ -11319,7 +11313,7 @@
       <c r="E42" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="49">
         <f>Patient!C7*IF(Patient!C2="Male",D42,E42)</f>
         <v>299.03095979158991</v>
       </c>
@@ -11361,7 +11355,7 @@
       </c>
       <c r="F43" s="49">
         <f>Patient!C6*IF(Patient!C2="Male",D43,E43)/60</f>
-        <v>4.083333333333333</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>259</v>
@@ -11397,9 +11391,9 @@
       <c r="E44" s="8">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="49">
         <f>Patient!C7*IF(Patient!C2="Male",D44,E44)</f>
-        <v>363.10902260407346</v>
+        <v>213.59354270827851</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>259</v>
@@ -11437,7 +11431,7 @@
       </c>
       <c r="F45" s="49">
         <f>Patient!C6*IF(Patient!C2="Male",D45,E45)/60</f>
-        <v>6.9416666666666673</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>259</v>
@@ -11473,7 +11467,7 @@
       <c r="E46" s="8">
         <v>0.02</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="49">
         <f>Patient!C7*IF(Patient!C2="Male",D46,E46)</f>
         <v>85.437417083311388</v>
       </c>
@@ -11513,7 +11507,7 @@
       </c>
       <c r="F47" s="49">
         <f>Patient!C6*IF(Patient!C2="Male",D47,E47)/60</f>
-        <v>13.883333333333335</v>
+        <v>17.733333333333334</v>
       </c>
       <c r="G47" s="18" t="s">
         <v>259</v>
@@ -11549,7 +11543,7 @@
       <c r="E48" s="8">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="49">
         <f>Patient!C7*IF(Patient!C2="Male",D48,E48)</f>
         <v>93.981158791642528</v>
       </c>
@@ -11591,7 +11585,7 @@
       </c>
       <c r="F49" s="49">
         <f>Patient!C6*IF(Patient!C2="Male",D49,E49)/60</f>
-        <v>4.083333333333333</v>
+        <v>3.7333333333333334</v>
       </c>
       <c r="G49" s="18" t="s">
         <v>259</v>
@@ -11622,14 +11616,14 @@
         <v>37</v>
       </c>
       <c r="D50" s="8">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E50" s="8">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F50" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="F50" s="52">
         <f>Patient!C7*IF(Patient!C2="Male",D50,E50)</f>
-        <v>106.79677135413925</v>
+        <v>85.437417083311388</v>
       </c>
       <c r="G50" s="18" t="s">
         <v>259</v>
@@ -11662,14 +11656,14 @@
         <v>37</v>
       </c>
       <c r="D51" s="8">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E51" s="8">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F51" s="52">
         <f>Patient!C6*IF(Patient!C2="Male",D51,E51)/60</f>
-        <v>1.6333333333333333</v>
+        <v>1.4</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>259</v>
@@ -11874,9 +11868,9 @@
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="4">
-        <f>F46*0.55</f>
-        <v>46.990579395821264</v>
+      <c r="F57" s="6">
+        <f>F46*0.5</f>
+        <v>42.718708541655694</v>
       </c>
       <c r="G57" s="27" t="s">
         <v>362</v>
@@ -11911,8 +11905,8 @@
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="49">
-        <f>F47*0.55</f>
-        <v>7.635833333333335</v>
+        <f>F47*0.5</f>
+        <v>8.8666666666666671</v>
       </c>
       <c r="G58" s="18" t="s">
         <v>259</v>
@@ -11945,14 +11939,14 @@
         <v>37</v>
       </c>
       <c r="D59" s="8">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E59" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="F59" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="F59" s="52">
         <f>Patient!C7*IF(Patient!C2="Male",D59,E59)</f>
-        <v>213.59354270827851</v>
+        <v>170.87483416662278</v>
       </c>
       <c r="G59" s="18" t="s">
         <v>259</v>
@@ -11985,14 +11979,14 @@
         <v>37</v>
       </c>
       <c r="D60" s="8">
-        <v>6.25E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="E60" s="8">
-        <v>6.25E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="F60" s="52">
         <f>Patient!C6*IF(Patient!C2="Male",D60,E60)/60</f>
-        <v>5.104166666666667</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>368</v>
@@ -12028,7 +12022,7 @@
       <c r="E61" s="8">
         <v>0.03</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F61" s="52">
         <f>Patient!C10*Patient!C7*IF(Patient!C2="Male",D61,E61)</f>
         <v>51.262450249986841</v>
       </c>
@@ -12068,9 +12062,9 @@
       <c r="E62" s="8">
         <v>1</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F62" s="52">
         <f>Patient!C10*Patient!C6*IF(Patient!C3="Male",D62,E62)/60</f>
-        <v>32.666666666666664</v>
+        <v>37.333333333333336</v>
       </c>
       <c r="G62" s="18" t="s">
         <v>259</v>
@@ -12106,7 +12100,7 @@
       <c r="E63" s="8">
         <v>0.02</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F63" s="52">
         <f>Patient!C10*Patient!C7*IF(Patient!C4="Male",D63,E63)</f>
         <v>34.174966833324561</v>
       </c>
@@ -12146,9 +12140,9 @@
       <c r="E64" s="8">
         <v>1</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F64" s="52">
         <f>Patient!C10*Patient!C6*IF(Patient!C5="Male",D64,E64)/60</f>
-        <v>32.666666666666664</v>
+        <v>37.333333333333336</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>259</v>
@@ -12184,7 +12178,7 @@
       <c r="E65" s="8">
         <v>5.5E-2</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F65" s="52">
         <f>Patient!C10*Patient!C7*IF(Patient!C6="Male",D65,E65)</f>
         <v>93.981158791642542</v>
       </c>
@@ -12224,9 +12218,9 @@
       <c r="E66" s="8">
         <v>1</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F66" s="52">
         <f>Patient!C10*Patient!C6*IF(Patient!C7="Male",D66,E66)/60</f>
-        <v>32.666666666666664</v>
+        <v>37.333333333333336</v>
       </c>
       <c r="G66" s="18" t="s">
         <v>259</v>
@@ -12262,7 +12256,7 @@
       <c r="E67" s="8">
         <v>0.1</v>
       </c>
-      <c r="F67" s="21">
+      <c r="F67" s="49">
         <f>Patient!C7*IF(Patient!C2="Male",D67,E67)</f>
         <v>427.18708541655701</v>
       </c>
@@ -12304,7 +12298,7 @@
       </c>
       <c r="F68" s="49">
         <f>Patient!C6*IF(Patient!C2="Male",D68,E68)/60</f>
-        <v>22.05</v>
+        <v>23.8</v>
       </c>
       <c r="G68" s="18" t="s">
         <v>14</v>
@@ -12342,11 +12336,11 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E69" s="8">
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="F69" s="8">
+        <v>0.105</v>
+      </c>
+      <c r="F69" s="52">
         <f>Patient!C7*IF(Patient!C2="Male",D69,E69)</f>
-        <v>44.854643968738486</v>
+        <v>598.06191958317982</v>
       </c>
       <c r="G69" s="18" t="s">
         <v>259</v>
@@ -12386,7 +12380,7 @@
       </c>
       <c r="F70" s="52">
         <f>Patient!C6*IF(Patient!C2="Male",D70,E70)/60</f>
-        <v>9.8000000000000007</v>
+        <v>15.866666666666669</v>
       </c>
       <c r="G70" s="18" t="s">
         <v>259</v>
@@ -12422,7 +12416,7 @@
       <c r="E71" s="8">
         <v>0.01</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F71" s="52">
         <f>Patient!C7*IF(Patient!C2="Male",D71,E71)</f>
         <v>42.718708541655694</v>
       </c>
@@ -12464,7 +12458,7 @@
       </c>
       <c r="F72" s="52">
         <f>Patient!C6*IF(Patient!C2="Male",D72,E72)/60</f>
-        <v>4.083333333333333</v>
+        <v>3.7333333333333334</v>
       </c>
       <c r="G72" s="18" t="s">
         <v>259</v>
@@ -12500,7 +12494,7 @@
       <c r="E73" s="8">
         <v>0.03</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F73" s="52">
         <f>Patient!C7*IF(Patient!C14="Male",D73,E73)</f>
         <v>128.15612562496707</v>
       </c>
@@ -12540,9 +12534,9 @@
       <c r="E74" s="8">
         <v>1</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F74" s="52">
         <f>Patient!C6*IF(Patient!C15="Male",D74,E74)/60</f>
-        <v>81.666666666666671</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="G74" s="18" t="s">
         <v>259</v>
@@ -12648,7 +12642,7 @@
       <c r="E77" s="8">
         <v>0.02</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F77" s="52">
         <f>Patient!C7*IF(Patient!C18="Male",D77,E77)</f>
         <v>85.437417083311388</v>
       </c>
@@ -12688,9 +12682,9 @@
       <c r="E78" s="8">
         <v>1</v>
       </c>
-      <c r="F78" s="8">
+      <c r="F78" s="52">
         <f>Patient!C6*IF(Patient!C19="Male",D78,E78)/60</f>
-        <v>81.666666666666671</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="G78" s="18" t="s">
         <v>259</v>
@@ -12763,7 +12757,7 @@
       <c r="E80" s="8">
         <v>5.5E-2</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F80" s="52">
         <f>Patient!C7*IF(Patient!C21="Male",D80,E80)</f>
         <v>234.95289697910633</v>
       </c>
@@ -12803,9 +12797,9 @@
       <c r="E81" s="8">
         <v>1</v>
       </c>
-      <c r="F81" s="8">
+      <c r="F81" s="52">
         <f>Patient!C6*IF(Patient!C22="Male",D81,E81)/60</f>
-        <v>81.666666666666671</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="G81" s="18" t="s">
         <v>259</v>
@@ -12873,14 +12867,14 @@
         <v>37</v>
       </c>
       <c r="D83" s="8">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E83" s="8">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F83" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="F83" s="52">
         <f>Patient!C7*IF(Patient!C2="Male",D83,E83)</f>
-        <v>106.79677135413925</v>
+        <v>85.437417083311388</v>
       </c>
       <c r="G83" s="18" t="s">
         <v>259</v>
@@ -12913,14 +12907,14 @@
         <v>37</v>
       </c>
       <c r="D84" s="8">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E84" s="8">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F84" s="52">
         <f>Patient!C6*IF(Patient!C2="Male",D84,E84)/60</f>
-        <v>1.6333333333333333</v>
+        <v>1.4</v>
       </c>
       <c r="G84" s="18" t="s">
         <v>401</v>
@@ -13121,9 +13115,9 @@
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
-      <c r="F90" s="4">
-        <f>F46*0.45</f>
-        <v>38.446837687490124</v>
+      <c r="F90" s="6">
+        <f>F46*0.5</f>
+        <v>42.718708541655694</v>
       </c>
       <c r="G90" s="27" t="s">
         <v>362</v>
@@ -13158,8 +13152,8 @@
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="49">
-        <f>F47*0.55</f>
-        <v>7.635833333333335</v>
+        <f>F47*0.5</f>
+        <v>8.8666666666666671</v>
       </c>
       <c r="G91" s="18" t="s">
         <v>259</v>
@@ -13192,14 +13186,14 @@
         <v>37</v>
       </c>
       <c r="D92" s="8">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E92" s="8">
-        <v>0</v>
-      </c>
-      <c r="F92" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="F92" s="52">
         <f>Patient!C7*IF(Patient!C2="Male",D92,E92)</f>
-        <v>0</v>
+        <v>170.87483416662278</v>
       </c>
       <c r="G92" s="18" t="s">
         <v>259</v>
@@ -13232,14 +13226,14 @@
         <v>37</v>
       </c>
       <c r="D93" s="8">
-        <v>6.25E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="E93" s="8">
-        <v>6.25E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="F93" s="52">
         <f>Patient!C6*IF(Patient!C2="Male",D93,E93)/60</f>
-        <v>5.104166666666667</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G93" s="18" t="s">
         <v>368</v>
@@ -13275,7 +13269,7 @@
       <c r="E94" s="8">
         <v>0.03</v>
       </c>
-      <c r="F94" s="8">
+      <c r="F94" s="52">
         <f>Patient!C9*Patient!C7*IF(Patient!C35="Male",D94,E94)</f>
         <v>76.893675374980248</v>
       </c>
@@ -13317,7 +13311,7 @@
       </c>
       <c r="F95" s="8">
         <f>Patient!C9*Patient!C6*IF(Patient!C36="Male",D95,E95)/60</f>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G95" s="18" t="s">
         <v>259</v>
@@ -13353,7 +13347,7 @@
       <c r="E96" s="8">
         <v>0.02</v>
       </c>
-      <c r="F96" s="8">
+      <c r="F96" s="52">
         <f>Patient!C9*Patient!C7*IF(Patient!C37="Male",D96,E96)</f>
         <v>51.262450249986834</v>
       </c>
@@ -13395,7 +13389,7 @@
       </c>
       <c r="F97" s="8">
         <f>Patient!C9*Patient!C6*IF(Patient!C38="Male",D97,E97)/60</f>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G97" s="18" t="s">
         <v>259</v>
@@ -13431,7 +13425,7 @@
       <c r="E98" s="8">
         <v>5.5E-2</v>
       </c>
-      <c r="F98" s="8">
+      <c r="F98" s="52">
         <f>Patient!C9*Patient!C7*IF(Patient!C39="Male",D98,E98)</f>
         <v>140.97173818746379</v>
       </c>
@@ -13473,7 +13467,7 @@
       </c>
       <c r="F99" s="8">
         <f>Patient!C9*Patient!C6*IF(Patient!C40="Male",D99,E99)/60</f>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G99" s="18" t="s">
         <v>259</v>
@@ -13509,7 +13503,7 @@
       <c r="E100" s="8">
         <v>0.03</v>
       </c>
-      <c r="F100" s="8">
+      <c r="F100" s="52">
         <f>Patient!C7*IF(Patient!C2="Male",D100,E100)</f>
         <v>128.15612562496707</v>
       </c>
@@ -13551,7 +13545,7 @@
       </c>
       <c r="F101" s="52">
         <f>Patient!C6*IF(Patient!C2="Male",D101,E101)/60</f>
-        <v>4.083333333333333</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="G101" s="18" t="s">
         <v>259</v>
@@ -13587,7 +13581,7 @@
       <c r="E102" s="8">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F102" s="21">
+      <c r="F102" s="49">
         <f>Patient!C7*IF(Patient!C2="Male",D102,E102)</f>
         <v>162.33109245829164</v>
       </c>
@@ -13627,7 +13621,7 @@
       </c>
       <c r="F103" s="49">
         <f>Patient!C6*IF(Patient!C2="Male",D103,E103)/60</f>
-        <v>8.9833333333333325</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="G103" s="18" t="s">
         <v>259</v>
@@ -13658,14 +13652,14 @@
         <v>37</v>
       </c>
       <c r="D104" s="8">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="E104" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="F104" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="F104" s="49">
         <f>Patient!C7*IF(Patient!C2="Male",D104,E104)</f>
-        <v>469.90579395821266</v>
+        <v>42.718708541655694</v>
       </c>
       <c r="G104" s="18" t="s">
         <v>259</v>
@@ -13696,14 +13690,14 @@
         <v>37</v>
       </c>
       <c r="D105" s="8">
-        <v>2.5000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E105" s="8">
-        <v>2.5000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F105" s="49">
         <f>Patient!C6*IF(Patient!C2="Male",D105,E105)/60</f>
-        <v>2.0416666666666665</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="G105" s="18" t="s">
         <v>259</v>
@@ -13741,8 +13735,9 @@
       <c r="E106" s="8">
         <v>1.4E-2</v>
       </c>
-      <c r="F106" s="21">
-        <v>79.400000000000006</v>
+      <c r="F106" s="49">
+        <f>Patient!C7*IF(Patient!C2="Male",D106,E106)</f>
+        <v>59.806191958317974</v>
       </c>
       <c r="G106" s="18" t="s">
         <v>259</v>
@@ -13780,7 +13775,7 @@
       </c>
       <c r="F107" s="49">
         <f>Patient!C6*IF(Patient!C2="Male",D107,E107)/60</f>
-        <v>2.4500000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="G107" s="18" t="s">
         <v>259</v>
@@ -13811,13 +13806,14 @@
         <v>37</v>
       </c>
       <c r="D108" s="8">
-        <v>0.18</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="E108" s="8">
-        <v>0.18</v>
-      </c>
-      <c r="F108" s="8">
-        <v>1032.7</v>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F108" s="52">
+        <f>Patient!C7*IF(Patient!C2="Male",D108,E108)</f>
+        <v>747.5773994789746</v>
       </c>
       <c r="G108" s="18" t="s">
         <v>259</v>
@@ -13857,7 +13853,7 @@
       </c>
       <c r="F109" s="52">
         <f>Patient!C6*IF(Patient!C2="Male",D109,E109)/60</f>
-        <v>81.666666666666671</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="G109" s="18" t="s">
         <v>259</v>
@@ -14303,17 +14299,17 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>1110</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>1111</v>
       </c>
       <c r="H11" s="61"/>
       <c r="I11" s="7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>1108</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>1109</v>
       </c>
       <c r="K11" s="61"/>
       <c r="L11" s="62" t="s">
@@ -14794,7 +14790,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="52">
         <f>Cardiovascular!F47*60</f>
-        <v>833.00000000000011</v>
+        <v>1064</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>259</v>
@@ -14827,7 +14823,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8">
         <f>F4*0.6</f>
-        <v>499.80000000000007</v>
+        <v>638.4</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>97</v>

--- a/data/human/adult/validation/SystemValidationData.xlsx
+++ b/data/human/adult/validation/SystemValidationData.xlsx
@@ -497,7 +497,7 @@
 stratton1985hemodynamic,
 stein1998basal,
 penesova2008role,
-zauner2000resting</t>
+Zauner2000resting</t>
   </si>
   <si>
     <t xml:space="preserve">Globulin-BloodConcentration</t>
@@ -4156,7 +4156,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -7856,10 +7856,10 @@
   </sheetPr>
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="0" topLeftCell="G4" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="topRight" activeCell="F31" activeCellId="0" sqref="F31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="0" topLeftCell="G13" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topRight" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8754,7 +8754,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
         <v>145</v>
       </c>
@@ -9935,7 +9935,7 @@
       </c>
       <c r="G62" s="42" t="str">
         <f aca="false">G20</f>
-        <v>guyton2006medical   </v>
+        <v>guyton2006medical</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -14916,7 +14916,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="44" width="44.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="54" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="28.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="30.42"/>
@@ -15023,7 +15023,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="54" width="28.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="54" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="54" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="54" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="54" width="18.57"/>
@@ -20382,7 +20382,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="9" width="30"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="18.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="43" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="43" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="43" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="43" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="37.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="52"/>

--- a/data/human/adult/validation/SystemValidationData.xlsx
+++ b/data/human/adult/validation/SystemValidationData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\patient_variability\source\data\human\adult\validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87817C4B-7F47-464E-8B0D-132E97E188D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7C5CB0-3C1B-4B6D-BE60-9837AB0037C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="3990" windowWidth="32640" windowHeight="21840" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="0" windowWidth="23640" windowHeight="12900" tabRatio="500" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4709" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4715" uniqueCount="1107">
   <si>
     <t>Patient Inputs</t>
   </si>
@@ -3481,6 +3481,18 @@
   </si>
   <si>
     <t>General range for men and women</t>
+  </si>
+  <si>
+    <t>CoronaryPerfusionPressure</t>
+  </si>
+  <si>
+    <t>[60,80]</t>
+  </si>
+  <si>
+    <t>AhmedCoronary2014</t>
+  </si>
+  <si>
+    <t>Excluding intravascular fluid, sum of compartments</t>
   </si>
 </sst>
 </file>
@@ -4681,10 +4693,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A16" sqref="A16"/>
-      <selection pane="topRight" activeCell="I91" sqref="I91"/>
+      <selection pane="topRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4799,19 +4811,19 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="8">
-        <f>SUM(F13,F17,F20,F23,F26,F29,F32,F35,F38,F41,F46,F49,F52)</f>
-        <v>6647.9417176647639</v>
+      <c r="F3" s="49">
+        <f>SUM(F14,F17,F20,F23,F26,F29,F32,F35,F38,F41,F46,F49,F52)</f>
+        <v>8751.6116205773851</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>266</v>
+        <v>985</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="7" t="s">
         <v>1100</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>959</v>
+        <v>1106</v>
       </c>
       <c r="K3" s="33" t="s">
         <v>960</v>
@@ -4841,10 +4853,10 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8">
         <f>SUM(F13:F42,F46:F53)</f>
-        <v>34081.065120622952</v>
+        <v>34084.065120622952</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>266</v>
+        <v>985</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="7" t="s">
@@ -4914,11 +4926,12 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="8">
-        <v>25320</v>
+      <c r="F6" s="49">
+        <f>SUM(F15+F18+F21+F24+F27+F30+F33+F36+F39+F42+F47+F50+F53)</f>
+        <v>25271.303751033935</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>266</v>
+        <v>985</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="7" t="s">
@@ -6146,8 +6159,8 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="6">
-        <f>F34*0.44*1000</f>
-        <v>132</v>
+        <f>F34*0.446*1000</f>
+        <v>133.80000000000001</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>985</v>
@@ -6272,8 +6285,8 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="6">
-        <f>F37*0.44*1000</f>
-        <v>88.000000000000014</v>
+        <f>F37*0.446*1000</f>
+        <v>89.2</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>985</v>
@@ -11028,12 +11041,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AML109"/>
+  <dimension ref="A1:AML110"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A77" sqref="A77"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="topRight" activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11142,7 +11155,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="22">
-        <f>Patient!C7</f>
+        <f>Patient!$C$7</f>
         <v>5509.6546665792184</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -11181,7 +11194,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="47">
-        <f>Patient!C8</f>
+        <f>Patient!$C$8</f>
         <v>2.9991033145287878</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -11220,7 +11233,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="22">
-        <f>Patient!C6</f>
+        <f>Patient!$C$6</f>
         <v>5600</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -11293,7 +11306,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="19">
-        <f>F40*60</f>
+        <f>F41*60</f>
         <v>672</v>
       </c>
       <c r="G7" s="16" t="s">
@@ -11349,11 +11362,11 @@
       </c>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16" ht="45.75" customHeight="1">
+    <row r="9" spans="1:16">
       <c r="A9" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="B9" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>191</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -11362,34 +11375,26 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="19" t="s">
-        <v>271</v>
+        <v>1104</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>263</v>
-      </c>
+        <v>1105</v>
+      </c>
+      <c r="H9" s="8"/>
       <c r="I9" s="8" t="s">
         <v>1100</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8" t="s">
-        <v>272</v>
-      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="46"/>
-      <c r="M9" s="4" t="s">
-        <v>255</v>
-      </c>
+      <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" ht="45.75" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>191</v>
@@ -11399,18 +11404,22 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
-        <v>274</v>
+      <c r="F10" s="19" t="s">
+        <v>271</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="H10" s="8"/>
+        <v>83</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>263</v>
+      </c>
       <c r="I10" s="8" t="s">
         <v>1100</v>
       </c>
       <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="K10" s="8" t="s">
+        <v>272</v>
+      </c>
       <c r="L10" s="46"/>
       <c r="M10" s="4" t="s">
         <v>255</v>
@@ -11423,7 +11432,7 @@
     </row>
     <row r="11" spans="1:16" ht="45.75" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>191</v>
@@ -11434,19 +11443,17 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="8" t="s">
         <v>1100</v>
       </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="24" t="s">
-        <v>278</v>
-      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
       <c r="L11" s="46"/>
       <c r="M11" s="4" t="s">
         <v>255</v>
@@ -11457,29 +11464,31 @@
       </c>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:16" ht="27.75" customHeight="1">
+    <row r="12" spans="1:16" ht="45.75" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="B12" s="8"/>
+        <v>276</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>191</v>
+      </c>
       <c r="C12" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="19">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="25"/>
+      <c r="F12" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="H12" s="16"/>
       <c r="I12" s="8" t="s">
         <v>1100</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8" t="s">
-        <v>280</v>
+      <c r="J12" s="48"/>
+      <c r="K12" s="24" t="s">
+        <v>278</v>
       </c>
       <c r="L12" s="46"/>
       <c r="M12" s="4" t="s">
@@ -11487,57 +11496,65 @@
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16" ht="74.25" customHeight="1">
+    <row r="13" spans="1:16" ht="27.75" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>282</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="19" t="s">
-        <v>283</v>
+      <c r="F13" s="19">
+        <v>0.55000000000000004</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="H13" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="H13" s="25"/>
       <c r="I13" s="8" t="s">
         <v>1100</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8" t="s">
+        <v>280</v>
+      </c>
       <c r="L13" s="46"/>
       <c r="M13" s="4" t="s">
         <v>255</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+    <row r="14" spans="1:16" ht="74.25" customHeight="1">
+      <c r="A14" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="F14" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>284</v>
+      </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8" t="s">
-        <v>286</v>
+      <c r="I14" s="8" t="s">
+        <v>1100</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="46"/>
@@ -11545,71 +11562,61 @@
         <v>255</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
+      <c r="O14" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16" ht="65.25" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>44</v>
-      </c>
+    <row r="15" spans="1:16">
+      <c r="A15" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>289</v>
-      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="8" t="s">
-        <v>1100</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8" t="s">
-        <v>290</v>
-      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="K15" s="8"/>
       <c r="L15" s="46"/>
       <c r="M15" s="4" t="s">
         <v>255</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="O15" s="4"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="65.25" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>191</v>
+        <v>287</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>293</v>
+      <c r="F16" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>289</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="s">
         <v>1100</v>
       </c>
-      <c r="J16" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="K16" s="16"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8" t="s">
+        <v>290</v>
+      </c>
       <c r="L16" s="46"/>
       <c r="M16" s="4" t="s">
         <v>255</v>
@@ -11620,11 +11627,11 @@
       </c>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="1:16" ht="40.5" customHeight="1">
+    <row r="17" spans="1:16">
       <c r="A17" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="B17" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>191</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -11632,22 +11639,20 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
-        <v>296</v>
+      <c r="F17" s="19" t="s">
+        <v>292</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>263</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="H17" s="8"/>
       <c r="I17" s="8" t="s">
         <v>1100</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8" t="s">
-        <v>272</v>
-      </c>
+      <c r="J17" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="K17" s="16"/>
       <c r="L17" s="46"/>
       <c r="M17" s="4" t="s">
         <v>255</v>
@@ -11658,33 +11663,47 @@
       </c>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="45" t="s">
-        <v>297</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+    <row r="18" spans="1:16" ht="40.5" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="K18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8" t="s">
+        <v>272</v>
+      </c>
       <c r="L18" s="46"/>
       <c r="M18" s="4" t="s">
         <v>255</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
+      <c r="O18" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="45" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -11706,69 +11725,57 @@
       <c r="O19" s="4"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" ht="60">
-      <c r="A20" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>44</v>
-      </c>
+    <row r="20" spans="1:16">
+      <c r="A20" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>1100</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="16" t="s">
-        <v>264</v>
-      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="K20" s="8"/>
       <c r="L20" s="46"/>
       <c r="M20" s="4" t="s">
         <v>255</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="O20" s="4"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" ht="24">
+    <row r="21" spans="1:16" ht="60">
       <c r="A21" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>191</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="49">
-        <f>F101</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="H21" s="8"/>
+      <c r="F21" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>263</v>
+      </c>
       <c r="I21" s="8" t="s">
         <v>1100</v>
       </c>
-      <c r="K21" s="8" t="s">
-        <v>303</v>
+      <c r="J21" s="8"/>
+      <c r="K21" s="16" t="s">
+        <v>264</v>
       </c>
       <c r="L21" s="46"/>
       <c r="M21" s="4" t="s">
@@ -11780,73 +11787,71 @@
       </c>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16" ht="24">
-      <c r="A22" s="45" t="s">
-        <v>304</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="24">
+      <c r="A22" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="F22" s="49">
+        <f>F102</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>266</v>
+      </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="K22" s="8"/>
+      <c r="I22" s="8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>303</v>
+      </c>
       <c r="L22" s="46"/>
       <c r="M22" s="4" t="s">
         <v>255</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
+      <c r="O22" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16" ht="41.25" customHeight="1">
-      <c r="A23" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>44</v>
-      </c>
+    <row r="23" spans="1:16" ht="24">
+      <c r="A23" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>1100</v>
-      </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16" t="s">
-        <v>306</v>
-      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="K23" s="8"/>
       <c r="L23" s="46"/>
       <c r="M23" s="4" t="s">
         <v>255</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="O23" s="4"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16" ht="24">
+    <row r="24" spans="1:16" ht="41.25" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="B24" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>191</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -11854,21 +11859,21 @@
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
-        <v>308</v>
+      <c r="F24" s="16" t="s">
+        <v>274</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>310</v>
+        <v>83</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>263</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>1100</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8" t="s">
-        <v>272</v>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16" t="s">
+        <v>306</v>
       </c>
       <c r="L24" s="46"/>
       <c r="M24" s="4" t="s">
@@ -11880,9 +11885,9 @@
       </c>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" ht="24">
       <c r="A25" s="11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>191</v>
@@ -11893,17 +11898,21 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H25" s="8"/>
+        <v>308</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>310</v>
+      </c>
       <c r="I25" s="8" t="s">
         <v>1100</v>
       </c>
       <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="K25" s="8" t="s">
+        <v>272</v>
+      </c>
       <c r="L25" s="46"/>
       <c r="M25" s="4" t="s">
         <v>255</v>
@@ -11915,38 +11924,48 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="45" t="s">
-        <v>313</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="A26" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="F26" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="I26" s="8" t="s">
+        <v>1100</v>
+      </c>
       <c r="J26" s="8"/>
-      <c r="K26" s="8" t="s">
-        <v>314</v>
-      </c>
+      <c r="K26" s="8"/>
       <c r="L26" s="46"/>
       <c r="M26" s="4" t="s">
         <v>255</v>
       </c>
       <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
+      <c r="O26" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="45" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="50"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -11963,85 +11982,73 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="A28" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>1100</v>
-      </c>
+      <c r="F28" s="50"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="L28" s="46"/>
       <c r="M28" s="4" t="s">
         <v>255</v>
       </c>
       <c r="N28" s="4"/>
-      <c r="O28" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="O28" s="4"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16" ht="24">
+    <row r="29" spans="1:16">
       <c r="A29" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>319</v>
+        <v>191</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>15</v>
+      <c r="F29" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>320</v>
+        <v>263</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>1100</v>
       </c>
       <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="K29" s="8" t="s">
+        <v>272</v>
+      </c>
       <c r="L29" s="46"/>
       <c r="M29" s="4" t="s">
         <v>255</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:16" s="1" customFormat="1" ht="36">
+    <row r="30" spans="1:16" ht="24">
       <c r="A30" s="11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>44</v>
@@ -12049,20 +12056,19 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8">
-        <v>0.24</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>1100</v>
       </c>
-      <c r="J30" s="8" t="s">
-        <v>324</v>
-      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
       <c r="L30" s="46"/>
       <c r="M30" s="4" t="s">
         <v>255</v>
@@ -12073,33 +12079,32 @@
       </c>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="1:16" ht="24">
+    <row r="31" spans="1:16" s="1" customFormat="1" ht="36">
       <c r="A31" s="11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>191</v>
+        <v>322</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="8" t="s">
-        <v>326</v>
+      <c r="F31" s="8">
+        <v>0.24</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="H31" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>323</v>
+      </c>
       <c r="I31" s="8" t="s">
         <v>1100</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L31" s="46"/>
       <c r="M31" s="4" t="s">
@@ -12107,37 +12112,37 @@
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" spans="1:16" ht="24" customHeight="1">
+    <row r="32" spans="1:16" ht="24">
       <c r="A32" s="11" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>319</v>
+        <v>191</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="49">
-        <v>1</v>
+      <c r="F32" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>331</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="H32" s="8"/>
       <c r="I32" s="8" t="s">
         <v>1100</v>
       </c>
-      <c r="J32" s="8"/>
+      <c r="J32" s="8" t="s">
+        <v>328</v>
+      </c>
       <c r="K32" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L32" s="46"/>
       <c r="M32" s="4" t="s">
@@ -12149,33 +12154,33 @@
       </c>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" spans="1:16" ht="44.25" customHeight="1">
+    <row r="33" spans="1:16" ht="24" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>191</v>
+        <v>319</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>83</v>
+      <c r="F33" s="49">
+        <v>1</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>263</v>
+        <v>331</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>1100</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="8" t="s">
-        <v>272</v>
+        <v>332</v>
       </c>
       <c r="L33" s="46"/>
       <c r="M33" s="4" t="s">
@@ -12189,7 +12194,7 @@
     </row>
     <row r="34" spans="1:16" ht="44.25" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>191</v>
@@ -12199,21 +12204,21 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="19" t="s">
         <v>334</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>337</v>
+        <v>83</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>1100</v>
       </c>
-      <c r="J34" s="48"/>
-      <c r="K34" s="24" t="s">
-        <v>338</v>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8" t="s">
+        <v>272</v>
       </c>
       <c r="L34" s="46"/>
       <c r="M34" s="4" t="s">
@@ -12227,7 +12232,7 @@
     </row>
     <row r="35" spans="1:16" ht="44.25" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>191</v>
@@ -12238,17 +12243,21 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="H35" s="8"/>
+        <v>336</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>337</v>
+      </c>
       <c r="I35" s="8" t="s">
         <v>1100</v>
       </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="24" t="s">
+        <v>338</v>
+      </c>
       <c r="L35" s="46"/>
       <c r="M35" s="4" t="s">
         <v>255</v>
@@ -12259,118 +12268,109 @@
       </c>
       <c r="P35" s="3"/>
     </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="27" t="s">
+    <row r="36" spans="1:16" ht="44.25" customHeight="1">
+      <c r="A36" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D37" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E37" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F37" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="28" t="s">
+      <c r="G37" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="H36" s="28" t="s">
+      <c r="H37" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I37" s="10" t="s">
         <v>1099</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L36" s="28" t="s">
+      <c r="L37" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="M36" s="10" t="s">
+      <c r="M37" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="N36" s="10" t="s">
+      <c r="N37" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O36" s="10" t="s">
+      <c r="O37" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P36" s="10" t="s">
+      <c r="P37" s="10" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="24.75">
-      <c r="A37" s="11" t="s">
+    <row r="38" spans="1:16" ht="24.75">
+      <c r="A38" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B38" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="8">
+      <c r="C38" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="8">
         <v>0.05</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E38" s="8">
         <v>0.05</v>
       </c>
-      <c r="F37" s="49">
-        <f>Patient!C7*IF(Patient!C2="Male",D37,E37)</f>
+      <c r="F38" s="49">
+        <f>Patient!C7*IF(Patient!C2="Male",D38,E38)</f>
         <v>275.48273332896093</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16" t="s">
-        <v>1100</v>
-      </c>
-      <c r="J37" s="48"/>
-      <c r="K37" s="44" t="s">
-        <v>342</v>
-      </c>
-      <c r="L37" s="46"/>
-      <c r="M37" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="36.75">
-      <c r="A38" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="8">
-        <v>1</v>
-      </c>
-      <c r="E38" s="8">
-        <v>1</v>
-      </c>
-      <c r="F38" s="49">
-        <f>Patient!C6*IF(Patient!C2="Male",D38,E38)/60</f>
-        <v>93.333333333333329</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>266</v>
@@ -12380,8 +12380,8 @@
         <v>1100</v>
       </c>
       <c r="J38" s="48"/>
-      <c r="K38" s="24" t="s">
-        <v>346</v>
+      <c r="K38" s="44" t="s">
+        <v>342</v>
       </c>
       <c r="L38" s="46"/>
       <c r="M38" s="4" t="s">
@@ -12395,25 +12395,25 @@
         <v>344</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" ht="36.75">
       <c r="A39" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D39" s="8">
-        <v>1.2E-2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="8">
-        <v>1.2E-2</v>
+        <v>1</v>
       </c>
       <c r="F39" s="49">
-        <f>Patient!C7*IF(Patient!C2="Male",D39,E39)</f>
-        <v>66.115855998950622</v>
+        <f>Patient!C6*IF(Patient!C2="Male",D39,E39)/60</f>
+        <v>93.333333333333329</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>266</v>
@@ -12422,8 +12422,10 @@
       <c r="I39" s="16" t="s">
         <v>1100</v>
       </c>
-      <c r="J39" s="16"/>
-      <c r="K39" s="24"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="24" t="s">
+        <v>346</v>
+      </c>
       <c r="L39" s="46"/>
       <c r="M39" s="4" t="s">
         <v>343</v>
@@ -12438,23 +12440,23 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D40" s="8">
-        <v>0.12</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E40" s="8">
-        <v>0.12</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F40" s="49">
-        <f>Patient!C6*IF(Patient!C2="Male",D40,E40)/60</f>
-        <v>11.2</v>
+        <f>Patient!C7*IF(Patient!C2="Male",D40,E40)</f>
+        <v>66.115855998950622</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>266</v>
@@ -12479,30 +12481,33 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>191</v>
+        <v>302</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="19">
-        <v>40</v>
+      <c r="D41" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="E41" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="F41" s="49">
+        <f>Patient!C6*IF(Patient!C2="Male",D41,E41)/60</f>
+        <v>11.2</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="H41" s="16">
-        <v>409</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="H41" s="16"/>
       <c r="I41" s="16" t="s">
         <v>1100</v>
       </c>
       <c r="J41" s="16"/>
-      <c r="K41" s="51"/>
+      <c r="K41" s="24"/>
       <c r="L41" s="46"/>
       <c r="M41" s="4" t="s">
         <v>343</v>
@@ -12511,39 +12516,36 @@
       <c r="O41" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P41" s="3"/>
+      <c r="P41" s="7" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E42" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F42" s="47">
-        <f>Patient!C7*IF(Patient!C2="Male",D42,E42)</f>
-        <v>385.67582666054534</v>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="19">
+        <v>40</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="H42" s="16"/>
+        <v>350</v>
+      </c>
+      <c r="H42" s="16">
+        <v>409</v>
+      </c>
       <c r="I42" s="16" t="s">
         <v>1100</v>
       </c>
       <c r="J42" s="16"/>
-      <c r="K42" s="44" t="s">
-        <v>352</v>
-      </c>
+      <c r="K42" s="51"/>
       <c r="L42" s="46"/>
       <c r="M42" s="4" t="s">
         <v>343</v>
@@ -12552,29 +12554,27 @@
       <c r="O42" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P42" s="7" t="s">
-        <v>344</v>
-      </c>
+      <c r="P42" s="3"/>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="8">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E43" s="8">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F43" s="47">
-        <f>Patient!C6*IF(Patient!C2="Male",D43,E43)/60</f>
-        <v>4.666666666666667</v>
+        <f>Patient!C7*IF(Patient!C2="Male",D43,E43)</f>
+        <v>385.67582666054534</v>
       </c>
       <c r="G43" s="16" t="s">
         <v>266</v>
@@ -12584,7 +12584,9 @@
         <v>1100</v>
       </c>
       <c r="J43" s="16"/>
-      <c r="K43" s="24"/>
+      <c r="K43" s="44" t="s">
+        <v>352</v>
+      </c>
       <c r="L43" s="46"/>
       <c r="M43" s="4" t="s">
         <v>343</v>
@@ -12599,10 +12601,10 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>44</v>
@@ -12611,20 +12613,20 @@
         <v>0.05</v>
       </c>
       <c r="E44" s="8">
-        <v>8.5000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F44" s="47">
-        <f>Patient!C7*IF(Patient!C2="Male",D44,E44)</f>
-        <v>275.48273332896093</v>
+        <f>Patient!C6*IF(Patient!C2="Male",D44,E44)/60</f>
+        <v>4.666666666666667</v>
       </c>
       <c r="G44" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="H44" s="8"/>
+      <c r="H44" s="16"/>
       <c r="I44" s="16" t="s">
         <v>1100</v>
       </c>
-      <c r="J44" s="8"/>
+      <c r="J44" s="16"/>
       <c r="K44" s="24"/>
       <c r="L44" s="46"/>
       <c r="M44" s="4" t="s">
@@ -12640,10 +12642,10 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>44</v>
@@ -12655,17 +12657,17 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="F45" s="47">
-        <f>Patient!C6*IF(Patient!C2="Male",D45,E45)/60</f>
-        <v>4.666666666666667</v>
+        <f>Patient!C7*IF(Patient!C2="Male",D45,E45)</f>
+        <v>275.48273332896093</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="H45" s="16"/>
+      <c r="H45" s="8"/>
       <c r="I45" s="16" t="s">
         <v>1100</v>
       </c>
-      <c r="J45" s="16"/>
+      <c r="J45" s="8"/>
       <c r="K45" s="24"/>
       <c r="L45" s="46"/>
       <c r="M45" s="4" t="s">
@@ -12681,32 +12683,32 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D46" s="8">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="E46" s="8">
-        <v>0.02</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="F46" s="47">
-        <f>Patient!C7*IF(Patient!C2="Male",D46,E46)</f>
-        <v>110.19309333158436</v>
+        <f>Patient!C6*IF(Patient!C2="Male",D46,E46)/60</f>
+        <v>4.666666666666667</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="H46" s="52"/>
+      <c r="H46" s="16"/>
       <c r="I46" s="16" t="s">
         <v>1100</v>
       </c>
-      <c r="J46" s="52"/>
+      <c r="J46" s="16"/>
       <c r="K46" s="24"/>
       <c r="L46" s="46"/>
       <c r="M46" s="4" t="s">
@@ -12722,32 +12724,32 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D47" s="8">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="E47" s="8">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="F47" s="47">
-        <f>Patient!C6*IF(Patient!C2="Male",D47,E47)/60</f>
-        <v>17.733333333333334</v>
+        <f>Patient!C7*IF(Patient!C2="Male",D47,E47)</f>
+        <v>110.19309333158436</v>
       </c>
       <c r="G47" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="H47" s="16"/>
+      <c r="H47" s="52"/>
       <c r="I47" s="16" t="s">
         <v>1100</v>
       </c>
-      <c r="J47" s="16"/>
+      <c r="J47" s="52"/>
       <c r="K47" s="24"/>
       <c r="L47" s="46"/>
       <c r="M47" s="4" t="s">
@@ -12761,25 +12763,25 @@
         <v>344</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="24.75">
+    <row r="48" spans="1:16">
       <c r="A48" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D48" s="8">
-        <v>2.1999999999999999E-2</v>
+        <v>0.19</v>
       </c>
       <c r="E48" s="8">
-        <v>2.1999999999999999E-2</v>
+        <v>0.17</v>
       </c>
       <c r="F48" s="47">
-        <f>Patient!C7*IF(Patient!C2="Male",D48,E48)</f>
-        <v>121.2124026647428</v>
+        <f>Patient!C6*IF(Patient!C2="Male",D48,E48)/60</f>
+        <v>17.733333333333334</v>
       </c>
       <c r="G48" s="16" t="s">
         <v>266</v>
@@ -12789,9 +12791,7 @@
         <v>1100</v>
       </c>
       <c r="J48" s="16"/>
-      <c r="K48" s="44" t="s">
-        <v>359</v>
-      </c>
+      <c r="K48" s="24"/>
       <c r="L48" s="46"/>
       <c r="M48" s="4" t="s">
         <v>343</v>
@@ -12804,25 +12804,25 @@
         <v>344</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" ht="24.75">
       <c r="A49" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D49" s="8">
-        <v>0.04</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E49" s="8">
-        <v>0.05</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F49" s="47">
-        <f>Patient!C6*IF(Patient!C2="Male",D49,E49)/60</f>
-        <v>3.7333333333333334</v>
+        <f>Patient!C7*IF(Patient!C2="Male",D49,E49)</f>
+        <v>121.2124026647428</v>
       </c>
       <c r="G49" s="16" t="s">
         <v>266</v>
@@ -12832,7 +12832,9 @@
         <v>1100</v>
       </c>
       <c r="J49" s="16"/>
-      <c r="K49" s="24"/>
+      <c r="K49" s="44" t="s">
+        <v>359</v>
+      </c>
       <c r="L49" s="46"/>
       <c r="M49" s="4" t="s">
         <v>343</v>
@@ -12845,25 +12847,25 @@
         <v>344</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="36.75">
+    <row r="50" spans="1:16">
       <c r="A50" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D50" s="8">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E50" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F50" s="49">
-        <f>Patient!C7*IF(Patient!C2="Male",D50,E50)</f>
-        <v>110.19309333158436</v>
+        <v>0.05</v>
+      </c>
+      <c r="F50" s="47">
+        <f>Patient!C6*IF(Patient!C2="Male",D50,E50)/60</f>
+        <v>3.7333333333333334</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>266</v>
@@ -12872,10 +12874,8 @@
       <c r="I50" s="16" t="s">
         <v>1100</v>
       </c>
-      <c r="J50" s="48"/>
-      <c r="K50" s="44" t="s">
-        <v>362</v>
-      </c>
+      <c r="J50" s="16"/>
+      <c r="K50" s="24"/>
       <c r="L50" s="46"/>
       <c r="M50" s="4" t="s">
         <v>343</v>
@@ -12888,25 +12888,25 @@
         <v>344</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" ht="36.75">
       <c r="A51" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D51" s="8">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E51" s="8">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F51" s="49">
-        <f>Patient!C6*IF(Patient!C2="Male",D51,E51)/60</f>
-        <v>1.4</v>
+        <f>Patient!C7*IF(Patient!C2="Male",D51,E51)</f>
+        <v>110.19309333158436</v>
       </c>
       <c r="G51" s="16" t="s">
         <v>266</v>
@@ -12917,50 +12917,57 @@
       </c>
       <c r="J51" s="48"/>
       <c r="K51" s="44" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L51" s="46"/>
       <c r="M51" s="4" t="s">
         <v>343</v>
       </c>
       <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
+      <c r="O51" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="P51" s="7" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="8" t="s">
-        <v>367</v>
+        <v>302</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E52" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F52" s="49">
+        <f>Patient!C6*IF(Patient!C2="Male",D52,E52)/60</f>
+        <v>1.4</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>368</v>
+        <v>266</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="16" t="s">
         <v>1100</v>
       </c>
       <c r="J52" s="48"/>
-      <c r="K52" s="24"/>
+      <c r="K52" s="44" t="s">
+        <v>364</v>
+      </c>
       <c r="L52" s="46"/>
       <c r="M52" s="4" t="s">
         <v>343</v>
       </c>
       <c r="N52" s="4"/>
-      <c r="O52" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="O52" s="4"/>
       <c r="P52" s="7" t="s">
         <v>344</v>
       </c>
@@ -12973,12 +12980,12 @@
         <v>17</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G53" s="16" t="s">
         <v>368</v>
@@ -13003,21 +13010,21 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="11" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="8" t="s">
-        <v>274</v>
+        <v>370</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>275</v>
+        <v>368</v>
       </c>
       <c r="H54" s="16"/>
       <c r="I54" s="16" t="s">
@@ -13037,7 +13044,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="48.75">
+    <row r="55" spans="1:16">
       <c r="A55" s="11" t="s">
         <v>371</v>
       </c>
@@ -13045,26 +13052,22 @@
         <v>191</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="8" t="s">
-        <v>334</v>
+        <v>274</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="H55" s="16" t="s">
-        <v>337</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="H55" s="16"/>
       <c r="I55" s="16" t="s">
         <v>1100</v>
       </c>
       <c r="J55" s="48"/>
-      <c r="K55" s="24" t="s">
-        <v>338</v>
-      </c>
+      <c r="K55" s="24"/>
       <c r="L55" s="46"/>
       <c r="M55" s="4" t="s">
         <v>343</v>
@@ -13077,34 +13080,34 @@
         <v>344</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" ht="48.75">
       <c r="A56" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D56" s="8">
-        <v>1</v>
-      </c>
-      <c r="E56" s="8">
-        <v>1</v>
-      </c>
-      <c r="F56" s="8">
-        <v>94.7</v>
+        <v>191</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="8" t="s">
+        <v>334</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="H56" s="16"/>
+        <v>336</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>337</v>
+      </c>
       <c r="I56" s="16" t="s">
         <v>1100</v>
       </c>
       <c r="J56" s="48"/>
-      <c r="K56" s="24"/>
+      <c r="K56" s="24" t="s">
+        <v>338</v>
+      </c>
       <c r="L56" s="46"/>
       <c r="M56" s="4" t="s">
         <v>343</v>
@@ -13117,33 +13120,34 @@
         <v>344</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="24.75">
+    <row r="57" spans="1:16">
       <c r="A57" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="6">
-        <f>F46*0.5</f>
-        <v>55.096546665792182</v>
-      </c>
-      <c r="G57" s="25" t="s">
-        <v>374</v>
+      <c r="D57" s="8">
+        <v>1</v>
+      </c>
+      <c r="E57" s="8">
+        <v>1</v>
+      </c>
+      <c r="F57" s="8">
+        <v>94.7</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="H57" s="16"/>
       <c r="I57" s="16" t="s">
         <v>1100</v>
       </c>
       <c r="J57" s="48"/>
-      <c r="K57" s="44" t="s">
-        <v>375</v>
-      </c>
+      <c r="K57" s="24"/>
       <c r="L57" s="46"/>
       <c r="M57" s="4" t="s">
         <v>343</v>
@@ -13158,30 +13162,30 @@
     </row>
     <row r="58" spans="1:16" ht="24.75">
       <c r="A58" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="47">
+      <c r="F58" s="6">
         <f>F47*0.5</f>
-        <v>8.8666666666666671</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>266</v>
+        <v>55.096546665792182</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>374</v>
       </c>
       <c r="H58" s="16"/>
       <c r="I58" s="16" t="s">
         <v>1100</v>
       </c>
       <c r="J58" s="48"/>
-      <c r="K58" s="24" t="s">
-        <v>377</v>
+      <c r="K58" s="44" t="s">
+        <v>375</v>
       </c>
       <c r="L58" s="46"/>
       <c r="M58" s="4" t="s">
@@ -13195,25 +13199,21 @@
         <v>344</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="36.75">
+    <row r="59" spans="1:16" ht="24.75">
       <c r="A59" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D59" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="E59" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="F59" s="49">
-        <f>Patient!C7*IF(Patient!C2="Male",D59,E59)</f>
-        <v>220.38618666316873</v>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="47">
+        <f>F48*0.5</f>
+        <v>8.8666666666666671</v>
       </c>
       <c r="G59" s="16" t="s">
         <v>266</v>
@@ -13223,8 +13223,8 @@
         <v>1100</v>
       </c>
       <c r="J59" s="48"/>
-      <c r="K59" s="44" t="s">
-        <v>362</v>
+      <c r="K59" s="24" t="s">
+        <v>377</v>
       </c>
       <c r="L59" s="46"/>
       <c r="M59" s="4" t="s">
@@ -13238,28 +13238,28 @@
         <v>344</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" ht="36.75">
       <c r="A60" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D60" s="8">
-        <v>5.2499999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E60" s="8">
-        <v>5.2499999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F60" s="49">
-        <f>Patient!C6*IF(Patient!C2="Male",D60,E60)/60</f>
-        <v>4.9000000000000004</v>
+        <f>Patient!C7*IF(Patient!C2="Male",D60,E60)</f>
+        <v>220.38618666316873</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>380</v>
+        <v>266</v>
       </c>
       <c r="H60" s="16"/>
       <c r="I60" s="16" t="s">
@@ -13267,40 +13267,42 @@
       </c>
       <c r="J60" s="48"/>
       <c r="K60" s="44" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="L60" s="46"/>
       <c r="M60" s="4" t="s">
         <v>343</v>
       </c>
       <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
+      <c r="O60" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="P60" s="7" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="24.75">
+    <row r="61" spans="1:16">
       <c r="A61" s="11" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D61" s="8">
-        <v>0.03</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="E61" s="8">
-        <v>0.03</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="F61" s="49">
-        <f>Patient!C10*Patient!C7*IF(Patient!C2="Male",D61,E61)</f>
-        <v>66.115855998950622</v>
+        <f>Patient!C6*IF(Patient!C2="Male",D61,E61)/60</f>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>266</v>
+        <v>380</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16" t="s">
@@ -13308,39 +13310,37 @@
       </c>
       <c r="J61" s="48"/>
       <c r="K61" s="44" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="L61" s="46"/>
       <c r="M61" s="4" t="s">
         <v>343</v>
       </c>
       <c r="N61" s="4"/>
-      <c r="O61" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="O61" s="4"/>
       <c r="P61" s="7" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" ht="24.75">
       <c r="A62" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D62" s="8">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="E62" s="8">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="F62" s="49">
-        <f>Patient!C10*Patient!C6*IF(Patient!C3="Male",D62,E62)/60</f>
-        <v>37.333333333333336</v>
+        <f>Patient!C10*Patient!C7*IF(Patient!C2="Male",D62,E62)</f>
+        <v>66.115855998950622</v>
       </c>
       <c r="G62" s="16" t="s">
         <v>266</v>
@@ -13350,7 +13350,9 @@
         <v>1100</v>
       </c>
       <c r="J62" s="48"/>
-      <c r="K62" s="24"/>
+      <c r="K62" s="44" t="s">
+        <v>383</v>
+      </c>
       <c r="L62" s="46"/>
       <c r="M62" s="4" t="s">
         <v>343</v>
@@ -13363,25 +13365,25 @@
         <v>344</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="24.75">
+    <row r="63" spans="1:16">
       <c r="A63" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D63" s="8">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="E63" s="8">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="F63" s="49">
-        <f>Patient!C10*Patient!C7*IF(Patient!C4="Male",D63,E63)</f>
-        <v>44.07723733263375</v>
+        <f>Patient!C10*Patient!C6*IF(Patient!C3="Male",D63,E63)/60</f>
+        <v>37.333333333333336</v>
       </c>
       <c r="G63" s="16" t="s">
         <v>266</v>
@@ -13391,9 +13393,7 @@
         <v>1100</v>
       </c>
       <c r="J63" s="48"/>
-      <c r="K63" s="44" t="s">
-        <v>383</v>
-      </c>
+      <c r="K63" s="24"/>
       <c r="L63" s="46"/>
       <c r="M63" s="4" t="s">
         <v>343</v>
@@ -13406,25 +13406,25 @@
         <v>344</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" ht="24.75">
       <c r="A64" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D64" s="8">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="E64" s="8">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="F64" s="49">
-        <f>Patient!C10*Patient!C6*IF(Patient!C5="Male",D64,E64)/60</f>
-        <v>37.333333333333336</v>
+        <f>Patient!C10*Patient!C7*IF(Patient!C4="Male",D64,E64)</f>
+        <v>44.07723733263375</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>266</v>
@@ -13434,7 +13434,9 @@
         <v>1100</v>
       </c>
       <c r="J64" s="48"/>
-      <c r="K64" s="24"/>
+      <c r="K64" s="44" t="s">
+        <v>383</v>
+      </c>
       <c r="L64" s="46"/>
       <c r="M64" s="4" t="s">
         <v>343</v>
@@ -13447,25 +13449,25 @@
         <v>344</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="24.75">
+    <row r="65" spans="1:16">
       <c r="A65" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D65" s="8">
-        <v>5.5E-2</v>
+        <v>1</v>
       </c>
       <c r="E65" s="8">
-        <v>5.5E-2</v>
+        <v>1</v>
       </c>
       <c r="F65" s="49">
-        <f>Patient!C10*Patient!C7*IF(Patient!C6="Male",D65,E65)</f>
-        <v>121.21240266474281</v>
+        <f>Patient!C10*Patient!C6*IF(Patient!C5="Male",D65,E65)/60</f>
+        <v>37.333333333333336</v>
       </c>
       <c r="G65" s="16" t="s">
         <v>266</v>
@@ -13475,9 +13477,7 @@
         <v>1100</v>
       </c>
       <c r="J65" s="48"/>
-      <c r="K65" s="44" t="s">
-        <v>383</v>
-      </c>
+      <c r="K65" s="24"/>
       <c r="L65" s="46"/>
       <c r="M65" s="4" t="s">
         <v>343</v>
@@ -13490,25 +13490,25 @@
         <v>344</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" ht="24.75">
       <c r="A66" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D66" s="8">
-        <v>1</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E66" s="8">
-        <v>1</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F66" s="49">
-        <f>Patient!C10*Patient!C6*IF(Patient!C7="Male",D66,E66)/60</f>
-        <v>37.333333333333336</v>
+        <f>Patient!C10*Patient!C7*IF(Patient!C6="Male",D66,E66)</f>
+        <v>121.21240266474281</v>
       </c>
       <c r="G66" s="16" t="s">
         <v>266</v>
@@ -13518,7 +13518,9 @@
         <v>1100</v>
       </c>
       <c r="J66" s="48"/>
-      <c r="K66" s="24"/>
+      <c r="K66" s="44" t="s">
+        <v>383</v>
+      </c>
       <c r="L66" s="46"/>
       <c r="M66" s="4" t="s">
         <v>343</v>
@@ -13531,25 +13533,25 @@
         <v>344</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="24.75">
+    <row r="67" spans="1:16">
       <c r="A67" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D67" s="8">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E67" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F67" s="47">
-        <f>Patient!C7*IF(Patient!C2="Male",D67,E67)</f>
-        <v>550.96546665792187</v>
+        <v>1</v>
+      </c>
+      <c r="F67" s="49">
+        <f>Patient!C10*Patient!C6*IF(Patient!C7="Male",D67,E67)/60</f>
+        <v>37.333333333333336</v>
       </c>
       <c r="G67" s="16" t="s">
         <v>266</v>
@@ -13558,10 +13560,8 @@
       <c r="I67" s="16" t="s">
         <v>1100</v>
       </c>
-      <c r="J67" s="16"/>
-      <c r="K67" s="44" t="s">
-        <v>390</v>
-      </c>
+      <c r="J67" s="48"/>
+      <c r="K67" s="24"/>
       <c r="L67" s="46"/>
       <c r="M67" s="4" t="s">
         <v>343</v>
@@ -13574,38 +13574,36 @@
         <v>344</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" ht="24.75">
       <c r="A68" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D68" s="8">
-        <v>0.255</v>
+        <v>0.1</v>
       </c>
       <c r="E68" s="8">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
       <c r="F68" s="47">
-        <f>Patient!C6*IF(Patient!C2="Male",D68,E68)/60</f>
-        <v>23.8</v>
+        <f>Patient!C7*IF(Patient!C2="Male",D68,E68)</f>
+        <v>550.96546665792187</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>392</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="H68" s="16"/>
       <c r="I68" s="16" t="s">
         <v>1100</v>
       </c>
       <c r="J68" s="16"/>
-      <c r="K68" s="24" t="s">
-        <v>393</v>
+      <c r="K68" s="44" t="s">
+        <v>390</v>
       </c>
       <c r="L68" s="46"/>
       <c r="M68" s="4" t="s">
@@ -13621,34 +13619,36 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="11" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D69" s="8">
-        <v>0.14000000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="E69" s="8">
-        <v>0.105</v>
-      </c>
-      <c r="F69" s="49">
-        <f>Patient!C7*IF(Patient!C2="Male",D69,E69)</f>
-        <v>771.35165332109068</v>
+        <v>0.27</v>
+      </c>
+      <c r="F69" s="47">
+        <f>Patient!C6*IF(Patient!C2="Male",D69,E69)/60</f>
+        <v>23.8</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="H69" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>392</v>
+      </c>
       <c r="I69" s="16" t="s">
         <v>1100</v>
       </c>
       <c r="J69" s="16"/>
-      <c r="K69" s="44" t="s">
-        <v>395</v>
+      <c r="K69" s="24" t="s">
+        <v>393</v>
       </c>
       <c r="L69" s="46"/>
       <c r="M69" s="4" t="s">
@@ -13664,23 +13664,23 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D70" s="8">
-        <v>0.17</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E70" s="8">
-        <v>0.12</v>
+        <v>0.105</v>
       </c>
       <c r="F70" s="49">
-        <f>Patient!C6*IF(Patient!C2="Male",D70,E70)/60</f>
-        <v>15.866666666666669</v>
+        <f>Patient!C7*IF(Patient!C2="Male",D70,E70)</f>
+        <v>771.35165332109068</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>266</v>
@@ -13690,7 +13690,9 @@
         <v>1100</v>
       </c>
       <c r="J70" s="16"/>
-      <c r="K70" s="24"/>
+      <c r="K70" s="44" t="s">
+        <v>395</v>
+      </c>
       <c r="L70" s="46"/>
       <c r="M70" s="4" t="s">
         <v>343</v>
@@ -13705,23 +13707,23 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D71" s="8">
-        <v>0.01</v>
+        <v>0.17</v>
       </c>
       <c r="E71" s="8">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="F71" s="49">
-        <f>Patient!C7*IF(Patient!C2="Male",D71,E71)</f>
-        <v>55.096546665792182</v>
+        <f>Patient!C6*IF(Patient!C2="Male",D71,E71)/60</f>
+        <v>15.866666666666669</v>
       </c>
       <c r="G71" s="16" t="s">
         <v>266</v>
@@ -13730,10 +13732,8 @@
       <c r="I71" s="16" t="s">
         <v>1100</v>
       </c>
-      <c r="J71" s="48"/>
-      <c r="K71" s="44" t="s">
-        <v>398</v>
-      </c>
+      <c r="J71" s="16"/>
+      <c r="K71" s="24"/>
       <c r="L71" s="46"/>
       <c r="M71" s="4" t="s">
         <v>343</v>
@@ -13748,23 +13748,23 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D72" s="8">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="E72" s="8">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F72" s="49">
-        <f>Patient!C6*IF(Patient!C2="Male",D72,E72)/60</f>
-        <v>3.7333333333333334</v>
+        <f>Patient!C7*IF(Patient!C2="Male",D72,E72)</f>
+        <v>55.096546665792182</v>
       </c>
       <c r="G72" s="16" t="s">
         <v>266</v>
@@ -13774,7 +13774,9 @@
         <v>1100</v>
       </c>
       <c r="J72" s="48"/>
-      <c r="K72" s="24"/>
+      <c r="K72" s="44" t="s">
+        <v>398</v>
+      </c>
       <c r="L72" s="46"/>
       <c r="M72" s="4" t="s">
         <v>343</v>
@@ -13787,25 +13789,25 @@
         <v>344</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="24.75">
+    <row r="73" spans="1:16">
       <c r="A73" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D73" s="8">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E73" s="8">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F73" s="49">
-        <f>Patient!C7*IF(Patient!C19="Male",D73,E73)</f>
-        <v>165.28963999737655</v>
+        <f>Patient!C6*IF(Patient!C2="Male",D73,E73)/60</f>
+        <v>3.7333333333333334</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>266</v>
@@ -13815,9 +13817,7 @@
         <v>1100</v>
       </c>
       <c r="J73" s="48"/>
-      <c r="K73" s="44" t="s">
-        <v>383</v>
-      </c>
+      <c r="K73" s="24"/>
       <c r="L73" s="46"/>
       <c r="M73" s="4" t="s">
         <v>343</v>
@@ -13830,25 +13830,25 @@
         <v>344</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" ht="24.75">
       <c r="A74" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D74" s="8">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="E74" s="8">
-        <v>1</v>
-      </c>
-      <c r="F74" s="49" t="e">
-        <f>Patient!C6*IF(Patient!#REF!="Male",D74,E74)/60</f>
-        <v>#REF!</v>
+        <v>0.03</v>
+      </c>
+      <c r="F74" s="49">
+        <f>Patient!C7*IF(Patient!C19="Male",D74,E74)</f>
+        <v>165.28963999737655</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>266</v>
@@ -13858,7 +13858,9 @@
         <v>1100</v>
       </c>
       <c r="J74" s="48"/>
-      <c r="K74" s="24"/>
+      <c r="K74" s="44" t="s">
+        <v>383</v>
+      </c>
       <c r="L74" s="46"/>
       <c r="M74" s="4" t="s">
         <v>343</v>
@@ -13873,25 +13875,28 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="8" t="s">
-        <v>274</v>
+        <v>302</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" s="8">
+        <v>1</v>
+      </c>
+      <c r="E75" s="8">
+        <v>1</v>
+      </c>
+      <c r="F75" s="49">
+        <f>Patient!C6*IF(Patient!C2="Male",D75,E75)/60</f>
+        <v>93.333333333333329</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H75" s="16" t="s">
-        <v>263</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="H75" s="16"/>
       <c r="I75" s="16" t="s">
         <v>1100</v>
       </c>
@@ -13917,12 +13922,12 @@
         <v>191</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="8" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="G76" s="16" t="s">
         <v>83</v>
@@ -13947,37 +13952,32 @@
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="24.75">
+    <row r="77" spans="1:16">
       <c r="A77" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D77" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="E77" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F77" s="49" t="e">
-        <f>Patient!C7*IF(Patient!#REF!="Male",D77,E77)</f>
-        <v>#REF!</v>
+        <v>191</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="H77" s="16"/>
+        <v>83</v>
+      </c>
+      <c r="H77" s="16" t="s">
+        <v>263</v>
+      </c>
       <c r="I77" s="16" t="s">
         <v>1100</v>
       </c>
       <c r="J77" s="48"/>
-      <c r="K77" s="44" t="s">
-        <v>383</v>
-      </c>
+      <c r="K77" s="24"/>
       <c r="L77" s="46"/>
       <c r="M77" s="4" t="s">
         <v>343</v>
@@ -13990,25 +13990,25 @@
         <v>344</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" ht="24.75">
       <c r="A78" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D78" s="8">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="E78" s="8">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="F78" s="49">
-        <f>Patient!C6*IF(Patient!C20="Male",D78,E78)/60</f>
-        <v>93.333333333333329</v>
+        <f>Patient!C7*IF(Patient!C2="Male",D78,E78)</f>
+        <v>110.19309333158436</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>266</v>
@@ -14018,7 +14018,9 @@
         <v>1100</v>
       </c>
       <c r="J78" s="48"/>
-      <c r="K78" s="24"/>
+      <c r="K78" s="44" t="s">
+        <v>383</v>
+      </c>
       <c r="L78" s="46"/>
       <c r="M78" s="4" t="s">
         <v>343</v>
@@ -14033,32 +14035,33 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="8" t="s">
-        <v>274</v>
+        <v>302</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" s="8">
+        <v>1</v>
+      </c>
+      <c r="E79" s="8">
+        <v>1</v>
+      </c>
+      <c r="F79" s="49">
+        <f>Patient!C6*IF(Patient!C20="Male",D79,E79)/60</f>
+        <v>93.333333333333329</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H79" s="16" t="s">
-        <v>263</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="H79" s="16"/>
       <c r="I79" s="16" t="s">
         <v>1100</v>
       </c>
       <c r="J79" s="48"/>
-      <c r="K79" s="24" t="s">
-        <v>406</v>
-      </c>
+      <c r="K79" s="24"/>
       <c r="L79" s="46"/>
       <c r="M79" s="4" t="s">
         <v>343</v>
@@ -14071,36 +14074,33 @@
         <v>344</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="24.75">
+    <row r="80" spans="1:16">
       <c r="A80" s="11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D80" s="8">
-        <v>5.5E-2</v>
-      </c>
-      <c r="E80" s="8">
-        <v>5.5E-2</v>
-      </c>
-      <c r="F80" s="49">
-        <f>Patient!C7*IF(Patient!C22="Male",D80,E80)</f>
-        <v>303.03100666185702</v>
+        <v>191</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="H80" s="16"/>
+        <v>83</v>
+      </c>
+      <c r="H80" s="16" t="s">
+        <v>263</v>
+      </c>
       <c r="I80" s="16" t="s">
         <v>1100</v>
       </c>
       <c r="J80" s="48"/>
-      <c r="K80" s="44" t="s">
-        <v>383</v>
+      <c r="K80" s="24" t="s">
+        <v>406</v>
       </c>
       <c r="L80" s="46"/>
       <c r="M80" s="4" t="s">
@@ -14114,25 +14114,25 @@
         <v>344</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" ht="24.75">
       <c r="A81" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D81" s="8">
-        <v>1</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E81" s="8">
-        <v>1</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F81" s="49">
-        <f>Patient!C6*IF(Patient!C23="Male",D81,E81)/60</f>
-        <v>93.333333333333329</v>
+        <f>Patient!C7*IF(Patient!C22="Male",D81,E81)</f>
+        <v>303.03100666185702</v>
       </c>
       <c r="G81" s="16" t="s">
         <v>266</v>
@@ -14142,7 +14142,9 @@
         <v>1100</v>
       </c>
       <c r="J81" s="48"/>
-      <c r="K81" s="24"/>
+      <c r="K81" s="44" t="s">
+        <v>383</v>
+      </c>
       <c r="L81" s="46"/>
       <c r="M81" s="4" t="s">
         <v>343</v>
@@ -14155,34 +14157,35 @@
         <v>344</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="36.75">
+    <row r="82" spans="1:16">
       <c r="A82" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="8" t="s">
-        <v>274</v>
+        <v>302</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" s="8">
+        <v>1</v>
+      </c>
+      <c r="E82" s="8">
+        <v>1</v>
+      </c>
+      <c r="F82" s="49">
+        <f>Patient!C6*IF(Patient!C23="Male",D82,E82)/60</f>
+        <v>93.333333333333329</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H82" s="16" t="s">
-        <v>263</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="H82" s="16"/>
       <c r="I82" s="16" t="s">
         <v>1100</v>
       </c>
       <c r="J82" s="48"/>
-      <c r="K82" s="24" t="s">
-        <v>410</v>
-      </c>
+      <c r="K82" s="24"/>
       <c r="L82" s="46"/>
       <c r="M82" s="4" t="s">
         <v>343</v>
@@ -14197,34 +14200,31 @@
     </row>
     <row r="83" spans="1:16" ht="36.75">
       <c r="A83" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D83" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="E83" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F83" s="49">
-        <f>Patient!C7*IF(Patient!C2="Male",D83,E83)</f>
-        <v>110.19309333158436</v>
+        <v>191</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="H83" s="16"/>
+        <v>83</v>
+      </c>
+      <c r="H83" s="16" t="s">
+        <v>263</v>
+      </c>
       <c r="I83" s="16" t="s">
         <v>1100</v>
       </c>
       <c r="J83" s="48"/>
-      <c r="K83" s="44" t="s">
-        <v>362</v>
+      <c r="K83" s="24" t="s">
+        <v>410</v>
       </c>
       <c r="L83" s="46"/>
       <c r="M83" s="4" t="s">
@@ -14238,28 +14238,28 @@
         <v>344</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" ht="36.75">
       <c r="A84" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D84" s="8">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E84" s="8">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F84" s="49">
-        <f>Patient!C6*IF(Patient!C2="Male",D84,E84)/60</f>
-        <v>1.4</v>
+        <f>Patient!C7*IF(Patient!C2="Male",D84,E84)</f>
+        <v>110.19309333158436</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>413</v>
+        <v>266</v>
       </c>
       <c r="H84" s="16"/>
       <c r="I84" s="16" t="s">
@@ -14267,35 +14267,42 @@
       </c>
       <c r="J84" s="48"/>
       <c r="K84" s="44" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L84" s="46"/>
       <c r="M84" s="4" t="s">
         <v>343</v>
       </c>
       <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
+      <c r="O84" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="P84" s="7" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="60.75">
+    <row r="85" spans="1:16">
       <c r="A85" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="8" t="s">
-        <v>415</v>
+        <v>302</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E85" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F85" s="49">
+        <f>Patient!C6*IF(Patient!C2="Male",D85,E85)/60</f>
+        <v>1.4</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H85" s="16"/>
       <c r="I85" s="16" t="s">
@@ -14303,21 +14310,19 @@
       </c>
       <c r="J85" s="48"/>
       <c r="K85" s="44" t="s">
-        <v>417</v>
+        <v>364</v>
       </c>
       <c r="L85" s="46"/>
       <c r="M85" s="4" t="s">
         <v>343</v>
       </c>
       <c r="N85" s="4"/>
-      <c r="O85" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="O85" s="4"/>
       <c r="P85" s="7" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="24">
+    <row r="86" spans="1:16" ht="60.75">
       <c r="A86" s="11" t="s">
         <v>414</v>
       </c>
@@ -14325,12 +14330,12 @@
         <v>17</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
       <c r="F86" s="8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G86" s="16" t="s">
         <v>416</v>
@@ -14340,7 +14345,9 @@
         <v>1100</v>
       </c>
       <c r="J86" s="48"/>
-      <c r="K86" s="24"/>
+      <c r="K86" s="44" t="s">
+        <v>417</v>
+      </c>
       <c r="L86" s="46"/>
       <c r="M86" s="4" t="s">
         <v>343</v>
@@ -14353,32 +14360,30 @@
         <v>344</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="36.75">
+    <row r="87" spans="1:16" ht="24">
       <c r="A87" s="11" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="8" t="s">
-        <v>277</v>
+        <v>418</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>275</v>
+        <v>416</v>
       </c>
       <c r="H87" s="16"/>
       <c r="I87" s="16" t="s">
         <v>1100</v>
       </c>
       <c r="J87" s="48"/>
-      <c r="K87" s="24" t="s">
-        <v>278</v>
-      </c>
+      <c r="K87" s="24"/>
       <c r="L87" s="46"/>
       <c r="M87" s="4" t="s">
         <v>343</v>
@@ -14391,7 +14396,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" ht="36.75">
       <c r="A88" s="11" t="s">
         <v>419</v>
       </c>
@@ -14399,12 +14404,12 @@
         <v>191</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="8" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="G88" s="16" t="s">
         <v>275</v>
@@ -14414,7 +14419,9 @@
         <v>1100</v>
       </c>
       <c r="J88" s="48"/>
-      <c r="K88" s="24"/>
+      <c r="K88" s="24" t="s">
+        <v>278</v>
+      </c>
       <c r="L88" s="46"/>
       <c r="M88" s="4" t="s">
         <v>343</v>
@@ -14429,21 +14436,21 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8">
-        <v>94.7</v>
+        <v>191</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="H89" s="16"/>
       <c r="I89" s="16" t="s">
@@ -14463,33 +14470,30 @@
         <v>344</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="24.75">
+    <row r="90" spans="1:16">
       <c r="A90" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
-      <c r="F90" s="6">
-        <f>F46*0.5</f>
-        <v>55.096546665792182</v>
-      </c>
-      <c r="G90" s="25" t="s">
-        <v>374</v>
+      <c r="F90" s="8">
+        <v>94.7</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="H90" s="16"/>
       <c r="I90" s="16" t="s">
         <v>1100</v>
       </c>
       <c r="J90" s="48"/>
-      <c r="K90" s="44" t="s">
-        <v>375</v>
-      </c>
+      <c r="K90" s="24"/>
       <c r="L90" s="46"/>
       <c r="M90" s="4" t="s">
         <v>343</v>
@@ -14504,30 +14508,30 @@
     </row>
     <row r="91" spans="1:16" ht="24.75">
       <c r="A91" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
-      <c r="F91" s="47">
+      <c r="F91" s="6">
         <f>F47*0.5</f>
-        <v>8.8666666666666671</v>
-      </c>
-      <c r="G91" s="16" t="s">
-        <v>266</v>
+        <v>55.096546665792182</v>
+      </c>
+      <c r="G91" s="25" t="s">
+        <v>374</v>
       </c>
       <c r="H91" s="16"/>
       <c r="I91" s="16" t="s">
         <v>1100</v>
       </c>
       <c r="J91" s="48"/>
-      <c r="K91" s="24" t="s">
-        <v>377</v>
+      <c r="K91" s="44" t="s">
+        <v>375</v>
       </c>
       <c r="L91" s="46"/>
       <c r="M91" s="4" t="s">
@@ -14541,25 +14545,21 @@
         <v>344</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="36.75">
+    <row r="92" spans="1:16" ht="24.75">
       <c r="A92" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D92" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="E92" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="F92" s="49">
-        <f>Patient!C7*IF(Patient!C2="Male",D92,E92)</f>
-        <v>220.38618666316873</v>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="47">
+        <f>F48*0.5</f>
+        <v>8.8666666666666671</v>
       </c>
       <c r="G92" s="16" t="s">
         <v>266</v>
@@ -14569,8 +14569,8 @@
         <v>1100</v>
       </c>
       <c r="J92" s="48"/>
-      <c r="K92" s="44" t="s">
-        <v>362</v>
+      <c r="K92" s="24" t="s">
+        <v>377</v>
       </c>
       <c r="L92" s="46"/>
       <c r="M92" s="4" t="s">
@@ -14584,28 +14584,28 @@
         <v>344</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" ht="36.75">
       <c r="A93" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D93" s="8">
-        <v>5.2499999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E93" s="8">
-        <v>5.2499999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F93" s="49">
-        <f>Patient!C6*IF(Patient!C2="Male",D93,E93)/60</f>
-        <v>4.9000000000000004</v>
+        <f>Patient!C7*IF(Patient!C2="Male",D93,E93)</f>
+        <v>220.38618666316873</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>380</v>
+        <v>266</v>
       </c>
       <c r="H93" s="16"/>
       <c r="I93" s="16" t="s">
@@ -14613,40 +14613,42 @@
       </c>
       <c r="J93" s="48"/>
       <c r="K93" s="44" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="L93" s="46"/>
       <c r="M93" s="4" t="s">
         <v>343</v>
       </c>
       <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
+      <c r="O93" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="P93" s="7" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="24.75">
+    <row r="94" spans="1:16">
       <c r="A94" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D94" s="8">
-        <v>0.03</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="E94" s="8">
-        <v>0.03</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="F94" s="49">
-        <f>Patient!C9*Patient!C7*IF(Patient!C36="Male",D94,E94)</f>
-        <v>99.173783998425932</v>
+        <f>Patient!C6*IF(Patient!C2="Male",D94,E94)/60</f>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>266</v>
+        <v>380</v>
       </c>
       <c r="H94" s="16"/>
       <c r="I94" s="16" t="s">
@@ -14654,39 +14656,37 @@
       </c>
       <c r="J94" s="48"/>
       <c r="K94" s="44" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="L94" s="46"/>
       <c r="M94" s="4" t="s">
         <v>343</v>
       </c>
       <c r="N94" s="4"/>
-      <c r="O94" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="O94" s="4"/>
       <c r="P94" s="7" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" ht="24.75">
       <c r="A95" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D95" s="8">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="E95" s="8">
-        <v>1</v>
-      </c>
-      <c r="F95" s="8">
-        <f>Patient!C9*Patient!C6*IF(Patient!C37="Male",D95,E95)/60</f>
-        <v>56</v>
+        <v>0.03</v>
+      </c>
+      <c r="F95" s="49">
+        <f>Patient!C9*Patient!C7*IF(Patient!C2="Male",D95,E95)</f>
+        <v>99.173783998425932</v>
       </c>
       <c r="G95" s="16" t="s">
         <v>266</v>
@@ -14696,7 +14696,9 @@
         <v>1100</v>
       </c>
       <c r="J95" s="48"/>
-      <c r="K95" s="24"/>
+      <c r="K95" s="44" t="s">
+        <v>383</v>
+      </c>
       <c r="L95" s="46"/>
       <c r="M95" s="4" t="s">
         <v>343</v>
@@ -14709,25 +14711,25 @@
         <v>344</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="24.75">
+    <row r="96" spans="1:16">
       <c r="A96" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D96" s="8">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="E96" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="F96" s="49">
-        <f>Patient!C9*Patient!C7*IF(Patient!C38="Male",D96,E96)</f>
-        <v>66.115855998950622</v>
+        <v>1</v>
+      </c>
+      <c r="F96" s="8">
+        <f>Patient!C9*Patient!C6*IF(Patient!C2="Male",D96,E96)/60</f>
+        <v>56</v>
       </c>
       <c r="G96" s="16" t="s">
         <v>266</v>
@@ -14737,9 +14739,7 @@
         <v>1100</v>
       </c>
       <c r="J96" s="48"/>
-      <c r="K96" s="44" t="s">
-        <v>383</v>
-      </c>
+      <c r="K96" s="24"/>
       <c r="L96" s="46"/>
       <c r="M96" s="4" t="s">
         <v>343</v>
@@ -14752,25 +14752,25 @@
         <v>344</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" ht="24.75">
       <c r="A97" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D97" s="8">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="E97" s="8">
-        <v>1</v>
-      </c>
-      <c r="F97" s="8">
-        <f>Patient!C9*Patient!C6*IF(Patient!C39="Male",D97,E97)/60</f>
-        <v>56</v>
+        <v>0.02</v>
+      </c>
+      <c r="F97" s="49">
+        <f>Patient!C9*Patient!C7*IF(Patient!C2="Male",D97,E97)</f>
+        <v>66.115855998950622</v>
       </c>
       <c r="G97" s="16" t="s">
         <v>266</v>
@@ -14780,7 +14780,9 @@
         <v>1100</v>
       </c>
       <c r="J97" s="48"/>
-      <c r="K97" s="24"/>
+      <c r="K97" s="44" t="s">
+        <v>383</v>
+      </c>
       <c r="L97" s="46"/>
       <c r="M97" s="4" t="s">
         <v>343</v>
@@ -14793,25 +14795,25 @@
         <v>344</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="24.75">
+    <row r="98" spans="1:16">
       <c r="A98" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D98" s="8">
-        <v>5.5E-2</v>
+        <v>1</v>
       </c>
       <c r="E98" s="8">
-        <v>5.5E-2</v>
-      </c>
-      <c r="F98" s="49">
-        <f>Patient!C9*Patient!C7*IF(Patient!C40="Male",D98,E98)</f>
-        <v>181.8186039971142</v>
+        <v>1</v>
+      </c>
+      <c r="F98" s="8">
+        <f>Patient!C9*Patient!C6*IF(Patient!C2="Male",D98,E98)/60</f>
+        <v>56</v>
       </c>
       <c r="G98" s="16" t="s">
         <v>266</v>
@@ -14820,10 +14822,8 @@
       <c r="I98" s="16" t="s">
         <v>1100</v>
       </c>
-      <c r="J98" s="16"/>
-      <c r="K98" s="44" t="s">
-        <v>383</v>
-      </c>
+      <c r="J98" s="48"/>
+      <c r="K98" s="24"/>
       <c r="L98" s="46"/>
       <c r="M98" s="4" t="s">
         <v>343</v>
@@ -14836,25 +14836,25 @@
         <v>344</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" ht="24.75">
       <c r="A99" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D99" s="8">
-        <v>1</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E99" s="8">
-        <v>1</v>
-      </c>
-      <c r="F99" s="8">
-        <f>Patient!C9*Patient!C6*IF(Patient!C41="Male",D99,E99)/60</f>
-        <v>56</v>
+        <v>5.5E-2</v>
+      </c>
+      <c r="F99" s="49">
+        <f>Patient!C9*Patient!C7*IF(Patient!C2="Male",D99,E99)</f>
+        <v>181.8186039971142</v>
       </c>
       <c r="G99" s="16" t="s">
         <v>266</v>
@@ -14864,7 +14864,9 @@
         <v>1100</v>
       </c>
       <c r="J99" s="16"/>
-      <c r="K99" s="24"/>
+      <c r="K99" s="44" t="s">
+        <v>383</v>
+      </c>
       <c r="L99" s="46"/>
       <c r="M99" s="4" t="s">
         <v>343</v>
@@ -14877,25 +14879,25 @@
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="24.75">
+    <row r="100" spans="1:16">
       <c r="A100" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D100" s="8">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="E100" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="F100" s="49">
-        <f>Patient!C7*IF(Patient!C2="Male",D100,E100)</f>
-        <v>165.28963999737655</v>
+        <v>1</v>
+      </c>
+      <c r="F100" s="8">
+        <f>Patient!C9*Patient!C6*IF(Patient!C2="Male",D100,E100)/60</f>
+        <v>56</v>
       </c>
       <c r="G100" s="16" t="s">
         <v>266</v>
@@ -14905,9 +14907,7 @@
         <v>1100</v>
       </c>
       <c r="J100" s="16"/>
-      <c r="K100" s="44" t="s">
-        <v>390</v>
-      </c>
+      <c r="K100" s="24"/>
       <c r="L100" s="46"/>
       <c r="M100" s="4" t="s">
         <v>343</v>
@@ -14920,25 +14920,25 @@
         <v>344</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" ht="24.75">
       <c r="A101" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D101" s="8">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="E101" s="8">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F101" s="49">
-        <f>Patient!C6*IF(Patient!C2="Male",D101,E101)/60</f>
-        <v>4.666666666666667</v>
+        <f>Patient!C7*IF(Patient!C2="Male",D101,E101)</f>
+        <v>165.28963999737655</v>
       </c>
       <c r="G101" s="16" t="s">
         <v>266</v>
@@ -14948,7 +14948,9 @@
         <v>1100</v>
       </c>
       <c r="J101" s="16"/>
-      <c r="K101" s="24"/>
+      <c r="K101" s="44" t="s">
+        <v>390</v>
+      </c>
       <c r="L101" s="46"/>
       <c r="M101" s="4" t="s">
         <v>343</v>
@@ -14963,23 +14965,23 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D102" s="8">
-        <v>3.7999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E102" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F102" s="47">
-        <f>Patient!C7*IF(Patient!C2="Male",D102,E102)</f>
-        <v>209.36687733001028</v>
+        <v>0.05</v>
+      </c>
+      <c r="F102" s="49">
+        <f>Patient!C6*IF(Patient!C2="Male",D102,E102)/60</f>
+        <v>4.666666666666667</v>
       </c>
       <c r="G102" s="16" t="s">
         <v>266</v>
@@ -15004,23 +15006,23 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D103" s="8">
-        <v>0.1</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E103" s="8">
-        <v>0.11</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="F103" s="47">
-        <f>Patient!C6*IF(Patient!C2="Male",D103,E103)/60</f>
-        <v>9.3333333333333339</v>
+        <f>Patient!C7*IF(Patient!C2="Male",D103,E103)</f>
+        <v>209.36687733001028</v>
       </c>
       <c r="G103" s="16" t="s">
         <v>266</v>
@@ -15045,23 +15047,23 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D104" s="8">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E104" s="8">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="F104" s="47">
-        <f>Patient!C7*IF(Patient!C2="Male",D104,E104)</f>
-        <v>55.096546665792182</v>
+        <f>Patient!C6*IF(Patient!C2="Male",D104,E104)/60</f>
+        <v>9.3333333333333339</v>
       </c>
       <c r="G104" s="16" t="s">
         <v>266</v>
@@ -15086,10 +15088,10 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>44</v>
@@ -15101,20 +15103,18 @@
         <v>0.01</v>
       </c>
       <c r="F105" s="47">
-        <f>Patient!C6*IF(Patient!C2="Male",D105,E105)/60</f>
-        <v>0.93333333333333335</v>
+        <f>Patient!C7*IF(Patient!C2="Male",D105,E105)</f>
+        <v>55.096546665792182</v>
       </c>
       <c r="G105" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="H105" s="8"/>
+      <c r="H105" s="16"/>
       <c r="I105" s="16" t="s">
         <v>1100</v>
       </c>
-      <c r="J105" s="8"/>
-      <c r="K105" s="44" t="s">
-        <v>437</v>
-      </c>
+      <c r="J105" s="16"/>
+      <c r="K105" s="24"/>
       <c r="L105" s="46"/>
       <c r="M105" s="4" t="s">
         <v>343</v>
@@ -15129,33 +15129,35 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D106" s="8">
-        <v>1.4E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E106" s="8">
-        <v>1.4E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F106" s="47">
-        <f>Patient!C7*IF(Patient!C2="Male",D106,E106)</f>
-        <v>77.135165332109054</v>
+        <f>Patient!C6*IF(Patient!C2="Male",D106,E106)/60</f>
+        <v>0.93333333333333335</v>
       </c>
       <c r="G106" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="H106" s="16"/>
+      <c r="H106" s="8"/>
       <c r="I106" s="16" t="s">
         <v>1100</v>
       </c>
-      <c r="J106" s="48"/>
-      <c r="K106" s="24"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="44" t="s">
+        <v>437</v>
+      </c>
       <c r="L106" s="46"/>
       <c r="M106" s="4" t="s">
         <v>343</v>
@@ -15170,23 +15172,23 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D107" s="8">
-        <v>0.03</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E107" s="8">
-        <v>0.03</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F107" s="47">
-        <f>Patient!C6*IF(Patient!C2="Male",D107,E107)/60</f>
-        <v>2.8</v>
+        <f>Patient!C7*IF(Patient!C2="Male",D107,E107)</f>
+        <v>77.135165332109054</v>
       </c>
       <c r="G107" s="16" t="s">
         <v>266</v>
@@ -15209,38 +15211,36 @@
         <v>344</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="24.75">
+    <row r="108" spans="1:16">
       <c r="A108" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D108" s="8">
-        <v>0.17499999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="E108" s="8">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="F108" s="49">
-        <f>Patient!C7*IF(Patient!C2="Male",D108,E108)</f>
-        <v>964.18956665136318</v>
+        <v>0.03</v>
+      </c>
+      <c r="F108" s="47">
+        <f>Patient!C6*IF(Patient!C2="Male",D108,E108)/60</f>
+        <v>2.8</v>
       </c>
       <c r="G108" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="H108" s="25"/>
+      <c r="H108" s="16"/>
       <c r="I108" s="16" t="s">
         <v>1100</v>
       </c>
-      <c r="J108" s="4"/>
-      <c r="K108" s="44" t="s">
-        <v>390</v>
-      </c>
-      <c r="L108" s="53"/>
+      <c r="J108" s="48"/>
+      <c r="K108" s="24"/>
+      <c r="L108" s="46"/>
       <c r="M108" s="4" t="s">
         <v>343</v>
       </c>
@@ -15252,25 +15252,25 @@
         <v>344</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" ht="24.75">
       <c r="A109" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D109" s="8">
-        <v>1</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="E109" s="8">
-        <v>1</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="F109" s="49">
-        <f>Patient!C6*IF(Patient!C2="Male",D109,E109)/60</f>
-        <v>93.333333333333329</v>
+        <f>Patient!C7*IF(Patient!C2="Male",D109,E109)</f>
+        <v>964.18956665136318</v>
       </c>
       <c r="G109" s="16" t="s">
         <v>266</v>
@@ -15280,7 +15280,9 @@
         <v>1100</v>
       </c>
       <c r="J109" s="4"/>
-      <c r="K109" s="31"/>
+      <c r="K109" s="44" t="s">
+        <v>390</v>
+      </c>
       <c r="L109" s="53"/>
       <c r="M109" s="4" t="s">
         <v>343</v>
@@ -15290,6 +15292,47 @@
         <v>63</v>
       </c>
       <c r="P109" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="A110" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D110" s="8">
+        <v>1</v>
+      </c>
+      <c r="E110" s="8">
+        <v>1</v>
+      </c>
+      <c r="F110" s="49">
+        <f>Patient!C6*IF(Patient!C2="Male",D110,E110)/60</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H110" s="25"/>
+      <c r="I110" s="16" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J110" s="4"/>
+      <c r="K110" s="31"/>
+      <c r="L110" s="53"/>
+      <c r="M110" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P110" s="7" t="s">
         <v>344</v>
       </c>
     </row>
@@ -17280,7 +17323,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="49">
-        <f>Cardiovascular!F47*60</f>
+        <f>Cardiovascular!F48*60</f>
         <v>1064</v>
       </c>
       <c r="G4" s="17" t="s">

--- a/data/human/adult/validation/SystemValidationData.xlsx
+++ b/data/human/adult/validation/SystemValidationData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Pulse\engine\data\human\adult\validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\documentation\source\data\human\adult\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561DA964-817E-48DB-849F-E31EF93A935E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90BC3F6-9178-4A61-B441-9A1276E6EA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="5560" windowWidth="22560" windowHeight="10580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23490" yWindow="3615" windowWidth="27480" windowHeight="23535" tabRatio="500" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4715" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4728" uniqueCount="1112">
   <si>
     <t>Patient Inputs</t>
   </si>
@@ -3493,6 +3493,21 @@
   </si>
   <si>
     <t>Sex</t>
+  </si>
+  <si>
+    <t>VentilationPerfusionRatio</t>
+  </si>
+  <si>
+    <t>VQRatioOnline</t>
+  </si>
+  <si>
+    <t>PhysiologicDeadSpaceTidalVolumeRatio</t>
+  </si>
+  <si>
+    <t>[0.20, 0.40]</t>
+  </si>
+  <si>
+    <t>cala2004vd</t>
   </si>
 </sst>
 </file>
@@ -4455,13 +4470,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="1025" width="9.1796875" style="1" customWidth="1"/>
+    <col min="5" max="1025" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4699,22 +4714,22 @@
       <selection pane="topRight" activeCell="I2" activeCellId="1" sqref="I10:I11 I2:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
-    <col min="2" max="3" width="9.1796875" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" style="54" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
-    <col min="7" max="7" width="26.453125" style="57" customWidth="1"/>
-    <col min="8" max="8" width="30.7265625" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.1796875" customWidth="1"/>
-    <col min="11" max="11" width="61.453125" style="95" customWidth="1"/>
-    <col min="12" max="12" width="52.453125" customWidth="1"/>
-    <col min="13" max="13" width="24.81640625" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" customWidth="1"/>
-    <col min="15" max="15" width="12.54296875" customWidth="1"/>
-    <col min="16" max="1026" width="9.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" style="54" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="57" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" customWidth="1"/>
+    <col min="11" max="11" width="61.42578125" style="95" customWidth="1"/>
+    <col min="12" max="12" width="52.42578125" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="1026" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="26.25" customHeight="1">
@@ -6923,7 +6938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" ht="24.75">
       <c r="A55" s="29" t="s">
         <v>1031</v>
       </c>
@@ -7133,7 +7148,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="36.5">
+    <row r="61" spans="1:15" ht="36.75">
       <c r="A61" s="29" t="s">
         <v>1044</v>
       </c>
@@ -7160,7 +7175,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="60.5">
+    <row r="62" spans="1:15" ht="72.75">
       <c r="A62" s="29" t="s">
         <v>1046</v>
       </c>
@@ -7265,7 +7280,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="24">
+    <row r="65" spans="1:15" ht="24.75">
       <c r="A65" s="29" t="s">
         <v>1055</v>
       </c>
@@ -7302,7 +7317,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="36.5">
+    <row r="66" spans="1:15" ht="48.75">
       <c r="A66" s="29" t="s">
         <v>1059</v>
       </c>
@@ -7570,7 +7585,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" ht="24.75">
       <c r="A74" s="29" t="s">
         <v>1077</v>
       </c>
@@ -7774,7 +7789,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="24.5">
+    <row r="80" spans="1:15" ht="36.75">
       <c r="A80" s="29" t="s">
         <v>1084</v>
       </c>
@@ -7805,7 +7820,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="60.5">
+    <row r="81" spans="1:15" ht="72.75">
       <c r="A81" s="29" t="s">
         <v>1086</v>
       </c>
@@ -7910,7 +7925,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="24">
+    <row r="84" spans="1:15" ht="24.75">
       <c r="A84" s="29" t="s">
         <v>1089</v>
       </c>
@@ -7947,7 +7962,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="36.5">
+    <row r="85" spans="1:15" ht="48.75">
       <c r="A85" s="29" t="s">
         <v>1090</v>
       </c>
@@ -8227,27 +8242,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AML77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
       <selection pane="topRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" style="9" customWidth="1"/>
-    <col min="3" max="5" width="16.81640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="33.81640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="9" customWidth="1"/>
+    <col min="3" max="5" width="16.85546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="48" style="9" customWidth="1"/>
-    <col min="11" max="11" width="49.26953125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="49.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="36" style="1" customWidth="1"/>
-    <col min="13" max="14" width="28.81640625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="30.453125" style="9" customWidth="1"/>
-    <col min="16" max="1026" width="9.1796875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="28.85546875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="30.42578125" style="9" customWidth="1"/>
+    <col min="16" max="1026" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" customHeight="1">
@@ -8991,7 +9006,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="42">
+    <row r="22" spans="1:15" ht="56.25">
       <c r="A22" s="29" t="s">
         <v>118</v>
       </c>
@@ -9026,7 +9041,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="21">
+    <row r="23" spans="1:15" ht="22.5">
       <c r="A23" s="29" t="s">
         <v>123</v>
       </c>
@@ -9312,7 +9327,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="36.5">
+    <row r="31" spans="1:15" ht="36.75">
       <c r="A31" s="11" t="s">
         <v>154</v>
       </c>
@@ -11049,23 +11064,23 @@
       <selection pane="topRight" activeCell="I38" sqref="I38:I110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="9" customWidth="1"/>
-    <col min="3" max="5" width="16.81640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="9" customWidth="1"/>
+    <col min="3" max="5" width="16.85546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="9" customWidth="1"/>
     <col min="7" max="7" width="29" style="43" customWidth="1"/>
     <col min="8" max="8" width="12" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.7265625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="36.26953125" style="44" customWidth="1"/>
-    <col min="12" max="12" width="29.54296875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="27.54296875" style="9" customWidth="1"/>
-    <col min="14" max="14" width="28.81640625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="13.7265625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="25.1796875" style="1" customWidth="1"/>
-    <col min="17" max="1026" width="9.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="36.28515625" style="44" customWidth="1"/>
+    <col min="12" max="12" width="29.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5703125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="28.85546875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="9" customWidth="1"/>
+    <col min="16" max="16" width="25.140625" style="1" customWidth="1"/>
+    <col min="17" max="1026" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -11257,7 +11272,7 @@
       </c>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:16" ht="48">
+    <row r="6" spans="1:16" ht="60">
       <c r="A6" s="45" t="s">
         <v>260</v>
       </c>
@@ -11749,7 +11764,7 @@
       <c r="O20" s="4"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16" ht="48">
+    <row r="21" spans="1:16" ht="60">
       <c r="A21" s="11" t="s">
         <v>299</v>
       </c>
@@ -11787,7 +11802,7 @@
       </c>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" ht="12">
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="24">
       <c r="A22" s="11" t="s">
         <v>300</v>
       </c>
@@ -12043,7 +12058,7 @@
       </c>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" ht="24">
       <c r="A30" s="11" t="s">
         <v>317</v>
       </c>
@@ -12352,7 +12367,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="24.5">
+    <row r="38" spans="1:16" ht="24.75">
       <c r="A38" s="11" t="s">
         <v>340</v>
       </c>
@@ -12395,7 +12410,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="36.5">
+    <row r="39" spans="1:16" ht="36.75">
       <c r="A39" s="11" t="s">
         <v>344</v>
       </c>
@@ -12804,7 +12819,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="24.5">
+    <row r="49" spans="1:16" ht="24.75">
       <c r="A49" s="11" t="s">
         <v>357</v>
       </c>
@@ -12888,7 +12903,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="24.5">
+    <row r="51" spans="1:16" ht="36.75">
       <c r="A51" s="11" t="s">
         <v>360</v>
       </c>
@@ -13080,7 +13095,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="48.5">
+    <row r="56" spans="1:16" ht="48.75">
       <c r="A56" s="11" t="s">
         <v>370</v>
       </c>
@@ -13160,7 +13175,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="24.5">
+    <row r="58" spans="1:16" ht="24.75">
       <c r="A58" s="11" t="s">
         <v>372</v>
       </c>
@@ -13199,7 +13214,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="24.5">
+    <row r="59" spans="1:16" ht="24.75">
       <c r="A59" s="11" t="s">
         <v>375</v>
       </c>
@@ -13238,7 +13253,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="24.5">
+    <row r="60" spans="1:16" ht="36.75">
       <c r="A60" s="11" t="s">
         <v>377</v>
       </c>
@@ -13322,7 +13337,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" ht="24.75">
       <c r="A62" s="11" t="s">
         <v>381</v>
       </c>
@@ -13406,7 +13421,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" ht="24.75">
       <c r="A64" s="11" t="s">
         <v>384</v>
       </c>
@@ -13490,7 +13505,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" ht="24.75">
       <c r="A66" s="11" t="s">
         <v>386</v>
       </c>
@@ -13574,7 +13589,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" ht="24.75">
       <c r="A68" s="11" t="s">
         <v>388</v>
       </c>
@@ -13830,7 +13845,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" ht="24.75">
       <c r="A74" s="11" t="s">
         <v>399</v>
       </c>
@@ -13990,7 +14005,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" ht="24.75">
       <c r="A78" s="11" t="s">
         <v>402</v>
       </c>
@@ -14114,7 +14129,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" ht="24.75">
       <c r="A81" s="11" t="s">
         <v>406</v>
       </c>
@@ -14198,7 +14213,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="36.5">
+    <row r="83" spans="1:16" ht="36.75">
       <c r="A83" s="11" t="s">
         <v>408</v>
       </c>
@@ -14238,7 +14253,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="24.5">
+    <row r="84" spans="1:16" ht="36.75">
       <c r="A84" s="11" t="s">
         <v>410</v>
       </c>
@@ -14322,7 +14337,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="48.5">
+    <row r="86" spans="1:16" ht="60.75">
       <c r="A86" s="11" t="s">
         <v>413</v>
       </c>
@@ -14396,7 +14411,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="36.5">
+    <row r="88" spans="1:16" ht="36.75">
       <c r="A88" s="11" t="s">
         <v>418</v>
       </c>
@@ -14506,7 +14521,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="24.5">
+    <row r="91" spans="1:16" ht="24.75">
       <c r="A91" s="11" t="s">
         <v>420</v>
       </c>
@@ -14545,7 +14560,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="24.5">
+    <row r="92" spans="1:16" ht="24.75">
       <c r="A92" s="11" t="s">
         <v>421</v>
       </c>
@@ -14584,7 +14599,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="24.5">
+    <row r="93" spans="1:16" ht="36.75">
       <c r="A93" s="11" t="s">
         <v>422</v>
       </c>
@@ -14668,7 +14683,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" ht="24.75">
       <c r="A95" s="11" t="s">
         <v>424</v>
       </c>
@@ -14752,7 +14767,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" ht="24.75">
       <c r="A97" s="11" t="s">
         <v>426</v>
       </c>
@@ -14836,7 +14851,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" ht="24.75">
       <c r="A99" s="11" t="s">
         <v>428</v>
       </c>
@@ -14920,7 +14935,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" ht="24.75">
       <c r="A101" s="11" t="s">
         <v>430</v>
       </c>
@@ -15252,7 +15267,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" ht="24.75">
       <c r="A109" s="11" t="s">
         <v>439</v>
       </c>
@@ -15353,21 +15368,21 @@
       <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="18.54296875" style="54" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="54" customWidth="1"/>
-    <col min="7" max="8" width="17.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.26953125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.453125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.26953125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="28.81640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="30.453125" style="1" customWidth="1"/>
-    <col min="16" max="1026" width="9.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="18.5703125" style="54" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="54" customWidth="1"/>
+    <col min="7" max="8" width="17.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="28.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="30.42578125" style="1" customWidth="1"/>
+    <col min="16" max="1026" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" ht="24">
@@ -15417,7 +15432,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:1026" s="106" customFormat="1" ht="60">
+    <row r="2" spans="1:1026" s="106" customFormat="1" ht="72">
       <c r="A2" s="55" t="s">
         <v>441</v>
       </c>
@@ -16478,21 +16493,21 @@
       <selection pane="topRight" activeCell="I11" activeCellId="5" sqref="I3 I4 I7 I8 I9 I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" style="54" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
-    <col min="7" max="9" width="23.54296875" customWidth="1"/>
-    <col min="10" max="10" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="46.1796875" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" style="57" customWidth="1"/>
-    <col min="14" max="14" width="28.81640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="30.453125" style="1" customWidth="1"/>
-    <col min="16" max="1026" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" style="54" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="57" customWidth="1"/>
+    <col min="14" max="14" width="28.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="30.42578125" style="1" customWidth="1"/>
+    <col min="16" max="1026" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24">
@@ -16542,7 +16557,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="24">
       <c r="A2" s="45" t="s">
         <v>447</v>
       </c>
@@ -16647,7 +16662,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="24">
       <c r="A6" s="45" t="s">
         <v>458</v>
       </c>
@@ -16829,7 +16844,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="24">
       <c r="A12" s="45" t="s">
         <v>474</v>
       </c>
@@ -16869,22 +16884,22 @@
       <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" style="54" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" style="54" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
     <col min="8" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="44.7265625" style="44" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.26953125" style="54" customWidth="1"/>
-    <col min="14" max="14" width="28.81640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="30.453125" style="1" customWidth="1"/>
-    <col min="16" max="1026" width="9.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="44.7109375" style="44" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="54" customWidth="1"/>
+    <col min="14" max="14" width="28.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="30.42578125" style="1" customWidth="1"/>
+    <col min="16" max="1026" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -16983,19 +16998,19 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.26953125" style="54" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="54" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="54" customWidth="1"/>
     <col min="3" max="3" width="20" style="54" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" style="54" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="54" customWidth="1"/>
-    <col min="7" max="9" width="17.26953125" style="54" customWidth="1"/>
-    <col min="10" max="11" width="14.7265625" style="54" customWidth="1"/>
-    <col min="12" max="13" width="9.1796875" style="54" customWidth="1"/>
-    <col min="14" max="14" width="28.81640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="30.453125" style="1" customWidth="1"/>
-    <col min="16" max="1026" width="9.1796875" style="54" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" style="54" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="54" customWidth="1"/>
+    <col min="7" max="9" width="17.28515625" style="54" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="54" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="54" customWidth="1"/>
+    <col min="14" max="14" width="28.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="30.42578125" style="1" customWidth="1"/>
+    <col min="16" max="1026" width="9.140625" style="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24">
@@ -17174,23 +17189,23 @@
       <selection pane="topRight" activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" style="54" customWidth="1"/>
-    <col min="6" max="6" width="19.7265625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" style="64" customWidth="1"/>
-    <col min="8" max="8" width="28.54296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" style="54" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" style="64" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40" style="1" customWidth="1"/>
-    <col min="11" max="11" width="41.81640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="51.1796875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.453125" style="9" customWidth="1"/>
-    <col min="14" max="14" width="28.81640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="30.453125" style="1" customWidth="1"/>
-    <col min="16" max="1026" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="41.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="51.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="28.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="30.42578125" style="1" customWidth="1"/>
+    <col min="16" max="1026" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -17384,7 +17399,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="24">
       <c r="A6" s="11" t="s">
         <v>494</v>
       </c>
@@ -17755,7 +17770,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" ht="24">
       <c r="A17" s="74" t="s">
         <v>520</v>
       </c>
@@ -18008,7 +18023,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" ht="24">
       <c r="A24" s="45" t="s">
         <v>535</v>
       </c>
@@ -18284,7 +18299,7 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" ht="24">
       <c r="A32" s="45" t="s">
         <v>550</v>
       </c>
@@ -18488,7 +18503,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" ht="24">
       <c r="A38" s="74" t="s">
         <v>556</v>
       </c>
@@ -18741,7 +18756,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" ht="24">
       <c r="A45" s="45" t="s">
         <v>563</v>
       </c>
@@ -19015,7 +19030,7 @@
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" ht="24">
       <c r="A53" s="45" t="s">
         <v>571</v>
       </c>
@@ -19196,7 +19211,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="36">
+    <row r="58" spans="1:15" ht="48">
       <c r="A58" s="11" t="s">
         <v>579</v>
       </c>
@@ -19231,7 +19246,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="36">
+    <row r="59" spans="1:15" ht="48">
       <c r="A59" s="11" t="s">
         <v>582</v>
       </c>
@@ -19266,7 +19281,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="36">
+    <row r="60" spans="1:15" ht="48">
       <c r="A60" s="11" t="s">
         <v>583</v>
       </c>
@@ -19301,7 +19316,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="36">
+    <row r="61" spans="1:15" ht="48">
       <c r="A61" s="11" t="s">
         <v>586</v>
       </c>
@@ -19336,7 +19351,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="36">
+    <row r="62" spans="1:15" ht="48">
       <c r="A62" s="11" t="s">
         <v>587</v>
       </c>
@@ -19371,7 +19386,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="36">
+    <row r="63" spans="1:15" ht="48">
       <c r="A63" s="11" t="s">
         <v>588</v>
       </c>
@@ -19406,7 +19421,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="36">
+    <row r="64" spans="1:15" ht="48">
       <c r="A64" s="11" t="s">
         <v>589</v>
       </c>
@@ -19441,7 +19456,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="36">
+    <row r="65" spans="1:15" ht="48">
       <c r="A65" s="11" t="s">
         <v>590</v>
       </c>
@@ -19513,7 +19528,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="24">
+    <row r="67" spans="1:15" ht="36">
       <c r="A67" s="11" t="s">
         <v>595</v>
       </c>
@@ -19550,7 +19565,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="36">
+    <row r="68" spans="1:15" ht="48">
       <c r="A68" s="11" t="s">
         <v>596</v>
       </c>
@@ -19585,7 +19600,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="36">
+    <row r="69" spans="1:15" ht="48">
       <c r="A69" s="11" t="s">
         <v>597</v>
       </c>
@@ -19620,7 +19635,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="36">
+    <row r="70" spans="1:15" ht="48">
       <c r="A70" s="11" t="s">
         <v>598</v>
       </c>
@@ -19655,7 +19670,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="36">
+    <row r="71" spans="1:15" ht="48">
       <c r="A71" s="11" t="s">
         <v>599</v>
       </c>
@@ -19690,7 +19705,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="36">
+    <row r="72" spans="1:15" ht="48">
       <c r="A72" s="11" t="s">
         <v>600</v>
       </c>
@@ -19725,7 +19740,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="36">
+    <row r="73" spans="1:15" ht="48">
       <c r="A73" s="11" t="s">
         <v>601</v>
       </c>
@@ -19760,7 +19775,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="36">
+    <row r="74" spans="1:15" ht="48">
       <c r="A74" s="11" t="s">
         <v>602</v>
       </c>
@@ -19795,7 +19810,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="36">
+    <row r="75" spans="1:15" ht="48">
       <c r="A75" s="11" t="s">
         <v>603</v>
       </c>
@@ -21057,7 +21072,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="24">
+    <row r="109" spans="1:15" ht="36">
       <c r="A109" s="11" t="s">
         <v>671</v>
       </c>
@@ -21166,7 +21181,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="24">
+    <row r="112" spans="1:15" ht="36">
       <c r="A112" s="11" t="s">
         <v>682</v>
       </c>
@@ -22778,29 +22793,29 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I72" activeCellId="4" sqref="I96:I103 I90:I93 I86:I87 I80:I81 I72:I75"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="9" customWidth="1"/>
     <col min="3" max="5" width="30" style="9" customWidth="1"/>
-    <col min="6" max="6" width="18.54296875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="9" customWidth="1"/>
     <col min="7" max="7" width="20" style="43" customWidth="1"/>
-    <col min="8" max="8" width="27.26953125" style="43" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" style="43" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="43" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" style="43" customWidth="1"/>
-    <col min="11" max="11" width="37.54296875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="37.5703125" style="9" customWidth="1"/>
     <col min="12" max="12" width="52" style="1" customWidth="1"/>
-    <col min="13" max="13" width="24.7265625" style="57" customWidth="1"/>
-    <col min="14" max="14" width="28.81640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="30.453125" style="1" customWidth="1"/>
-    <col min="16" max="1026" width="9.1796875" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" style="57" customWidth="1"/>
+    <col min="14" max="14" width="28.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="30.42578125" style="1" customWidth="1"/>
+    <col min="16" max="1026" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -22883,7 +22898,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="36">
+    <row r="3" spans="1:15" ht="48">
       <c r="A3" s="11" t="s">
         <v>774</v>
       </c>
@@ -23727,7 +23742,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="48">
+    <row r="29" spans="1:15" ht="60">
       <c r="A29" s="11" t="s">
         <v>828</v>
       </c>
@@ -23985,32 +24000,28 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="96">
+    <row r="37" spans="1:15">
       <c r="A37" s="11" t="s">
-        <v>841</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>770</v>
-      </c>
+        <v>1109</v>
+      </c>
+      <c r="B37" s="17"/>
       <c r="C37" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="5">
-        <v>0</v>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="48" t="s">
+        <v>1110</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>95</v>
+        <v>1111</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="16" t="s">
         <v>1099</v>
       </c>
       <c r="J37" s="16"/>
-      <c r="K37" s="25" t="s">
-        <v>842</v>
-      </c>
+      <c r="K37" s="25"/>
       <c r="L37" s="79"/>
       <c r="M37" s="60" t="s">
         <v>773</v>
@@ -24020,35 +24031,33 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="96">
+    <row r="38" spans="1:15" ht="120">
       <c r="A38" s="11" t="s">
-        <v>843</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>788</v>
+        <v>841</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>770</v>
       </c>
       <c r="C38" s="48" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="48"/>
       <c r="E38" s="48"/>
-      <c r="F38" s="16" t="s">
-        <v>844</v>
+      <c r="F38" s="5">
+        <v>0</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="H38" s="16" t="s">
-        <v>845</v>
-      </c>
+      <c r="H38" s="16"/>
       <c r="I38" s="16" t="s">
         <v>1099</v>
       </c>
       <c r="J38" s="16"/>
       <c r="K38" s="25" t="s">
-        <v>846</v>
-      </c>
-      <c r="L38" s="83"/>
+        <v>842</v>
+      </c>
+      <c r="L38" s="79"/>
       <c r="M38" s="60" t="s">
         <v>773</v>
       </c>
@@ -24057,12 +24066,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" ht="96">
       <c r="A39" s="11" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>848</v>
+        <v>788</v>
       </c>
       <c r="C39" s="48" t="s">
         <v>43</v>
@@ -24070,7 +24079,7 @@
       <c r="D39" s="48"/>
       <c r="E39" s="48"/>
       <c r="F39" s="16" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>95</v>
@@ -24083,7 +24092,7 @@
       </c>
       <c r="J39" s="16"/>
       <c r="K39" s="25" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="L39" s="83"/>
       <c r="M39" s="60" t="s">
@@ -24094,35 +24103,35 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="24">
+    <row r="40" spans="1:15">
       <c r="A40" s="11" t="s">
-        <v>851</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>852</v>
+        <v>847</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>848</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>780</v>
+        <v>43</v>
       </c>
       <c r="D40" s="48"/>
       <c r="E40" s="48"/>
-      <c r="F40" s="16">
-        <v>3.5</v>
+      <c r="F40" s="16" t="s">
+        <v>849</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>807</v>
+      <c r="H40" s="16" t="s">
+        <v>845</v>
       </c>
       <c r="I40" s="16" t="s">
         <v>1099</v>
       </c>
       <c r="J40" s="16"/>
       <c r="K40" s="25" t="s">
-        <v>853</v>
-      </c>
-      <c r="L40" s="53"/>
+        <v>850</v>
+      </c>
+      <c r="L40" s="83"/>
       <c r="M40" s="60" t="s">
         <v>773</v>
       </c>
@@ -24131,23 +24140,35 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="45" t="s">
-        <v>854</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>791</v>
-      </c>
-      <c r="C41" s="48"/>
+    <row r="41" spans="1:15" ht="24">
+      <c r="A41" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>780</v>
+      </c>
       <c r="D41" s="48"/>
       <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
+      <c r="F41" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>1099</v>
+      </c>
       <c r="J41" s="16"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="79"/>
+      <c r="K41" s="25" t="s">
+        <v>853</v>
+      </c>
+      <c r="L41" s="53"/>
       <c r="M41" s="60" t="s">
         <v>773</v>
       </c>
@@ -24158,7 +24179,7 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="45" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>791</v>
@@ -24181,33 +24202,23 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="36">
-      <c r="A43" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="C43" s="48" t="s">
-        <v>43</v>
-      </c>
+    <row r="43" spans="1:15">
+      <c r="A43" s="45" t="s">
+        <v>855</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="C43" s="48"/>
       <c r="D43" s="48"/>
       <c r="E43" s="48"/>
-      <c r="F43" s="17" t="s">
-        <v>857</v>
-      </c>
-      <c r="G43" s="87" t="s">
-        <v>858</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>859</v>
-      </c>
-      <c r="I43" s="16" t="s">
-        <v>1099</v>
-      </c>
+      <c r="F43" s="48"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
       <c r="J43" s="16"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="88"/>
+      <c r="L43" s="79"/>
       <c r="M43" s="60" t="s">
         <v>773</v>
       </c>
@@ -24216,27 +24227,33 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="45" t="s">
-        <v>860</v>
-      </c>
-      <c r="B44" s="16"/>
+    <row r="44" spans="1:15" ht="36">
+      <c r="A44" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>281</v>
+      </c>
       <c r="C44" s="48" t="s">
         <v>43</v>
       </c>
       <c r="D44" s="48"/>
       <c r="E44" s="48"/>
-      <c r="F44" s="48">
-        <v>0</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>861</v>
-      </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
+      <c r="F44" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="G44" s="87" t="s">
+        <v>858</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>1099</v>
+      </c>
       <c r="J44" s="16"/>
       <c r="K44" s="25"/>
-      <c r="L44" s="79"/>
+      <c r="L44" s="88"/>
       <c r="M44" s="60" t="s">
         <v>773</v>
       </c>
@@ -24247,19 +24264,25 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="45" t="s">
-        <v>862</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="48"/>
+        <v>860</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="48" t="s">
+        <v>43</v>
+      </c>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
+      <c r="F45" s="48">
+        <v>0</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>861</v>
+      </c>
+      <c r="H45" s="16"/>
       <c r="I45" s="16"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="79"/>
       <c r="M45" s="60" t="s">
         <v>773</v>
       </c>
@@ -24269,28 +24292,18 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="11" t="s">
-        <v>863</v>
+      <c r="A46" s="45" t="s">
+        <v>862</v>
       </c>
       <c r="B46" s="14"/>
-      <c r="C46" s="48" t="s">
-        <v>43</v>
-      </c>
+      <c r="C46" s="48"/>
       <c r="D46" s="48"/>
       <c r="E46" s="48"/>
-      <c r="F46" s="48">
-        <v>4.62</v>
-      </c>
-      <c r="G46" s="48" t="s">
-        <v>14</v>
-      </c>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
       <c r="H46" s="48"/>
-      <c r="I46" s="16" t="s">
-        <v>1099</v>
-      </c>
-      <c r="J46" s="48" t="s">
-        <v>864</v>
-      </c>
+      <c r="I46" s="16"/>
+      <c r="J46" s="48"/>
       <c r="K46" s="48"/>
       <c r="L46" s="48"/>
       <c r="M46" s="60" t="s">
@@ -24301,33 +24314,31 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="24">
+    <row r="47" spans="1:15">
       <c r="A47" s="11" t="s">
-        <v>865</v>
-      </c>
-      <c r="B47" s="16"/>
+        <v>863</v>
+      </c>
+      <c r="B47" s="14"/>
       <c r="C47" s="48" t="s">
         <v>43</v>
       </c>
       <c r="D47" s="48"/>
       <c r="E47" s="48"/>
-      <c r="F47" s="16">
-        <v>0.23</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>807</v>
-      </c>
+      <c r="F47" s="48">
+        <v>4.62</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="48"/>
       <c r="I47" s="16" t="s">
         <v>1099</v>
       </c>
-      <c r="J47" s="16"/>
-      <c r="K47" s="25" t="s">
-        <v>866</v>
-      </c>
-      <c r="L47" s="80"/>
+      <c r="J47" s="48" t="s">
+        <v>864</v>
+      </c>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
       <c r="M47" s="60" t="s">
         <v>773</v>
       </c>
@@ -24336,20 +24347,18 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" ht="24">
       <c r="A48" s="11" t="s">
-        <v>867</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>16</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="B48" s="16"/>
       <c r="C48" s="48" t="s">
-        <v>780</v>
+        <v>43</v>
       </c>
       <c r="D48" s="48"/>
       <c r="E48" s="48"/>
-      <c r="F48" s="48">
-        <v>7</v>
+      <c r="F48" s="16">
+        <v>0.23</v>
       </c>
       <c r="G48" s="16" t="s">
         <v>95</v>
@@ -24361,22 +24370,24 @@
         <v>1099</v>
       </c>
       <c r="J48" s="16"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="79"/>
+      <c r="K48" s="25" t="s">
+        <v>866</v>
+      </c>
+      <c r="L48" s="80"/>
       <c r="M48" s="60" t="s">
         <v>773</v>
       </c>
       <c r="N48" s="4"/>
       <c r="O48" s="4" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="24">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="11" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>869</v>
+        <v>16</v>
       </c>
       <c r="C49" s="48" t="s">
         <v>780</v>
@@ -24384,7 +24395,7 @@
       <c r="D49" s="48"/>
       <c r="E49" s="48"/>
       <c r="F49" s="48">
-        <v>0.08</v>
+        <v>7</v>
       </c>
       <c r="G49" s="16" t="s">
         <v>95</v>
@@ -24396,21 +24407,19 @@
         <v>1099</v>
       </c>
       <c r="J49" s="16"/>
-      <c r="K49" s="25" t="s">
-        <v>870</v>
-      </c>
+      <c r="K49" s="25"/>
       <c r="L49" s="79"/>
       <c r="M49" s="60" t="s">
         <v>773</v>
       </c>
       <c r="N49" s="4"/>
       <c r="O49" s="4" t="s">
-        <v>92</v>
+        <v>778</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="24">
       <c r="A50" s="11" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>869</v>
@@ -24421,8 +24430,7 @@
       <c r="D50" s="48"/>
       <c r="E50" s="48"/>
       <c r="F50" s="48">
-        <f>0.002*12</f>
-        <v>2.4E-2</v>
+        <v>0.08</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>95</v>
@@ -24435,9 +24443,9 @@
       </c>
       <c r="J50" s="16"/>
       <c r="K50" s="25" t="s">
-        <v>872</v>
-      </c>
-      <c r="L50" s="53"/>
+        <v>870</v>
+      </c>
+      <c r="L50" s="79"/>
       <c r="M50" s="60" t="s">
         <v>773</v>
       </c>
@@ -24446,20 +24454,21 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="36">
+    <row r="51" spans="1:15" ht="24">
       <c r="A51" s="11" t="s">
-        <v>873</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>852</v>
+        <v>871</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>869</v>
       </c>
       <c r="C51" s="48" t="s">
         <v>780</v>
       </c>
       <c r="D51" s="48"/>
       <c r="E51" s="48"/>
-      <c r="F51" s="16">
-        <v>3.3500000000000002E-2</v>
+      <c r="F51" s="48">
+        <f>0.002*12</f>
+        <v>2.4E-2</v>
       </c>
       <c r="G51" s="16" t="s">
         <v>95</v>
@@ -24472,7 +24481,7 @@
       </c>
       <c r="J51" s="16"/>
       <c r="K51" s="25" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="L51" s="53"/>
       <c r="M51" s="60" t="s">
@@ -24483,23 +24492,35 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="45" t="s">
-        <v>875</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>813</v>
-      </c>
-      <c r="C52" s="48"/>
+    <row r="52" spans="1:15" ht="36">
+      <c r="A52" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>780</v>
+      </c>
       <c r="D52" s="48"/>
       <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
+      <c r="F52" s="16">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>1099</v>
+      </c>
       <c r="J52" s="16"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="79"/>
+      <c r="K52" s="25" t="s">
+        <v>874</v>
+      </c>
+      <c r="L52" s="53"/>
       <c r="M52" s="60" t="s">
         <v>773</v>
       </c>
@@ -24508,35 +24529,22 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="45.75" customHeight="1">
-      <c r="A53" s="11" t="s">
-        <v>876</v>
+    <row r="53" spans="1:15">
+      <c r="A53" s="45" t="s">
+        <v>875</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>869</v>
-      </c>
-      <c r="C53" s="48" t="s">
-        <v>780</v>
-      </c>
+        <v>813</v>
+      </c>
+      <c r="C53" s="48"/>
       <c r="D53" s="48"/>
       <c r="E53" s="48"/>
-      <c r="F53" s="48">
-        <f>0.007*12</f>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="I53" s="16" t="s">
-        <v>1099</v>
-      </c>
+      <c r="F53" s="48"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
       <c r="J53" s="16"/>
-      <c r="K53" s="25" t="s">
-        <v>877</v>
-      </c>
+      <c r="K53" s="25"/>
       <c r="L53" s="79"/>
       <c r="M53" s="60" t="s">
         <v>773</v>
@@ -24546,22 +24554,35 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="45" t="s">
-        <v>878</v>
+    <row r="54" spans="1:15" ht="45.75" customHeight="1">
+      <c r="A54" s="11" t="s">
+        <v>876</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>791</v>
-      </c>
-      <c r="C54" s="48"/>
+        <v>869</v>
+      </c>
+      <c r="C54" s="48" t="s">
+        <v>780</v>
+      </c>
       <c r="D54" s="48"/>
       <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
+      <c r="F54" s="48">
+        <f>0.007*12</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>1099</v>
+      </c>
       <c r="J54" s="16"/>
-      <c r="K54" s="25"/>
+      <c r="K54" s="25" t="s">
+        <v>877</v>
+      </c>
       <c r="L54" s="79"/>
       <c r="M54" s="60" t="s">
         <v>773</v>
@@ -24572,29 +24593,19 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="11" t="s">
-        <v>879</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>770</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="48">
-        <v>-1</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="H55" s="16" t="s">
-        <v>829</v>
-      </c>
-      <c r="I55" s="16" t="s">
-        <v>1100</v>
-      </c>
+      <c r="A55" s="45" t="s">
+        <v>878</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
       <c r="J55" s="16"/>
       <c r="K55" s="25"/>
       <c r="L55" s="79"/>
@@ -24614,12 +24625,12 @@
         <v>770</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
       <c r="F56" s="48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G56" s="16" t="s">
         <v>95</v>
@@ -24643,24 +24654,24 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="11" t="s">
-        <v>880</v>
-      </c>
-      <c r="B57" s="16" t="s">
+        <v>879</v>
+      </c>
+      <c r="B57" s="17" t="s">
         <v>770</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" s="48">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>881</v>
+        <v>829</v>
       </c>
       <c r="I57" s="16" t="s">
         <v>1100</v>
@@ -24684,12 +24695,12 @@
         <v>770</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" s="48">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>14</v>
@@ -24713,32 +24724,30 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="11" t="s">
-        <v>882</v>
-      </c>
-      <c r="B59" s="17" t="s">
+        <v>880</v>
+      </c>
+      <c r="B59" s="16" t="s">
         <v>770</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
-      <c r="F59" s="85">
-        <v>-8</v>
+      <c r="F59" s="48">
+        <v>7.2</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>823</v>
+        <v>14</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>881</v>
       </c>
       <c r="I59" s="16" t="s">
         <v>1100</v>
       </c>
       <c r="J59" s="16"/>
-      <c r="K59" s="25" t="s">
-        <v>883</v>
-      </c>
+      <c r="K59" s="25"/>
       <c r="L59" s="79"/>
       <c r="M59" s="60" t="s">
         <v>773</v>
@@ -24748,7 +24757,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" ht="24">
       <c r="A60" s="11" t="s">
         <v>882</v>
       </c>
@@ -24756,12 +24765,12 @@
         <v>770</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" s="85">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="G60" s="16" t="s">
         <v>95</v>
@@ -24785,31 +24794,33 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" ht="24">
       <c r="A61" s="11" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B61" s="17" t="s">
         <v>770</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
-      <c r="F61" s="86">
-        <v>-5.4</v>
+      <c r="F61" s="85">
+        <v>-5</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" s="8"/>
+        <v>95</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>823</v>
+      </c>
       <c r="I61" s="16" t="s">
         <v>1100</v>
       </c>
       <c r="J61" s="16"/>
       <c r="K61" s="25" t="s">
-        <v>825</v>
+        <v>883</v>
       </c>
       <c r="L61" s="79"/>
       <c r="M61" s="60" t="s">
@@ -24828,12 +24839,12 @@
         <v>770</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="86">
-        <v>0</v>
+        <v>-5.4</v>
       </c>
       <c r="G62" s="16" t="s">
         <v>14</v>
@@ -24843,7 +24854,9 @@
         <v>1100</v>
       </c>
       <c r="J62" s="16"/>
-      <c r="K62" s="25"/>
+      <c r="K62" s="25" t="s">
+        <v>825</v>
+      </c>
       <c r="L62" s="79"/>
       <c r="M62" s="60" t="s">
         <v>773</v>
@@ -24855,25 +24868,23 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="11" t="s">
-        <v>885</v>
-      </c>
-      <c r="B63" s="16" t="s">
+        <v>884</v>
+      </c>
+      <c r="B63" s="17" t="s">
         <v>770</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
-      <c r="F63" s="48">
-        <v>5</v>
+      <c r="F63" s="86">
+        <v>0</v>
       </c>
       <c r="G63" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H63" s="16" t="s">
-        <v>881</v>
-      </c>
+      <c r="H63" s="8"/>
       <c r="I63" s="16" t="s">
         <v>1100</v>
       </c>
@@ -24896,12 +24907,12 @@
         <v>770</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
       <c r="F64" s="48">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>14</v>
@@ -24923,33 +24934,31 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="24">
+    <row r="65" spans="1:15">
       <c r="A65" s="11" t="s">
-        <v>886</v>
-      </c>
-      <c r="B65" s="17" t="s">
+        <v>885</v>
+      </c>
+      <c r="B65" s="16" t="s">
         <v>770</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="48">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>771</v>
+        <v>14</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>1099</v>
-      </c>
-      <c r="J65" s="16" t="s">
-        <v>888</v>
-      </c>
+        <v>1100</v>
+      </c>
+      <c r="J65" s="16"/>
       <c r="K65" s="25"/>
       <c r="L65" s="79"/>
       <c r="M65" s="60" t="s">
@@ -24968,7 +24977,7 @@
         <v>770</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
@@ -24997,31 +25006,33 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" ht="24">
       <c r="A67" s="11" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B67" s="17" t="s">
         <v>770</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="48">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>95</v>
+        <v>771</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>829</v>
+        <v>887</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>1100</v>
-      </c>
-      <c r="J67" s="16"/>
+        <v>1099</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>888</v>
+      </c>
       <c r="K67" s="25"/>
       <c r="L67" s="79"/>
       <c r="M67" s="60" t="s">
@@ -25040,12 +25051,12 @@
         <v>770</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
       <c r="F68" s="48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G68" s="16" t="s">
         <v>95</v>
@@ -25068,157 +25079,147 @@
       </c>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="B69" s="2" t="s">
+      <c r="A69" s="11" t="s">
+        <v>889</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="48">
         <v>1</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G69" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H69" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>1098</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L69" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="M69" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N69" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O69" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="25.5" customHeight="1">
+      <c r="G69" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>829</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J69" s="16"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="79"/>
+      <c r="M69" s="60" t="s">
+        <v>773</v>
+      </c>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="11" t="s">
-        <v>890</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>770</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>368</v>
+        <v>1107</v>
+      </c>
+      <c r="B70" s="17"/>
+      <c r="C70" s="48" t="s">
+        <v>43</v>
       </c>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
-      <c r="F70" s="89" t="s">
-        <v>891</v>
+      <c r="F70" s="48">
+        <v>0.8</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="16" t="s">
-        <v>892</v>
-      </c>
+        <v>1108</v>
+      </c>
+      <c r="H70" s="16"/>
       <c r="I70" s="16" t="s">
-        <v>1100</v>
-      </c>
-      <c r="J70" s="16" t="s">
-        <v>893</v>
-      </c>
-      <c r="K70" s="25" t="s">
-        <v>894</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="J70" s="16"/>
+      <c r="K70" s="25"/>
       <c r="L70" s="79"/>
       <c r="M70" s="60" t="s">
-        <v>895</v>
+        <v>773</v>
       </c>
       <c r="N70" s="4"/>
       <c r="O70" s="4" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="24">
-      <c r="A71" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G71" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H71" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L71" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="M71" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N71" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O71" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="25.5" customHeight="1">
+      <c r="A72" s="11" t="s">
         <v>890</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B72" s="16" t="s">
         <v>770</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="89" t="s">
-        <v>897</v>
-      </c>
-      <c r="G71" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" s="16" t="s">
-        <v>892</v>
-      </c>
-      <c r="I71" s="16" t="s">
-        <v>1100</v>
-      </c>
-      <c r="J71" s="16" t="s">
-        <v>893</v>
-      </c>
-      <c r="K71" s="25" t="s">
-        <v>894</v>
-      </c>
-      <c r="L71" s="79"/>
-      <c r="M71" s="60" t="s">
-        <v>895</v>
-      </c>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="24">
-      <c r="A72" s="11" t="s">
-        <v>898</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>190</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>368</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
-      <c r="F72" s="16" t="s">
-        <v>899</v>
-      </c>
-      <c r="G72" s="87" t="s">
-        <v>900</v>
+      <c r="F72" s="89" t="s">
+        <v>891</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>1099</v>
-      </c>
-      <c r="J72" s="16"/>
+        <v>1100</v>
+      </c>
+      <c r="J72" s="16" t="s">
+        <v>893</v>
+      </c>
       <c r="K72" s="25" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="L72" s="79"/>
       <c r="M72" s="60" t="s">
@@ -25226,47 +25227,51 @@
       </c>
       <c r="N72" s="4"/>
       <c r="O72" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="24">
       <c r="A73" s="11" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>190</v>
+        <v>770</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>365</v>
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
-      <c r="F73" s="90">
-        <v>120</v>
-      </c>
-      <c r="G73" s="48" t="s">
-        <v>95</v>
+      <c r="F73" s="89" t="s">
+        <v>897</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>1099</v>
-      </c>
-      <c r="J73" s="16"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="53"/>
+        <v>1100</v>
+      </c>
+      <c r="J73" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="K73" s="25" t="s">
+        <v>894</v>
+      </c>
+      <c r="L73" s="79"/>
       <c r="M73" s="60" t="s">
         <v>895</v>
       </c>
       <c r="N73" s="4"/>
       <c r="O73" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="24">
       <c r="A74" s="11" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="B74" s="16" t="s">
         <v>190</v>
@@ -25276,32 +25281,34 @@
       </c>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
-      <c r="F74" s="48" t="s">
-        <v>905</v>
-      </c>
-      <c r="G74" s="48" t="s">
-        <v>95</v>
+      <c r="F74" s="16" t="s">
+        <v>899</v>
+      </c>
+      <c r="G74" s="87" t="s">
+        <v>900</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="I74" s="16" t="s">
         <v>1099</v>
       </c>
       <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
+      <c r="K74" s="25" t="s">
+        <v>902</v>
+      </c>
       <c r="L74" s="79"/>
       <c r="M74" s="60" t="s">
         <v>895</v>
       </c>
       <c r="N74" s="4"/>
       <c r="O74" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="30" customHeight="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="11" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="B75" s="16" t="s">
         <v>190</v>
@@ -25311,112 +25318,104 @@
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
-      <c r="F75" s="16" t="s">
-        <v>907</v>
-      </c>
-      <c r="G75" s="87" t="s">
-        <v>900</v>
+      <c r="F75" s="90">
+        <v>120</v>
+      </c>
+      <c r="G75" s="48" t="s">
+        <v>95</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="I75" s="16" t="s">
         <v>1099</v>
       </c>
       <c r="J75" s="16"/>
-      <c r="K75" s="25" t="s">
-        <v>908</v>
-      </c>
-      <c r="L75" s="79"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="53"/>
       <c r="M75" s="60" t="s">
         <v>895</v>
       </c>
       <c r="N75" s="4"/>
       <c r="O75" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="24">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="11" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>770</v>
+        <v>190</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>368</v>
       </c>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
-      <c r="F76" s="48">
-        <v>1028.2</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>14</v>
+      <c r="F76" s="48" t="s">
+        <v>905</v>
+      </c>
+      <c r="G76" s="48" t="s">
+        <v>95</v>
       </c>
       <c r="H76" s="16" t="s">
-        <v>881</v>
+        <v>906</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>1100</v>
-      </c>
-      <c r="J76" s="16" t="s">
-        <v>893</v>
-      </c>
-      <c r="K76" s="25" t="s">
-        <v>910</v>
-      </c>
-      <c r="L76" s="53"/>
+        <v>1099</v>
+      </c>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="79"/>
       <c r="M76" s="60" t="s">
         <v>895</v>
       </c>
       <c r="N76" s="4"/>
       <c r="O76" s="4" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="24">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="30" customHeight="1">
       <c r="A77" s="11" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>770</v>
+        <v>190</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>365</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
-      <c r="F77" s="48">
-        <v>1025.7</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>14</v>
+      <c r="F77" s="16" t="s">
+        <v>907</v>
+      </c>
+      <c r="G77" s="87" t="s">
+        <v>900</v>
       </c>
       <c r="H77" s="16" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>1100</v>
-      </c>
-      <c r="J77" s="16" t="s">
-        <v>893</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="J77" s="16"/>
       <c r="K77" s="25" t="s">
-        <v>910</v>
-      </c>
-      <c r="L77" s="53"/>
+        <v>908</v>
+      </c>
+      <c r="L77" s="79"/>
       <c r="M77" s="60" t="s">
         <v>895</v>
       </c>
       <c r="N77" s="4"/>
       <c r="O77" s="4" t="s">
-        <v>896</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="24">
       <c r="A78" s="11" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B78" s="16" t="s">
         <v>770</v>
@@ -25455,7 +25454,7 @@
     </row>
     <row r="79" spans="1:15" ht="24">
       <c r="A79" s="11" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>770</v>
@@ -25492,161 +25491,161 @@
         <v>896</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" ht="24">
       <c r="A80" s="11" t="s">
-        <v>912</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>852</v>
-      </c>
-      <c r="C80" s="48" t="s">
-        <v>913</v>
-      </c>
-      <c r="D80" s="48"/>
-      <c r="E80" s="48"/>
-      <c r="F80" s="91">
-        <v>0.03</v>
-      </c>
-      <c r="G80" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>807</v>
+        <v>911</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>770</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="48">
+        <v>1028.2</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="16" t="s">
+        <v>881</v>
       </c>
       <c r="I80" s="16" t="s">
-        <v>1099</v>
-      </c>
-      <c r="J80" s="16"/>
-      <c r="K80" s="4" t="s">
-        <v>914</v>
-      </c>
-      <c r="L80" s="92"/>
+        <v>1100</v>
+      </c>
+      <c r="J80" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="K80" s="25" t="s">
+        <v>910</v>
+      </c>
+      <c r="L80" s="53"/>
       <c r="M80" s="60" t="s">
         <v>895</v>
       </c>
       <c r="N80" s="4"/>
       <c r="O80" s="4" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="24">
       <c r="A81" s="11" t="s">
-        <v>912</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>852</v>
-      </c>
-      <c r="C81" s="48" t="s">
-        <v>915</v>
-      </c>
-      <c r="D81" s="48"/>
-      <c r="E81" s="48"/>
-      <c r="F81" s="4">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="G81" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>807</v>
+        <v>911</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>770</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="48">
+        <v>1025.7</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="16" t="s">
+        <v>881</v>
       </c>
       <c r="I81" s="16" t="s">
-        <v>1099</v>
-      </c>
-      <c r="J81" s="16"/>
-      <c r="K81" s="4" t="s">
-        <v>916</v>
-      </c>
-      <c r="L81" s="92"/>
+        <v>1100</v>
+      </c>
+      <c r="J81" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="K81" s="25" t="s">
+        <v>910</v>
+      </c>
+      <c r="L81" s="53"/>
       <c r="M81" s="60" t="s">
         <v>895</v>
       </c>
       <c r="N81" s="4"/>
       <c r="O81" s="4" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="24">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" s="11" t="s">
-        <v>917</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>770</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="16" t="s">
-        <v>918</v>
-      </c>
-      <c r="G82" s="16" t="s">
-        <v>919</v>
-      </c>
-      <c r="H82" s="16" t="s">
-        <v>920</v>
+        <v>912</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="C82" s="48" t="s">
+        <v>913</v>
+      </c>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="91">
+        <v>0.03</v>
+      </c>
+      <c r="G82" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>807</v>
       </c>
       <c r="I82" s="16" t="s">
-        <v>1100</v>
-      </c>
-      <c r="J82" s="16" t="s">
-        <v>893</v>
-      </c>
-      <c r="K82" s="25" t="s">
-        <v>921</v>
-      </c>
-      <c r="L82" s="79"/>
+        <v>1099</v>
+      </c>
+      <c r="J82" s="16"/>
+      <c r="K82" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="L82" s="92"/>
       <c r="M82" s="60" t="s">
         <v>895</v>
       </c>
       <c r="N82" s="4"/>
       <c r="O82" s="4" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="24">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="11" t="s">
-        <v>917</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>770</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="16" t="s">
-        <v>922</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>919</v>
-      </c>
-      <c r="H83" s="16" t="s">
-        <v>920</v>
+        <v>912</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="C83" s="48" t="s">
+        <v>915</v>
+      </c>
+      <c r="D83" s="48"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="4">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G83" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>807</v>
       </c>
       <c r="I83" s="16" t="s">
-        <v>1100</v>
-      </c>
-      <c r="J83" s="16" t="s">
-        <v>893</v>
-      </c>
-      <c r="K83" s="25" t="s">
-        <v>921</v>
-      </c>
-      <c r="L83" s="79"/>
+        <v>1099</v>
+      </c>
+      <c r="J83" s="16"/>
+      <c r="K83" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="L83" s="92"/>
       <c r="M83" s="60" t="s">
         <v>895</v>
       </c>
       <c r="N83" s="4"/>
       <c r="O83" s="4" t="s">
-        <v>896</v>
+        <v>778</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="24">
       <c r="A84" s="11" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="B84" s="16" t="s">
         <v>770</v>
@@ -25672,7 +25671,7 @@
         <v>893</v>
       </c>
       <c r="K84" s="25" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="L84" s="79"/>
       <c r="M84" s="60" t="s">
@@ -25685,7 +25684,7 @@
     </row>
     <row r="85" spans="1:15" ht="24">
       <c r="A85" s="11" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>770</v>
@@ -25711,7 +25710,7 @@
         <v>893</v>
       </c>
       <c r="K85" s="25" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="L85" s="79"/>
       <c r="M85" s="60" t="s">
@@ -25724,31 +25723,33 @@
     </row>
     <row r="86" spans="1:15" ht="24">
       <c r="A86" s="11" t="s">
-        <v>925</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>852</v>
-      </c>
-      <c r="C86" s="48" t="s">
-        <v>913</v>
-      </c>
-      <c r="D86" s="48"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="4">
-        <v>1.26E-2</v>
-      </c>
-      <c r="G86" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>807</v>
+        <v>923</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>770</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="16" t="s">
+        <v>918</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>919</v>
+      </c>
+      <c r="H86" s="16" t="s">
+        <v>920</v>
       </c>
       <c r="I86" s="16" t="s">
-        <v>1099</v>
-      </c>
-      <c r="J86" s="16"/>
-      <c r="K86" s="16" t="s">
-        <v>926</v>
+        <v>1100</v>
+      </c>
+      <c r="J86" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="K86" s="25" t="s">
+        <v>924</v>
       </c>
       <c r="L86" s="79"/>
       <c r="M86" s="60" t="s">
@@ -25756,36 +25757,38 @@
       </c>
       <c r="N86" s="4"/>
       <c r="O86" s="4" t="s">
-        <v>92</v>
+        <v>896</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="24">
       <c r="A87" s="11" t="s">
-        <v>925</v>
-      </c>
-      <c r="B87" s="17" t="s">
-        <v>852</v>
-      </c>
-      <c r="C87" s="48" t="s">
-        <v>915</v>
-      </c>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="4">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="G87" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>807</v>
+        <v>923</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>770</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="16" t="s">
+        <v>922</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>919</v>
+      </c>
+      <c r="H87" s="16" t="s">
+        <v>920</v>
       </c>
       <c r="I87" s="16" t="s">
-        <v>1099</v>
-      </c>
-      <c r="J87" s="16"/>
-      <c r="K87" s="16" t="s">
-        <v>927</v>
+        <v>1100</v>
+      </c>
+      <c r="J87" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="K87" s="25" t="s">
+        <v>924</v>
       </c>
       <c r="L87" s="79"/>
       <c r="M87" s="60" t="s">
@@ -25793,108 +25796,110 @@
       </c>
       <c r="N87" s="4"/>
       <c r="O87" s="4" t="s">
-        <v>92</v>
+        <v>896</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="24">
       <c r="A88" s="11" t="s">
-        <v>928</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>770</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="16" t="s">
-        <v>918</v>
-      </c>
-      <c r="G88" s="16" t="s">
-        <v>919</v>
-      </c>
-      <c r="H88" s="16" t="s">
-        <v>920</v>
+        <v>925</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="C88" s="48" t="s">
+        <v>913</v>
+      </c>
+      <c r="D88" s="48"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="4">
+        <v>1.26E-2</v>
+      </c>
+      <c r="G88" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>807</v>
       </c>
       <c r="I88" s="16" t="s">
-        <v>1100</v>
-      </c>
-      <c r="J88" s="16" t="s">
-        <v>893</v>
-      </c>
-      <c r="K88" s="25"/>
+        <v>1099</v>
+      </c>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16" t="s">
+        <v>926</v>
+      </c>
       <c r="L88" s="79"/>
       <c r="M88" s="60" t="s">
         <v>895</v>
       </c>
       <c r="N88" s="4"/>
       <c r="O88" s="4" t="s">
-        <v>896</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="24">
       <c r="A89" s="11" t="s">
-        <v>928</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>770</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="16" t="s">
-        <v>922</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>919</v>
-      </c>
-      <c r="H89" s="16" t="s">
-        <v>920</v>
+        <v>925</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="C89" s="48" t="s">
+        <v>915</v>
+      </c>
+      <c r="D89" s="48"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="4">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="G89" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>807</v>
       </c>
       <c r="I89" s="16" t="s">
-        <v>1100</v>
-      </c>
-      <c r="J89" s="16" t="s">
-        <v>893</v>
-      </c>
-      <c r="K89" s="25"/>
+        <v>1099</v>
+      </c>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16" t="s">
+        <v>927</v>
+      </c>
       <c r="L89" s="79"/>
       <c r="M89" s="60" t="s">
         <v>895</v>
       </c>
       <c r="N89" s="4"/>
       <c r="O89" s="4" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="36">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="24">
       <c r="A90" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C90" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="D90" s="48"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="93" t="s">
-        <v>930</v>
-      </c>
-      <c r="G90" s="87" t="s">
-        <v>931</v>
+        <v>770</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="16" t="s">
+        <v>918</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>919</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="I90" s="16" t="s">
-        <v>1099</v>
-      </c>
-      <c r="J90" s="16"/>
+        <v>1100</v>
+      </c>
+      <c r="J90" s="16" t="s">
+        <v>893</v>
+      </c>
       <c r="K90" s="25"/>
       <c r="L90" s="79"/>
       <c r="M90" s="60" t="s">
@@ -25902,109 +25907,107 @@
       </c>
       <c r="N90" s="4"/>
       <c r="O90" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="39" customHeight="1">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="24">
       <c r="A91" s="11" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C91" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="D91" s="48"/>
-      <c r="E91" s="48"/>
+        <v>770</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
       <c r="F91" s="16" t="s">
-        <v>934</v>
-      </c>
-      <c r="G91" s="87" t="s">
-        <v>935</v>
+        <v>922</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>919</v>
       </c>
       <c r="H91" s="16" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="I91" s="16" t="s">
-        <v>1099</v>
-      </c>
-      <c r="J91" s="16"/>
-      <c r="K91"/>
+        <v>1100</v>
+      </c>
+      <c r="J91" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="K91" s="25"/>
       <c r="L91" s="79"/>
       <c r="M91" s="60" t="s">
         <v>895</v>
       </c>
       <c r="N91" s="4"/>
       <c r="O91" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="24">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="36">
       <c r="A92" s="11" t="s">
-        <v>937</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>852</v>
+        <v>929</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>190</v>
       </c>
       <c r="C92" s="48" t="s">
-        <v>913</v>
+        <v>43</v>
       </c>
       <c r="D92" s="48"/>
       <c r="E92" s="48"/>
-      <c r="F92" s="4">
-        <v>1.54E-2</v>
-      </c>
-      <c r="G92" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>807</v>
+      <c r="F92" s="93" t="s">
+        <v>930</v>
+      </c>
+      <c r="G92" s="87" t="s">
+        <v>931</v>
+      </c>
+      <c r="H92" s="16" t="s">
+        <v>932</v>
       </c>
       <c r="I92" s="16" t="s">
         <v>1099</v>
       </c>
       <c r="J92" s="16"/>
-      <c r="K92" s="16" t="s">
-        <v>926</v>
-      </c>
+      <c r="K92" s="25"/>
       <c r="L92" s="79"/>
       <c r="M92" s="60" t="s">
         <v>895</v>
       </c>
       <c r="N92" s="4"/>
       <c r="O92" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="24">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="39" customHeight="1">
       <c r="A93" s="11" t="s">
-        <v>937</v>
-      </c>
-      <c r="B93" s="17" t="s">
-        <v>852</v>
+        <v>933</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>190</v>
       </c>
       <c r="C93" s="48" t="s">
-        <v>915</v>
+        <v>43</v>
       </c>
       <c r="D93" s="48"/>
       <c r="E93" s="48"/>
-      <c r="F93" s="4">
-        <v>1.9300000000000001E-2</v>
-      </c>
-      <c r="G93" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>807</v>
+      <c r="F93" s="16" t="s">
+        <v>934</v>
+      </c>
+      <c r="G93" s="87" t="s">
+        <v>935</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>936</v>
       </c>
       <c r="I93" s="16" t="s">
         <v>1099</v>
       </c>
       <c r="J93" s="16"/>
-      <c r="K93" s="16" t="s">
-        <v>927</v>
-      </c>
+      <c r="K93"/>
       <c r="L93" s="79"/>
       <c r="M93" s="60" t="s">
         <v>895</v>
@@ -26016,103 +26019,105 @@
     </row>
     <row r="94" spans="1:15" ht="24">
       <c r="A94" s="11" t="s">
-        <v>938</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>770</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="16" t="s">
-        <v>918</v>
-      </c>
-      <c r="G94" s="16" t="s">
-        <v>919</v>
-      </c>
-      <c r="H94" s="16" t="s">
-        <v>920</v>
+        <v>937</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="C94" s="48" t="s">
+        <v>913</v>
+      </c>
+      <c r="D94" s="48"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="4">
+        <v>1.54E-2</v>
+      </c>
+      <c r="G94" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>807</v>
       </c>
       <c r="I94" s="16" t="s">
-        <v>1100</v>
-      </c>
-      <c r="J94" s="16" t="s">
-        <v>893</v>
-      </c>
-      <c r="K94" s="25"/>
+        <v>1099</v>
+      </c>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16" t="s">
+        <v>926</v>
+      </c>
       <c r="L94" s="79"/>
       <c r="M94" s="60" t="s">
         <v>895</v>
       </c>
       <c r="N94" s="4"/>
       <c r="O94" s="4" t="s">
-        <v>896</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="24">
       <c r="A95" s="11" t="s">
-        <v>938</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>770</v>
-      </c>
-      <c r="C95" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="16" t="s">
-        <v>922</v>
-      </c>
-      <c r="G95" s="16" t="s">
-        <v>919</v>
-      </c>
-      <c r="H95" s="16" t="s">
-        <v>920</v>
+        <v>937</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="C95" s="48" t="s">
+        <v>915</v>
+      </c>
+      <c r="D95" s="48"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="4">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="G95" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>807</v>
       </c>
       <c r="I95" s="16" t="s">
-        <v>1100</v>
-      </c>
-      <c r="J95" s="16" t="s">
-        <v>893</v>
-      </c>
-      <c r="K95" s="25"/>
+        <v>1099</v>
+      </c>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16" t="s">
+        <v>927</v>
+      </c>
       <c r="L95" s="79"/>
       <c r="M95" s="60" t="s">
         <v>895</v>
       </c>
       <c r="N95" s="4"/>
       <c r="O95" s="4" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="36">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="24">
       <c r="A96" s="11" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C96" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="D96" s="48"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="93" t="s">
-        <v>930</v>
-      </c>
-      <c r="G96" s="87" t="s">
-        <v>931</v>
+        <v>770</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="16" t="s">
+        <v>918</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>919</v>
       </c>
       <c r="H96" s="16" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="I96" s="16" t="s">
-        <v>1099</v>
-      </c>
-      <c r="J96" s="16"/>
+        <v>1100</v>
+      </c>
+      <c r="J96" s="16" t="s">
+        <v>893</v>
+      </c>
       <c r="K96" s="25"/>
       <c r="L96" s="79"/>
       <c r="M96" s="60" t="s">
@@ -26120,34 +26125,36 @@
       </c>
       <c r="N96" s="4"/>
       <c r="O96" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="36.75" customHeight="1">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="24">
       <c r="A97" s="11" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C97" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="D97" s="48"/>
-      <c r="E97" s="48"/>
+        <v>770</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
       <c r="F97" s="16" t="s">
-        <v>934</v>
-      </c>
-      <c r="G97" s="87" t="s">
-        <v>935</v>
+        <v>922</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>919</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="I97" s="16" t="s">
-        <v>1099</v>
-      </c>
-      <c r="J97" s="16"/>
+        <v>1100</v>
+      </c>
+      <c r="J97" s="16" t="s">
+        <v>893</v>
+      </c>
       <c r="K97" s="25"/>
       <c r="L97" s="79"/>
       <c r="M97" s="60" t="s">
@@ -26155,110 +26162,106 @@
       </c>
       <c r="N97" s="4"/>
       <c r="O97" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="36">
       <c r="A98" s="11" t="s">
-        <v>941</v>
-      </c>
-      <c r="B98" s="17" t="s">
-        <v>852</v>
+        <v>939</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>190</v>
       </c>
       <c r="C98" s="48" t="s">
-        <v>780</v>
+        <v>43</v>
       </c>
       <c r="D98" s="48"/>
       <c r="E98" s="48"/>
-      <c r="F98" s="94">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="G98" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>807</v>
+      <c r="F98" s="93" t="s">
+        <v>930</v>
+      </c>
+      <c r="G98" s="87" t="s">
+        <v>931</v>
+      </c>
+      <c r="H98" s="16" t="s">
+        <v>932</v>
       </c>
       <c r="I98" s="16" t="s">
         <v>1099</v>
       </c>
       <c r="J98" s="16"/>
-      <c r="K98" s="16" t="s">
-        <v>942</v>
-      </c>
+      <c r="K98" s="25"/>
       <c r="L98" s="79"/>
       <c r="M98" s="60" t="s">
         <v>895</v>
       </c>
       <c r="N98" s="4"/>
       <c r="O98" s="4" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="36.75" customHeight="1">
       <c r="A99" s="11" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B99" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="C99" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
+      <c r="C99" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D99" s="48"/>
+      <c r="E99" s="48"/>
       <c r="F99" s="16" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="G99" s="87" t="s">
-        <v>95</v>
+        <v>935</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="I99" s="16" t="s">
         <v>1099</v>
       </c>
       <c r="J99" s="16"/>
-      <c r="K99" s="25" t="s">
-        <v>946</v>
-      </c>
+      <c r="K99" s="25"/>
       <c r="L99" s="79"/>
       <c r="M99" s="60" t="s">
         <v>895</v>
       </c>
       <c r="N99" s="4"/>
       <c r="O99" s="4" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="11" t="s">
-        <v>947</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C100" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="48" t="s">
-        <v>948</v>
+        <v>941</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="C100" s="48" t="s">
+        <v>780</v>
+      </c>
+      <c r="D100" s="48"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="94">
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="G100" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="H100" s="16" t="s">
-        <v>945</v>
+      <c r="H100" s="8" t="s">
+        <v>807</v>
       </c>
       <c r="I100" s="16" t="s">
         <v>1099</v>
       </c>
       <c r="J100" s="16"/>
-      <c r="K100" s="25" t="s">
-        <v>946</v>
+      <c r="K100" s="16" t="s">
+        <v>942</v>
       </c>
       <c r="L100" s="79"/>
       <c r="M100" s="60" t="s">
@@ -26266,36 +26269,36 @@
       </c>
       <c r="N100" s="4"/>
       <c r="O100" s="4" t="s">
-        <v>92</v>
+        <v>778</v>
       </c>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="11" t="s">
-        <v>949</v>
-      </c>
-      <c r="B101" s="17" t="s">
-        <v>852</v>
-      </c>
-      <c r="C101" s="48" t="s">
-        <v>780</v>
-      </c>
-      <c r="D101" s="48"/>
-      <c r="E101" s="48"/>
-      <c r="F101" s="82">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="G101" s="48" t="s">
+        <v>943</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="16" t="s">
+        <v>944</v>
+      </c>
+      <c r="G101" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="H101" s="8" t="s">
-        <v>807</v>
+      <c r="H101" s="16" t="s">
+        <v>945</v>
       </c>
       <c r="I101" s="16" t="s">
         <v>1099</v>
       </c>
       <c r="J101" s="16"/>
-      <c r="K101" s="16" t="s">
-        <v>950</v>
+      <c r="K101" s="25" t="s">
+        <v>946</v>
       </c>
       <c r="L101" s="79"/>
       <c r="M101" s="60" t="s">
@@ -26303,12 +26306,12 @@
       </c>
       <c r="N101" s="4"/>
       <c r="O101" s="4" t="s">
-        <v>778</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="11" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B102" s="16" t="s">
         <v>190</v>
@@ -26318,10 +26321,10 @@
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="19"/>
-      <c r="F102" s="16" t="s">
-        <v>944</v>
-      </c>
-      <c r="G102" s="87" t="s">
+      <c r="F102" s="48" t="s">
+        <v>948</v>
+      </c>
+      <c r="G102" s="48" t="s">
         <v>95</v>
       </c>
       <c r="H102" s="16" t="s">
@@ -26340,36 +26343,36 @@
       </c>
       <c r="N102" s="4"/>
       <c r="O102" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" ht="14.25" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" s="11" t="s">
-        <v>952</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C103" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="48" t="s">
-        <v>948</v>
+        <v>949</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="C103" s="48" t="s">
+        <v>780</v>
+      </c>
+      <c r="D103" s="48"/>
+      <c r="E103" s="48"/>
+      <c r="F103" s="82">
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="G103" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="H103" s="16" t="s">
-        <v>945</v>
+      <c r="H103" s="8" t="s">
+        <v>807</v>
       </c>
       <c r="I103" s="16" t="s">
         <v>1099</v>
       </c>
       <c r="J103" s="16"/>
-      <c r="K103" s="25" t="s">
-        <v>946</v>
+      <c r="K103" s="16" t="s">
+        <v>950</v>
       </c>
       <c r="L103" s="79"/>
       <c r="M103" s="60" t="s">
@@ -26377,6 +26380,80 @@
       </c>
       <c r="N103" s="4"/>
       <c r="O103" s="4" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="11" t="s">
+        <v>951</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="16" t="s">
+        <v>944</v>
+      </c>
+      <c r="G104" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="H104" s="16" t="s">
+        <v>945</v>
+      </c>
+      <c r="I104" s="16" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J104" s="16"/>
+      <c r="K104" s="25" t="s">
+        <v>946</v>
+      </c>
+      <c r="L104" s="79"/>
+      <c r="M104" s="60" t="s">
+        <v>895</v>
+      </c>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A105" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="48" t="s">
+        <v>948</v>
+      </c>
+      <c r="G105" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H105" s="16" t="s">
+        <v>945</v>
+      </c>
+      <c r="I105" s="16" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J105" s="16"/>
+      <c r="K105" s="25" t="s">
+        <v>946</v>
+      </c>
+      <c r="L105" s="79"/>
+      <c r="M105" s="60" t="s">
+        <v>895</v>
+      </c>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4" t="s">
         <v>92</v>
       </c>
     </row>

--- a/data/human/adult/validation/SystemValidationData.xlsx
+++ b/data/human/adult/validation/SystemValidationData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\documentation\source\data\human\adult\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90BC3F6-9178-4A61-B441-9A1276E6EA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87100431-5CC4-4BE7-8FFE-FEE2BA989BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23490" yWindow="3615" windowWidth="27480" windowHeight="23535" tabRatio="500" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4728" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4729" uniqueCount="1113">
   <si>
     <t>Patient Inputs</t>
   </si>
@@ -3508,6 +3508,9 @@
   </si>
   <si>
     <t>cala2004vd</t>
+  </si>
+  <si>
+    <t>[0.8, 1.0]</t>
   </si>
 </sst>
 </file>
@@ -22795,9 +22798,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G37" sqref="G37"/>
+      <selection pane="topRight" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25123,8 +25126,8 @@
       </c>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
-      <c r="F70" s="48">
-        <v>0.8</v>
+      <c r="F70" s="48" t="s">
+        <v>1112</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>1108</v>
